--- a/日程.xlsx
+++ b/日程.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -80,6 +80,29 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>资料分析40题</t>
+    <rPh sb="0" eb="1">
+      <t>zi liao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料分析60题</t>
+    <rPh sb="0" eb="1">
+      <t>zi liao fen xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +136,24 @@
       <patternFill patternType="gray0625">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.39991454817346722"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -223,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,7 +290,13 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -532,7 +579,7 @@
   <dimension ref="B3:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F9" sqref="F9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,14 +665,16 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="N6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="14"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -694,11 +743,13 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="F9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1325,8 +1376,10 @@
     </row>
     <row r="34" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -94,7 +94,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资料分析60题</t>
+    <t>图推15题</t>
+    <rPh sb="0" eb="1">
+      <t>tu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熬果酱</t>
+    <rPh sb="0" eb="1">
+      <t>ao guo jiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guo jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐麟资料1.5h</t>
+    <rPh sb="0" eb="1">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料80题+李委明资料视频1.5h</t>
+    <rPh sb="0" eb="1">
+      <t>zi liao fen xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料分析20题</t>
     <rPh sb="0" eb="1">
       <t>zi liao fen xi</t>
     </rPh>
@@ -125,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +202,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -181,17 +233,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -264,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,29 +315,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -305,6 +356,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB9C9"/>
+      <color rgb="FFFF6B7F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -578,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:J9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,64 +648,64 @@
     <row r="3" spans="2:21" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:21" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:21" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>0.375</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>0.41666666666666702</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>0.45833333333333298</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>0.5</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>0.54166666666666696</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>0.58333333333333304</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="9">
         <v>0.625</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="9">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="9">
         <v>0.70833333333333304</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="9">
         <v>0.75</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="9">
         <v>0.79166666666666696</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="9">
         <v>0.83333333333333304</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="9">
         <v>0.875</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="9">
         <v>0.91666666666666696</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="9">
         <v>0.95833333333333304</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="10">
         <v>1</v>
       </c>
     </row>
@@ -665,16 +722,16 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="14"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -725,7 +782,9 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -744,20 +803,26 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="16"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="R9" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="4"/>
@@ -1309,8 +1374,12 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="3">
+        <v>43956</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1331,8 +1400,12 @@
       <c r="U31" s="4"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="3">
+        <v>43957</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1353,33 +1426,38 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="8"/>
+      <c r="B33" s="3">
+        <v>43958</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="6"/>
     </row>
     <row r="34" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
-    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="N9:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -141,6 +141,29 @@
   </si>
   <si>
     <t>资料分析20题</t>
+    <rPh sb="0" eb="1">
+      <t>zi liao fen xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐麟资料2.5h</t>
+    <rPh sb="0" eb="1">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>lin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料分析40题</t>
     <rPh sb="0" eb="1">
       <t>zi liao fen xi</t>
     </rPh>
@@ -635,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,12 +859,16 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="F10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1453,7 +1480,8 @@
     </row>
     <row r="34" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="F9:L9"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -107,16 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熬果酱</t>
-    <rPh sb="0" eb="1">
-      <t>ao guo jiang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>guo jiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>齐麟资料1.5h</t>
     <rPh sb="0" eb="1">
       <t>qi</t>
@@ -169,6 +159,61 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熬果酱1h</t>
+    <rPh sb="0" eb="1">
+      <t>ao guo jiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>guo jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语60题</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡金龙类比0.5h+50题</t>
+    <rPh sb="0" eb="1">
+      <t>cai jin long</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lei bi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标时长h的一般是看视频</t>
+    <rPh sb="0" eb="1">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi chang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi ban</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kan shi pin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +273,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBDEFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E8FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +430,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -381,6 +447,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFD4E8FF"/>
+      <color rgb="FFA8DBDF"/>
+      <color rgb="FFEBDEFA"/>
       <color rgb="FFFFB9C9"/>
       <color rgb="FFFF6B7F"/>
     </mruColors>
@@ -656,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U34"/>
+  <dimension ref="B1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,6 +737,40 @@
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
     <row r="3" spans="2:21" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:21" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:21" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -826,7 +929,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -835,16 +938,16 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="O9" s="16"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -860,19 +963,23 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="1"/>
       <c r="K10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="19"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1480,8 +1587,11 @@
     </row>
     <row r="34" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="F10:I10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B1:O2"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="F9:L9"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -130,16 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资料分析20题</t>
-    <rPh sb="0" eb="1">
-      <t>zi liao fen xi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>齐麟资料2.5h</t>
     <rPh sb="0" eb="1">
       <t>qi</t>
@@ -153,26 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资料分析40题</t>
-    <rPh sb="0" eb="1">
-      <t>zi liao fen xi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熬果酱1h</t>
-    <rPh sb="0" eb="1">
-      <t>ao guo jiang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>guo jiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>言语60题</t>
     <rPh sb="0" eb="1">
       <t>yan yu</t>
@@ -196,24 +166,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标时长h的一般是看视频</t>
-    <rPh sb="0" eb="1">
-      <t>biao</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shi chang</t>
+    <t>类推100题</t>
+    <rPh sb="0" eb="1">
+      <t>lei tui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类推120题</t>
+    <rPh sb="0" eb="1">
+      <t>lei tui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐麟资料1h</t>
+    <rPh sb="0" eb="1">
+      <t>qi lin zi liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料40题</t>
+    <rPh sb="0" eb="1">
+      <t>zi liao fen xi</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>de</t>
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料20题</t>
+    <rPh sb="0" eb="1">
+      <t>zi liao fen xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类推100题+蔡金龙定义1h</t>
+    <rPh sb="0" eb="1">
+      <t>lei tui</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>yi ban</t>
+      <t>ti</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>shi</t>
+      <t>cai jin long</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ding yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料40题+齐麟资料1h</t>
+    <rPh sb="0" eb="1">
+      <t>zi liao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义50题</t>
+    <rPh sb="0" eb="1">
+      <t>ding yi pan duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标时长h的一般是看视频or教材or笔记，总之不是在刷题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷了两天剧……</t>
+    <rPh sb="0" eb="1">
+      <t>shua le</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang tian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义60题</t>
+    <rPh sb="0" eb="1">
+      <t>ding yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义40题</t>
+    <rPh sb="0" eb="1">
+      <t>ding yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h蔡金龙逻辑</t>
+    <rPh sb="4" eb="5">
+      <t>cai jin long</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>luo ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷懒的一天</t>
+    <rPh sb="0" eb="1">
+      <t>tou lan y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de yi ti o an</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑30题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷懒的两天，累计学习时间&lt;2h</t>
+    <rPh sb="0" eb="1">
+      <t>tou lan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de liang tian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lei ji</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>kan shi pin</t>
+      <t>xue xi shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡金龙逻辑2h+逻辑约100题</t>
+    <rPh sb="0" eb="1">
+      <t>cai jin long</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>luo ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>luo ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,12 +409,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB9C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEBDEFA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -288,8 +419,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -381,11 +518,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,6 +557,35 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,25 +595,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -727,49 +890,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="2:21" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:21" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -828,11 +992,11 @@
       <c r="S5" s="9">
         <v>0.91666666666666696</v>
       </c>
-      <c r="T5" s="9">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="U5" s="10">
+      <c r="T5" s="10">
         <v>1</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
@@ -848,21 +1012,21 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="12"/>
+      <c r="O6" s="23"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
@@ -888,8 +1052,10 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
@@ -908,7 +1074,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="O8" s="1"/>
@@ -916,8 +1082,8 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
@@ -928,29 +1094,27 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="16" t="s">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="16"/>
+      <c r="O9" s="19"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="17" t="s">
-        <v>15</v>
+      <c r="R9" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
@@ -962,29 +1126,31 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="17" t="s">
+      <c r="M10" s="20"/>
+      <c r="N10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="19"/>
+      <c r="O10" s="18"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="S10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
@@ -996,21 +1162,31 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="K11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="S11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
@@ -1022,21 +1198,27 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="F12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="K12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="18"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
@@ -1053,17 +1235,21 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
@@ -1072,23 +1258,25 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="D14" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="27"/>
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
@@ -1098,23 +1286,23 @@
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="27"/>
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
@@ -1124,23 +1312,27 @@
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" s="25"/>
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
@@ -1166,7 +1358,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
@@ -1192,7 +1384,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
@@ -1218,7 +1410,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
@@ -1244,7 +1436,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
@@ -1270,7 +1462,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
@@ -1296,7 +1488,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
@@ -1322,7 +1514,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
@@ -1348,7 +1540,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
@@ -1374,7 +1566,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
@@ -1400,7 +1592,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
@@ -1426,7 +1618,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
@@ -1452,7 +1644,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
@@ -1478,7 +1670,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
@@ -1504,7 +1696,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
+      <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
@@ -1530,7 +1722,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+      <c r="T31" s="4"/>
       <c r="U31" s="4"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
@@ -1556,7 +1748,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
+      <c r="T32" s="4"/>
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1582,20 +1774,27 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
+      <c r="T33" s="6"/>
       <c r="U33" s="6"/>
     </row>
     <row r="34" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
+  <mergeCells count="15">
+    <mergeCell ref="D14:T15"/>
+    <mergeCell ref="F16:J16"/>
     <mergeCell ref="B1:O2"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="N9:O9"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -320,22 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>偷懒的两天，累计学习时间&lt;2h</t>
-    <rPh sb="0" eb="1">
-      <t>tou lan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>de liang tian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>lei ji</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xue xi shi jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蔡金龙逻辑2h+逻辑约100题</t>
     <rPh sb="0" eb="1">
       <t>cai jin long</t>
@@ -350,6 +334,141 @@
       <t>yue</t>
     </rPh>
     <rPh sb="14" eb="15">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料20题</t>
+    <rPh sb="0" eb="1">
+      <t>zi liao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词语复习</t>
+    <rPh sb="0" eb="1">
+      <t>ci yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两天累计学习2h</t>
+    <rPh sb="0" eb="1">
+      <t>liang tian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xue xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载B站钟君</t>
+    <rPh sb="0" eb="1">
+      <t>xia zai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ç√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理</t>
+    <rPh sb="0" eb="1">
+      <t>tui li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料</t>
+    <rPh sb="0" eb="1">
+      <t>zi liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论</t>
+    <rPh sb="0" eb="1">
+      <t>shen lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常识</t>
+    <rPh sb="0" eb="1">
+      <t>chang shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量模块宝典4h</t>
+    <rPh sb="0" eb="1">
+      <t>shu liang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo kuai bao dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职复习满一个月</t>
+    <rPh sb="0" eb="1">
+      <t>quan zhi fu xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>man</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi ge yue le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语45题</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu li jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常识20题</t>
+    <rPh sb="0" eb="1">
+      <t>chang shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +541,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEB94A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF75A992"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,12 +689,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,35 +702,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -610,11 +755,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF75A992"/>
+      <color rgb="FF75B3AF"/>
+      <color rgb="FF44B3AF"/>
+      <color rgb="FFEB94A0"/>
       <color rgb="FFD4E8FF"/>
-      <color rgb="FFA8DBDF"/>
-      <color rgb="FFEBDEFA"/>
+      <color rgb="FFAEE8CA"/>
+      <color rgb="FF3BB5B0"/>
+      <color rgb="FFD793CA"/>
+      <color rgb="FF34D769"/>
       <color rgb="FFFFB9C9"/>
-      <color rgb="FFFF6B7F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -888,56 +1038,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="21" max="21" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-    </row>
-    <row r="3" spans="2:21" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:21" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:21" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:21" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:21" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>43931</v>
       </c>
@@ -1012,16 +1183,16 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="23"/>
+      <c r="O6" s="28"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1029,7 +1200,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>43932</v>
       </c>
@@ -1053,11 +1224,11 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>43933</v>
       </c>
@@ -1074,7 +1245,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="O8" s="1"/>
@@ -1083,9 +1254,9 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="17"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U8" s="24"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>43934</v>
       </c>
@@ -1094,30 +1265,30 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>43935</v>
       </c>
@@ -1126,24 +1297,24 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="18" t="s">
+      <c r="M10" s="31"/>
+      <c r="N10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="18"/>
+      <c r="O10" s="25"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1153,7 +1324,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>43936</v>
       </c>
@@ -1165,22 +1336,22 @@
       <c r="F11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="18" t="s">
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="14" t="s">
@@ -1189,7 +1360,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>43937</v>
       </c>
@@ -1198,20 +1369,20 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="1"/>
       <c r="K12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="18"/>
+      <c r="M12" s="25"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1221,7 +1392,7 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>43938</v>
       </c>
@@ -1251,61 +1422,61 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>43939</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>43940</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="24"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>43941</v>
       </c>
@@ -1314,13 +1485,13 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="F16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -1329,10 +1500,10 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="13" t="s">
+      <c r="S16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="25"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
@@ -1344,22 +1515,36 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="K17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>49</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="U17" s="16" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
@@ -1779,8 +1964,9 @@
     </row>
     <row r="34" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D14:T15"/>
+  <mergeCells count="16">
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="U14:U15"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="B1:O2"/>
     <mergeCell ref="J6:K6"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -470,6 +470,16 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成语复习</t>
+    <rPh sb="0" eb="1">
+      <t>cheng yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu xi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1040,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1550,9 @@
         <v>49</v>
       </c>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="S17" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="T17" s="4"/>
       <c r="U17" s="16" t="s">
         <v>47</v>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -480,6 +480,109 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>fu xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h成语复习</t>
+    <rPh sb="4" eb="5">
+      <t>cheng yu fu xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量刷题3h</t>
+    <rPh sb="0" eb="1">
+      <t>shu liang shua ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量刷题</t>
+    <rPh sb="0" eb="1">
+      <t>shu laing shua ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量刷题1.5h</t>
+    <rPh sb="0" eb="1">
+      <t>shu liang shu ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shua ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量2.5h</t>
+    <rPh sb="0" eb="1">
+      <t>shu liang guan xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h数量+20min运动</t>
+    <rPh sb="4" eb="5">
+      <t>shu liang gun xi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yun dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量1.5h</t>
+    <rPh sb="0" eb="1">
+      <t>shu liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语0.5h</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语1h</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu shua ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语2h</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语1.5h</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语3h(早上到下午宝典复习了一遍）</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zao shang dao xia wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao dian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fu xi le yi bian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -724,6 +827,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,15 +861,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -765,14 +871,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFEB94A0"/>
+      <color rgb="FFD793CA"/>
       <color rgb="FF75A992"/>
       <color rgb="FF75B3AF"/>
       <color rgb="FF44B3AF"/>
-      <color rgb="FFEB94A0"/>
       <color rgb="FFD4E8FF"/>
       <color rgb="FFAEE8CA"/>
       <color rgb="FF3BB5B0"/>
-      <color rgb="FFD793CA"/>
       <color rgb="FF34D769"/>
       <color rgb="FFFFB9C9"/>
     </mruColors>
@@ -1048,39 +1154,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="21" max="21" width="24.1640625" customWidth="1"/>
+    <col min="22" max="22" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
       <c r="P1" s="17" t="s">
         <v>40</v>
       </c>
@@ -1091,34 +1197,34 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="32" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="25" t="s">
         <v>45</v>
       </c>
       <c r="R2" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:21" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:21" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:22" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:22" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1173,14 +1279,17 @@
       <c r="S5" s="9">
         <v>0.91666666666666696</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="9">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="U5" s="10">
         <v>1</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="V5" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>43931</v>
       </c>
@@ -1193,24 +1302,25 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="28"/>
+      <c r="O6" s="32"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="4"/>
+      <c r="T6" s="1"/>
       <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>43932</v>
       </c>
@@ -1233,12 +1343,13 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="24" t="s">
+      <c r="T7" s="1"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>43933</v>
       </c>
@@ -1263,10 +1374,11 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="24"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T8" s="1"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="28"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>43934</v>
       </c>
@@ -1275,30 +1387,31 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="30"/>
+      <c r="O9" s="34"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="S9" s="1"/>
-      <c r="T9" s="4"/>
+      <c r="T9" s="1"/>
       <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>43935</v>
       </c>
@@ -1307,34 +1420,35 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="1"/>
       <c r="K10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="25" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="25"/>
+      <c r="O10" s="29"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="4"/>
+      <c r="T10" s="1"/>
       <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>43936</v>
       </c>
@@ -1352,25 +1466,26 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="25" t="s">
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T11" s="4"/>
+      <c r="T11" s="1"/>
       <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>43937</v>
       </c>
@@ -1379,30 +1494,31 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="1"/>
       <c r="K12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="25"/>
+      <c r="M12" s="29"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="4"/>
+      <c r="T12" s="1"/>
       <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>43938</v>
       </c>
@@ -1415,7 +1531,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="K13" s="14" t="s">
         <v>33</v>
       </c>
@@ -1427,12 +1545,13 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="16" t="s">
+      <c r="T13" s="1"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>43939</v>
       </c>
@@ -1455,12 +1574,13 @@
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="24" t="s">
+      <c r="T14" s="19"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>43940</v>
       </c>
@@ -1483,10 +1603,11 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="24"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T15" s="19"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="28"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>43941</v>
       </c>
@@ -1495,13 +1616,13 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -1513,10 +1634,11 @@
       <c r="S16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="18"/>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T16" s="1"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>43942</v>
       </c>
@@ -1536,29 +1658,30 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
       <c r="P17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="Q17" s="25" t="s">
         <v>49</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="16" t="s">
+      <c r="T17" s="1"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>43943</v>
       </c>
@@ -1567,24 +1690,33 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="26"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="J18" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="4"/>
+      <c r="S18" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="1"/>
       <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>43944</v>
       </c>
@@ -1593,24 +1725,35 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="J19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="27"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="4"/>
+      <c r="R19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="1"/>
       <c r="U19" s="4"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>43945</v>
       </c>
@@ -1618,25 +1761,32 @@
         <v>6</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="J20" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="O20" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="26"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="4"/>
+      <c r="T20" s="1"/>
       <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>43946</v>
       </c>
@@ -1659,10 +1809,11 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="4"/>
+      <c r="T21" s="1"/>
       <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>43947</v>
       </c>
@@ -1685,10 +1836,11 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="4"/>
+      <c r="T22" s="1"/>
       <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>43948</v>
       </c>
@@ -1711,10 +1863,11 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="4"/>
+      <c r="T23" s="1"/>
       <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>43949</v>
       </c>
@@ -1737,10 +1890,11 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="4"/>
+      <c r="T24" s="1"/>
       <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>43950</v>
       </c>
@@ -1763,10 +1917,11 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="4"/>
+      <c r="T25" s="1"/>
       <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>43951</v>
       </c>
@@ -1789,10 +1944,11 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="4"/>
+      <c r="T26" s="1"/>
       <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>43952</v>
       </c>
@@ -1815,10 +1971,11 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="4"/>
+      <c r="T27" s="1"/>
       <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>43953</v>
       </c>
@@ -1841,10 +1998,11 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="4"/>
+      <c r="T28" s="1"/>
       <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>43954</v>
       </c>
@@ -1867,10 +2025,11 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="4"/>
+      <c r="T29" s="1"/>
       <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>43955</v>
       </c>
@@ -1893,10 +2052,11 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="4"/>
+      <c r="T30" s="1"/>
       <c r="U30" s="4"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>43956</v>
       </c>
@@ -1919,10 +2079,11 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="4"/>
+      <c r="T31" s="2"/>
       <c r="U31" s="4"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>43957</v>
       </c>
@@ -1945,10 +2106,11 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="4"/>
+      <c r="T32" s="2"/>
       <c r="U32" s="4"/>
-    </row>
-    <row r="33" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>43958</v>
       </c>
@@ -1971,28 +2133,37 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="6"/>
+      <c r="T33" s="5"/>
       <c r="U33" s="6"/>
-    </row>
-    <row r="34" spans="2:21" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="V33" s="6"/>
+    </row>
+    <row r="34" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="24">
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="B1:O2"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -246,10 +246,6 @@
     <rPh sb="4" eb="5">
       <t>ti</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标时长h的一般是看视频or教材or笔记，总之不是在刷题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -583,6 +579,261 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>fu xi le yi bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语错题复盘2h</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cuo ti fu pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语150题</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行测套卷</t>
+    <rPh sb="0" eb="1">
+      <t>xing ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tao juan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30之后就没再学习了，该死</t>
+    <rPh sb="5" eb="6">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiu mei zai xue xi le</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gai si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标时长h的一般是看视频or教材or笔记，总之不是在刷题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类推10min</t>
+    <rPh sb="0" eb="1">
+      <t>lei tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量关系学习</t>
+    <rPh sb="0" eb="1">
+      <t>shu liang guan xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xue xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量刷题</t>
+    <rPh sb="0" eb="1">
+      <t>sh liang shua ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套卷错题复习1.5h</t>
+    <rPh sb="2" eb="3">
+      <t>cuo ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃2018真题</t>
+    <rPh sb="6" eb="7">
+      <t>zehn ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃2019真题</t>
+    <rPh sb="0" eb="1">
+      <t>gan su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南2019真题</t>
+    <rPh sb="0" eb="1">
+      <t>he nan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真题纠错</t>
+    <rPh sb="0" eb="1">
+      <t>zhen ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiu cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真题纠错</t>
+    <rPh sb="0" eb="1">
+      <t>zhen ti jiu cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真题纠错</t>
+    <rPh sb="0" eb="1">
+      <t>zhne ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiu cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南2017真题</t>
+    <rPh sb="0" eb="1">
+      <t>he nan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成语积累1.5h</t>
+    <rPh sb="0" eb="1">
+      <t>cheng yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾斐语言1.5h</t>
+    <rPh sb="0" eb="1">
+      <t>gu fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾斐言语1.5h</t>
+    <rPh sb="0" eb="1">
+      <t>gu fei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾斐言语40min</t>
+    <rPh sb="0" eb="1">
+      <t>gu fei yan yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
+    <rPh sb="12" eb="13">
+      <t>xue xi shi zhi yu jiao lü</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi yu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jiao lü</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>liang yao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhuan zhu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>gao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h成语复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天突然发现粉笔言语解析好垃圾啊。我当时为什么放弃华图来着。。。</t>
+    <rPh sb="0" eb="1">
+      <t>jin tian tu ran fa xian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen bi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie xi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hao la ji</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>a</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wo dang shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei shen m</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>fang qi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hua tu lai zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语刷题200题</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shua ti</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,7 +842,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -607,8 +858,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="DengXian Light (标题)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +933,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF75A992"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -839,15 +1112,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,6 +1153,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -871,9 +1166,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
-      <color rgb="FFEB94A0"/>
       <color rgb="FFD793CA"/>
       <color rgb="FF75A992"/>
+      <color rgb="FFEB94A0"/>
       <color rgb="FF75B3AF"/>
       <color rgb="FF44B3AF"/>
       <color rgb="FFD4E8FF"/>
@@ -1154,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,194 +1462,159 @@
     <col min="22" max="22" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="Q3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:22" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:22" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="U7" s="10">
+        <v>1</v>
+      </c>
+      <c r="V7" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:22" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:22" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.375</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0.625</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="R5" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="S5" s="9">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="T5" s="9">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="U5" s="10">
-        <v>1</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
-        <v>43931</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
-        <v>43932</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="28" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1362,477 +1622,483 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="38"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="1"/>
+      <c r="N8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="39"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="28"/>
+      <c r="V8" s="4"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="34"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="V9" s="36" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="29"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="V10" s="36"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
+      <c r="F11" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="41"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="R11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="F12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="K12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="33"/>
+      <c r="N12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="34"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="S12" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="T12" s="1"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="S13" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="V13" s="4"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="28" t="s">
-        <v>37</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="28"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="36" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="36"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="24" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="T18" s="1"/>
-      <c r="U18" s="4"/>
+      <c r="U18" s="18"/>
       <c r="V18" s="4"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+      <c r="F19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="S19" s="11"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="T19" s="1"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="V19" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="33"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="26"/>
+      <c r="J20" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="S20" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="T20" s="1"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="J21" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="35"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="R21" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" s="11"/>
       <c r="T21" s="1"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="E22" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="J22" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="O22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="33"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1842,14 +2108,15 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="33"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1861,137 +2128,184 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
+      <c r="R23" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="T23" s="1"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="F24" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="J24" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
+      <c r="V24" s="16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="32"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="31" t="s">
+        <v>76</v>
+      </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="L25" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="R25" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="S25" s="35"/>
       <c r="T25" s="1"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="32"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="L26" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="32"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
+      <c r="S26" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="T26" s="1"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
-        <v>43952</v>
+        <v>43950</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>41</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="32"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="I27" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="33"/>
+      <c r="M27" s="28"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="R27" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="S27" s="33"/>
       <c r="T27" s="1"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
-        <v>43953</v>
+        <v>43951</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>82</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="33"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="K28" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2000,14 +2314,16 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
+      <c r="V28" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
-        <v>43954</v>
+        <v>43952</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2031,10 +2347,10 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2058,112 +2374,182 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
     </row>
-    <row r="33" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
+        <v>43956</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
+        <v>43957</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+    </row>
+    <row r="35" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
         <v>43958</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-    </row>
-    <row r="34" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+    </row>
+    <row r="36" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="B1:O2"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="V7:V8"/>
+  <mergeCells count="40">
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E22:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="4月" sheetId="3" r:id="rId1"/>
+    <sheet name="5月" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -825,7 +826,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>言语刷题200题</t>
+    <t>言语刷题300题</t>
     <rPh sb="0" eb="1">
       <t>yan yu</t>
     </rPh>
@@ -834,6 +835,87 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实词+主旨240题</t>
+    <rPh sb="0" eb="1">
+      <t>shi ci bian xi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>t</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成语复习1h</t>
+    <rPh sb="0" eb="1">
+      <t>cheng yu fu xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语90题</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类推60题</t>
+    <rPh sb="0" eb="1">
+      <t>lei tui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绍兴玩耍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语105题+数量30min</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h数量</t>
+    <rPh sb="2" eb="3">
+      <t>shu liang guan xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南2017联考卷复盘</t>
+    <rPh sb="0" eb="1">
+      <t>he nan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lian kao juan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu pan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,7 +1025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -967,26 +1049,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1050,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1060,18 +1122,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1081,81 +1141,83 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1449,40 +1511,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:O19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="22" max="22" width="24.1640625" customWidth="1"/>
+    <col min="22" max="22" width="76.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1504,16 +1566,16 @@
       <c r="M3" s="37"/>
       <c r="N3" s="37"/>
       <c r="O3" s="37"/>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1532,80 +1594,80 @@
       <c r="M4" s="37"/>
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:22" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:22" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>0.375</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>0.41666666666666702</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>0.45833333333333298</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>0.5</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>0.54166666666666696</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <v>0.58333333333333304</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <v>0.625</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="7">
         <v>0.70833333333333304</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="7">
         <v>0.75</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="7">
         <v>0.79166666666666696</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="7">
         <v>0.83333333333333304</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="7">
         <v>0.875</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="7">
         <v>0.91666666666666696</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="7">
         <v>0.95833333333333337</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="8">
         <v>1</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="V7" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1622,16 +1684,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="38"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="39"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1665,7 +1727,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="36" t="s">
+      <c r="V9" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1686,7 +1748,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="1"/>
@@ -1696,7 +1758,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="36"/>
+      <c r="V10" s="38"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
@@ -1707,23 +1769,23 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="41" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="41"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="25" t="s">
         <v>22</v>
       </c>
       <c r="S11" s="1"/>
@@ -1740,28 +1802,28 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="34"/>
+      <c r="O12" s="27"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="24" t="s">
         <v>18</v>
       </c>
       <c r="T12" s="1"/>
@@ -1777,28 +1839,28 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="25" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="34" t="s">
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="24" t="s">
         <v>25</v>
       </c>
       <c r="T13" s="1"/>
@@ -1814,20 +1876,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="34"/>
+      <c r="M14" s="27"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1854,11 +1916,11 @@
       <c r="J15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1867,7 +1929,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="16" t="s">
+      <c r="V15" s="39" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1878,25 +1940,25 @@
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="36" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="38" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1907,25 +1969,25 @@
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="36"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="38"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
@@ -1934,28 +1996,28 @@
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="34" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="12" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="25" t="s">
         <v>22</v>
       </c>
       <c r="T18" s="1"/>
-      <c r="U18" s="18"/>
+      <c r="U18" s="14"/>
       <c r="V18" s="4"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
@@ -1967,37 +2029,37 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="17" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="21" t="s">
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="19" t="s">
         <v>48</v>
       </c>
       <c r="R19" s="1"/>
-      <c r="S19" s="21" t="s">
+      <c r="S19" s="23" t="s">
         <v>49</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="16" t="s">
+      <c r="V19" s="39" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2010,26 +2072,26 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="24" t="s">
+      <c r="N20" s="18" t="s">
         <v>53</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="24" t="s">
+      <c r="S20" s="18" t="s">
         <v>54</v>
       </c>
       <c r="T20" s="1"/>
@@ -2045,20 +2107,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35" t="s">
+      <c r="K21" s="28"/>
+      <c r="L21" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="35"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="1"/>
       <c r="O21" s="23" t="s">
         <v>58</v>
@@ -2068,7 +2130,7 @@
       <c r="R21" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S21" s="11"/>
+      <c r="S21" s="9"/>
       <c r="T21" s="1"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
@@ -2081,24 +2143,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="33"/>
+      <c r="P22" s="26"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2113,10 +2175,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2128,10 +2190,10 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="26" t="s">
+      <c r="R23" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="S23" s="27" t="s">
+      <c r="S23" s="25" t="s">
         <v>34</v>
       </c>
       <c r="T23" s="1"/>
@@ -2145,21 +2207,21 @@
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2168,7 +2230,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="16" t="s">
+      <c r="V24" s="39" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2179,34 +2241,34 @@
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="32"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="21" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="35" t="s">
+      <c r="L25" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="35" t="s">
+      <c r="R25" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="35"/>
+      <c r="S25" s="28"/>
       <c r="T25" s="1"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -2218,28 +2280,28 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32" t="s">
+      <c r="E26" s="30"/>
+      <c r="F26" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="32"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="32"/>
+      <c r="M26" s="30"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="31" t="s">
+      <c r="S26" s="21" t="s">
         <v>77</v>
       </c>
       <c r="T26" s="1"/>
@@ -2253,32 +2315,32 @@
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="32"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33" t="s">
+      <c r="J27" s="26"/>
+      <c r="K27" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="28"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="33" t="s">
+      <c r="R27" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="33"/>
+      <c r="S27" s="26"/>
       <c r="T27" s="1"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
@@ -2290,22 +2352,22 @@
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="23" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="33"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="33" t="s">
+      <c r="K28" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2314,242 +2376,460 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="4" t="s">
+      <c r="V28" s="40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
-        <v>43952</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="3">
-        <v>43953</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="3">
-        <v>43954</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="3">
-        <v>43955</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
-        <v>43956</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
-        <v>43957</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-    </row>
-    <row r="35" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
-        <v>43958</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-    </row>
-    <row r="36" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="K28:M28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:S25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
     <mergeCell ref="V16:V17"/>
     <mergeCell ref="F18:J18"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="N11:O11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="22" max="22" width="76.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:22" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:22" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>43952</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>43953</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>43954</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>43955</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>43956</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>43957</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>43958</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>43959</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>43960</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>43961</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:R10"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -896,17 +896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2h数量</t>
-    <rPh sb="2" eb="3">
-      <t>shu liang guan xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3h数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>河南2017联考卷复盘</t>
     <rPh sb="0" eb="1">
       <t>he nan</t>
@@ -916,6 +905,326 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>fu pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这5天是劳动节，其中两天和大宝在绍兴玩耍（也没怎么出去游玩，多半时间都在酒店，因为太热了）但是没有充分利用时间。其余三天也没有照常学习，松懈了很多，忏悔ing</t>
+    <rPh sb="0" eb="1">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tian shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lao dong jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>liang tian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>he</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>da bao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zai shao xing wan shua</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ye mei zen m</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>chu qu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>you wan</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>duo ban shi jian dai jiu dian le</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dou zai jiu dian</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>yiw nei tai re le</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>dan shi</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>chong fen li yong shi jian</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>qi yu san tian</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ye mei you</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>zhao chang</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>xue xi</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>song xie le hen duo</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>chan hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有人比我更爱学习啦啦啦。专注，高效。</t>
+    <rPh sb="0" eb="1">
+      <t>mei you ren bi wo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>geng ai xue xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>la la l la</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhuan zhu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gao xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃早餐</t>
+    <rPh sb="0" eb="1">
+      <t>chi zao can</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年河南真题</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he nan zhen ti</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu liang guan xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论真题</t>
+    <rPh sb="0" eb="1">
+      <t>shen lun zhen ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论素材读写</t>
+    <rPh sb="0" eb="1">
+      <t>shen lun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>su cai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>du xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论视频</t>
+    <rPh sb="0" eb="1">
+      <t>shen lun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联考真题申论https://pan.baidu.com/disk/home?#/all?vmode=list&amp;path=%2F%E5%95%8A%E4%BA%94%E6%96%97%E7%B1%B3%2F%E8%81%94%E8%80%8309-15%E5%85%B126%E5%A5%97</t>
+    <rPh sb="0" eb="1">
+      <t>lian kao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhen ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shen lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太困睡着</t>
+    <rPh sb="0" eb="1">
+      <t>tai kun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shui zhe le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡得太晚-起晚</t>
+    <rPh sb="0" eb="1">
+      <t>shui de</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tai wan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi wan le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨读材料公众号《人民时评》《人民日报评论》《半月谈》《申论范文宝典》</t>
+    <rPh sb="0" eb="1">
+      <t>chen du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai liao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong zhong hao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ren min shi ping</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ren min ri bao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ping lun</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ban yue tan</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shen lun fan wen</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bao dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语105题</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混吃等死散发负能量的一天</t>
+    <rPh sb="0" eb="1">
+      <t>hun chi deng si</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>san fa fu neng laing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de yi tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职备考1.5月</t>
+    <rPh sb="0" eb="1">
+      <t>quan zhi bei kao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂务</t>
+    <rPh sb="0" eb="1">
+      <t>za wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料40题</t>
+    <rPh sb="0" eb="1">
+      <t>zi liqo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语240题</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu shua ti</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论2h</t>
+    <rPh sb="0" eb="1">
+      <t>shen lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语120题</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天也是混吃等死的一天呢</t>
+    <rPh sb="0" eb="1">
+      <t>jin tian ye shi hun chi dneg si de yi tian n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑填空105题</t>
+    <rPh sb="0" eb="1">
+      <t>luo ji tian kong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -924,7 +1233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -956,8 +1265,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1024,8 +1341,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1108,16 +1443,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1166,58 +1513,122 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1228,9 +1639,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFEB94A0"/>
       <color rgb="FFD793CA"/>
       <color rgb="FF75A992"/>
-      <color rgb="FFEB94A0"/>
       <color rgb="FF75B3AF"/>
       <color rgb="FF44B3AF"/>
       <color rgb="FFD4E8FF"/>
@@ -1513,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:K21"/>
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1526,153 +1937,153 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="24" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="18" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:22" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:22" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>0.375</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>0.41666666666666702</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>0.45833333333333298</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>0.5</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>0.54166666666666696</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>0.58333333333333304</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>0.625</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>0.70833333333333304</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>0.75</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <v>0.79166666666666696</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <v>0.83333333333333304</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <v>0.875</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <v>0.91666666666666696</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <v>0.95833333333333337</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <v>1</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="V7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>43931</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1684,26 +2095,26 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="34"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>43932</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1726,13 +2137,13 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="38" t="s">
+      <c r="U9" s="3"/>
+      <c r="V9" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>43933</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1748,7 +2159,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="1"/>
@@ -1757,11 +2168,11 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="38"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="46"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>43934</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1769,32 +2180,32 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="29" t="s">
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="29"/>
+      <c r="O11" s="48"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="23" t="s">
         <v>22</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>43935</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1802,36 +2213,36 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27" t="s">
+      <c r="M12" s="44"/>
+      <c r="N12" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="27"/>
+      <c r="O12" s="47"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="22" t="s">
         <v>18</v>
       </c>
       <c r="T12" s="1"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>43936</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1839,36 +2250,36 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="23" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="27" t="s">
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="24" t="s">
+      <c r="S13" s="22" t="s">
         <v>25</v>
       </c>
       <c r="T13" s="1"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>43937</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1876,20 +2287,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="27"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1897,11 +2308,11 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>43938</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1916,11 +2327,11 @@
       <c r="J15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1928,100 +2339,100 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="39" t="s">
+      <c r="U15" s="3"/>
+      <c r="V15" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>43939</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="38" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>43940</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="38"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="46"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>43941</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="27" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="25" t="s">
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="23" t="s">
         <v>22</v>
       </c>
       <c r="T18" s="1"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="4"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>43942</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2029,42 +2440,42 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="23" t="s">
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="19" t="s">
+      <c r="Q19" s="18" t="s">
         <v>48</v>
       </c>
       <c r="R19" s="1"/>
-      <c r="S19" s="23" t="s">
+      <c r="S19" s="21" t="s">
         <v>49</v>
       </c>
       <c r="T19" s="1"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="39" t="s">
+      <c r="U19" s="3"/>
+      <c r="V19" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>43943</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2072,34 +2483,34 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="26"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="18" t="s">
+      <c r="S20" s="17" t="s">
         <v>54</v>
       </c>
       <c r="T20" s="1"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>43944</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2107,78 +2518,78 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28" t="s">
+      <c r="K21" s="45"/>
+      <c r="L21" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="28"/>
+      <c r="M21" s="45"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="21" t="s">
         <v>58</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="23" t="s">
+      <c r="R21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="S21" s="9"/>
+      <c r="S21" s="8"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>43945</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="26" t="s">
+      <c r="O22" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="26"/>
+      <c r="P22" s="44"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>43946</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2190,38 +2601,38 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="23" t="s">
+      <c r="R23" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="S23" s="23" t="s">
         <v>34</v>
       </c>
       <c r="T23" s="1"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>43947</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="30" t="s">
+      <c r="J24" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2229,145 +2640,145 @@
       <c r="Q24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="39" t="s">
+      <c r="U24" s="3"/>
+      <c r="V24" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>43948</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="30"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="20" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="28" t="s">
+      <c r="R25" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="28"/>
+      <c r="S25" s="45"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>43949</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30" t="s">
+      <c r="E26" s="43"/>
+      <c r="F26" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="30" t="s">
+      <c r="L26" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="30"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="21" t="s">
+      <c r="S26" s="20" t="s">
         <v>77</v>
       </c>
       <c r="T26" s="1"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>43950</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="21" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="20"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="19"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="26" t="s">
+      <c r="R27" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="26"/>
+      <c r="S27" s="44"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>43951</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="26"/>
+      <c r="G28" s="44"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2375,53 +2786,53 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="40" t="s">
+      <c r="U28" s="3"/>
+      <c r="V28" s="28" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="K28:M28"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2430,10 +2841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2443,395 +2854,574 @@
     <col min="22" max="22" width="76.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+    </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
+      <c r="B2" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="13" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="18" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="16" t="s">
         <v>42</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:22" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:22" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="32">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="32">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="32">
         <v>0.375</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="32">
         <v>0.41666666666666702</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="32">
         <v>0.45833333333333298</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="32">
         <v>0.5</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="32">
         <v>0.54166666666666696</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="32">
         <v>0.58333333333333304</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="32">
         <v>0.625</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="32">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="32">
         <v>0.70833333333333304</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="32">
         <v>0.75</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="32">
         <v>0.79166666666666696</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="32">
         <v>0.83333333333333304</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="32">
         <v>0.875</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="32">
         <v>0.91666666666666696</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="32">
         <v>0.95833333333333337</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="33">
         <v>1</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="V7" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="B8" s="34">
         <v>43952</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="26" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="22" t="s">
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="55" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+      <c r="B9" s="34">
         <v>43953</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="36" t="s">
+      <c r="F9" s="58"/>
+      <c r="G9" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="56"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+      <c r="B10" s="34">
         <v>43954</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="56"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
+      <c r="B11" s="34">
         <v>43955</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="56"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="34">
+        <v>43956</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
-        <v>43956</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="L12" s="57"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="56"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="34">
+        <v>43957</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="K13" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="34">
+        <v>43958</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="34">
+        <v>43959</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="34">
+        <v>43960</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="34">
+        <v>43961</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="G17" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="34">
+        <v>43962</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="34">
+        <v>43963</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
-        <v>43957</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="34">
+        <v>43964</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
-        <v>43958</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="34">
+        <v>43965</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
-        <v>43959</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="34">
+        <v>43966</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
-        <v>43960</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
-        <v>43961</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="20">
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K14:M14"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:R10"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:O4"/>
     <mergeCell ref="E8:G8"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:R10"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:R15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1219,11 +1219,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>逻辑填空105题</t>
+    <t>2015浙江B卷</t>
+    <rPh sb="4" eb="5">
+      <t>zhe jiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>juan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类推90题</t>
+    <rPh sb="0" eb="1">
+      <t>lei tui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑填空120题</t>
     <rPh sb="0" eb="1">
       <t>luo ji tian kong</t>
     </rPh>
     <rPh sb="7" eb="8">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017下半年四川</t>
+    <rPh sb="4" eb="5">
+      <t>xia ban nian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>si chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语135题</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语340题</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃2014</t>
+    <rPh sb="0" eb="1">
+      <t>gan su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语210题</t>
+    <rPh sb="0" eb="1">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1460,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1574,13 +1641,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,20 +1674,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1616,19 +1701,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1924,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1937,46 +2013,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
       <c r="P3" s="22" t="s">
         <v>39</v>
       </c>
@@ -1991,20 +2067,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
       <c r="P4" s="17" t="s">
         <v>43</v>
       </c>
@@ -2095,16 +2171,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="53"/>
+      <c r="K8" s="48"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="54"/>
+      <c r="O8" s="49"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2138,7 +2214,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="46" t="s">
+      <c r="V9" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2169,7 +2245,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="46"/>
+      <c r="V10" s="50"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -2180,20 +2256,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="48" t="s">
+      <c r="N11" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="48"/>
+      <c r="O11" s="52"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="23" t="s">
@@ -2213,24 +2289,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="1"/>
       <c r="K12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="47" t="s">
+      <c r="M12" s="55"/>
+      <c r="N12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="47"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2259,16 +2335,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="47" t="s">
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="22" t="s">
@@ -2287,20 +2363,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="1"/>
       <c r="K14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="47"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2369,7 +2445,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="46" t="s">
+      <c r="V16" s="50" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2398,7 +2474,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="46"/>
+      <c r="V17" s="50"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -2409,13 +2485,13 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -2451,13 +2527,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="45" t="s">
+      <c r="K19" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
       <c r="P19" s="21" t="s">
         <v>47</v>
       </c>
@@ -2483,17 +2559,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
       <c r="M20" s="1"/>
       <c r="N20" s="17" t="s">
         <v>53</v>
@@ -2518,20 +2594,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45" t="s">
+      <c r="K21" s="54"/>
+      <c r="L21" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="45"/>
+      <c r="M21" s="54"/>
       <c r="N21" s="1"/>
       <c r="O21" s="21" t="s">
         <v>58</v>
@@ -2554,24 +2630,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="44" t="s">
+      <c r="O22" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="44"/>
+      <c r="P22" s="55"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2586,10 +2662,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2622,17 +2698,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2658,28 +2734,28 @@
       <c r="E25" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="43"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="20" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="45" t="s">
+      <c r="L25" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="45" t="s">
+      <c r="R25" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="45"/>
+      <c r="S25" s="54"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -2691,22 +2767,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43" t="s">
+      <c r="E26" s="56"/>
+      <c r="F26" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="43" t="s">
+      <c r="L26" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="43"/>
+      <c r="M26" s="56"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2730,28 +2806,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="43"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44" t="s">
+      <c r="J27" s="55"/>
+      <c r="K27" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="44"/>
+      <c r="L27" s="55"/>
       <c r="M27" s="19"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="44" t="s">
+      <c r="R27" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="44"/>
+      <c r="S27" s="55"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -2767,18 +2843,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="44"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="44" t="s">
+      <c r="K28" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2793,16 +2869,29 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="F21:H21"/>
@@ -2810,29 +2899,16 @@
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2844,7 +2920,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2855,68 +2931,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
       <c r="P3" s="12" t="s">
         <v>39</v>
       </c>
@@ -2931,20 +3007,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
       <c r="P4" s="17" t="s">
         <v>43</v>
       </c>
@@ -3033,11 +3109,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="29"/>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
@@ -3054,7 +3130,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="29"/>
       <c r="U8" s="27"/>
-      <c r="V8" s="55" t="s">
+      <c r="V8" s="61" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3066,28 +3142,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="29"/>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="F9" s="60"/>
+      <c r="G9" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
       <c r="S9" s="29"/>
       <c r="T9" s="29"/>
       <c r="U9" s="27"/>
-      <c r="V9" s="56"/>
+      <c r="V9" s="62"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="34">
@@ -3103,22 +3179,22 @@
       <c r="F10" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
       <c r="S10" s="29"/>
       <c r="T10" s="29"/>
       <c r="U10" s="27"/>
-      <c r="V10" s="56"/>
+      <c r="V10" s="62"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="34">
@@ -3128,10 +3204,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="29"/>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
@@ -3147,7 +3223,7 @@
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
       <c r="U11" s="27"/>
-      <c r="V11" s="56"/>
+      <c r="V11" s="62"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="34">
@@ -3157,18 +3233,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="29"/>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="57"/>
+      <c r="L12" s="58"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
@@ -3178,7 +3254,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
       <c r="U12" s="27"/>
-      <c r="V12" s="56"/>
+      <c r="V12" s="62"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="34">
@@ -3193,17 +3269,17 @@
       <c r="E13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="43"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
@@ -3221,10 +3297,10 @@
       <c r="C14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="60"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="29"/>
       <c r="G14" s="39" t="s">
         <v>22</v>
@@ -3234,11 +3310,11 @@
       <c r="J14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="29"/>
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
@@ -3258,27 +3334,27 @@
       <c r="C15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="37"/>
       <c r="G15" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
       <c r="S15" s="24" t="s">
         <v>107</v>
       </c>
@@ -3294,12 +3370,12 @@
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25" t="s">
         <v>110</v>
@@ -3328,20 +3404,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="37"/>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="60"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
@@ -3360,10 +3436,17 @@
       <c r="C18" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="J18" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="K18" s="58"/>
+      <c r="M18" s="43" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="34">
@@ -3372,6 +3455,17 @@
       <c r="C19" s="29" t="s">
         <v>3</v>
       </c>
+      <c r="E19" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="J19" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="58"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="34">
@@ -3380,14 +3474,29 @@
       <c r="C20" s="29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E20" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="J20" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="34">
         <v>43965</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>5</v>
       </c>
+      <c r="E21" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="34">
@@ -3396,12 +3505,35 @@
       <c r="C22" s="29" t="s">
         <v>6</v>
       </c>
+      <c r="F22" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="27">
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:R10"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="K14:M14"/>
@@ -3411,12 +3543,6 @@
     <mergeCell ref="B3:O4"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="V8:V12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:R10"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="H15:R15"/>
   </mergeCells>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1647,6 +1647,27 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1662,49 +1683,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2013,46 +2013,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="22" t="s">
         <v>39</v>
       </c>
@@ -2067,20 +2067,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="17" t="s">
         <v>43</v>
       </c>
@@ -2171,16 +2171,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="48"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="49" t="s">
+      <c r="N8" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="49"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2214,7 +2214,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="50" t="s">
+      <c r="V9" s="48" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="50"/>
+      <c r="V10" s="48"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -2256,20 +2256,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="52" t="s">
+      <c r="N11" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="52"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="23" t="s">
@@ -2289,24 +2289,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
       <c r="J12" s="1"/>
       <c r="K12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="51" t="s">
+      <c r="M12" s="46"/>
+      <c r="N12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="51"/>
+      <c r="O12" s="49"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2335,16 +2335,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="52" t="s">
+      <c r="K13" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="51" t="s">
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="22" t="s">
@@ -2363,20 +2363,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="1"/>
       <c r="K14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="51" t="s">
+      <c r="L14" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="51"/>
+      <c r="M14" s="49"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2445,7 +2445,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="50" t="s">
+      <c r="V16" s="48" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="50"/>
+      <c r="V17" s="48"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -2485,13 +2485,13 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -2527,13 +2527,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="54" t="s">
+      <c r="K19" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
       <c r="P19" s="21" t="s">
         <v>47</v>
       </c>
@@ -2559,17 +2559,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="55"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="1"/>
       <c r="N20" s="17" t="s">
         <v>53</v>
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54" t="s">
+      <c r="K21" s="47"/>
+      <c r="L21" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="54"/>
+      <c r="M21" s="47"/>
       <c r="N21" s="1"/>
       <c r="O21" s="21" t="s">
         <v>58</v>
@@ -2630,24 +2630,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="55" t="s">
+      <c r="J22" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="55" t="s">
+      <c r="O22" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="55"/>
+      <c r="P22" s="46"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2662,10 +2662,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="55"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2698,17 +2698,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="56" t="s">
+      <c r="J24" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2734,28 +2734,28 @@
       <c r="E25" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="56"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="20" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="54" t="s">
+      <c r="L25" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="54" t="s">
+      <c r="R25" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="54"/>
+      <c r="S25" s="47"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -2767,22 +2767,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56" t="s">
+      <c r="E26" s="45"/>
+      <c r="F26" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="56"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="56" t="s">
+      <c r="L26" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="56"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2806,28 +2806,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="56"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55" t="s">
+      <c r="J27" s="46"/>
+      <c r="K27" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="55"/>
+      <c r="L27" s="46"/>
       <c r="M27" s="19"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="55" t="s">
+      <c r="R27" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="55"/>
+      <c r="S27" s="46"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -2843,18 +2843,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="55"/>
+      <c r="G28" s="46"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="55" t="s">
+      <c r="K28" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2869,29 +2869,11 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V9:V10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="F21:H21"/>
@@ -2904,11 +2886,29 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2917,10 +2917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2931,68 +2931,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="12" t="s">
         <v>39</v>
       </c>
@@ -3007,20 +3007,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="17" t="s">
         <v>43</v>
       </c>
@@ -3109,11 +3109,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="29"/>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
@@ -3130,7 +3130,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="29"/>
       <c r="U8" s="27"/>
-      <c r="V8" s="61" t="s">
+      <c r="V8" s="59" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3142,28 +3142,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="29"/>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="63" t="s">
+      <c r="F9" s="61"/>
+      <c r="G9" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
       <c r="S9" s="29"/>
       <c r="T9" s="29"/>
       <c r="U9" s="27"/>
-      <c r="V9" s="62"/>
+      <c r="V9" s="60"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="34">
@@ -3179,22 +3179,22 @@
       <c r="F10" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
       <c r="S10" s="29"/>
       <c r="T10" s="29"/>
       <c r="U10" s="27"/>
-      <c r="V10" s="62"/>
+      <c r="V10" s="60"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="34">
@@ -3204,10 +3204,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="29"/>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
@@ -3223,7 +3223,7 @@
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
       <c r="U11" s="27"/>
-      <c r="V11" s="62"/>
+      <c r="V11" s="60"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="34">
@@ -3233,11 +3233,11 @@
         <v>3</v>
       </c>
       <c r="D12" s="29"/>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -3254,7 +3254,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
       <c r="U12" s="27"/>
-      <c r="V12" s="62"/>
+      <c r="V12" s="60"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="34">
@@ -3269,17 +3269,17 @@
       <c r="E13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="56"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
@@ -3297,10 +3297,10 @@
       <c r="C14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="57"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="29"/>
       <c r="G14" s="39" t="s">
         <v>22</v>
@@ -3310,11 +3310,11 @@
       <c r="J14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
       <c r="N14" s="29"/>
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
@@ -3334,27 +3334,27 @@
       <c r="C15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="37"/>
       <c r="G15" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
       <c r="S15" s="24" t="s">
         <v>107</v>
       </c>
@@ -3370,12 +3370,12 @@
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25" t="s">
         <v>110</v>
@@ -3404,20 +3404,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="37"/>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="57"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
@@ -3436,10 +3436,10 @@
       <c r="C18" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="55"/>
+      <c r="F18" s="46"/>
       <c r="J18" s="58" t="s">
         <v>116</v>
       </c>
@@ -3455,10 +3455,10 @@
       <c r="C19" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="55"/>
+      <c r="F19" s="46"/>
       <c r="J19" s="44" t="s">
         <v>42</v>
       </c>
@@ -3474,11 +3474,11 @@
       <c r="C20" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
       <c r="J20" s="39" t="s">
         <v>21</v>
       </c>
@@ -3490,13 +3490,13 @@
       <c r="C21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="34">
@@ -3505,31 +3505,35 @@
       <c r="C22" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="64" t="s">
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="34">
+        <v>43967</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="34">
+        <v>43968</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="V8:V12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:R10"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="E18:F18"/>
@@ -3545,6 +3549,18 @@
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="H15:R15"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:R10"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="142">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1292,6 +1292,189 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语推理225题</t>
+    <rPh sb="0" eb="1">
+      <t>yan'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tui'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语推理195题</t>
+    <rPh sb="0" eb="1">
+      <t>yan'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tui'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语宝典</t>
+    <rPh sb="0" eb="1">
+      <t>yan'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语刷题</t>
+    <rPh sb="0" eb="1">
+      <t>yan'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shua'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南2016行测</t>
+    <rPh sb="0" eb="1">
+      <t>he'nan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing'ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末老毛病之混吃等死</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'mo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hun'chi'deng'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量30min</t>
+    <rPh sb="0" eb="1">
+      <t>shu'laing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013联考</t>
+    <rPh sb="4" eb="5">
+      <t>lian'kao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真题复盘</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南2016</t>
+    <rPh sb="0" eb="1">
+      <t>he'nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃2012精选</t>
+    <rPh sb="0" eb="1">
+      <t>gan'su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jing'xuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州2012精选</t>
+    <rPh sb="0" eb="1">
+      <t>gui'zhou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jing'xuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南2016复盘</t>
+    <rPh sb="0" eb="1">
+      <t>he'nan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃2013精选</t>
+    <rPh sb="0" eb="1">
+      <t>gan'su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jign'xuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论1.5H</t>
+    <rPh sb="0" eb="1">
+      <t>shen lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去和二号的朋友们聚餐了</t>
+    <rPh sb="0" eb="1">
+      <t>xia'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er'hao'de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>peng'you'men</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ju'can'le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州2014</t>
+    <rPh sb="0" eb="1">
+      <t>gui'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真题复盘</t>
+    <rPh sb="0" eb="1">
+      <t>zhen't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'pan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1527,7 +1710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1549,16 +1732,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1586,94 +1760,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,29 +1808,113 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2001,7 +2210,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2013,81 +2222,81 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="22" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="17" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2171,16 +2380,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="56"/>
+      <c r="O8" s="36"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2214,7 +2423,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="48" t="s">
+      <c r="V9" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2235,7 +2444,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="1"/>
@@ -2245,7 +2454,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="48"/>
+      <c r="V10" s="28"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -2256,23 +2465,23 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="51" t="s">
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="51"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="20" t="s">
         <v>22</v>
       </c>
       <c r="S11" s="1"/>
@@ -2289,28 +2498,28 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="46" t="s">
+      <c r="L12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="46"/>
-      <c r="N12" s="49" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="49"/>
+      <c r="O12" s="29"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="22" t="s">
+      <c r="S12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="T12" s="1"/>
@@ -2326,28 +2535,28 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="20" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="51" t="s">
+      <c r="K13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="49" t="s">
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="22" t="s">
+      <c r="S13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="T13" s="1"/>
@@ -2363,20 +2572,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="49"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2403,7 +2612,7 @@
       <c r="J15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="19" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="8"/>
@@ -2416,7 +2625,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="26" t="s">
+      <c r="V15" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2427,25 +2636,25 @@
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="48" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2456,25 +2665,25 @@
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="48"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="28"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -2485,13 +2694,13 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -2500,11 +2709,11 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="23" t="s">
+      <c r="S18" s="20" t="s">
         <v>22</v>
       </c>
       <c r="T18" s="1"/>
-      <c r="U18" s="13"/>
+      <c r="U18" s="10"/>
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
@@ -2516,37 +2725,37 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="13" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="21" t="s">
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="18" t="s">
+      <c r="Q19" s="15" t="s">
         <v>48</v>
       </c>
       <c r="R19" s="1"/>
-      <c r="S19" s="21" t="s">
+      <c r="S19" s="18" t="s">
         <v>49</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="26" t="s">
+      <c r="V19" s="21" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2559,26 +2768,26 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="46"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="14" t="s">
         <v>53</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="17" t="s">
+      <c r="S20" s="14" t="s">
         <v>54</v>
       </c>
       <c r="T20" s="1"/>
@@ -2594,27 +2803,27 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47" t="s">
+      <c r="K21" s="27"/>
+      <c r="L21" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="47"/>
+      <c r="M21" s="27"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="21" t="s">
+      <c r="O21" s="18" t="s">
         <v>58</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="21" t="s">
+      <c r="R21" s="18" t="s">
         <v>59</v>
       </c>
       <c r="S21" s="8"/>
@@ -2630,24 +2839,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="46" t="s">
+      <c r="O22" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="46"/>
+      <c r="P22" s="26"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2662,10 +2871,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="46"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2677,10 +2886,10 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="S23" s="23" t="s">
+      <c r="S23" s="20" t="s">
         <v>34</v>
       </c>
       <c r="T23" s="1"/>
@@ -2694,21 +2903,21 @@
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="45" t="s">
+      <c r="J24" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2717,7 +2926,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="26" t="s">
+      <c r="V24" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2728,34 +2937,34 @@
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="45"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="47" t="s">
+      <c r="L25" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="47" t="s">
+      <c r="R25" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="47"/>
+      <c r="S25" s="27"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -2767,28 +2976,28 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45" t="s">
+      <c r="E26" s="25"/>
+      <c r="F26" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="45" t="s">
+      <c r="L26" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="45"/>
+      <c r="M26" s="25"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="20" t="s">
+      <c r="S26" s="17" t="s">
         <v>77</v>
       </c>
       <c r="T26" s="1"/>
@@ -2802,32 +3011,32 @@
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="18" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="45"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46" t="s">
+      <c r="J27" s="26"/>
+      <c r="K27" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="46"/>
-      <c r="M27" s="19"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="46" t="s">
+      <c r="R27" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="46"/>
+      <c r="S27" s="26"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -2839,22 +3048,22 @@
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="18" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="46"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="46" t="s">
+      <c r="K28" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2863,7 +3072,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="28" t="s">
+      <c r="V28" s="22" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2917,623 +3126,764 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="22" max="22" width="76.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="40"/>
+    <col min="2" max="2" width="15.33203125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="40" customWidth="1"/>
+    <col min="4" max="21" width="10.83203125" style="40"/>
+    <col min="22" max="22" width="76.33203125" style="40" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-    </row>
-    <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+    </row>
+    <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="12" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="17" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="49" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:22" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:22" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="52">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="52">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="52">
         <v>0.375</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="52">
         <v>0.41666666666666702</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="52">
         <v>0.45833333333333298</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="52">
         <v>0.5</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="52">
         <v>0.54166666666666696</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="52">
         <v>0.58333333333333304</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="52">
         <v>0.625</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="52">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="52">
         <v>0.70833333333333304</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="52">
         <v>0.75</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="52">
         <v>0.79166666666666696</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q7" s="52">
         <v>0.83333333333333304</v>
       </c>
-      <c r="R7" s="32">
+      <c r="R7" s="52">
         <v>0.875</v>
       </c>
-      <c r="S7" s="32">
+      <c r="S7" s="52">
         <v>0.91666666666666696</v>
       </c>
-      <c r="T7" s="32">
+      <c r="T7" s="52">
         <v>0.95833333333333337</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="53">
         <v>1</v>
       </c>
-      <c r="V7" s="33" t="s">
+      <c r="V7" s="53" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="34">
+      <c r="B8" s="54">
         <v>43952</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="57" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="35" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="59" t="s">
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="37" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="34">
+      <c r="B9" s="54">
         <v>43953</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="61" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62" t="s">
+      <c r="F9" s="59"/>
+      <c r="G9" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="60"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="38"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="34">
+      <c r="B10" s="54">
         <v>43954</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="35" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="60"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="38"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="34">
+      <c r="B11" s="54">
         <v>43955</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="47" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="38"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="34">
+      <c r="B12" s="54">
         <v>43956</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="47" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="58" t="s">
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="60"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="38"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="34">
+      <c r="B13" s="54">
         <v>43957</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="K13" s="45" t="s">
+      <c r="G13" s="63"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="K13" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="34">
+      <c r="B14" s="54">
         <v>43958</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="39" t="s">
+      <c r="E14" s="64"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="39" t="s">
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K14" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="29" t="s">
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="55" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="34">
+      <c r="B15" s="54">
         <v>43959</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="25" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="24" t="s">
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="34">
+      <c r="B16" s="54">
         <v>43960</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="46" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25" t="s">
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="42" t="s">
+      <c r="L16" s="67"/>
+      <c r="M16" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="40" t="s">
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="70" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="34">
+      <c r="B17" s="54">
         <v>43961</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="63" t="s">
+      <c r="D17" s="67"/>
+      <c r="E17" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="41" t="s">
+      <c r="F17" s="64"/>
+      <c r="G17" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="34">
+      <c r="B18" s="54">
         <v>43962</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="J18" s="58" t="s">
+      <c r="F18" s="68"/>
+      <c r="J18" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="58"/>
-      <c r="M18" s="43" t="s">
+      <c r="K18" s="62"/>
+      <c r="M18" s="42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="34">
+      <c r="B19" s="54">
         <v>43963</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="J19" s="44" t="s">
+      <c r="F19" s="68"/>
+      <c r="J19" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="58" t="s">
+      <c r="K19" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="58"/>
+      <c r="L19" s="62"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="34">
+      <c r="B20" s="54">
         <v>43964</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="J20" s="39" t="s">
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="J20" s="65" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
+      <c r="B21" s="54">
         <v>43965</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="34">
+      <c r="B22" s="54">
         <v>43966</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="57" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="34">
+      <c r="B23" s="54">
         <v>43967</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="55" t="s">
         <v>7</v>
       </c>
+      <c r="E23" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="34">
+      <c r="B24" s="54">
         <v>43968</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="55" t="s">
         <v>8</v>
       </c>
+      <c r="E24" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="54">
+        <v>43969</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="54">
+        <v>43970</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="62"/>
+      <c r="I26" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="62"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="54">
+        <v>43971</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="62"/>
+      <c r="G27" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B28" s="54">
+        <v>43972</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="64"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B29" s="54">
+        <v>43973</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="J29" s="72" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="H23:O24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="E18:F18"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1475,6 +1475,71 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>fu'pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h实词辨析（低效预警）</t>
+    <rPh sb="2" eb="3">
+      <t>shi'ci'bian'xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di'xiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要再把时间花在抄录词汇上了，效率太低了，有这功夫都背下来了。别人整理好的就直接保存图片吧</t>
+    <rPh sb="0" eb="1">
+      <t>bu'yao'zai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hua'zai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chao'lu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ci'hui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shang'le</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xiao'lv</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>tai'di'le</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>you'zhe</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gong'fu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bei'xia'lai'le</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bie'ren'zheng'li'hao'de</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhi'jie'bao'cun'tu'pian'ba</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3128,8 +3193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3857,7 +3922,7 @@
       </c>
       <c r="H28" s="64"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="54">
         <v>43973</v>
       </c>
@@ -3871,13 +3936,21 @@
       <c r="J29" s="72" t="s">
         <v>141</v>
       </c>
+      <c r="K29" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29" s="68"/>
+      <c r="V29" s="40" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I27:Q27"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="G25:I25"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="153">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1540,6 +1540,99 @@
     </rPh>
     <rPh sb="38" eb="39">
       <t>zhi'jie'bao'cun'tu'pian'ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012浙江</t>
+    <rPh sb="4" eb="5">
+      <t>zhe'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h定义</t>
+    <rPh sb="4" eb="5">
+      <t>ding'yi'pan'daun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h成语</t>
+    <rPh sb="4" eb="5">
+      <t>cheng'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013浙江A卷及复盘</t>
+    <rPh sb="4" eb="5">
+      <t>zhe'jiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>juan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu'pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复盘</t>
+    <rPh sb="0" eb="1">
+      <t>fu'pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨夜失眠，今天十点多才起来</t>
+    <rPh sb="0" eb="1">
+      <t>zuo'ye</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin'tian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi'dian'duo'cai'qi'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全职备考2个月</t>
+    <rPh sb="0" eb="1">
+      <t>quan'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bei'kao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ge'yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江2014A卷</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'jiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>juan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇2.5h</t>
+    <rPh sb="0" eb="1">
+      <t>ci'hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ci'hui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1775,7 +1868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1980,6 +2073,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3191,10 +3287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:L29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3760,7 +3856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="54">
         <v>43965</v>
       </c>
@@ -3787,11 +3883,11 @@
       </c>
       <c r="G22" s="63"/>
       <c r="H22" s="63"/>
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="54">
@@ -3944,8 +4040,109 @@
         <v>143</v>
       </c>
     </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="54">
+        <v>43974</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="62"/>
+      <c r="I30" s="72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B31" s="54">
+        <v>43975</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="V31" s="73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="54">
+        <v>43976</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="62"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="54">
+        <v>43977</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="68"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="54">
+        <v>43978</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="54">
+        <v>43979</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="54">
+        <v>43980</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="44">
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I27:Q27"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="154">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1633,6 +1633,16 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ci'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年甘肃卷</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gan'su'juan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3289,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4099,7 +4109,7 @@
       </c>
       <c r="H32" s="62"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="54">
         <v>43977</v>
       </c>
@@ -4111,15 +4121,20 @@
       </c>
       <c r="F33" s="68"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="54">
         <v>43978</v>
       </c>
       <c r="C34" s="55" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="54">
         <v>43979</v>
       </c>
@@ -4127,7 +4142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="54">
         <v>43980</v>
       </c>
@@ -4136,8 +4151,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
     <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:G34"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="I31:L31"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="158">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1643,6 +1643,55 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>gan'su'juan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道干了些啥（啊学习还是要有计划）</t>
+    <rPh sb="0" eb="1">
+      <t>bu'zhi'dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gan'le'xie'sha</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>a</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xue'xi'hai'shi'yao'you'ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h成语</t>
+    <rPh sb="2" eb="3">
+      <t>cheng'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮安事业单位报名（淮安区图书馆）</t>
+    <rPh sb="0" eb="1">
+      <t>huai'an'shi'ye'dan'wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao'ming</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huai'an'qu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tu'shu'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃2016年</t>
+    <rPh sb="0" eb="1">
+      <t>gan'su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1878,7 +1927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1940,41 +1989,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1982,109 +2127,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2380,7 +2432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
@@ -2393,46 +2445,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -2447,20 +2499,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -2551,16 +2603,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="36"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2594,7 +2646,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="28" t="s">
+      <c r="V9" s="55" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2625,7 +2677,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="28"/>
+      <c r="V10" s="55"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -2636,20 +2688,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="31"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -2669,24 +2721,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="29" t="s">
+      <c r="M12" s="59"/>
+      <c r="N12" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="29"/>
+      <c r="O12" s="60"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2715,16 +2767,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="29" t="s">
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -2743,20 +2795,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="29"/>
+      <c r="M14" s="60"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2825,7 +2877,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="28" t="s">
+      <c r="V16" s="55" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2854,7 +2906,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="28"/>
+      <c r="V17" s="55"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -2865,13 +2917,13 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -2907,13 +2959,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -2939,17 +2991,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="26"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -2974,20 +3026,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27" t="s">
+      <c r="K21" s="58"/>
+      <c r="L21" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="27"/>
+      <c r="M21" s="58"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3010,24 +3062,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="26" t="s">
+      <c r="O22" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="26"/>
+      <c r="P22" s="59"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3042,10 +3094,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3078,17 +3130,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3114,28 +3166,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="27" t="s">
+      <c r="R25" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="27"/>
+      <c r="S25" s="58"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3147,22 +3199,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25" t="s">
+      <c r="E26" s="61"/>
+      <c r="F26" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="25"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="25" t="s">
+      <c r="L26" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="25"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3186,28 +3238,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="25"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26" t="s">
+      <c r="J27" s="59"/>
+      <c r="K27" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="26"/>
+      <c r="L27" s="59"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="26" t="s">
+      <c r="R27" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="26"/>
+      <c r="S27" s="59"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3223,18 +3275,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="26"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3249,11 +3301,29 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="F21:H21"/>
@@ -3266,29 +3336,11 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3297,730 +3349,730 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="40"/>
-    <col min="2" max="2" width="15.33203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="40" customWidth="1"/>
-    <col min="4" max="21" width="10.83203125" style="40"/>
-    <col min="22" max="22" width="76.33203125" style="40" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="40"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="15.33203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="25" customWidth="1"/>
+    <col min="4" max="21" width="10.83203125" style="25"/>
+    <col min="22" max="22" width="76.33203125" style="25" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="42" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="45" t="s">
+      <c r="S3" s="29" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="46" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="47" t="s">
+      <c r="Q4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="33" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:22" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:22" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="36">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="36">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="36">
         <v>0.375</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="36">
         <v>0.41666666666666702</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="36">
         <v>0.45833333333333298</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="36">
         <v>0.5</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="36">
         <v>0.54166666666666696</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="36">
         <v>0.58333333333333304</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="36">
         <v>0.625</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="36">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N7" s="52">
+      <c r="N7" s="36">
         <v>0.70833333333333304</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="36">
         <v>0.75</v>
       </c>
-      <c r="P7" s="52">
+      <c r="P7" s="36">
         <v>0.79166666666666696</v>
       </c>
-      <c r="Q7" s="52">
+      <c r="Q7" s="36">
         <v>0.83333333333333304</v>
       </c>
-      <c r="R7" s="52">
+      <c r="R7" s="36">
         <v>0.875</v>
       </c>
-      <c r="S7" s="52">
+      <c r="S7" s="36">
         <v>0.91666666666666696</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="36">
         <v>0.95833333333333337</v>
       </c>
-      <c r="U7" s="53">
+      <c r="U7" s="37">
         <v>1</v>
       </c>
-      <c r="V7" s="53" t="s">
+      <c r="V7" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="54">
+      <c r="B8" s="38">
         <v>43952</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="57" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="37" t="s">
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="69" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="54">
+      <c r="B9" s="38">
         <v>43953</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="59" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="39" t="s">
+      <c r="F9" s="72"/>
+      <c r="G9" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="38"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="70"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="54">
+      <c r="B10" s="38">
         <v>43954</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="57" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="38"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="70"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="54">
+      <c r="B11" s="38">
         <v>43955</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="61" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="38"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="70"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="54">
+      <c r="B12" s="38">
         <v>43956</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="61" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="62" t="s">
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="62"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="38"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="70"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="54">
+      <c r="B13" s="38">
         <v>43957</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="30" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="K13" s="63" t="s">
+      <c r="G13" s="71"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="K13" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="54">
+      <c r="B14" s="38">
         <v>43958</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="39" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="64" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="64"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="65" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="65" t="s">
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="55" t="s">
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="39" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="54">
+      <c r="B15" s="38">
         <v>43959</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="67"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="44" t="s">
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="54">
+      <c r="B16" s="38">
         <v>43960</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="39" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="67"/>
-      <c r="M16" s="69" t="s">
+      <c r="L16" s="44"/>
+      <c r="M16" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="70" t="s">
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="46" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="54">
+      <c r="B17" s="38">
         <v>43961</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="67"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="64" t="s">
         <v>113</v>
       </c>
       <c r="F17" s="64"/>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="54">
+      <c r="B18" s="38">
         <v>43962</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="J18" s="62" t="s">
+      <c r="F18" s="62"/>
+      <c r="J18" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="62"/>
-      <c r="M18" s="42" t="s">
+      <c r="K18" s="63"/>
+      <c r="M18" s="26" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="54">
+      <c r="B19" s="38">
         <v>43963</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="J19" s="71" t="s">
+      <c r="F19" s="62"/>
+      <c r="J19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="62" t="s">
+      <c r="K19" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="62"/>
+      <c r="L19" s="63"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="54">
+      <c r="B20" s="38">
         <v>43964</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="J20" s="65" t="s">
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="J20" s="43" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="54">
+      <c r="B21" s="38">
         <v>43965</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="54">
+      <c r="B22" s="38">
         <v>43966</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="68" t="s">
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="54">
+      <c r="B23" s="38">
         <v>43967</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="34" t="s">
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="54">
+      <c r="B24" s="38">
         <v>43968</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="54">
+      <c r="B25" s="38">
         <v>43969</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="62" t="s">
+      <c r="G25" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="54">
+      <c r="B26" s="38">
         <v>43970</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="I26" s="62" t="s">
+      <c r="G26" s="63"/>
+      <c r="I26" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="62"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="54">
+      <c r="B27" s="38">
         <v>43971</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="45" t="s">
+      <c r="F27" s="63"/>
+      <c r="G27" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="54">
+      <c r="B28" s="38">
         <v>43972</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="29" t="s">
         <v>137</v>
       </c>
       <c r="G28" s="64" t="s">
@@ -4029,147 +4081,246 @@
       <c r="H28" s="64"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="54">
+      <c r="B29" s="38">
         <v>43973</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="J29" s="72" t="s">
+      <c r="F29" s="63"/>
+      <c r="J29" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="K29" s="68" t="s">
+      <c r="K29" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="68"/>
-      <c r="V29" s="40" t="s">
+      <c r="L29" s="62"/>
+      <c r="V29" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="54">
+      <c r="B30" s="38">
         <v>43974</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="72" t="s">
+      <c r="H30" s="63"/>
+      <c r="I30" s="48" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="54">
+      <c r="B31" s="38">
         <v>43975</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="62" t="s">
+      <c r="F31" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="34" t="s">
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="V31" s="73" t="s">
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="V31" s="49" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="54">
+      <c r="B32" s="38">
         <v>43976</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="62" t="s">
+      <c r="E32" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62" t="s">
+      <c r="F32" s="63"/>
+      <c r="G32" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="62"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="54">
+      <c r="H32" s="63"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="38">
         <v>43977</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="E33" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="68"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="54">
+      <c r="F33" s="62"/>
+      <c r="H33" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="38">
         <v>43978</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="54">
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="38">
         <v>43979</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="54">
+      <c r="E35" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="62"/>
+      <c r="I35" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" s="63"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="38">
         <v>43980</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="38">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="38">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="38">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="38">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="38">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="38">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="38">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="38">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="38">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="38">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="38">
+        <v>43991</v>
+      </c>
+      <c r="C47" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="38">
+        <v>43992</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="38">
+        <v>43993</v>
+      </c>
+      <c r="C49" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="H23:O24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
+  <mergeCells count="51">
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:R10"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="E18:F18"/>
@@ -4185,18 +4336,26 @@
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="H15:R15"/>
-    <mergeCell ref="V8:V12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:R10"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="H23:O24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H33:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="163">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1692,6 +1692,50 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h推理</t>
+    <rPh sb="2" eb="3">
+      <t>tui'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑推理2h</t>
+    <rPh sb="0" eb="1">
+      <t>luo'ji'tui'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行测复盘</t>
+    <rPh sb="0" eb="1">
+      <t>xing'ce'fu'pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱加强错题</t>
+    <rPh sb="0" eb="1">
+      <t>xue'ruo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'qiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cuo'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡金龙逻辑推理</t>
+    <rPh sb="0" eb="1">
+      <t>cai'jin'long</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>luo'ji'tui'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1927,7 +1971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2138,6 +2182,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2147,12 +2194,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFD4E8FF"/>
       <color rgb="FFEB94A0"/>
       <color rgb="FFD793CA"/>
       <color rgb="FF75A992"/>
       <color rgb="FF75B3AF"/>
       <color rgb="FF44B3AF"/>
-      <color rgb="FFD4E8FF"/>
       <color rgb="FFAEE8CA"/>
       <color rgb="FF3BB5B0"/>
       <color rgb="FF34D769"/>
@@ -3351,8 +3398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:K34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4214,6 +4261,9 @@
         <v>157</v>
       </c>
       <c r="J35" s="63"/>
+      <c r="K35" s="26" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="38">
@@ -4222,16 +4272,36 @@
       <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
+      <c r="E36" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="75"/>
+      <c r="G36" s="29" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="38">
         <v>43981</v>
       </c>
+      <c r="C37" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="75"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="38">
         <v>43982</v>
       </c>
+      <c r="C38" s="39" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="38">
@@ -4304,11 +4374,13 @@
       <c r="E49" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="53">
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="163">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1692,6 +1692,50 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h推理</t>
+    <rPh sb="2" eb="3">
+      <t>tui'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑推理2h</t>
+    <rPh sb="0" eb="1">
+      <t>luo'ji'tui'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行测复盘</t>
+    <rPh sb="0" eb="1">
+      <t>xing'ce'fu'pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱加强错题</t>
+    <rPh sb="0" eb="1">
+      <t>xue'ruo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'qiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cuo'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡金龙逻辑推理</t>
+    <rPh sb="0" eb="1">
+      <t>cai'jin'long</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>luo'ji'tui'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1927,7 +1971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2064,6 +2108,27 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2079,31 +2144,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2120,24 +2185,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2147,12 +2194,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFD4E8FF"/>
       <color rgb="FFEB94A0"/>
       <color rgb="FFD793CA"/>
       <color rgb="FF75A992"/>
       <color rgb="FF75B3AF"/>
       <color rgb="FF44B3AF"/>
-      <color rgb="FFD4E8FF"/>
       <color rgb="FFAEE8CA"/>
       <color rgb="FF3BB5B0"/>
       <color rgb="FF34D769"/>
@@ -2445,46 +2492,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -2499,20 +2546,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -2603,16 +2650,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="53"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="54"/>
+      <c r="O8" s="61"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2646,7 +2693,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="55" t="s">
+      <c r="V9" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2677,7 +2724,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="55"/>
+      <c r="V10" s="53"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -2688,20 +2735,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="57" t="s">
+      <c r="N11" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="57"/>
+      <c r="O11" s="56"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -2721,24 +2768,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60" t="s">
+      <c r="M12" s="51"/>
+      <c r="N12" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="60"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2767,16 +2814,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="60" t="s">
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -2795,20 +2842,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="60"/>
+      <c r="M14" s="54"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2877,7 +2924,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="55" t="s">
+      <c r="V16" s="53" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2906,7 +2953,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="55"/>
+      <c r="V17" s="53"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -2917,13 +2964,13 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -2959,13 +3006,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="58" t="s">
+      <c r="K19" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -2991,17 +3038,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="59"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3026,20 +3073,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="58" t="s">
+      <c r="J21" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58" t="s">
+      <c r="K21" s="52"/>
+      <c r="L21" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="58"/>
+      <c r="M21" s="52"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3062,24 +3109,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="59" t="s">
+      <c r="O22" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="59"/>
+      <c r="P22" s="51"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3094,10 +3141,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3130,17 +3177,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3166,28 +3213,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="61" t="s">
+      <c r="F25" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="61"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="58" t="s">
+      <c r="L25" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="58" t="s">
+      <c r="R25" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="58"/>
+      <c r="S25" s="52"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3199,22 +3246,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61" t="s">
+      <c r="E26" s="50"/>
+      <c r="F26" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="61" t="s">
+      <c r="L26" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="61"/>
+      <c r="M26" s="50"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3238,28 +3285,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59" t="s">
+      <c r="J27" s="51"/>
+      <c r="K27" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="59"/>
+      <c r="L27" s="51"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="59" t="s">
+      <c r="R27" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="59"/>
+      <c r="S27" s="51"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3275,18 +3322,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="59"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3301,29 +3348,11 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V9:V10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="F21:H21"/>
@@ -3336,11 +3365,29 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3351,8 +3398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:K34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3366,68 +3413,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="26" t="s">
         <v>39</v>
       </c>
@@ -3442,20 +3489,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="30" t="s">
         <v>43</v>
       </c>
@@ -3544,11 +3591,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -3565,7 +3612,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="41"/>
-      <c r="V8" s="69" t="s">
+      <c r="V8" s="67" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3577,28 +3624,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73" t="s">
+      <c r="F9" s="69"/>
+      <c r="G9" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="70"/>
+      <c r="V9" s="68"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="38">
@@ -3614,22 +3661,22 @@
       <c r="F10" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
       <c r="U10" s="41"/>
-      <c r="V10" s="70"/>
+      <c r="V10" s="68"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="38">
@@ -3639,10 +3686,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
@@ -3658,7 +3705,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
       <c r="U11" s="41"/>
-      <c r="V11" s="70"/>
+      <c r="V11" s="68"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="38">
@@ -3668,11 +3715,11 @@
         <v>3</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -3689,7 +3736,7 @@
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="70"/>
+      <c r="V12" s="68"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="38">
@@ -3704,17 +3751,17 @@
       <c r="E13" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="66"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -3732,10 +3779,10 @@
       <c r="C14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="64"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="39"/>
       <c r="G14" s="43" t="s">
         <v>22</v>
@@ -3745,11 +3792,11 @@
       <c r="J14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -3769,27 +3816,27 @@
       <c r="C15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="44"/>
       <c r="G15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
       <c r="S15" s="28" t="s">
         <v>107</v>
       </c>
@@ -3805,12 +3852,12 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23" t="s">
         <v>110</v>
@@ -3839,20 +3886,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="44"/>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="64"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
@@ -3871,10 +3918,10 @@
       <c r="C18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="65"/>
       <c r="J18" s="63" t="s">
         <v>116</v>
       </c>
@@ -3890,10 +3937,10 @@
       <c r="C19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="65"/>
       <c r="J19" s="47" t="s">
         <v>42</v>
       </c>
@@ -3909,11 +3956,11 @@
       <c r="C20" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
       <c r="J20" s="43" t="s">
         <v>21</v>
       </c>
@@ -3925,13 +3972,13 @@
       <c r="C21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="38">
@@ -3940,16 +3987,16 @@
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="62" t="s">
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="38">
@@ -3963,16 +4010,16 @@
       </c>
       <c r="F23" s="63"/>
       <c r="G23" s="63"/>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="38">
@@ -3986,14 +4033,14 @@
       </c>
       <c r="F24" s="63"/>
       <c r="G24" s="63"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="38">
@@ -4050,17 +4097,17 @@
       <c r="H27" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="38">
@@ -4075,10 +4122,10 @@
       <c r="F28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="64"/>
+      <c r="H28" s="71"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="38">
@@ -4094,10 +4141,10 @@
       <c r="J29" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="62"/>
+      <c r="L29" s="65"/>
       <c r="V29" s="25" t="s">
         <v>143</v>
       </c>
@@ -4135,12 +4182,12 @@
       </c>
       <c r="G31" s="63"/>
       <c r="H31" s="63"/>
-      <c r="I31" s="52" t="s">
+      <c r="I31" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
       <c r="V31" s="49" t="s">
         <v>150</v>
       </c>
@@ -4168,16 +4215,16 @@
       <c r="C33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="H33" s="52" t="s">
+      <c r="F33" s="65"/>
+      <c r="H33" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="38">
@@ -4191,10 +4238,10 @@
       </c>
       <c r="F34" s="63"/>
       <c r="G34" s="63"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="38">
@@ -4206,14 +4253,17 @@
       <c r="E35" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="62"/>
+      <c r="G35" s="65"/>
       <c r="I35" s="63" t="s">
         <v>157</v>
       </c>
       <c r="J35" s="63"/>
+      <c r="K35" s="26" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="38">
@@ -4222,16 +4272,36 @@
       <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
+      <c r="E36" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="29" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="38">
         <v>43981</v>
       </c>
+      <c r="C37" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="64"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="38">
         <v>43982</v>
       </c>
+      <c r="C38" s="39" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="38">
@@ -4277,50 +4347,54 @@
       <c r="B47" s="38">
         <v>43991</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="38">
         <v>43992</v>
       </c>
-      <c r="C48" s="74" t="s">
+      <c r="C48" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="38">
         <v>43993</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="V8:V12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:R10"/>
+  <mergeCells count="53">
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H33:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="H23:O24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="E18:F18"/>
@@ -4336,26 +4410,24 @@
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="H15:R15"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="H23:O24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H33:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:R10"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -2108,82 +2108,82 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2492,46 +2492,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -2546,20 +2546,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -2650,16 +2650,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="61"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2693,7 +2693,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="53" t="s">
+      <c r="V9" s="55" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="53"/>
+      <c r="V10" s="55"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -2735,20 +2735,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="56" t="s">
+      <c r="N11" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -2768,24 +2768,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="54" t="s">
+      <c r="M12" s="59"/>
+      <c r="N12" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="54"/>
+      <c r="O12" s="60"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2814,16 +2814,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="54" t="s">
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -2842,20 +2842,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="54" t="s">
+      <c r="L14" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="54"/>
+      <c r="M14" s="60"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2924,7 +2924,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="53" t="s">
+      <c r="V16" s="55" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="53"/>
+      <c r="V17" s="55"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -2964,13 +2964,13 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -3006,13 +3006,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="52" t="s">
+      <c r="K19" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3038,17 +3038,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="51"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="52" t="s">
+      <c r="J20" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3073,20 +3073,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52" t="s">
+      <c r="K21" s="58"/>
+      <c r="L21" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="52"/>
+      <c r="M21" s="58"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3109,24 +3109,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="51" t="s">
+      <c r="O22" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="51"/>
+      <c r="P22" s="59"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3141,10 +3141,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="51"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3177,17 +3177,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3213,28 +3213,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="50"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="52" t="s">
+      <c r="L25" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="52" t="s">
+      <c r="R25" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="52"/>
+      <c r="S25" s="58"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3246,22 +3246,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50" t="s">
+      <c r="E26" s="61"/>
+      <c r="F26" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="50"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="50" t="s">
+      <c r="L26" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="50"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3285,28 +3285,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51" t="s">
+      <c r="J27" s="59"/>
+      <c r="K27" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="51"/>
+      <c r="L27" s="59"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="51" t="s">
+      <c r="R27" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="51"/>
+      <c r="S27" s="59"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3322,18 +3322,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="51"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3348,11 +3348,29 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="F21:H21"/>
@@ -3365,29 +3383,11 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3399,7 +3399,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3413,68 +3413,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="26" t="s">
         <v>39</v>
       </c>
@@ -3489,20 +3489,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
       <c r="P4" s="30" t="s">
         <v>43</v>
       </c>
@@ -3591,11 +3591,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -3612,7 +3612,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="41"/>
-      <c r="V8" s="67" t="s">
+      <c r="V8" s="69" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3624,28 +3624,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70" t="s">
+      <c r="F9" s="72"/>
+      <c r="G9" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="68"/>
+      <c r="V9" s="70"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="38">
@@ -3661,22 +3661,22 @@
       <c r="F10" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
       <c r="U10" s="41"/>
-      <c r="V10" s="68"/>
+      <c r="V10" s="70"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="38">
@@ -3686,10 +3686,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="73"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
@@ -3705,7 +3705,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
       <c r="U11" s="41"/>
-      <c r="V11" s="68"/>
+      <c r="V11" s="70"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="38">
@@ -3715,11 +3715,11 @@
         <v>3</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -3736,7 +3736,7 @@
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="68"/>
+      <c r="V12" s="70"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="38">
@@ -3751,17 +3751,17 @@
       <c r="E13" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="66"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
-      <c r="K13" s="66" t="s">
+      <c r="K13" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -3779,10 +3779,10 @@
       <c r="C14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="71"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="39"/>
       <c r="G14" s="43" t="s">
         <v>22</v>
@@ -3792,11 +3792,11 @@
       <c r="J14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="72" t="s">
+      <c r="K14" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -3816,27 +3816,27 @@
       <c r="C15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="59"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="44"/>
       <c r="G15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
       <c r="S15" s="28" t="s">
         <v>107</v>
       </c>
@@ -3852,12 +3852,12 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23" t="s">
         <v>110</v>
@@ -3886,20 +3886,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="44"/>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="71"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
@@ -3918,10 +3918,10 @@
       <c r="C18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="65"/>
+      <c r="F18" s="62"/>
       <c r="J18" s="63" t="s">
         <v>116</v>
       </c>
@@ -3937,10 +3937,10 @@
       <c r="C19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="65"/>
+      <c r="F19" s="62"/>
       <c r="J19" s="47" t="s">
         <v>42</v>
       </c>
@@ -3956,11 +3956,11 @@
       <c r="C20" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
       <c r="J20" s="43" t="s">
         <v>21</v>
       </c>
@@ -3972,13 +3972,13 @@
       <c r="C21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="38">
@@ -3987,16 +3987,16 @@
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="65" t="s">
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="38">
@@ -4010,16 +4010,16 @@
       </c>
       <c r="F23" s="63"/>
       <c r="G23" s="63"/>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="38">
@@ -4033,14 +4033,14 @@
       </c>
       <c r="F24" s="63"/>
       <c r="G24" s="63"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="38">
@@ -4097,17 +4097,17 @@
       <c r="H27" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="38">
@@ -4122,10 +4122,10 @@
       <c r="F28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="71" t="s">
+      <c r="G28" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="71"/>
+      <c r="H28" s="64"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="38">
@@ -4141,10 +4141,10 @@
       <c r="J29" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="K29" s="65" t="s">
+      <c r="K29" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="65"/>
+      <c r="L29" s="62"/>
       <c r="V29" s="25" t="s">
         <v>143</v>
       </c>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="G31" s="63"/>
       <c r="H31" s="63"/>
-      <c r="I31" s="59" t="s">
+      <c r="I31" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
       <c r="V31" s="49" t="s">
         <v>150</v>
       </c>
@@ -4215,16 +4215,16 @@
       <c r="C33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="H33" s="59" t="s">
+      <c r="F33" s="62"/>
+      <c r="H33" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="38">
@@ -4238,10 +4238,10 @@
       </c>
       <c r="F34" s="63"/>
       <c r="G34" s="63"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="38">
@@ -4253,10 +4253,10 @@
       <c r="E35" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="65"/>
+      <c r="G35" s="62"/>
       <c r="I35" s="63" t="s">
         <v>157</v>
       </c>
@@ -4272,10 +4272,10 @@
       <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="64"/>
+      <c r="F36" s="75"/>
       <c r="G36" s="29" t="s">
         <v>160</v>
       </c>
@@ -4290,10 +4290,10 @@
       <c r="E37" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="64" t="s">
+      <c r="F37" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="64"/>
+      <c r="G37" s="75"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="38">
@@ -4347,54 +4347,52 @@
       <c r="B47" s="38">
         <v>43991</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="38">
         <v>43992</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="38">
         <v>43993</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H33:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="H23:O24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:R10"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="E18:F18"/>
@@ -4410,24 +4408,26 @@
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="H15:R15"/>
-    <mergeCell ref="V8:V12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:R10"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="H23:O24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H33:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -1971,7 +1971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2106,6 +2106,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2492,46 +2495,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -2546,20 +2549,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -2650,16 +2653,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="53"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="54"/>
+      <c r="O8" s="55"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2693,7 +2696,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="55" t="s">
+      <c r="V9" s="56" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2724,7 +2727,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="55"/>
+      <c r="V10" s="56"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -2735,20 +2738,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="57" t="s">
+      <c r="N11" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="57"/>
+      <c r="O11" s="58"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -2768,24 +2771,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60" t="s">
+      <c r="M12" s="60"/>
+      <c r="N12" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="60"/>
+      <c r="O12" s="61"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2814,16 +2817,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="60" t="s">
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -2842,20 +2845,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="60"/>
+      <c r="M14" s="61"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2924,7 +2927,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="55" t="s">
+      <c r="V16" s="56" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2953,7 +2956,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="55"/>
+      <c r="V17" s="56"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -2964,13 +2967,13 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -3006,13 +3009,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="58" t="s">
+      <c r="K19" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3038,17 +3041,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="59"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3073,20 +3076,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="58" t="s">
+      <c r="J21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58" t="s">
+      <c r="K21" s="59"/>
+      <c r="L21" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="58"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3109,24 +3112,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="59" t="s">
+      <c r="O22" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="59"/>
+      <c r="P22" s="60"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3141,10 +3144,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3177,17 +3180,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3213,28 +3216,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="61" t="s">
+      <c r="F25" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="61"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="58" t="s">
+      <c r="L25" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="58" t="s">
+      <c r="R25" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="58"/>
+      <c r="S25" s="59"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3246,22 +3249,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61" t="s">
+      <c r="E26" s="62"/>
+      <c r="F26" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="61" t="s">
+      <c r="L26" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="61"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3285,28 +3288,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59" t="s">
+      <c r="J27" s="60"/>
+      <c r="K27" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="59"/>
+      <c r="L27" s="60"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="59" t="s">
+      <c r="R27" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="59"/>
+      <c r="S27" s="60"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3322,18 +3325,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="59"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3399,7 +3402,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3413,68 +3416,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
       <c r="P3" s="26" t="s">
         <v>39</v>
       </c>
@@ -3489,20 +3492,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
       <c r="P4" s="30" t="s">
         <v>43</v>
       </c>
@@ -3591,11 +3594,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -3612,7 +3615,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="41"/>
-      <c r="V8" s="69" t="s">
+      <c r="V8" s="70" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3624,28 +3627,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73" t="s">
+      <c r="F9" s="73"/>
+      <c r="G9" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="70"/>
+      <c r="V9" s="71"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="38">
@@ -3661,22 +3664,22 @@
       <c r="F10" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
       <c r="U10" s="41"/>
-      <c r="V10" s="70"/>
+      <c r="V10" s="71"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="38">
@@ -3686,10 +3689,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
@@ -3705,7 +3708,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
       <c r="U11" s="41"/>
-      <c r="V11" s="70"/>
+      <c r="V11" s="71"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="38">
@@ -3715,18 +3718,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="63" t="s">
+      <c r="K12" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="63"/>
+      <c r="L12" s="64"/>
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
@@ -3736,7 +3739,7 @@
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="70"/>
+      <c r="V12" s="71"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="38">
@@ -3751,17 +3754,17 @@
       <c r="E13" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -3779,10 +3782,10 @@
       <c r="C14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="64"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="39"/>
       <c r="G14" s="43" t="s">
         <v>22</v>
@@ -3792,11 +3795,11 @@
       <c r="J14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -3816,27 +3819,27 @@
       <c r="C15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="44"/>
       <c r="G15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
       <c r="S15" s="28" t="s">
         <v>107</v>
       </c>
@@ -3852,12 +3855,12 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23" t="s">
         <v>110</v>
@@ -3886,20 +3889,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="44"/>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="64"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
@@ -3918,14 +3921,14 @@
       <c r="C18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="J18" s="63" t="s">
+      <c r="F18" s="63"/>
+      <c r="J18" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="63"/>
+      <c r="K18" s="64"/>
       <c r="M18" s="26" t="s">
         <v>117</v>
       </c>
@@ -3937,17 +3940,17 @@
       <c r="C19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="63"/>
       <c r="J19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="63" t="s">
+      <c r="K19" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="63"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="38">
@@ -3956,11 +3959,11 @@
       <c r="C20" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="J20" s="43" t="s">
         <v>21</v>
       </c>
@@ -3972,13 +3975,13 @@
       <c r="C21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="38">
@@ -3987,16 +3990,16 @@
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="62" t="s">
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="38">
@@ -4005,21 +4008,21 @@
       <c r="C23" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="52" t="s">
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="38">
@@ -4028,19 +4031,19 @@
       <c r="C24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="38">
@@ -4055,11 +4058,11 @@
       <c r="F25" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="63" t="s">
+      <c r="G25" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="38">
@@ -4071,14 +4074,14 @@
       <c r="E26" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="I26" s="63" t="s">
+      <c r="G26" s="64"/>
+      <c r="I26" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="63"/>
+      <c r="J26" s="64"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="38">
@@ -4087,27 +4090,27 @@
       <c r="C27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="63"/>
+      <c r="F27" s="64"/>
       <c r="G27" s="29" t="s">
         <v>135</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="38">
@@ -4122,10 +4125,10 @@
       <c r="F28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="64"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="38">
@@ -4134,17 +4137,17 @@
       <c r="C29" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="63"/>
+      <c r="F29" s="64"/>
       <c r="J29" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="62"/>
+      <c r="L29" s="63"/>
       <c r="V29" s="25" t="s">
         <v>143</v>
       </c>
@@ -4159,10 +4162,10 @@
       <c r="E30" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="63"/>
+      <c r="H30" s="64"/>
       <c r="I30" s="48" t="s">
         <v>148</v>
       </c>
@@ -4177,17 +4180,17 @@
       <c r="E31" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="52" t="s">
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
       <c r="V31" s="49" t="s">
         <v>150</v>
       </c>
@@ -4199,14 +4202,14 @@
       <c r="C32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63" t="s">
+      <c r="F32" s="64"/>
+      <c r="G32" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="63"/>
+      <c r="H32" s="64"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="38">
@@ -4215,16 +4218,16 @@
       <c r="C33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="H33" s="52" t="s">
+      <c r="F33" s="63"/>
+      <c r="H33" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="38">
@@ -4233,15 +4236,15 @@
       <c r="C34" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="38">
@@ -4253,14 +4256,14 @@
       <c r="E35" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="62"/>
-      <c r="I35" s="63" t="s">
+      <c r="G35" s="63"/>
+      <c r="I35" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="J35" s="63"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="26" t="s">
         <v>158</v>
       </c>
@@ -4272,10 +4275,10 @@
       <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="75"/>
+      <c r="F36" s="76"/>
       <c r="G36" s="29" t="s">
         <v>160</v>
       </c>
@@ -4290,10 +4293,11 @@
       <c r="E37" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="75"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="50"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="38">
@@ -4347,31 +4351,31 @@
       <c r="B47" s="38">
         <v>43991</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="38">
         <v>43992</v>
       </c>
-      <c r="C48" s="74" t="s">
+      <c r="C48" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="38">
         <v>43993</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="53">

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="169">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1736,6 +1736,69 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>luo'ji'tui'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇复习</t>
+    <rPh sb="0" eb="1">
+      <t>ci'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李委明资料</t>
+    <rPh sb="0" eb="1">
+      <t>li'wei'ming</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月分数稳如狗（65左右）</t>
+    <rPh sb="0" eb="1">
+      <t>wu'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'shu'wen'ru'gou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zuo'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李委明资料</t>
+    <rPh sb="3" eb="4">
+      <t>zi'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽2012</t>
+    <rPh sb="0" eb="1">
+      <t>an'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收拾房间</t>
+    <rPh sb="0" eb="1">
+      <t>shou'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1971,7 +2034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2111,6 +2174,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2188,6 +2254,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2483,7 +2555,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2495,46 +2567,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -2549,20 +2621,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -2653,16 +2725,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="54"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="55"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2696,7 +2768,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="56" t="s">
+      <c r="V9" s="57" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2727,7 +2799,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="56"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -2738,20 +2810,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="58" t="s">
+      <c r="N11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="58"/>
+      <c r="O11" s="59"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -2771,24 +2843,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61" t="s">
+      <c r="M12" s="61"/>
+      <c r="N12" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="61"/>
+      <c r="O12" s="62"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2817,16 +2889,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="58" t="s">
+      <c r="K13" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="61" t="s">
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -2845,20 +2917,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="61" t="s">
+      <c r="L14" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="61"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2927,7 +2999,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="56" t="s">
+      <c r="V16" s="57" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2956,7 +3028,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="56"/>
+      <c r="V17" s="57"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -2967,13 +3039,13 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -3009,13 +3081,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3041,17 +3113,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="59" t="s">
+      <c r="J20" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3076,20 +3148,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59" t="s">
+      <c r="K21" s="60"/>
+      <c r="L21" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="59"/>
+      <c r="M21" s="60"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3112,24 +3184,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="60" t="s">
+      <c r="O22" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="60"/>
+      <c r="P22" s="61"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3144,10 +3216,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="60"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3180,17 +3252,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="62" t="s">
+      <c r="J24" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3216,28 +3288,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="62"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="59" t="s">
+      <c r="R25" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="59"/>
+      <c r="S25" s="60"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3249,22 +3321,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62" t="s">
+      <c r="E26" s="63"/>
+      <c r="F26" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="62"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="62" t="s">
+      <c r="L26" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="62"/>
+      <c r="M26" s="63"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3288,28 +3360,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="62" t="s">
+      <c r="F27" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="62"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60" t="s">
+      <c r="J27" s="61"/>
+      <c r="K27" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="60"/>
+      <c r="L27" s="61"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="60" t="s">
+      <c r="R27" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="60"/>
+      <c r="S27" s="61"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3325,18 +3397,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="60"/>
+      <c r="G28" s="61"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="60" t="s">
+      <c r="K28" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3370,10 +3442,10 @@
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="V16:V17"/>
-    <mergeCell ref="F18:J18"/>
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="F21:H21"/>
@@ -3401,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3416,68 +3488,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="26" t="s">
         <v>39</v>
       </c>
@@ -3492,20 +3564,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="30" t="s">
         <v>43</v>
       </c>
@@ -3594,11 +3666,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -3615,7 +3687,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="41"/>
-      <c r="V8" s="70" t="s">
+      <c r="V8" s="71" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3627,28 +3699,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74" t="s">
+      <c r="F9" s="74"/>
+      <c r="G9" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="72"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="38">
@@ -3664,22 +3736,22 @@
       <c r="F10" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
       <c r="U10" s="41"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="72"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="38">
@@ -3689,10 +3761,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="67"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
@@ -3708,7 +3780,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
       <c r="U11" s="41"/>
-      <c r="V11" s="71"/>
+      <c r="V11" s="72"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="38">
@@ -3718,18 +3790,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="64"/>
+      <c r="L12" s="65"/>
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
@@ -3739,7 +3811,7 @@
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="71"/>
+      <c r="V12" s="72"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="38">
@@ -3754,17 +3826,17 @@
       <c r="E13" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -3782,10 +3854,10 @@
       <c r="C14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="39"/>
       <c r="G14" s="43" t="s">
         <v>22</v>
@@ -3795,11 +3867,11 @@
       <c r="J14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -3819,27 +3891,27 @@
       <c r="C15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="53"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="44"/>
       <c r="G15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
       <c r="S15" s="28" t="s">
         <v>107</v>
       </c>
@@ -3855,12 +3927,12 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23" t="s">
         <v>110</v>
@@ -3889,20 +3961,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="44"/>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
@@ -3921,14 +3993,14 @@
       <c r="C18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="J18" s="64" t="s">
+      <c r="F18" s="64"/>
+      <c r="J18" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="64"/>
+      <c r="K18" s="65"/>
       <c r="M18" s="26" t="s">
         <v>117</v>
       </c>
@@ -3940,17 +4012,17 @@
       <c r="C19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="63"/>
+      <c r="F19" s="64"/>
       <c r="J19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="64"/>
+      <c r="L19" s="65"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="38">
@@ -3959,11 +4031,11 @@
       <c r="C20" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
       <c r="J20" s="43" t="s">
         <v>21</v>
       </c>
@@ -3975,13 +4047,13 @@
       <c r="C21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="38">
@@ -3990,16 +4062,16 @@
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="72" t="s">
+      <c r="F22" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="63" t="s">
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="38">
@@ -4008,21 +4080,21 @@
       <c r="C23" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="53" t="s">
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="38">
@@ -4031,19 +4103,19 @@
       <c r="C24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="38">
@@ -4058,11 +4130,11 @@
       <c r="F25" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="38">
@@ -4074,14 +4146,14 @@
       <c r="E26" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="I26" s="64" t="s">
+      <c r="G26" s="65"/>
+      <c r="I26" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="38">
@@ -4090,27 +4162,27 @@
       <c r="C27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="64"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="29" t="s">
         <v>135</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="38">
@@ -4125,10 +4197,10 @@
       <c r="F28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="65" t="s">
+      <c r="G28" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="65"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="38">
@@ -4137,17 +4209,17 @@
       <c r="C29" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="64"/>
+      <c r="F29" s="65"/>
       <c r="J29" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="K29" s="63" t="s">
+      <c r="K29" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="63"/>
+      <c r="L29" s="64"/>
       <c r="V29" s="25" t="s">
         <v>143</v>
       </c>
@@ -4162,10 +4234,10 @@
       <c r="E30" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="64"/>
+      <c r="H30" s="65"/>
       <c r="I30" s="48" t="s">
         <v>148</v>
       </c>
@@ -4180,17 +4252,17 @@
       <c r="E31" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="64" t="s">
+      <c r="F31" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="53" t="s">
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
       <c r="V31" s="49" t="s">
         <v>150</v>
       </c>
@@ -4202,51 +4274,51 @@
       <c r="C32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64" t="s">
+      <c r="F32" s="65"/>
+      <c r="G32" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="64"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H32" s="65"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="38">
         <v>43977</v>
       </c>
       <c r="C33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="63"/>
-      <c r="H33" s="53" t="s">
+      <c r="F33" s="64"/>
+      <c r="H33" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="38">
         <v>43978</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="38">
         <v>43979</v>
       </c>
@@ -4256,34 +4328,34 @@
       <c r="E35" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="63"/>
-      <c r="I35" s="64" t="s">
+      <c r="G35" s="64"/>
+      <c r="I35" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="J35" s="64"/>
+      <c r="J35" s="65"/>
       <c r="K35" s="26" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="38">
         <v>43980</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="76"/>
+      <c r="F36" s="77"/>
       <c r="G36" s="29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="38">
         <v>43981</v>
       </c>
@@ -4293,98 +4365,150 @@
       <c r="E37" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="76" t="s">
+      <c r="F37" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="76"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="50"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="V37" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B38" s="38">
         <v>43982</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F38" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="64"/>
+      <c r="H38" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" s="78"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="38">
         <v>43983</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C39" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="50"/>
+      <c r="F39" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="65"/>
+      <c r="J39" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B40" s="38">
         <v>43984</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C40" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B41" s="38">
         <v>43985</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C41" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B42" s="38">
         <v>43986</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C42" s="39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B43" s="38">
         <v>43987</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C43" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B44" s="38">
         <v>43988</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C44" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="38">
         <v>43989</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C45" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B46" s="38">
         <v>43990</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C46" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B47" s="38">
         <v>43991</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="38">
         <v>43992</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="38">
         <v>43993</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="56">
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="173">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1799,6 +1799,40 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>fang'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇</t>
+    <rPh sb="0" eb="1">
+      <t>ci'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论1.5h</t>
+    <rPh sb="0" eb="1">
+      <t>shen'lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽2013</t>
+    <rPh sb="0" eb="1">
+      <t>an'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语题+词汇</t>
+    <rPh sb="0" eb="1">
+      <t>yan'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci'hui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2034,7 +2068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2175,6 +2209,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2567,46 +2607,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -2621,20 +2661,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -2725,16 +2765,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="56"/>
+      <c r="O8" s="58"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2768,7 +2808,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="57" t="s">
+      <c r="V9" s="59" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2799,7 +2839,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="57"/>
+      <c r="V10" s="59"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -2810,20 +2850,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="59" t="s">
+      <c r="N11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="59"/>
+      <c r="O11" s="61"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -2843,24 +2883,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62" t="s">
+      <c r="M12" s="63"/>
+      <c r="N12" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="62"/>
+      <c r="O12" s="64"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2889,16 +2929,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="62" t="s">
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -2917,20 +2957,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="62"/>
+      <c r="M14" s="64"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2999,7 +3039,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="57" t="s">
+      <c r="V16" s="59" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3028,7 +3068,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="57"/>
+      <c r="V17" s="59"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -3039,12 +3079,12 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3081,13 +3121,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="60" t="s">
+      <c r="K19" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3113,17 +3153,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3148,20 +3188,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60" t="s">
+      <c r="K21" s="62"/>
+      <c r="L21" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="60"/>
+      <c r="M21" s="62"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3184,24 +3224,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="61" t="s">
+      <c r="O22" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="61"/>
+      <c r="P22" s="63"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3216,10 +3256,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="61"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3252,17 +3292,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3288,28 +3328,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="63"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="60" t="s">
+      <c r="R25" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="60"/>
+      <c r="S25" s="62"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3321,22 +3361,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63" t="s">
+      <c r="E26" s="65"/>
+      <c r="F26" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="63"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="63" t="s">
+      <c r="L26" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="63"/>
+      <c r="M26" s="65"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3360,28 +3400,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="63"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="61" t="s">
+      <c r="I27" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61" t="s">
+      <c r="J27" s="63"/>
+      <c r="K27" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="61"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="61" t="s">
+      <c r="R27" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="61"/>
+      <c r="S27" s="63"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3397,18 +3437,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="61" t="s">
+      <c r="F28" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="61"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="61" t="s">
+      <c r="K28" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3473,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3488,68 +3528,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
       <c r="P3" s="26" t="s">
         <v>39</v>
       </c>
@@ -3564,20 +3604,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
       <c r="P4" s="30" t="s">
         <v>43</v>
       </c>
@@ -3666,11 +3706,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -3687,7 +3727,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="41"/>
-      <c r="V8" s="71" t="s">
+      <c r="V8" s="73" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3699,28 +3739,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75" t="s">
+      <c r="F9" s="76"/>
+      <c r="G9" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="74"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="38">
@@ -3736,22 +3776,22 @@
       <c r="F10" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
       <c r="U10" s="41"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="74"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="38">
@@ -3761,10 +3801,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="68"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
@@ -3780,7 +3820,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
       <c r="U11" s="41"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="74"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="38">
@@ -3790,18 +3830,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="65"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
@@ -3811,7 +3851,7 @@
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="72"/>
+      <c r="V12" s="74"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="38">
@@ -3826,17 +3866,17 @@
       <c r="E13" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="73"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
-      <c r="K13" s="73" t="s">
+      <c r="K13" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -3854,10 +3894,10 @@
       <c r="C14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="66"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="39"/>
       <c r="G14" s="43" t="s">
         <v>22</v>
@@ -3867,11 +3907,11 @@
       <c r="J14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="67" t="s">
+      <c r="K14" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -3891,27 +3931,27 @@
       <c r="C15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="44"/>
       <c r="G15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
       <c r="S15" s="28" t="s">
         <v>107</v>
       </c>
@@ -3927,12 +3967,12 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23" t="s">
         <v>110</v>
@@ -3961,20 +4001,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="44"/>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="66"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
@@ -3993,14 +4033,14 @@
       <c r="C18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="64"/>
-      <c r="J18" s="65" t="s">
+      <c r="F18" s="66"/>
+      <c r="J18" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="65"/>
+      <c r="K18" s="67"/>
       <c r="M18" s="26" t="s">
         <v>117</v>
       </c>
@@ -4012,17 +4052,17 @@
       <c r="C19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="64"/>
+      <c r="F19" s="66"/>
       <c r="J19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="65" t="s">
+      <c r="K19" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="65"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="38">
@@ -4031,11 +4071,11 @@
       <c r="C20" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
       <c r="J20" s="43" t="s">
         <v>21</v>
       </c>
@@ -4047,13 +4087,13 @@
       <c r="C21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="38">
@@ -4062,16 +4102,16 @@
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="64" t="s">
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="38">
@@ -4080,21 +4120,21 @@
       <c r="C23" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="54" t="s">
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="38">
@@ -4103,19 +4143,19 @@
       <c r="C24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="38">
@@ -4130,11 +4170,11 @@
       <c r="F25" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="38">
@@ -4146,14 +4186,14 @@
       <c r="E26" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="65"/>
-      <c r="I26" s="65" t="s">
+      <c r="G26" s="67"/>
+      <c r="I26" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="65"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="38">
@@ -4162,27 +4202,27 @@
       <c r="C27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="29" t="s">
         <v>135</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="54" t="s">
+      <c r="I27" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="38">
@@ -4197,10 +4237,10 @@
       <c r="F28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="66" t="s">
+      <c r="G28" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="66"/>
+      <c r="H28" s="68"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="38">
@@ -4209,17 +4249,17 @@
       <c r="C29" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="65"/>
+      <c r="F29" s="67"/>
       <c r="J29" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="K29" s="64" t="s">
+      <c r="K29" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="64"/>
+      <c r="L29" s="66"/>
       <c r="V29" s="25" t="s">
         <v>143</v>
       </c>
@@ -4234,10 +4274,10 @@
       <c r="E30" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="65"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="48" t="s">
         <v>148</v>
       </c>
@@ -4252,17 +4292,17 @@
       <c r="E31" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="54" t="s">
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
       <c r="V31" s="49" t="s">
         <v>150</v>
       </c>
@@ -4274,14 +4314,14 @@
       <c r="C32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65" t="s">
+      <c r="F32" s="67"/>
+      <c r="G32" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="65"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="38">
@@ -4290,16 +4330,16 @@
       <c r="C33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="H33" s="54" t="s">
+      <c r="F33" s="66"/>
+      <c r="H33" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="38">
@@ -4308,15 +4348,15 @@
       <c r="C34" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="38">
@@ -4328,14 +4368,14 @@
       <c r="E35" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="64"/>
-      <c r="I35" s="65" t="s">
+      <c r="G35" s="66"/>
+      <c r="I35" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="J35" s="65"/>
+      <c r="J35" s="67"/>
       <c r="K35" s="26" t="s">
         <v>158</v>
       </c>
@@ -4347,10 +4387,10 @@
       <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="77" t="s">
+      <c r="E36" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="77"/>
+      <c r="F36" s="79"/>
       <c r="G36" s="29" t="s">
         <v>160</v>
       </c>
@@ -4365,10 +4405,10 @@
       <c r="E37" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="77" t="s">
+      <c r="F37" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="77"/>
+      <c r="G37" s="79"/>
       <c r="H37" s="50"/>
       <c r="V37" s="25" t="s">
         <v>165</v>
@@ -4381,14 +4421,14 @@
       <c r="C38" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="64" t="s">
+      <c r="F38" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="78" t="s">
+      <c r="G38" s="66"/>
+      <c r="H38" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="I38" s="78"/>
+      <c r="I38" s="80"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="38">
@@ -4397,19 +4437,25 @@
       <c r="C39" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="79" t="s">
+      <c r="D39" s="81" t="s">
         <v>166</v>
       </c>
       <c r="E39" s="50"/>
-      <c r="F39" s="65" t="s">
+      <c r="F39" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="G39" s="65"/>
+      <c r="G39" s="67"/>
       <c r="J39" s="51" t="s">
         <v>132</v>
       </c>
       <c r="K39" s="25" t="s">
         <v>168</v>
+      </c>
+      <c r="L39" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="N39" s="53" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
@@ -4419,6 +4465,13 @@
       <c r="C40" s="39" t="s">
         <v>3</v>
       </c>
+      <c r="E40" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B41" s="38">
@@ -4472,34 +4525,34 @@
       <c r="B47" s="38">
         <v>43991</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="38">
         <v>43992</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="38">
         <v>43993</v>
       </c>
-      <c r="C49" s="76" t="s">
+      <c r="C49" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
@@ -4509,6 +4562,7 @@
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="178">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1834,6 +1834,56 @@
     <rPh sb="4" eb="5">
       <t>ci'hui</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论</t>
+    <rPh sb="0" eb="1">
+      <t>shen'lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距省考52天</t>
+    <rPh sb="0" eb="1">
+      <t>ju'li'sheng'kao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sheng'kao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距省考51天</t>
+    <rPh sb="0" eb="1">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sheng'kao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距省考50天</t>
+    <rPh sb="0" eb="1">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sheng'kao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2068,7 +2118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2217,6 +2267,33 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2232,31 +2309,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2273,33 +2353,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2607,46 +2660,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -2661,20 +2714,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -2765,16 +2818,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="57"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="58" t="s">
+      <c r="N8" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="58"/>
+      <c r="O8" s="67"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2850,20 +2903,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="61" t="s">
+      <c r="N11" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="61"/>
+      <c r="O11" s="62"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -2883,24 +2936,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="64" t="s">
+      <c r="M12" s="57"/>
+      <c r="N12" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="64"/>
+      <c r="O12" s="60"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2929,16 +2982,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="61" t="s">
+      <c r="K13" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="64" t="s">
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -2957,20 +3010,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="64" t="s">
+      <c r="L14" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="64"/>
+      <c r="M14" s="60"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3079,12 +3132,12 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3121,13 +3174,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="62" t="s">
+      <c r="K19" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3153,17 +3206,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="63"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="62" t="s">
+      <c r="J20" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3188,20 +3241,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62" t="s">
+      <c r="K21" s="58"/>
+      <c r="L21" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="62"/>
+      <c r="M21" s="58"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3224,24 +3277,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="63" t="s">
+      <c r="O22" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="63"/>
+      <c r="P22" s="57"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3256,10 +3309,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="63"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3292,17 +3345,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3328,28 +3381,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="65"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="62" t="s">
+      <c r="L25" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="62" t="s">
+      <c r="R25" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="62"/>
+      <c r="S25" s="58"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3361,22 +3414,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65" t="s">
+      <c r="E26" s="56"/>
+      <c r="F26" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="65"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="65" t="s">
+      <c r="L26" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="65"/>
+      <c r="M26" s="56"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3400,28 +3453,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63" t="s">
+      <c r="J27" s="57"/>
+      <c r="K27" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="63"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="63" t="s">
+      <c r="R27" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="63"/>
+      <c r="S27" s="57"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3437,18 +3490,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="63"/>
+      <c r="G28" s="57"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="63" t="s">
+      <c r="K28" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3463,29 +3516,11 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V9:V10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="F21:H21"/>
@@ -3498,11 +3533,29 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3511,10 +3564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3528,68 +3581,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="26" t="s">
         <v>39</v>
       </c>
@@ -3604,20 +3657,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
       <c r="P4" s="30" t="s">
         <v>43</v>
       </c>
@@ -3706,11 +3759,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -3727,7 +3780,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="41"/>
-      <c r="V8" s="73" t="s">
+      <c r="V8" s="74" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3760,7 +3813,7 @@
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="74"/>
+      <c r="V9" s="75"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="38">
@@ -3791,7 +3844,7 @@
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
       <c r="U10" s="41"/>
-      <c r="V10" s="74"/>
+      <c r="V10" s="75"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="38">
@@ -3801,10 +3854,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
@@ -3820,7 +3873,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
       <c r="U11" s="41"/>
-      <c r="V11" s="74"/>
+      <c r="V11" s="75"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="38">
@@ -3830,18 +3883,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="67" t="s">
+      <c r="K12" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="67"/>
+      <c r="L12" s="69"/>
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
@@ -3851,7 +3904,7 @@
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="74"/>
+      <c r="V12" s="75"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="38">
@@ -3866,17 +3919,17 @@
       <c r="E13" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="75"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
-      <c r="K13" s="75" t="s">
+      <c r="K13" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -3894,10 +3947,10 @@
       <c r="C14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="78"/>
       <c r="F14" s="39"/>
       <c r="G14" s="43" t="s">
         <v>22</v>
@@ -3907,11 +3960,11 @@
       <c r="J14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -3931,27 +3984,27 @@
       <c r="C15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="65"/>
       <c r="F15" s="44"/>
       <c r="G15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
       <c r="S15" s="28" t="s">
         <v>107</v>
       </c>
@@ -3967,12 +4020,12 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23" t="s">
         <v>110</v>
@@ -4001,20 +4054,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="44"/>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="68"/>
+      <c r="F17" s="78"/>
       <c r="G17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
@@ -4033,14 +4086,14 @@
       <c r="C18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="J18" s="67" t="s">
+      <c r="F18" s="71"/>
+      <c r="J18" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="67"/>
+      <c r="K18" s="69"/>
       <c r="M18" s="26" t="s">
         <v>117</v>
       </c>
@@ -4052,17 +4105,17 @@
       <c r="C19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="66"/>
+      <c r="F19" s="71"/>
       <c r="J19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="67" t="s">
+      <c r="K19" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="67"/>
+      <c r="L19" s="69"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="38">
@@ -4071,11 +4124,11 @@
       <c r="C20" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="J20" s="43" t="s">
         <v>21</v>
       </c>
@@ -4087,13 +4140,13 @@
       <c r="C21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="38">
@@ -4102,16 +4155,16 @@
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="66" t="s">
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="38">
@@ -4120,21 +4173,21 @@
       <c r="C23" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="56" t="s">
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="38">
@@ -4143,19 +4196,19 @@
       <c r="C24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="38">
@@ -4170,11 +4223,11 @@
       <c r="F25" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="67" t="s">
+      <c r="G25" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="38">
@@ -4186,14 +4239,14 @@
       <c r="E26" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="I26" s="67" t="s">
+      <c r="G26" s="69"/>
+      <c r="I26" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="67"/>
+      <c r="J26" s="69"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="38">
@@ -4202,27 +4255,27 @@
       <c r="C27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="67"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="29" t="s">
         <v>135</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="38">
@@ -4237,10 +4290,10 @@
       <c r="F28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="68"/>
+      <c r="H28" s="78"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="38">
@@ -4249,17 +4302,17 @@
       <c r="C29" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="67" t="s">
+      <c r="E29" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="67"/>
+      <c r="F29" s="69"/>
       <c r="J29" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="K29" s="66" t="s">
+      <c r="K29" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="66"/>
+      <c r="L29" s="71"/>
       <c r="V29" s="25" t="s">
         <v>143</v>
       </c>
@@ -4274,10 +4327,10 @@
       <c r="E30" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="G30" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="67"/>
+      <c r="H30" s="69"/>
       <c r="I30" s="48" t="s">
         <v>148</v>
       </c>
@@ -4292,17 +4345,17 @@
       <c r="E31" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="56" t="s">
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
       <c r="V31" s="49" t="s">
         <v>150</v>
       </c>
@@ -4314,51 +4367,51 @@
       <c r="C32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67" t="s">
+      <c r="F32" s="69"/>
+      <c r="G32" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="67"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="H32" s="69"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B33" s="38">
         <v>43977</v>
       </c>
       <c r="C33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="66"/>
-      <c r="H33" s="56" t="s">
+      <c r="F33" s="71"/>
+      <c r="H33" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="38">
         <v>43978</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B35" s="38">
         <v>43979</v>
       </c>
@@ -4368,34 +4421,34 @@
       <c r="E35" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="66"/>
-      <c r="I35" s="67" t="s">
+      <c r="G35" s="71"/>
+      <c r="I35" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="J35" s="67"/>
+      <c r="J35" s="69"/>
       <c r="K35" s="26" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B36" s="38">
         <v>43980</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="79" t="s">
+      <c r="E36" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="79"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B37" s="38">
         <v>43981</v>
       </c>
@@ -4405,46 +4458,46 @@
       <c r="E37" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="79" t="s">
+      <c r="F37" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="79"/>
+      <c r="G37" s="70"/>
       <c r="H37" s="50"/>
       <c r="V37" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B38" s="38">
         <v>43982</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="66" t="s">
+      <c r="F38" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="66"/>
-      <c r="H38" s="80" t="s">
+      <c r="G38" s="71"/>
+      <c r="H38" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="I38" s="80"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I38" s="72"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B39" s="38">
         <v>43983</v>
       </c>
       <c r="C39" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="55" t="s">
         <v>166</v>
       </c>
       <c r="E39" s="50"/>
-      <c r="F39" s="67" t="s">
+      <c r="F39" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="G39" s="67"/>
+      <c r="G39" s="69"/>
       <c r="J39" s="51" t="s">
         <v>132</v>
       </c>
@@ -4458,7 +4511,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B40" s="38">
         <v>43984</v>
       </c>
@@ -4468,12 +4521,22 @@
       <c r="E40" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="67" t="s">
+      <c r="F40" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="G40" s="67"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="G40" s="69"/>
+      <c r="J40" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="M40" s="78"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="25" t="s">
+        <v>174</v>
+      </c>
       <c r="B41" s="38">
         <v>43985</v>
       </c>
@@ -4481,7 +4544,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="25" t="s">
+        <v>175</v>
+      </c>
       <c r="B42" s="38">
         <v>43986</v>
       </c>
@@ -4489,7 +4555,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="54" t="s">
+        <v>176</v>
+      </c>
       <c r="B43" s="38">
         <v>43987</v>
       </c>
@@ -4497,7 +4566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B44" s="38">
         <v>43988</v>
       </c>
@@ -4505,7 +4574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B45" s="38">
         <v>43989</v>
       </c>
@@ -4513,7 +4582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B46" s="38">
         <v>43990</v>
       </c>
@@ -4521,60 +4590,64 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B47" s="38">
         <v>43991</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48" s="38">
         <v>43992</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="38">
         <v>43993</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="25" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="V8:V12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:R10"/>
+  <mergeCells count="58">
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H33:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="H23:O24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="E18:F18"/>
@@ -4590,26 +4663,28 @@
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="H15:R15"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="H23:O24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H33:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:R10"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="187">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1884,6 +1884,114 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇80min</t>
+    <rPh sb="0" eb="1">
+      <t>ci'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川2013（未复盘，须重做纸质版本）</t>
+    <rPh sb="0" eb="1">
+      <t>si'chuan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu'pan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xu'chong'zuo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi'zhi'ban'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个五月份到现在的作息都很差，导致白天效率也不够。加油呀！</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'ge'wu'yue'fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao'xian'zai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zuo'xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dou'hen'cha</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dao'zhi'bai'tain</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xiao'lv'ye'bu'gou</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jia'you'ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇45min</t>
+    <rPh sb="0" eb="1">
+      <t>ci'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料宝典</t>
+    <rPh sb="0" eb="1">
+      <t>zi'liao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料宝典</t>
+    <rPh sb="0" eb="1">
+      <t>zi'liao'fen'bao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'dain</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义判断</t>
+    <rPh sb="0" eb="1">
+      <t>ding'yi'pan'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论1宝典</t>
+    <rPh sb="0" eb="1">
+      <t>shen'lun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bao'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论宝典</t>
+    <rPh sb="0" eb="1">
+      <t>shen'lun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'dian</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2118,7 +2226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2273,85 +2381,91 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2362,8 +2476,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFEB94A0"/>
       <color rgb="FFD4E8FF"/>
-      <color rgb="FFEB94A0"/>
       <color rgb="FFD793CA"/>
       <color rgb="FF75A992"/>
       <color rgb="FF75B3AF"/>
@@ -2647,7 +2761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -2660,46 +2774,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -2714,20 +2828,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -2818,16 +2932,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="66"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="67" t="s">
+      <c r="N8" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="67"/>
+      <c r="O8" s="62"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2861,7 +2975,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="63" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2892,7 +3006,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="59"/>
+      <c r="V10" s="63"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -2903,20 +3017,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="62" t="s">
+      <c r="N11" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="62"/>
+      <c r="O11" s="65"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -2936,24 +3050,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="L12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="57"/>
-      <c r="N12" s="60" t="s">
+      <c r="M12" s="67"/>
+      <c r="N12" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="60"/>
+      <c r="O12" s="68"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2982,16 +3096,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="60" t="s">
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -3010,20 +3124,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="60"/>
+      <c r="M14" s="68"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3092,7 +3206,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="59" t="s">
+      <c r="V16" s="63" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3121,7 +3235,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="59"/>
+      <c r="V17" s="63"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -3132,12 +3246,12 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3174,13 +3288,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="58" t="s">
+      <c r="K19" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3206,17 +3320,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="57"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3241,20 +3355,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="58" t="s">
+      <c r="J21" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58" t="s">
+      <c r="K21" s="66"/>
+      <c r="L21" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="58"/>
+      <c r="M21" s="66"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3277,24 +3391,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="57" t="s">
+      <c r="O22" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="57"/>
+      <c r="P22" s="67"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3309,10 +3423,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="57"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3345,17 +3459,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="56" t="s">
+      <c r="J24" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3381,28 +3495,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="56"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="58" t="s">
+      <c r="L25" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="58" t="s">
+      <c r="R25" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="58"/>
+      <c r="S25" s="66"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3414,22 +3528,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56" t="s">
+      <c r="E26" s="69"/>
+      <c r="F26" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="56"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="56" t="s">
+      <c r="L26" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="56"/>
+      <c r="M26" s="69"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3453,28 +3567,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="56"/>
+      <c r="G27" s="69"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57" t="s">
+      <c r="J27" s="67"/>
+      <c r="K27" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="57"/>
+      <c r="L27" s="67"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="57" t="s">
+      <c r="R27" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="57"/>
+      <c r="S27" s="67"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3490,18 +3604,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="57"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="57" t="s">
+      <c r="K28" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3516,11 +3630,29 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="F21:H21"/>
@@ -3533,29 +3665,11 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3566,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3581,68 +3695,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="26" t="s">
         <v>39</v>
       </c>
@@ -3657,20 +3771,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
       <c r="P4" s="30" t="s">
         <v>43</v>
       </c>
@@ -3759,11 +3873,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -3780,7 +3894,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="41"/>
-      <c r="V8" s="74" t="s">
+      <c r="V8" s="77" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3792,28 +3906,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="75"/>
+      <c r="V9" s="78"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="38">
@@ -3829,22 +3943,22 @@
       <c r="F10" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
       <c r="U10" s="41"/>
-      <c r="V10" s="75"/>
+      <c r="V10" s="78"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="38">
@@ -3854,10 +3968,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
@@ -3873,7 +3987,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
       <c r="U11" s="41"/>
-      <c r="V11" s="75"/>
+      <c r="V11" s="78"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="38">
@@ -3883,18 +3997,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="69"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
@@ -3904,7 +4018,7 @@
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="75"/>
+      <c r="V12" s="78"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="38">
@@ -3919,17 +4033,17 @@
       <c r="E13" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="73"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
-      <c r="K13" s="73" t="s">
+      <c r="K13" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -3947,10 +4061,10 @@
       <c r="C14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="39"/>
       <c r="G14" s="43" t="s">
         <v>22</v>
@@ -3960,11 +4074,11 @@
       <c r="J14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="79" t="s">
+      <c r="K14" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -3984,27 +4098,27 @@
       <c r="C15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="65"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="44"/>
       <c r="G15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
       <c r="S15" s="28" t="s">
         <v>107</v>
       </c>
@@ -4054,20 +4168,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="44"/>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="78"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="65" t="s">
+      <c r="H17" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
@@ -4090,10 +4204,10 @@
         <v>118</v>
       </c>
       <c r="F18" s="71"/>
-      <c r="J18" s="69" t="s">
+      <c r="J18" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="69"/>
+      <c r="K18" s="72"/>
       <c r="M18" s="26" t="s">
         <v>117</v>
       </c>
@@ -4112,10 +4226,10 @@
       <c r="J19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="69" t="s">
+      <c r="K19" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="69"/>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="38">
@@ -4155,11 +4269,11 @@
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
       <c r="I22" s="71" t="s">
         <v>123</v>
       </c>
@@ -4173,21 +4287,21 @@
       <c r="C23" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="65" t="s">
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="38">
@@ -4196,19 +4310,19 @@
       <c r="C24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="38">
@@ -4223,11 +4337,11 @@
       <c r="F25" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="69" t="s">
+      <c r="G25" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="38">
@@ -4239,14 +4353,14 @@
       <c r="E26" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="I26" s="69" t="s">
+      <c r="G26" s="72"/>
+      <c r="I26" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="69"/>
+      <c r="J26" s="72"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="38">
@@ -4255,27 +4369,27 @@
       <c r="C27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="69"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="29" t="s">
         <v>135</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="38">
@@ -4290,10 +4404,10 @@
       <c r="F28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="78" t="s">
+      <c r="G28" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="78"/>
+      <c r="H28" s="70"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="38">
@@ -4302,10 +4416,10 @@
       <c r="C29" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="69"/>
+      <c r="F29" s="72"/>
       <c r="J29" s="48" t="s">
         <v>141</v>
       </c>
@@ -4327,10 +4441,10 @@
       <c r="E30" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="69"/>
+      <c r="H30" s="72"/>
       <c r="I30" s="48" t="s">
         <v>148</v>
       </c>
@@ -4345,17 +4459,17 @@
       <c r="E31" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="65" t="s">
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
       <c r="V31" s="49" t="s">
         <v>150</v>
       </c>
@@ -4367,14 +4481,14 @@
       <c r="C32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="69" t="s">
+      <c r="E32" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69" t="s">
+      <c r="F32" s="72"/>
+      <c r="G32" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="69"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B33" s="38">
@@ -4387,12 +4501,12 @@
         <v>152</v>
       </c>
       <c r="F33" s="71"/>
-      <c r="H33" s="65" t="s">
+      <c r="H33" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="38">
@@ -4401,15 +4515,15 @@
       <c r="C34" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B35" s="38">
@@ -4425,10 +4539,10 @@
         <v>127</v>
       </c>
       <c r="G35" s="71"/>
-      <c r="I35" s="69" t="s">
+      <c r="I35" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="J35" s="69"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="26" t="s">
         <v>158</v>
       </c>
@@ -4440,10 +4554,10 @@
       <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="70"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="29" t="s">
         <v>160</v>
       </c>
@@ -4458,10 +4572,10 @@
       <c r="E37" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="70" t="s">
+      <c r="F37" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="70"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="50"/>
       <c r="V37" s="25" t="s">
         <v>165</v>
@@ -4478,10 +4592,10 @@
         <v>163</v>
       </c>
       <c r="G38" s="71"/>
-      <c r="H38" s="72" t="s">
+      <c r="H38" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="I38" s="72"/>
+      <c r="I38" s="84"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B39" s="38">
@@ -4494,10 +4608,10 @@
         <v>166</v>
       </c>
       <c r="E39" s="50"/>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="G39" s="69"/>
+      <c r="G39" s="72"/>
       <c r="J39" s="51" t="s">
         <v>132</v>
       </c>
@@ -4521,17 +4635,17 @@
       <c r="E40" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="69" t="s">
+      <c r="F40" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="G40" s="69"/>
+      <c r="G40" s="72"/>
       <c r="J40" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="78" t="s">
+      <c r="L40" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="M40" s="78"/>
+      <c r="M40" s="70"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
@@ -4543,6 +4657,28 @@
       <c r="C41" s="39" t="s">
         <v>4</v>
       </c>
+      <c r="E41" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="J41" s="72"/>
+      <c r="N41" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
@@ -4554,6 +4690,25 @@
       <c r="C42" s="39" t="s">
         <v>5</v>
       </c>
+      <c r="F42" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="J42" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="N42" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="O42" s="70"/>
+      <c r="R42" s="57" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="54" t="s">
@@ -4594,31 +4749,31 @@
       <c r="B47" s="38">
         <v>43991</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48" s="38">
         <v>43992</v>
       </c>
-      <c r="C48" s="68" t="s">
+      <c r="C48" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="38">
         <v>43993</v>
       </c>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
@@ -4626,28 +4781,33 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H33:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="H23:O24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
+  <mergeCells count="62">
+    <mergeCell ref="N41:U41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:R10"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="E18:F18"/>
@@ -4663,28 +4823,27 @@
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="H15:R15"/>
-    <mergeCell ref="V8:V12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:R10"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="H23:O24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H33:K34"/>
+    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="188">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1975,22 +1975,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申论1宝典</t>
-    <rPh sb="0" eb="1">
-      <t>shen'lun</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bao'dian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申论宝典</t>
     <rPh sb="0" eb="1">
       <t>shen'lun</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>bao'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江2016</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇20min</t>
+    <rPh sb="0" eb="1">
+      <t>ci'hui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2226,7 +2230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2387,6 +2391,30 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2402,34 +2430,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2442,30 +2473,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2774,46 +2781,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -2828,20 +2835,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -2932,16 +2939,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="69"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="62" t="s">
+      <c r="N8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="62"/>
+      <c r="O8" s="70"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2975,7 +2982,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="63" t="s">
+      <c r="V9" s="62" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3006,7 +3013,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="63"/>
+      <c r="V10" s="62"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -3060,14 +3067,14 @@
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="67" t="s">
+      <c r="L12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="68" t="s">
+      <c r="M12" s="60"/>
+      <c r="N12" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="68"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3101,11 +3108,11 @@
       </c>
       <c r="L13" s="65"/>
       <c r="M13" s="65"/>
-      <c r="N13" s="68" t="s">
+      <c r="N13" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -3124,20 +3131,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="68" t="s">
+      <c r="L14" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="68"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3206,7 +3213,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="63" t="s">
+      <c r="V16" s="62" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3235,7 +3242,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="63"/>
+      <c r="V17" s="62"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -3246,12 +3253,12 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3288,13 +3295,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3320,17 +3327,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="67"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3355,20 +3362,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="66" t="s">
+      <c r="J21" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66" t="s">
+      <c r="K21" s="61"/>
+      <c r="L21" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="66"/>
+      <c r="M21" s="61"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3391,24 +3398,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="67" t="s">
+      <c r="J22" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="67" t="s">
+      <c r="O22" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="67"/>
+      <c r="P22" s="60"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3423,10 +3430,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="67"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3459,17 +3466,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="69" t="s">
+      <c r="J24" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3495,28 +3502,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="69"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="66" t="s">
+      <c r="L25" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="66" t="s">
+      <c r="R25" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="66"/>
+      <c r="S25" s="61"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3528,22 +3535,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69" t="s">
+      <c r="E26" s="59"/>
+      <c r="F26" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="69"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="69" t="s">
+      <c r="L26" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="69"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3567,28 +3574,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="69"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="67" t="s">
+      <c r="I27" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67" t="s">
+      <c r="J27" s="60"/>
+      <c r="K27" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="67"/>
+      <c r="L27" s="60"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="67" t="s">
+      <c r="R27" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="67"/>
+      <c r="S27" s="60"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3604,18 +3611,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="67"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3630,29 +3637,11 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V9:V10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="F21:H21"/>
@@ -3665,11 +3654,29 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3680,8 +3687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3695,68 +3702,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
       <c r="P3" s="26" t="s">
         <v>39</v>
       </c>
@@ -3771,20 +3778,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
       <c r="P4" s="30" t="s">
         <v>43</v>
       </c>
@@ -3873,11 +3880,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -3894,7 +3901,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="41"/>
-      <c r="V8" s="77" t="s">
+      <c r="V8" s="78" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3927,7 +3934,7 @@
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="78"/>
+      <c r="V9" s="79"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="38">
@@ -3958,7 +3965,7 @@
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
       <c r="U10" s="41"/>
-      <c r="V10" s="78"/>
+      <c r="V10" s="79"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="38">
@@ -3968,10 +3975,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="74"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
@@ -3987,7 +3994,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
       <c r="U11" s="41"/>
-      <c r="V11" s="78"/>
+      <c r="V11" s="79"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="38">
@@ -3997,18 +4004,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="72"/>
+      <c r="L12" s="73"/>
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
@@ -4018,7 +4025,7 @@
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="78"/>
+      <c r="V12" s="79"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="38">
@@ -4033,17 +4040,17 @@
       <c r="E13" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="79"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
-      <c r="K13" s="79" t="s">
+      <c r="K13" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -4061,10 +4068,10 @@
       <c r="C14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="70"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="39"/>
       <c r="G14" s="43" t="s">
         <v>22</v>
@@ -4074,11 +4081,11 @@
       <c r="J14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="73" t="s">
+      <c r="K14" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -4098,27 +4105,27 @@
       <c r="C15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="60"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="44"/>
       <c r="G15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
       <c r="S15" s="28" t="s">
         <v>107</v>
       </c>
@@ -4134,12 +4141,12 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23" t="s">
         <v>110</v>
@@ -4168,20 +4175,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="44"/>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="70"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
@@ -4200,14 +4207,14 @@
       <c r="C18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="J18" s="72" t="s">
+      <c r="F18" s="75"/>
+      <c r="J18" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="72"/>
+      <c r="K18" s="73"/>
       <c r="M18" s="26" t="s">
         <v>117</v>
       </c>
@@ -4219,17 +4226,17 @@
       <c r="C19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="71"/>
+      <c r="F19" s="75"/>
       <c r="J19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="72"/>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="38">
@@ -4238,11 +4245,11 @@
       <c r="C20" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
       <c r="J20" s="43" t="s">
         <v>21</v>
       </c>
@@ -4254,13 +4261,13 @@
       <c r="C21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="38">
@@ -4269,16 +4276,16 @@
       <c r="C22" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="79" t="s">
+      <c r="F22" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="71" t="s">
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="38">
@@ -4287,21 +4294,21 @@
       <c r="C23" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="60" t="s">
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="38">
@@ -4310,19 +4317,19 @@
       <c r="C24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="38">
@@ -4337,11 +4344,11 @@
       <c r="F25" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="38">
@@ -4353,14 +4360,14 @@
       <c r="E26" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="I26" s="72" t="s">
+      <c r="G26" s="73"/>
+      <c r="I26" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="72"/>
+      <c r="J26" s="73"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="38">
@@ -4369,27 +4376,27 @@
       <c r="C27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="72"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="29" t="s">
         <v>135</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="38">
@@ -4404,10 +4411,10 @@
       <c r="F28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="70" t="s">
+      <c r="G28" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="70"/>
+      <c r="H28" s="71"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="38">
@@ -4416,17 +4423,17 @@
       <c r="C29" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="72"/>
+      <c r="F29" s="73"/>
       <c r="J29" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="71"/>
+      <c r="L29" s="75"/>
       <c r="V29" s="25" t="s">
         <v>143</v>
       </c>
@@ -4441,10 +4448,10 @@
       <c r="E30" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="72"/>
+      <c r="H30" s="73"/>
       <c r="I30" s="48" t="s">
         <v>148</v>
       </c>
@@ -4459,17 +4466,17 @@
       <c r="E31" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="72" t="s">
+      <c r="F31" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="60" t="s">
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
       <c r="V31" s="49" t="s">
         <v>150</v>
       </c>
@@ -4481,14 +4488,14 @@
       <c r="C32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72" t="s">
+      <c r="F32" s="73"/>
+      <c r="G32" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="72"/>
+      <c r="H32" s="73"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B33" s="38">
@@ -4497,16 +4504,16 @@
       <c r="C33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="71"/>
-      <c r="H33" s="60" t="s">
+      <c r="F33" s="75"/>
+      <c r="H33" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="38">
@@ -4515,15 +4522,15 @@
       <c r="C34" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B35" s="38">
@@ -4535,14 +4542,14 @@
       <c r="E35" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="71"/>
-      <c r="I35" s="72" t="s">
+      <c r="G35" s="75"/>
+      <c r="I35" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="J35" s="72"/>
+      <c r="J35" s="73"/>
       <c r="K35" s="26" t="s">
         <v>158</v>
       </c>
@@ -4554,10 +4561,10 @@
       <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="83"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="29" t="s">
         <v>160</v>
       </c>
@@ -4572,10 +4579,10 @@
       <c r="E37" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="83" t="s">
+      <c r="F37" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="83"/>
+      <c r="G37" s="74"/>
       <c r="H37" s="50"/>
       <c r="V37" s="25" t="s">
         <v>165</v>
@@ -4588,14 +4595,14 @@
       <c r="C38" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="71" t="s">
+      <c r="F38" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="71"/>
-      <c r="H38" s="84" t="s">
+      <c r="G38" s="75"/>
+      <c r="H38" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="I38" s="84"/>
+      <c r="I38" s="76"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B39" s="38">
@@ -4608,10 +4615,10 @@
         <v>166</v>
       </c>
       <c r="E39" s="50"/>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="G39" s="72"/>
+      <c r="G39" s="73"/>
       <c r="J39" s="51" t="s">
         <v>132</v>
       </c>
@@ -4635,17 +4642,17 @@
       <c r="E40" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="72" t="s">
+      <c r="F40" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="G40" s="72"/>
+      <c r="G40" s="73"/>
       <c r="J40" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="70" t="s">
+      <c r="L40" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="M40" s="70"/>
+      <c r="M40" s="71"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
@@ -4660,25 +4667,25 @@
       <c r="E41" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="72" t="s">
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="J41" s="72"/>
-      <c r="N41" s="60" t="s">
+      <c r="J41" s="73"/>
+      <c r="N41" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="60"/>
-      <c r="U41" s="60"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
@@ -4702,10 +4709,10 @@
       <c r="L42" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="N42" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="O42" s="70"/>
+      <c r="N42" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="O42" s="71"/>
       <c r="R42" s="57" t="s">
         <v>185</v>
       </c>
@@ -4720,6 +4727,19 @@
       <c r="C43" s="39" t="s">
         <v>6</v>
       </c>
+      <c r="F43" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="G43" s="73"/>
+      <c r="J43" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="L43" s="58" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B44" s="38">
@@ -4749,31 +4769,31 @@
       <c r="B47" s="38">
         <v>43991</v>
       </c>
-      <c r="C47" s="82" t="s">
+      <c r="C47" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48" s="38">
         <v>43992</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="38">
         <v>43993</v>
       </c>
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
@@ -4781,24 +4801,27 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="N41:U41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
+  <mergeCells count="63">
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H33:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:G20"/>
@@ -4812,17 +4835,16 @@
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="H15:R15"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="G25:I25"/>
@@ -4832,18 +4854,17 @@
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H33:K34"/>
-    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="N41:U41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F43:G43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="191">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1469,16 +1469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>真题复盘</t>
-    <rPh sb="0" eb="1">
-      <t>zhen't</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu'pan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2h实词辨析（低效预警）</t>
     <rPh sb="2" eb="3">
       <t>shi'ci'bian'xi</t>
@@ -1670,22 +1660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>淮安事业单位报名（淮安区图书馆）</t>
-    <rPh sb="0" eb="1">
-      <t>huai'an'shi'ye'dan'wei</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>bao'ming</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>huai'an'qu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>tu'shu'guan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>甘肃2016年</t>
     <rPh sb="0" eb="1">
       <t>gan'su</t>
@@ -1995,6 +1969,113 @@
     <t>词汇20min</t>
     <rPh sb="0" eb="1">
       <t>ci'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论宝典</t>
+    <rPh sb="0" eb="1">
+      <t>shen lun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天就断断续续肝了三小时申论，罪过</t>
+    <rPh sb="0" eb="1">
+      <t>jin'tian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>duan'dua'x'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>le</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>san'xiao'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shen'lun</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zui'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一份行测真题</t>
+    <rPh sb="0" eb="1">
+      <t>yi'fen'xign'ce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南2017真题+复盘</t>
+    <rPh sb="0" eb="1">
+      <t>he'nan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhen'ti</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu'pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就不要指望周末好好学习了，周末还是得认真做家务、放松、锻炼身体的。工作日抓紧学习呀</t>
+    <rPh sb="0" eb="1">
+      <t>jiu'bu'yao'zhou'mo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'wang'zhou'mo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hao'hao'xue'xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>le</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhou'mo'hai'shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ren'zhen</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zuo'jia'wu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fang'song</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>duan'lian'shen'ti</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>gong'zuo'ri</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zhua'jin'xue'xi</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ya</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2230,7 +2311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2394,6 +2475,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2433,24 +2523,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2473,6 +2557,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2768,7 +2855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -2781,46 +2868,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -2835,20 +2922,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -2939,16 +3026,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="69"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="70" t="s">
+      <c r="N8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="70"/>
+      <c r="O8" s="73"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -2982,7 +3069,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="62" t="s">
+      <c r="V9" s="65" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3013,7 +3100,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="62"/>
+      <c r="V10" s="65"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -3024,20 +3111,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="65" t="s">
+      <c r="N11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="65"/>
+      <c r="O11" s="68"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -3057,24 +3144,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="60"/>
-      <c r="N12" s="63" t="s">
+      <c r="M12" s="63"/>
+      <c r="N12" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="63"/>
+      <c r="O12" s="66"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3103,16 +3190,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="65" t="s">
+      <c r="K13" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="63" t="s">
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -3131,20 +3218,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="63" t="s">
+      <c r="L14" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="63"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3213,7 +3300,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="62" t="s">
+      <c r="V16" s="65" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3242,7 +3329,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="62"/>
+      <c r="V17" s="65"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -3253,12 +3340,12 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="63" t="s">
+      <c r="F18" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3295,13 +3382,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3327,17 +3414,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3362,20 +3449,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="61" t="s">
+      <c r="J21" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61" t="s">
+      <c r="K21" s="64"/>
+      <c r="L21" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="61"/>
+      <c r="M21" s="64"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3398,24 +3485,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="60" t="s">
+      <c r="O22" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="60"/>
+      <c r="P22" s="63"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3430,10 +3517,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="60"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3466,17 +3553,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3502,28 +3589,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="59"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="61" t="s">
+      <c r="L25" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="61" t="s">
+      <c r="R25" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="61"/>
+      <c r="S25" s="64"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3535,22 +3622,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59" t="s">
+      <c r="E26" s="62"/>
+      <c r="F26" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="59"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="59" t="s">
+      <c r="L26" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="59"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3574,28 +3661,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="59"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60" t="s">
+      <c r="J27" s="63"/>
+      <c r="K27" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="60"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="60" t="s">
+      <c r="R27" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="60"/>
+      <c r="S27" s="63"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3611,18 +3698,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="60"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="60" t="s">
+      <c r="K28" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3687,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3702,68 +3789,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="26" t="s">
         <v>39</v>
       </c>
@@ -3778,20 +3865,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
       <c r="P4" s="30" t="s">
         <v>43</v>
       </c>
@@ -3880,11 +3967,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="39"/>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -3901,7 +3988,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="41"/>
-      <c r="V8" s="78" t="s">
+      <c r="V8" s="79" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3913,28 +4000,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81" t="s">
+      <c r="F9" s="81"/>
+      <c r="G9" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="79"/>
+      <c r="V9" s="80"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="38">
@@ -3950,22 +4037,22 @@
       <c r="F10" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
       <c r="U10" s="41"/>
-      <c r="V10" s="79"/>
+      <c r="V10" s="80"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="38">
@@ -3975,10 +4062,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
@@ -3994,7 +4081,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
       <c r="U11" s="41"/>
-      <c r="V11" s="79"/>
+      <c r="V11" s="80"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="38">
@@ -4004,18 +4091,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="73"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
@@ -4025,7 +4112,7 @@
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
       <c r="U12" s="41"/>
-      <c r="V12" s="79"/>
+      <c r="V12" s="80"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="38">
@@ -4068,10 +4155,10 @@
       <c r="C14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="71"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="39"/>
       <c r="G14" s="43" t="s">
         <v>22</v>
@@ -4081,11 +4168,11 @@
       <c r="J14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -4105,27 +4192,27 @@
       <c r="C15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="68"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="44"/>
       <c r="G15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
       <c r="S15" s="28" t="s">
         <v>107</v>
       </c>
@@ -4141,12 +4228,12 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23" t="s">
         <v>110</v>
@@ -4175,20 +4262,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="44"/>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="71"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
@@ -4207,14 +4294,14 @@
       <c r="C18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="J18" s="73" t="s">
+      <c r="F18" s="76"/>
+      <c r="J18" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="73"/>
+      <c r="K18" s="75"/>
       <c r="M18" s="26" t="s">
         <v>117</v>
       </c>
@@ -4226,17 +4313,17 @@
       <c r="C19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="76"/>
       <c r="J19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="73" t="s">
+      <c r="K19" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="73"/>
+      <c r="L19" s="75"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="38">
@@ -4245,11 +4332,11 @@
       <c r="C20" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
       <c r="J20" s="43" t="s">
         <v>21</v>
       </c>
@@ -4261,13 +4348,13 @@
       <c r="C21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="38">
@@ -4281,11 +4368,11 @@
       </c>
       <c r="G22" s="77"/>
       <c r="H22" s="77"/>
-      <c r="I22" s="75" t="s">
+      <c r="I22" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="38">
@@ -4294,21 +4381,21 @@
       <c r="C23" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="68" t="s">
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="38">
@@ -4317,19 +4404,19 @@
       <c r="C24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="38">
@@ -4344,11 +4431,11 @@
       <c r="F25" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="38">
@@ -4360,14 +4447,14 @@
       <c r="E26" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="73"/>
-      <c r="I26" s="73" t="s">
+      <c r="G26" s="75"/>
+      <c r="I26" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="73"/>
+      <c r="J26" s="75"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="38">
@@ -4376,27 +4463,27 @@
       <c r="C27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="73"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="29" t="s">
         <v>135</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="68" t="s">
+      <c r="I27" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="38">
@@ -4411,10 +4498,10 @@
       <c r="F28" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="71" t="s">
+      <c r="G28" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="71"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="38">
@@ -4423,19 +4510,19 @@
       <c r="C29" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="73"/>
+      <c r="F29" s="75"/>
       <c r="J29" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="K29" s="75" t="s">
+      <c r="L29" s="76"/>
+      <c r="V29" s="25" t="s">
         <v>142</v>
-      </c>
-      <c r="L29" s="75"/>
-      <c r="V29" s="25" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
@@ -4446,14 +4533,14 @@
         <v>7</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="G30" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="73"/>
+        <v>145</v>
+      </c>
+      <c r="G30" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="75"/>
       <c r="I30" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
@@ -4464,21 +4551,21 @@
         <v>8</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="V31" s="49" t="s">
         <v>149</v>
-      </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="V31" s="49" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
@@ -4488,14 +4575,14 @@
       <c r="C32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="H32" s="73"/>
+      <c r="E32" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B33" s="38">
@@ -4504,16 +4591,16 @@
       <c r="C33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" s="75"/>
-      <c r="H33" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
+      <c r="E33" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="76"/>
+      <c r="H33" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="38">
@@ -4522,15 +4609,15 @@
       <c r="C34" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
+      <c r="E34" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B35" s="38">
@@ -4540,18 +4627,18 @@
         <v>5</v>
       </c>
       <c r="E35" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="76"/>
+      <c r="I35" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="75"/>
-      <c r="I35" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="J35" s="73"/>
+      <c r="J35" s="75"/>
       <c r="K35" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
@@ -4561,12 +4648,12 @@
       <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="F36" s="74"/>
+      <c r="E36" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="78"/>
       <c r="G36" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
@@ -4577,15 +4664,15 @@
         <v>7</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="74"/>
+        <v>159</v>
+      </c>
+      <c r="F37" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="78"/>
       <c r="H37" s="50"/>
       <c r="V37" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
@@ -4595,14 +4682,14 @@
       <c r="C38" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="G38" s="75"/>
-      <c r="H38" s="76" t="s">
-        <v>164</v>
-      </c>
-      <c r="I38" s="76"/>
+      <c r="F38" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="76"/>
+      <c r="H38" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38" s="87"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B39" s="38">
@@ -4612,24 +4699,24 @@
         <v>2</v>
       </c>
       <c r="D39" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="50"/>
+      <c r="F39" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="75"/>
+      <c r="J39" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="K39" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="73" t="s">
+      <c r="L39" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="G39" s="73"/>
-      <c r="J39" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="K39" s="25" t="s">
+      <c r="N39" s="53" t="s">
         <v>168</v>
-      </c>
-      <c r="L39" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="N39" s="53" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
@@ -4640,23 +4727,23 @@
         <v>3</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="75"/>
+      <c r="J40" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="L40" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="G40" s="73"/>
-      <c r="J40" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="L40" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="M40" s="71"/>
+      <c r="M40" s="74"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B41" s="38">
         <v>43985</v>
@@ -4665,31 +4752,31 @@
         <v>4</v>
       </c>
       <c r="E41" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" s="75"/>
+      <c r="N41" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="F41" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="J41" s="73"/>
-      <c r="N41" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B42" s="38">
         <v>43986</v>
@@ -4698,28 +4785,28 @@
         <v>5</v>
       </c>
       <c r="F42" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="H42" s="55" t="s">
+      <c r="L42" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="J42" s="55" t="s">
+      <c r="N42" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="L42" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="N42" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="O42" s="71"/>
+      <c r="O42" s="74"/>
       <c r="R42" s="57" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B43" s="38">
         <v>43987</v>
@@ -4727,19 +4814,21 @@
       <c r="C43" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="73" t="s">
+      <c r="F43" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43" s="75"/>
+      <c r="J43" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="G43" s="73"/>
-      <c r="J43" s="58" t="s">
-        <v>42</v>
-      </c>
       <c r="K43" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="L43" s="58" t="s">
-        <v>42</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="L43" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B44" s="38">
@@ -4748,6 +4837,26 @@
       <c r="C44" s="39" t="s">
         <v>7</v>
       </c>
+      <c r="G44" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B45" s="38">
@@ -4756,6 +4865,17 @@
       <c r="C45" s="39" t="s">
         <v>8</v>
       </c>
+      <c r="J45" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="K45" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="L45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B46" s="38">
@@ -4764,56 +4884,69 @@
       <c r="C46" s="39" t="s">
         <v>2</v>
       </c>
+      <c r="F46" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="L46" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B47" s="38">
         <v>43991</v>
       </c>
-      <c r="C47" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
+      <c r="C47" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48" s="38">
         <v>43992</v>
       </c>
-      <c r="C48" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
+      <c r="C48" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="38">
         <v>43993</v>
       </c>
-      <c r="C49" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
+      <c r="C49" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
+  <mergeCells count="67">
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="H33:K34"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:R15"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="K14:M14"/>
@@ -4822,49 +4955,53 @@
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:O4"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F16:I16"/>
     <mergeCell ref="V8:V12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:R10"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:R15"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="H23:O24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E24:G24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="H23:O24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
     <mergeCell ref="N41:U41"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
     <mergeCell ref="F43:G43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:P44"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="Q44:T45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="193">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -2076,6 +2076,41 @@
     </rPh>
     <rPh sb="40" eb="41">
       <t>ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真题复盘</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'ti'fu'pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两天没有做行测套卷，明天务必做一套</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'laing'tian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing'ce</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tao'juan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mign'tian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu'bi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zuo'yi'tao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2084,7 +2119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2119,6 +2154,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2311,7 +2354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2370,9 +2413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2544,9 +2584,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2560,6 +2597,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2868,46 +2917,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -2922,20 +2971,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -3026,16 +3075,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="72"/>
+      <c r="K8" s="71"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="73" t="s">
+      <c r="N8" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="73"/>
+      <c r="O8" s="72"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -3069,7 +3118,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="65" t="s">
+      <c r="V9" s="64" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3100,7 +3149,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="65"/>
+      <c r="V10" s="64"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -3111,20 +3160,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="68"/>
+      <c r="O11" s="67"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -3144,24 +3193,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="66" t="s">
+      <c r="M12" s="62"/>
+      <c r="N12" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="66"/>
+      <c r="O12" s="65"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3190,16 +3239,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="68" t="s">
+      <c r="K13" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="66" t="s">
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -3218,20 +3267,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="66"/>
+      <c r="M14" s="65"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3300,7 +3349,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="65" t="s">
+      <c r="V16" s="64" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3329,7 +3378,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="65"/>
+      <c r="V17" s="64"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -3340,12 +3389,12 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3382,13 +3431,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3414,17 +3463,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="63"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3449,20 +3498,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64" t="s">
+      <c r="K21" s="63"/>
+      <c r="L21" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="64"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3485,24 +3534,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="63" t="s">
+      <c r="O22" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="63"/>
+      <c r="P22" s="62"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3517,10 +3566,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="63"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3553,17 +3602,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="62" t="s">
+      <c r="J24" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3589,28 +3638,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="62"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="64" t="s">
+      <c r="L25" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="64" t="s">
+      <c r="R25" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="64"/>
+      <c r="S25" s="63"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3622,22 +3671,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62" t="s">
+      <c r="E26" s="61"/>
+      <c r="F26" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="62"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="62" t="s">
+      <c r="L26" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="62"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3661,28 +3710,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="62" t="s">
+      <c r="F27" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="62"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63" t="s">
+      <c r="J27" s="62"/>
+      <c r="K27" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="63"/>
+      <c r="L27" s="62"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="63" t="s">
+      <c r="R27" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="63"/>
+      <c r="S27" s="62"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3698,18 +3747,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="63"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="63" t="s">
+      <c r="K28" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3774,1167 +3823,1196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
-    <col min="2" max="2" width="15.33203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="25" customWidth="1"/>
-    <col min="4" max="21" width="10.83203125" style="25"/>
-    <col min="22" max="22" width="76.33203125" style="25" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="10.83203125" style="24"/>
+    <col min="2" max="2" width="15.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="24" customWidth="1"/>
+    <col min="4" max="21" width="10.83203125" style="24"/>
+    <col min="22" max="22" width="76.33203125" style="24" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="26" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="30" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="32" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:22" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:22" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>0.33333333333333298</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>0.375</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>0.41666666666666702</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <v>0.45833333333333298</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>0.5</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="35">
         <v>0.54166666666666696</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="35">
         <v>0.58333333333333304</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="35">
         <v>0.625</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="35">
         <v>0.66666666666666696</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="35">
         <v>0.70833333333333304</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="35">
         <v>0.75</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="35">
         <v>0.79166666666666696</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="35">
         <v>0.83333333333333304</v>
       </c>
-      <c r="R7" s="36">
+      <c r="R7" s="35">
         <v>0.875</v>
       </c>
-      <c r="S7" s="36">
+      <c r="S7" s="35">
         <v>0.91666666666666696</v>
       </c>
-      <c r="T7" s="36">
+      <c r="T7" s="35">
         <v>0.95833333333333337</v>
       </c>
-      <c r="U7" s="37">
+      <c r="U7" s="36">
         <v>1</v>
       </c>
-      <c r="V7" s="37" t="s">
+      <c r="V7" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="38">
+      <c r="B8" s="37">
         <v>43952</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="86" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40" t="s">
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="79" t="s">
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="78" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>43953</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="81" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="80"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="79"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="38">
+      <c r="B10" s="37">
         <v>43954</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="80"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="79"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="38">
+      <c r="B11" s="37">
         <v>43955</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="84" t="s">
+      <c r="D11" s="38"/>
+      <c r="E11" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="84"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="80"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="79"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <v>43956</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="84" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="75" t="s">
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="75"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="80"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="79"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <v>43957</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="K13" s="77" t="s">
+      <c r="G13" s="76"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="K13" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="38">
+      <c r="B14" s="37">
         <v>43958</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="43" t="s">
+      <c r="E14" s="73"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="43" t="s">
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="83" t="s">
+      <c r="K14" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="39" t="s">
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="38" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="38">
+      <c r="B15" s="37">
         <v>43959</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="23" t="s">
+      <c r="E15" s="86"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="28" t="s">
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="38">
+      <c r="B16" s="37">
         <v>43960</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45" t="s">
+      <c r="L16" s="43"/>
+      <c r="M16" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="46" t="s">
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="45" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="38">
+      <c r="B17" s="37">
         <v>43961</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="74" t="s">
+      <c r="D17" s="43"/>
+      <c r="E17" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="28" t="s">
+      <c r="F17" s="73"/>
+      <c r="G17" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="38">
+      <c r="B18" s="37">
         <v>43962</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="J18" s="75" t="s">
+      <c r="F18" s="75"/>
+      <c r="J18" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="75"/>
-      <c r="M18" s="26" t="s">
+      <c r="K18" s="74"/>
+      <c r="M18" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="38">
+      <c r="B19" s="37">
         <v>43963</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="76"/>
-      <c r="J19" s="47" t="s">
+      <c r="F19" s="75"/>
+      <c r="J19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="75"/>
+      <c r="L19" s="74"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="38">
+      <c r="B20" s="37">
         <v>43964</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="J20" s="43" t="s">
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="J20" s="42" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="38">
+      <c r="B21" s="37">
         <v>43965</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="76" t="s">
+      <c r="E21" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="38">
+      <c r="B22" s="37">
         <v>43966</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="76" t="s">
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="38">
+      <c r="B23" s="37">
         <v>43967</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="71" t="s">
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="38">
+      <c r="B24" s="37">
         <v>43968</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="38">
+      <c r="B25" s="37">
         <v>43969</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="75" t="s">
+      <c r="G25" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="38">
+      <c r="B26" s="37">
         <v>43970</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="75" t="s">
+      <c r="F26" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="I26" s="75" t="s">
+      <c r="G26" s="74"/>
+      <c r="I26" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="75"/>
+      <c r="J26" s="74"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="38">
+      <c r="B27" s="37">
         <v>43971</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="29" t="s">
+      <c r="F27" s="74"/>
+      <c r="G27" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="71" t="s">
+      <c r="I27" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="38">
+      <c r="B28" s="37">
         <v>43972</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="74" t="s">
+      <c r="G28" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="73"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="38">
+      <c r="B29" s="37">
         <v>43973</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="J29" s="48" t="s">
+      <c r="F29" s="74"/>
+      <c r="J29" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="K29" s="76" t="s">
+      <c r="K29" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="L29" s="76"/>
-      <c r="V29" s="25" t="s">
+      <c r="L29" s="75"/>
+      <c r="V29" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="38">
+      <c r="B30" s="37">
         <v>43974</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="75" t="s">
+      <c r="G30" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="75"/>
-      <c r="I30" s="48" t="s">
+      <c r="H30" s="74"/>
+      <c r="I30" s="47" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="38">
+      <c r="B31" s="37">
         <v>43975</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="75" t="s">
+      <c r="F31" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="71" t="s">
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="V31" s="49" t="s">
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="V31" s="48" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="38">
+      <c r="B32" s="37">
         <v>43976</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75" t="s">
+      <c r="F32" s="74"/>
+      <c r="G32" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="75"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B33" s="38">
+      <c r="B33" s="37">
         <v>43977</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="F33" s="76"/>
-      <c r="H33" s="71" t="s">
+      <c r="F33" s="75"/>
+      <c r="H33" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B34" s="38">
+      <c r="B34" s="37">
         <v>43978</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B35" s="38">
+      <c r="B35" s="37">
         <v>43979</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="76" t="s">
+      <c r="F35" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="76"/>
-      <c r="I35" s="75" t="s">
+      <c r="G35" s="75"/>
+      <c r="I35" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="J35" s="75"/>
-      <c r="K35" s="26" t="s">
+      <c r="J35" s="74"/>
+      <c r="K35" s="25" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B36" s="38">
+      <c r="B36" s="37">
         <v>43980</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="29" t="s">
+      <c r="F36" s="77"/>
+      <c r="G36" s="28" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B37" s="38">
+      <c r="B37" s="37">
         <v>43981</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="78" t="s">
+      <c r="F37" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="78"/>
-      <c r="H37" s="50"/>
-      <c r="V37" s="25" t="s">
+      <c r="G37" s="77"/>
+      <c r="H37" s="49"/>
+      <c r="V37" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B38" s="38">
+      <c r="B38" s="37">
         <v>43982</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="76" t="s">
+      <c r="F38" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G38" s="76"/>
-      <c r="H38" s="87" t="s">
+      <c r="G38" s="75"/>
+      <c r="H38" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="I38" s="87"/>
+      <c r="I38" s="85"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B39" s="38">
+      <c r="B39" s="37">
         <v>43983</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="75" t="s">
+      <c r="E39" s="49"/>
+      <c r="F39" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="G39" s="75"/>
-      <c r="J39" s="51" t="s">
+      <c r="G39" s="74"/>
+      <c r="J39" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="K39" s="25" t="s">
+      <c r="K39" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="L39" s="52" t="s">
+      <c r="L39" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="N39" s="53" t="s">
+      <c r="N39" s="52" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B40" s="38">
+      <c r="B40" s="37">
         <v>43984</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="F40" s="75" t="s">
+      <c r="F40" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="G40" s="75"/>
-      <c r="J40" s="51" t="s">
+      <c r="G40" s="74"/>
+      <c r="J40" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="L40" s="74" t="s">
+      <c r="L40" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="M40" s="74"/>
+      <c r="M40" s="73"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B41" s="38">
+      <c r="B41" s="37">
         <v>43985</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="74" t="s">
+      <c r="F41" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75" t="s">
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="J41" s="75"/>
-      <c r="N41" s="71" t="s">
+      <c r="J41" s="74"/>
+      <c r="N41" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="86"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="38">
+      <c r="B42" s="37">
         <v>43986</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="56" t="s">
+      <c r="F42" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="H42" s="55" t="s">
+      <c r="H42" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="J42" s="55" t="s">
+      <c r="J42" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="26" t="s">
+      <c r="L42" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="N42" s="74" t="s">
+      <c r="N42" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="O42" s="74"/>
-      <c r="R42" s="57" t="s">
+      <c r="O42" s="73"/>
+      <c r="R42" s="56" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B43" s="38">
+      <c r="B43" s="37">
         <v>43987</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="G43" s="75"/>
-      <c r="J43" s="58" t="s">
+      <c r="G43" s="74"/>
+      <c r="J43" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="K43" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="L43" s="74" t="s">
+      <c r="L43" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B44" s="38">
+      <c r="B44" s="37">
         <v>43988</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="74" t="s">
+      <c r="G44" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="71" t="s">
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71" t="s">
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="86"/>
+      <c r="T44" s="86"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B45" s="38">
+      <c r="B45" s="37">
         <v>43989</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="K45" s="71" t="s">
+      <c r="K45" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="L45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="71"/>
+      <c r="L45" s="74"/>
+      <c r="Q45" s="86"/>
+      <c r="R45" s="86"/>
+      <c r="S45" s="86"/>
+      <c r="T45" s="86"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B46" s="38">
+      <c r="B46" s="37">
         <v>43990</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F46" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="H46" s="75" t="s">
+      <c r="H46" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="L46" s="74" t="s">
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="L46" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="86" t="s">
+        <v>192</v>
+      </c>
+      <c r="P46" s="86"/>
+      <c r="Q46" s="86"/>
+      <c r="R46" s="86"/>
+      <c r="S46" s="86"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B47" s="38">
+      <c r="B47" s="37">
         <v>43991</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" s="75"/>
+      <c r="H47" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="L47" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="M47" s="73"/>
+      <c r="O47" s="86"/>
+      <c r="P47" s="86"/>
+      <c r="Q47" s="86"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="86"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B48" s="38">
+      <c r="B48" s="37">
         <v>43992</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="38">
+      <c r="B49" s="37">
         <v>43993</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="71">
+    <mergeCell ref="O46:S47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="L47:M47"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:G34"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="195">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -2111,6 +2111,20 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>zuo'yi'tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江2015</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠错1.5h</t>
+    <rPh sb="0" eb="1">
+      <t>jiu'cuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3823,8 +3837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4991,6 +5005,18 @@
       </c>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
+      <c r="F48" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="74"/>
+      <c r="I48" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="J48" s="74"/>
+      <c r="L48" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="M48" s="73"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="37">
@@ -5008,8 +5034,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="74">
     <mergeCell ref="O46:S47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="L48:M48"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="L47:M47"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="198">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -2125,6 +2125,39 @@
     <t>纠错1.5h</t>
     <rPh sb="0" eb="1">
       <t>jiu'cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行测笔记</t>
+    <rPh sb="0" eb="1">
+      <t>xing'ce'bi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南2010</t>
+    <rPh sb="0" eb="1">
+      <t>he'nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说了一万遍，套题要做纸质版！！</t>
+    <rPh sb="0" eb="1">
+      <t>shuo'le</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'wan'pian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tao'ti</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yao'zuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'zhi'ban</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2133,7 +2166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2176,6 +2209,14 @@
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2368,7 +2409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2532,6 +2573,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2623,6 +2667,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2931,46 +2978,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -2985,20 +3032,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -3089,16 +3136,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="71"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="72" t="s">
+      <c r="N8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="72"/>
+      <c r="O8" s="73"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -3132,7 +3179,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="64" t="s">
+      <c r="V9" s="65" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3163,7 +3210,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="64"/>
+      <c r="V10" s="65"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -3174,20 +3221,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="67" t="s">
+      <c r="N11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="67"/>
+      <c r="O11" s="68"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -3207,24 +3254,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="62" t="s">
+      <c r="L12" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="65" t="s">
+      <c r="M12" s="63"/>
+      <c r="N12" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="65"/>
+      <c r="O12" s="66"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3253,16 +3300,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="67" t="s">
+      <c r="K13" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="65" t="s">
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -3281,20 +3328,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="65"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3363,7 +3410,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="64" t="s">
+      <c r="V16" s="65" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3392,7 +3439,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="65"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -3403,12 +3450,12 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3445,13 +3492,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="63" t="s">
+      <c r="K19" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3477,17 +3524,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="62"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3512,20 +3559,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63" t="s">
+      <c r="K21" s="64"/>
+      <c r="L21" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="63"/>
+      <c r="M21" s="64"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3548,24 +3595,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="62" t="s">
+      <c r="O22" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="62"/>
+      <c r="P22" s="63"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3580,10 +3627,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3616,17 +3663,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3652,28 +3699,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="61" t="s">
+      <c r="F25" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="61"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="63" t="s">
+      <c r="L25" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="63" t="s">
+      <c r="R25" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="63"/>
+      <c r="S25" s="64"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3685,22 +3732,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61" t="s">
+      <c r="E26" s="62"/>
+      <c r="F26" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="61" t="s">
+      <c r="L26" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="61"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3724,28 +3771,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="62" t="s">
+      <c r="I27" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62" t="s">
+      <c r="J27" s="63"/>
+      <c r="K27" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="62"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="62" t="s">
+      <c r="R27" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="62"/>
+      <c r="S27" s="63"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3761,18 +3808,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="62"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3837,8 +3884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48:M48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3852,68 +3899,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="25" t="s">
         <v>39</v>
       </c>
@@ -3928,20 +3975,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
       <c r="P4" s="29" t="s">
         <v>43</v>
       </c>
@@ -4030,11 +4077,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="38"/>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
@@ -4051,7 +4098,7 @@
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
       <c r="U8" s="40"/>
-      <c r="V8" s="78" t="s">
+      <c r="V8" s="79" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4063,28 +4110,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="38"/>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="89" t="s">
+      <c r="F9" s="81"/>
+      <c r="G9" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
       <c r="U9" s="40"/>
-      <c r="V9" s="79"/>
+      <c r="V9" s="80"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="37">
@@ -4100,22 +4147,22 @@
       <c r="F10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
       <c r="U10" s="40"/>
-      <c r="V10" s="79"/>
+      <c r="V10" s="80"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="37">
@@ -4125,10 +4172,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="82"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -4144,7 +4191,7 @@
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
       <c r="U11" s="40"/>
-      <c r="V11" s="79"/>
+      <c r="V11" s="80"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="37">
@@ -4154,18 +4201,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="74"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
@@ -4175,7 +4222,7 @@
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
       <c r="U12" s="40"/>
-      <c r="V12" s="79"/>
+      <c r="V12" s="80"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="37">
@@ -4187,20 +4234,20 @@
       <c r="D13" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="76"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
@@ -4218,10 +4265,10 @@
       <c r="C14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="38"/>
       <c r="G14" s="42" t="s">
         <v>22</v>
@@ -4231,11 +4278,11 @@
       <c r="J14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="K14" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
       <c r="N14" s="38"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
@@ -4255,27 +4302,27 @@
       <c r="C15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="86"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="43"/>
-      <c r="G15" s="87" t="s">
+      <c r="G15" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
       <c r="S15" s="27" t="s">
         <v>107</v>
       </c>
@@ -4291,14 +4338,14 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="88" t="s">
         <v>110</v>
       </c>
       <c r="L16" s="43"/>
@@ -4325,20 +4372,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="43"/>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
@@ -4357,14 +4404,14 @@
       <c r="C18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="J18" s="74" t="s">
+      <c r="F18" s="76"/>
+      <c r="J18" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="74"/>
+      <c r="K18" s="75"/>
       <c r="M18" s="25" t="s">
         <v>117</v>
       </c>
@@ -4376,17 +4423,17 @@
       <c r="C19" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="76"/>
       <c r="J19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="74"/>
+      <c r="L19" s="75"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
@@ -4395,11 +4442,11 @@
       <c r="C20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
       <c r="J20" s="42" t="s">
         <v>21</v>
       </c>
@@ -4411,13 +4458,13 @@
       <c r="C21" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
@@ -4426,16 +4473,16 @@
       <c r="C22" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="75" t="s">
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
@@ -4444,21 +4491,21 @@
       <c r="C23" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="86" t="s">
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
@@ -4467,19 +4514,19 @@
       <c r="C24" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
@@ -4494,11 +4541,11 @@
       <c r="F25" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="74" t="s">
+      <c r="G25" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
@@ -4510,14 +4557,14 @@
       <c r="E26" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="I26" s="74" t="s">
+      <c r="G26" s="75"/>
+      <c r="I26" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="74"/>
+      <c r="J26" s="75"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
@@ -4526,27 +4573,27 @@
       <c r="C27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="74"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="28" t="s">
         <v>135</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="86" t="s">
+      <c r="I27" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
@@ -4561,10 +4608,10 @@
       <c r="F28" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="73" t="s">
+      <c r="G28" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="73"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
@@ -4573,17 +4620,17 @@
       <c r="C29" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="74"/>
+      <c r="F29" s="75"/>
       <c r="J29" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="K29" s="75" t="s">
+      <c r="K29" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="L29" s="75"/>
+      <c r="L29" s="76"/>
       <c r="V29" s="24" t="s">
         <v>142</v>
       </c>
@@ -4598,10 +4645,10 @@
       <c r="E30" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="74" t="s">
+      <c r="G30" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="74"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="47" t="s">
         <v>147</v>
       </c>
@@ -4616,17 +4663,17 @@
       <c r="E31" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="86" t="s">
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
       <c r="V31" s="48" t="s">
         <v>149</v>
       </c>
@@ -4638,14 +4685,14 @@
       <c r="C32" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="E32" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74" t="s">
+      <c r="F32" s="75"/>
+      <c r="G32" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="74"/>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
@@ -4654,16 +4701,16 @@
       <c r="C33" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="H33" s="86" t="s">
+      <c r="F33" s="76"/>
+      <c r="H33" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
@@ -4672,15 +4719,15 @@
       <c r="C34" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
@@ -4692,14 +4739,14 @@
       <c r="E35" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="75"/>
-      <c r="I35" s="74" t="s">
+      <c r="G35" s="76"/>
+      <c r="I35" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="J35" s="74"/>
+      <c r="J35" s="75"/>
       <c r="K35" s="25" t="s">
         <v>156</v>
       </c>
@@ -4711,10 +4758,10 @@
       <c r="C36" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="77" t="s">
+      <c r="E36" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="77"/>
+      <c r="F36" s="78"/>
       <c r="G36" s="28" t="s">
         <v>158</v>
       </c>
@@ -4729,10 +4776,10 @@
       <c r="E37" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="77" t="s">
+      <c r="F37" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="77"/>
+      <c r="G37" s="78"/>
       <c r="H37" s="49"/>
       <c r="V37" s="24" t="s">
         <v>163</v>
@@ -4745,14 +4792,14 @@
       <c r="C38" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="G38" s="75"/>
-      <c r="H38" s="85" t="s">
+      <c r="G38" s="76"/>
+      <c r="H38" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="I38" s="85"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
@@ -4765,10 +4812,10 @@
         <v>164</v>
       </c>
       <c r="E39" s="49"/>
-      <c r="F39" s="74" t="s">
+      <c r="F39" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="G39" s="74"/>
+      <c r="G39" s="75"/>
       <c r="J39" s="50" t="s">
         <v>147</v>
       </c>
@@ -4792,17 +4839,17 @@
       <c r="E40" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="F40" s="74" t="s">
+      <c r="F40" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="G40" s="74"/>
+      <c r="G40" s="75"/>
       <c r="J40" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="L40" s="73" t="s">
+      <c r="L40" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="M40" s="73"/>
+      <c r="M40" s="74"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
@@ -4817,25 +4864,25 @@
       <c r="E41" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="73" t="s">
+      <c r="F41" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="74" t="s">
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="J41" s="74"/>
-      <c r="N41" s="86" t="s">
+      <c r="J41" s="75"/>
+      <c r="N41" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="O41" s="86"/>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="86"/>
-      <c r="S41" s="86"/>
-      <c r="T41" s="86"/>
-      <c r="U41" s="86"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="87"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
@@ -4859,10 +4906,10 @@
       <c r="L42" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="N42" s="73" t="s">
+      <c r="N42" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="O42" s="73"/>
+      <c r="O42" s="74"/>
       <c r="R42" s="56" t="s">
         <v>183</v>
       </c>
@@ -4877,21 +4924,21 @@
       <c r="C43" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="74" t="s">
+      <c r="F43" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="G43" s="74"/>
+      <c r="G43" s="75"/>
       <c r="J43" s="57" t="s">
         <v>186</v>
       </c>
       <c r="K43" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="L43" s="73" t="s">
+      <c r="L43" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
@@ -4900,26 +4947,26 @@
       <c r="C44" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="73" t="s">
+      <c r="G44" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="86" t="s">
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="86" t="s">
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="R44" s="86"/>
-      <c r="S44" s="86"/>
-      <c r="T44" s="86"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
@@ -4931,14 +4978,14 @@
       <c r="J45" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="K45" s="74" t="s">
+      <c r="K45" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="L45" s="74"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="86"/>
-      <c r="T45" s="86"/>
+      <c r="L45" s="75"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="87"/>
+      <c r="S45" s="87"/>
+      <c r="T45" s="87"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
@@ -4947,26 +4994,26 @@
       <c r="C46" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="H46" s="74" t="s">
+      <c r="H46" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="L46" s="73" t="s">
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="L46" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="86" t="s">
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="P46" s="86"/>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="86"/>
-      <c r="S46" s="86"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="87"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B47" s="37">
@@ -4975,26 +5022,26 @@
       <c r="C47" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="75" t="s">
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="G47" s="75"/>
-      <c r="H47" s="74" t="s">
+      <c r="G47" s="76"/>
+      <c r="H47" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="L47" s="73" t="s">
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="L47" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="M47" s="73"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="86"/>
-      <c r="Q47" s="86"/>
-      <c r="R47" s="86"/>
-      <c r="S47" s="86"/>
+      <c r="M47" s="74"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="87"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48" s="37">
@@ -5003,42 +5050,62 @@
       <c r="C48" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="74" t="s">
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="G48" s="74"/>
-      <c r="I48" s="74" t="s">
+      <c r="G48" s="75"/>
+      <c r="I48" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="J48" s="74"/>
-      <c r="L48" s="73" t="s">
+      <c r="J48" s="75"/>
+      <c r="L48" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="M48" s="73"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M48" s="74"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="37">
         <v>43993</v>
       </c>
       <c r="C49" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="75"/>
+      <c r="H49" s="91" t="s">
+        <v>197</v>
+      </c>
+      <c r="I49" s="91"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="77">
     <mergeCell ref="O46:S47"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="L48:M48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:O49"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="L47:M47"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="200">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -896,19 +896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河南2017联考卷复盘</t>
-    <rPh sb="0" eb="1">
-      <t>he nan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>lian kao juan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fu pan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这5天是劳动节，其中两天和大宝在绍兴玩耍（也没怎么出去游玩，多半时间都在酒店，因为太热了）但是没有充分利用时间。其余三天也没有照常学习，松懈了很多，忏悔ing</t>
     <rPh sb="0" eb="1">
       <t>zhe</t>
@@ -2136,13 +2123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河南2010</t>
-    <rPh sb="0" eb="1">
-      <t>he'nan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>说了一万遍，套题要做纸质版！！</t>
     <rPh sb="0" eb="1">
       <t>shuo'le</t>
@@ -2158,6 +2138,52 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>zhi'zhi'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南2017联考复盘</t>
+    <rPh sb="0" eb="1">
+      <t>he nan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lian kao juan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010联考（河南）</t>
+    <rPh sb="4" eb="5">
+      <t>lian'kao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>he'nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语</t>
+    <rPh sb="0" eb="1">
+      <t>yan'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三天的学习时长没有别人一天长，考得上才怪</t>
+    <rPh sb="0" eb="1">
+      <t>san'tian'de'xue'xi'shi'chang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mei'you'bie'ren</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'tian'chang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kao'de'shang'cai'guai</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2166,7 +2192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2217,6 +2243,14 @@
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2409,7 +2443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2582,94 +2616,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2680,6 +2717,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFB9C9"/>
       <color rgb="FFEB94A0"/>
       <color rgb="FFD4E8FF"/>
       <color rgb="FFD793CA"/>
@@ -2689,7 +2727,6 @@
       <color rgb="FFAEE8CA"/>
       <color rgb="FF3BB5B0"/>
       <color rgb="FF34D769"/>
-      <color rgb="FFFFB9C9"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2978,46 +3015,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -3032,20 +3069,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -3136,16 +3173,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="72"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="73" t="s">
+      <c r="N8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="73"/>
+      <c r="O8" s="68"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -3179,7 +3216,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="65" t="s">
+      <c r="V9" s="69" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3210,7 +3247,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="65"/>
+      <c r="V10" s="69"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -3221,20 +3258,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="68"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -3254,24 +3291,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="66" t="s">
+      <c r="M12" s="73"/>
+      <c r="N12" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="66"/>
+      <c r="O12" s="74"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3300,16 +3337,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="68" t="s">
+      <c r="K13" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="66" t="s">
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -3328,20 +3365,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="66"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3410,7 +3447,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="65" t="s">
+      <c r="V16" s="69" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3439,7 +3476,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="65"/>
+      <c r="V17" s="69"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -3450,12 +3487,12 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3492,13 +3529,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3524,17 +3561,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="63"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3559,20 +3596,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64" t="s">
+      <c r="K21" s="72"/>
+      <c r="L21" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="64"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3595,24 +3632,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="63" t="s">
+      <c r="O22" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="63"/>
+      <c r="P22" s="73"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3627,10 +3664,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="63"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3663,17 +3700,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="62" t="s">
+      <c r="J24" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3699,28 +3736,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="62"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="64" t="s">
+      <c r="L25" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="64" t="s">
+      <c r="R25" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="64"/>
+      <c r="S25" s="72"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3732,22 +3769,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62" t="s">
+      <c r="E26" s="75"/>
+      <c r="F26" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="62"/>
+      <c r="G26" s="75"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="62" t="s">
+      <c r="L26" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="62"/>
+      <c r="M26" s="75"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3771,28 +3808,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="62" t="s">
+      <c r="F27" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="62"/>
+      <c r="G27" s="75"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63" t="s">
+      <c r="J27" s="73"/>
+      <c r="K27" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="63"/>
+      <c r="L27" s="73"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="63" t="s">
+      <c r="R27" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="63"/>
+      <c r="S27" s="73"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3808,18 +3845,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="63"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="63" t="s">
+      <c r="K28" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3834,11 +3871,29 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="F21:H21"/>
@@ -3851,29 +3906,11 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3882,10 +3919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3899,68 +3936,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
+      <c r="B1" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="B2" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
       <c r="P3" s="25" t="s">
         <v>39</v>
       </c>
@@ -3975,20 +4012,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
       <c r="P4" s="29" t="s">
         <v>43</v>
       </c>
@@ -3999,7 +4036,7 @@
         <v>42</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4077,11 +4114,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="38"/>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
@@ -4098,8 +4135,8 @@
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
       <c r="U8" s="40"/>
-      <c r="V8" s="79" t="s">
-        <v>94</v>
+      <c r="V8" s="87" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -4110,28 +4147,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="38"/>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="90" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
       <c r="U9" s="40"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="88"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="37">
@@ -4147,22 +4184,22 @@
       <c r="F10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
       <c r="U10" s="40"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="88"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="37">
@@ -4172,10 +4209,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="83"/>
+      <c r="E11" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="84"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -4191,7 +4228,7 @@
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
       <c r="U11" s="40"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="88"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="37">
@@ -4201,18 +4238,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
+      <c r="E12" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" s="75"/>
+      <c r="K12" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12" s="77"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
@@ -4222,7 +4259,7 @@
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
       <c r="U12" s="40"/>
-      <c r="V12" s="80"/>
+      <c r="V12" s="88"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="37">
@@ -4232,22 +4269,22 @@
         <v>4</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="77"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
-      <c r="K13" s="77" t="s">
+      <c r="K13" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
@@ -4265,10 +4302,10 @@
       <c r="C14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="74"/>
+      <c r="D14" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="78"/>
       <c r="F14" s="38"/>
       <c r="G14" s="42" t="s">
         <v>22</v>
@@ -4278,11 +4315,11 @@
       <c r="J14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
+      <c r="K14" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
       <c r="N14" s="38"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
@@ -4292,7 +4329,7 @@
       <c r="T14" s="38"/>
       <c r="U14" s="40"/>
       <c r="V14" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -4302,29 +4339,29 @@
       <c r="C15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="87"/>
+      <c r="D15" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="76"/>
       <c r="F15" s="43"/>
-      <c r="G15" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
+      <c r="G15" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
       <c r="S15" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T15" s="43"/>
       <c r="U15" s="43"/>
@@ -4338,19 +4375,19 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
+      <c r="F16" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="23"/>
-      <c r="K16" s="88" t="s">
-        <v>110</v>
+      <c r="K16" s="62" t="s">
+        <v>109</v>
       </c>
       <c r="L16" s="43"/>
       <c r="M16" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16" s="43"/>
       <c r="O16" s="43"/>
@@ -4361,7 +4398,7 @@
       <c r="T16" s="43"/>
       <c r="U16" s="43"/>
       <c r="V16" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
@@ -4372,20 +4409,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="43"/>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="27" t="s">
+      <c r="H17" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
@@ -4404,16 +4441,16 @@
       <c r="C18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="76"/>
-      <c r="J18" s="75" t="s">
+      <c r="E18" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="80"/>
+      <c r="J18" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="77"/>
+      <c r="M18" s="25" t="s">
         <v>116</v>
-      </c>
-      <c r="K18" s="75"/>
-      <c r="M18" s="25" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
@@ -4423,17 +4460,17 @@
       <c r="C19" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="76"/>
+      <c r="E19" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="80"/>
       <c r="J19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="L19" s="75"/>
+      <c r="K19" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="77"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
@@ -4442,11 +4479,11 @@
       <c r="C20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
       <c r="J20" s="42" t="s">
         <v>21</v>
       </c>
@@ -4458,13 +4495,13 @@
       <c r="C21" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
+      <c r="E21" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
@@ -4473,16 +4510,16 @@
       <c r="C22" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
@@ -4491,21 +4528,21 @@
       <c r="C23" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
+      <c r="E23" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
@@ -4514,19 +4551,19 @@
       <c r="C24" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
+      <c r="E24" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
@@ -4536,16 +4573,16 @@
         <v>2</v>
       </c>
       <c r="E25" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="G25" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
@@ -4555,16 +4592,16 @@
         <v>3</v>
       </c>
       <c r="E26" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="75" t="s">
+      <c r="G26" s="77"/>
+      <c r="I26" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="I26" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="75"/>
+      <c r="J26" s="77"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
@@ -4573,27 +4610,27 @@
       <c r="C27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="77"/>
+      <c r="G27" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
+      <c r="I27" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
@@ -4603,15 +4640,15 @@
         <v>5</v>
       </c>
       <c r="E28" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="G28" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="78"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
@@ -4620,19 +4657,19 @@
       <c r="C29" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="77"/>
+      <c r="J29" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="J29" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="K29" s="76" t="s">
+      <c r="L29" s="80"/>
+      <c r="V29" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="L29" s="76"/>
-      <c r="V29" s="24" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
@@ -4643,14 +4680,14 @@
         <v>7</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="75"/>
+        <v>144</v>
+      </c>
+      <c r="G30" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="77"/>
       <c r="I30" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
@@ -4661,21 +4698,21 @@
         <v>8</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" s="75" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="V31" s="48" t="s">
         <v>148</v>
-      </c>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="V31" s="48" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
@@ -4685,14 +4722,14 @@
       <c r="C32" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="75"/>
+      <c r="E32" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" s="77"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
@@ -4701,16 +4738,16 @@
       <c r="C33" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="76"/>
-      <c r="H33" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
+      <c r="E33" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="80"/>
+      <c r="H33" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
@@ -4719,15 +4756,15 @@
       <c r="C34" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
+      <c r="E34" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
@@ -4737,18 +4774,18 @@
         <v>5</v>
       </c>
       <c r="E35" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="80"/>
+      <c r="I35" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="76"/>
-      <c r="I35" s="75" t="s">
+      <c r="J35" s="77"/>
+      <c r="K35" s="25" t="s">
         <v>155</v>
-      </c>
-      <c r="J35" s="75"/>
-      <c r="K35" s="25" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
@@ -4758,12 +4795,12 @@
       <c r="C36" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="81"/>
+      <c r="G36" s="28" t="s">
         <v>157</v>
-      </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="28" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
@@ -4774,15 +4811,15 @@
         <v>7</v>
       </c>
       <c r="E37" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" s="78"/>
+      <c r="G37" s="81"/>
       <c r="H37" s="49"/>
       <c r="V37" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
@@ -4792,14 +4829,14 @@
       <c r="C38" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="76" t="s">
+      <c r="F38" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="80"/>
+      <c r="H38" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="G38" s="76"/>
-      <c r="H38" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="I38" s="86"/>
+      <c r="I38" s="82"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
@@ -4809,24 +4846,24 @@
         <v>2</v>
       </c>
       <c r="D39" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="49"/>
+      <c r="F39" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="75" t="s">
+      <c r="G39" s="77"/>
+      <c r="J39" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="G39" s="75"/>
-      <c r="J39" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="K39" s="24" t="s">
+      <c r="L39" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="L39" s="51" t="s">
+      <c r="N39" s="52" t="s">
         <v>167</v>
-      </c>
-      <c r="N39" s="52" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
@@ -4837,23 +4874,23 @@
         <v>3</v>
       </c>
       <c r="E40" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="77"/>
+      <c r="J40" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="L40" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="F40" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="75"/>
-      <c r="J40" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="L40" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="M40" s="74"/>
+      <c r="M40" s="78"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B41" s="37">
         <v>43985</v>
@@ -4862,31 +4899,31 @@
         <v>4</v>
       </c>
       <c r="E41" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75" t="s">
+      <c r="J41" s="77"/>
+      <c r="N41" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="J41" s="75"/>
-      <c r="N41" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="87"/>
-      <c r="U41" s="87"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B42" s="37">
         <v>43986</v>
@@ -4895,28 +4932,28 @@
         <v>5</v>
       </c>
       <c r="F42" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="J42" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="J42" s="54" t="s">
+      <c r="L42" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="L42" s="25" t="s">
+      <c r="N42" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="N42" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="O42" s="74"/>
+      <c r="O42" s="78"/>
       <c r="R42" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B43" s="37">
         <v>43987</v>
@@ -4924,21 +4961,21 @@
       <c r="C43" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" s="77"/>
+      <c r="J43" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="K43" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="G43" s="75"/>
-      <c r="J43" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="K43" s="24" t="s">
+      <c r="L43" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="L43" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
@@ -4947,26 +4984,26 @@
       <c r="C44" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="74" t="s">
+      <c r="G44" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="87" t="s">
-        <v>187</v>
-      </c>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="R44" s="87"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="87"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
@@ -4976,16 +5013,16 @@
         <v>8</v>
       </c>
       <c r="J45" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="K45" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="L45" s="75"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
+        <v>146</v>
+      </c>
+      <c r="K45" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="L45" s="77"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
@@ -4995,25 +5032,25 @@
         <v>2</v>
       </c>
       <c r="F46" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="H46" s="75" t="s">
-        <v>189</v>
-      </c>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="L46" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="87" t="s">
-        <v>192</v>
-      </c>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="87"/>
+        <v>182</v>
+      </c>
+      <c r="H46" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="L46" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="M46" s="78"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="76"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B47" s="37">
@@ -5024,24 +5061,24 @@
       </c>
       <c r="D47" s="61"/>
       <c r="E47" s="61"/>
-      <c r="F47" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="G47" s="76"/>
-      <c r="H47" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="L47" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="M47" s="74"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
+      <c r="F47" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="80"/>
+      <c r="H47" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="L47" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="M47" s="78"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48" s="37">
@@ -5052,18 +5089,18 @@
       </c>
       <c r="D48" s="61"/>
       <c r="E48" s="61"/>
-      <c r="F48" s="75" t="s">
+      <c r="F48" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" s="77"/>
+      <c r="I48" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="G48" s="75"/>
-      <c r="I48" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="J48" s="75"/>
-      <c r="L48" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="M48" s="74"/>
+      <c r="J48" s="77"/>
+      <c r="L48" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="M48" s="78"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="37">
@@ -5073,73 +5110,150 @@
         <v>5</v>
       </c>
       <c r="D49" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F49" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" s="77"/>
+      <c r="H49" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="F49" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="75"/>
-      <c r="H49" s="91" t="s">
-        <v>197</v>
-      </c>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="74"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="78"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B50" s="37">
+        <v>43994</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="J50" s="92"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="92"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="B51" s="37">
+        <v>43995</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="92"/>
+      <c r="M51" s="92"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B52" s="37">
+        <v>43996</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="92"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B53" s="37">
+        <v>43997</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B54" s="37">
+        <v>43998</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B55" s="37">
+        <v>43999</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B56" s="37">
+        <v>44000</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="37">
+        <v>44001</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="O46:S47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:O49"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H33:K34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:R15"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="V8:V12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:R10"/>
+  <mergeCells count="81">
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I50:M52"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="Q44:T45"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="N41:U41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:P44"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I27:Q27"/>
     <mergeCell ref="I35:J35"/>
@@ -5156,26 +5270,47 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="H23:O24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="N41:U41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:P44"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="Q44:T45"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:R10"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:R15"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H33:K34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="O46:S47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:O49"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="L47:M47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="210">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -2184,6 +2184,118 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>kao'de'shang'cai'guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料</t>
+    <rPh sb="0" eb="1">
+      <t>zi'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江2018A</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠错</t>
+    <rPh sb="0" eb="1">
+      <t>jiu'cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江2019A</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川2008</t>
+    <rPh sb="0" eb="1">
+      <t>si'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业本到了需要整理：申论公文格式（宣传稿、编者按、汇报）</t>
+    <rPh sb="0" eb="1">
+      <t>zuo'ye'ben'zi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dao'le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shen'lun</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gong'wen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ge'shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xuan'chuan'gao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bain'zhe</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>an</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hui'bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梦圆申论</t>
+    <rPh sb="0" eb="1">
+      <t>li'meng'yuan'shen'lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川2009上半年+纠错</t>
+    <rPh sb="0" eb="1">
+      <t>si'chuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang'ban'nian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu'cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量行程</t>
+    <rPh sb="0" eb="1">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008四川纠错</t>
+    <rPh sb="4" eb="5">
+      <t>si'chuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiu'cuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2443,7 +2555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2622,6 +2734,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2658,56 +2776,59 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2717,11 +2838,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF75A992"/>
+      <color rgb="FFEB94A0"/>
+      <color rgb="FFD793CA"/>
       <color rgb="FFFFB9C9"/>
-      <color rgb="FFEB94A0"/>
       <color rgb="FFD4E8FF"/>
-      <color rgb="FFD793CA"/>
-      <color rgb="FF75A992"/>
       <color rgb="FF75B3AF"/>
       <color rgb="FF44B3AF"/>
       <color rgb="FFAEE8CA"/>
@@ -3002,7 +3123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -3015,46 +3136,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -3069,20 +3190,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -3173,16 +3294,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="67"/>
+      <c r="K8" s="69"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="68" t="s">
+      <c r="N8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="68"/>
+      <c r="O8" s="70"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -3216,7 +3337,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="69" t="s">
+      <c r="V9" s="71" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3247,7 +3368,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="69"/>
+      <c r="V10" s="71"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -3258,20 +3379,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="71" t="s">
+      <c r="N11" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="71"/>
+      <c r="O11" s="73"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -3291,24 +3412,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="73" t="s">
+      <c r="L12" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="73"/>
-      <c r="N12" s="74" t="s">
+      <c r="M12" s="75"/>
+      <c r="N12" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="74"/>
+      <c r="O12" s="76"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3337,16 +3458,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="74" t="s">
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -3365,20 +3486,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="74" t="s">
+      <c r="L14" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="74"/>
+      <c r="M14" s="76"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3447,7 +3568,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="69" t="s">
+      <c r="V16" s="71" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3476,7 +3597,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="69"/>
+      <c r="V17" s="71"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -3487,12 +3608,12 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3529,13 +3650,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3561,17 +3682,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="73"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3596,20 +3717,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72" t="s">
+      <c r="K21" s="74"/>
+      <c r="L21" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="72"/>
+      <c r="M21" s="74"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3632,24 +3753,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="73" t="s">
+      <c r="J22" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="73" t="s">
+      <c r="O22" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="73"/>
+      <c r="P22" s="75"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3664,10 +3785,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3700,17 +3821,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="75" t="s">
+      <c r="J24" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3736,28 +3857,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="75"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="72" t="s">
+      <c r="L25" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="72" t="s">
+      <c r="R25" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="72"/>
+      <c r="S25" s="74"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3769,22 +3890,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75" t="s">
+      <c r="E26" s="77"/>
+      <c r="F26" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="75"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="75" t="s">
+      <c r="L26" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="75"/>
+      <c r="M26" s="77"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3808,28 +3929,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="75" t="s">
+      <c r="F27" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="75"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="73" t="s">
+      <c r="I27" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73" t="s">
+      <c r="J27" s="75"/>
+      <c r="K27" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="73"/>
+      <c r="L27" s="75"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="73" t="s">
+      <c r="R27" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="73"/>
+      <c r="S27" s="75"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3845,18 +3966,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="73" t="s">
+      <c r="F28" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="73"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="73" t="s">
+      <c r="K28" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3919,10 +4040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3936,68 +4057,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
       <c r="P3" s="25" t="s">
         <v>39</v>
       </c>
@@ -4012,20 +4133,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
       <c r="P4" s="29" t="s">
         <v>43</v>
       </c>
@@ -4114,11 +4235,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="38"/>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
@@ -4135,7 +4256,7 @@
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
       <c r="U8" s="40"/>
-      <c r="V8" s="87" t="s">
+      <c r="V8" s="88" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4147,28 +4268,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="38"/>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="91" t="s">
+      <c r="F9" s="91"/>
+      <c r="G9" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
       <c r="U9" s="40"/>
-      <c r="V9" s="88"/>
+      <c r="V9" s="89"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="37">
@@ -4184,22 +4305,22 @@
       <c r="F10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
       <c r="U10" s="40"/>
-      <c r="V10" s="88"/>
+      <c r="V10" s="89"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="37">
@@ -4209,10 +4330,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="84"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -4228,7 +4349,7 @@
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
       <c r="U11" s="40"/>
-      <c r="V11" s="88"/>
+      <c r="V11" s="89"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="37">
@@ -4238,18 +4359,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="77" t="s">
+      <c r="K12" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="L12" s="77"/>
+      <c r="L12" s="78"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
@@ -4259,7 +4380,7 @@
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
       <c r="U12" s="40"/>
-      <c r="V12" s="88"/>
+      <c r="V12" s="89"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="37">
@@ -4274,17 +4395,17 @@
       <c r="E13" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="89"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
-      <c r="K13" s="89" t="s">
+      <c r="K13" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
@@ -4302,10 +4423,10 @@
       <c r="C14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="38"/>
       <c r="G14" s="42" t="s">
         <v>22</v>
@@ -4315,11 +4436,11 @@
       <c r="J14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="83" t="s">
+      <c r="K14" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
       <c r="N14" s="38"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
@@ -4339,27 +4460,27 @@
       <c r="C15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="76"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="43"/>
       <c r="G15" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
       <c r="S15" s="27" t="s">
         <v>106</v>
       </c>
@@ -4409,20 +4530,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="43"/>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="78"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H17" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
@@ -4445,10 +4566,10 @@
         <v>117</v>
       </c>
       <c r="F18" s="80"/>
-      <c r="J18" s="77" t="s">
+      <c r="J18" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="77"/>
+      <c r="K18" s="78"/>
       <c r="M18" s="25" t="s">
         <v>116</v>
       </c>
@@ -4467,10 +4588,10 @@
       <c r="J19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="77" t="s">
+      <c r="K19" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="L19" s="77"/>
+      <c r="L19" s="78"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
@@ -4510,11 +4631,11 @@
       <c r="C22" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="89" t="s">
+      <c r="F22" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
       <c r="I22" s="80" t="s">
         <v>122</v>
       </c>
@@ -4528,21 +4649,21 @@
       <c r="C23" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="77" t="s">
+      <c r="E23" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="76" t="s">
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
@@ -4551,19 +4672,19 @@
       <c r="C24" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="77" t="s">
+      <c r="E24" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
@@ -4578,11 +4699,11 @@
       <c r="F25" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="77" t="s">
+      <c r="G25" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
@@ -4594,14 +4715,14 @@
       <c r="E26" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="77" t="s">
+      <c r="F26" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="77"/>
-      <c r="I26" s="77" t="s">
+      <c r="G26" s="78"/>
+      <c r="I26" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="J26" s="77"/>
+      <c r="J26" s="78"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
@@ -4610,27 +4731,27 @@
       <c r="C27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="77"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="28" t="s">
         <v>134</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
@@ -4645,10 +4766,10 @@
       <c r="F28" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="78" t="s">
+      <c r="G28" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="78"/>
+      <c r="H28" s="79"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
@@ -4657,10 +4778,10 @@
       <c r="C29" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="77"/>
+      <c r="F29" s="78"/>
       <c r="J29" s="47" t="s">
         <v>146</v>
       </c>
@@ -4682,10 +4803,10 @@
       <c r="E30" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="G30" s="77" t="s">
+      <c r="G30" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="77"/>
+      <c r="H30" s="78"/>
       <c r="I30" s="47" t="s">
         <v>146</v>
       </c>
@@ -4700,17 +4821,17 @@
       <c r="E31" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="77" t="s">
+      <c r="F31" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="76" t="s">
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
       <c r="V31" s="48" t="s">
         <v>148</v>
       </c>
@@ -4722,14 +4843,14 @@
       <c r="C32" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="77" t="s">
+      <c r="E32" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77" t="s">
+      <c r="F32" s="78"/>
+      <c r="G32" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="H32" s="77"/>
+      <c r="H32" s="78"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
@@ -4742,12 +4863,12 @@
         <v>150</v>
       </c>
       <c r="F33" s="80"/>
-      <c r="H33" s="76" t="s">
+      <c r="H33" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
@@ -4756,15 +4877,15 @@
       <c r="C34" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="77" t="s">
+      <c r="E34" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
@@ -4780,10 +4901,10 @@
         <v>126</v>
       </c>
       <c r="G35" s="80"/>
-      <c r="I35" s="77" t="s">
+      <c r="I35" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="J35" s="77"/>
+      <c r="J35" s="78"/>
       <c r="K35" s="25" t="s">
         <v>155</v>
       </c>
@@ -4795,10 +4916,10 @@
       <c r="C36" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="81" t="s">
+      <c r="E36" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="81"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="28" t="s">
         <v>157</v>
       </c>
@@ -4813,10 +4934,10 @@
       <c r="E37" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="81" t="s">
+      <c r="F37" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="81"/>
+      <c r="G37" s="82"/>
       <c r="H37" s="49"/>
       <c r="V37" s="24" t="s">
         <v>162</v>
@@ -4833,10 +4954,10 @@
         <v>160</v>
       </c>
       <c r="G38" s="80"/>
-      <c r="H38" s="82" t="s">
+      <c r="H38" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="I38" s="82"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
@@ -4849,10 +4970,10 @@
         <v>163</v>
       </c>
       <c r="E39" s="49"/>
-      <c r="F39" s="77" t="s">
+      <c r="F39" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="G39" s="77"/>
+      <c r="G39" s="78"/>
       <c r="J39" s="50" t="s">
         <v>146</v>
       </c>
@@ -4876,17 +4997,17 @@
       <c r="E40" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="77" t="s">
+      <c r="F40" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="G40" s="77"/>
+      <c r="G40" s="78"/>
       <c r="J40" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="L40" s="78" t="s">
+      <c r="L40" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="M40" s="78"/>
+      <c r="M40" s="79"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
@@ -4901,25 +5022,25 @@
       <c r="E41" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="F41" s="78" t="s">
+      <c r="F41" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="77" t="s">
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="J41" s="77"/>
-      <c r="N41" s="76" t="s">
+      <c r="J41" s="78"/>
+      <c r="N41" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="76"/>
-      <c r="S41" s="76"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="76"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="81"/>
+      <c r="S41" s="81"/>
+      <c r="T41" s="81"/>
+      <c r="U41" s="81"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
@@ -4943,10 +5064,10 @@
       <c r="L42" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="N42" s="78" t="s">
+      <c r="N42" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="O42" s="78"/>
+      <c r="O42" s="79"/>
       <c r="R42" s="56" t="s">
         <v>182</v>
       </c>
@@ -4961,21 +5082,21 @@
       <c r="C43" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="77" t="s">
+      <c r="F43" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="G43" s="77"/>
+      <c r="G43" s="78"/>
       <c r="J43" s="57" t="s">
         <v>185</v>
       </c>
       <c r="K43" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="L43" s="78" t="s">
+      <c r="L43" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
@@ -4984,26 +5105,26 @@
       <c r="C44" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="78" t="s">
+      <c r="G44" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="76" t="s">
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76" t="s">
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
+      <c r="R44" s="81"/>
+      <c r="S44" s="81"/>
+      <c r="T44" s="81"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
@@ -5015,14 +5136,14 @@
       <c r="J45" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="K45" s="77" t="s">
+      <c r="K45" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="L45" s="77"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="76"/>
+      <c r="L45" s="78"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="81"/>
+      <c r="T45" s="81"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
@@ -5034,23 +5155,23 @@
       <c r="F46" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="77" t="s">
+      <c r="H46" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="L46" s="78" t="s">
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="L46" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="76" t="s">
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="81"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B47" s="37">
@@ -5065,20 +5186,20 @@
         <v>166</v>
       </c>
       <c r="G47" s="80"/>
-      <c r="H47" s="77" t="s">
+      <c r="H47" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="L47" s="78" t="s">
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="L47" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="M47" s="78"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="76"/>
+      <c r="M47" s="79"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="81"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48" s="37">
@@ -5089,18 +5210,18 @@
       </c>
       <c r="D48" s="61"/>
       <c r="E48" s="61"/>
-      <c r="F48" s="77" t="s">
+      <c r="F48" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="G48" s="77"/>
-      <c r="I48" s="77" t="s">
+      <c r="G48" s="78"/>
+      <c r="I48" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="J48" s="77"/>
-      <c r="L48" s="78" t="s">
+      <c r="J48" s="78"/>
+      <c r="L48" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="M48" s="78"/>
+      <c r="M48" s="79"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="37">
@@ -5112,22 +5233,22 @@
       <c r="D49" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="77" t="s">
+      <c r="F49" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="G49" s="77"/>
-      <c r="H49" s="79" t="s">
+      <c r="G49" s="78"/>
+      <c r="H49" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="78" t="s">
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="37">
@@ -5141,13 +5262,13 @@
       </c>
       <c r="G50" s="80"/>
       <c r="H50" s="80"/>
-      <c r="I50" s="92" t="s">
+      <c r="I50" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="J50" s="92"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="92"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="93"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
@@ -5164,11 +5285,11 @@
       </c>
       <c r="G51" s="80"/>
       <c r="H51" s="80"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="92"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="37">
@@ -5182,11 +5303,11 @@
       </c>
       <c r="G52" s="80"/>
       <c r="H52" s="80"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="92"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="93"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="37">
@@ -5195,6 +5316,13 @@
       <c r="C53" s="38" t="s">
         <v>2</v>
       </c>
+      <c r="F53" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="G53" s="80"/>
+      <c r="H53" s="54" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B54" s="37">
@@ -5203,6 +5331,18 @@
       <c r="C54" s="38" t="s">
         <v>3</v>
       </c>
+      <c r="F54" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="G54" s="78"/>
+      <c r="J54" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="L54" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="M54" s="79"/>
+      <c r="N54" s="61"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B55" s="37">
@@ -5211,6 +5351,17 @@
       <c r="C55" s="38" t="s">
         <v>4</v>
       </c>
+      <c r="F55" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" s="78"/>
+      <c r="J55" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="L55" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="M55" s="79"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="37">
@@ -5219,6 +5370,16 @@
       <c r="C56" s="38" t="s">
         <v>5</v>
       </c>
+      <c r="E56" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" s="78"/>
+      <c r="L56" s="65" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B57" s="37">
@@ -5227,14 +5388,131 @@
       <c r="C57" s="38" t="s">
         <v>6</v>
       </c>
+      <c r="G57" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="37">
+        <v>44002</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="J58" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K58" s="95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B59" s="37">
+        <v>44003</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="37">
+        <v>44004</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="37">
+        <v>44005</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B62" s="37">
+        <v>44006</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B63" s="37">
+        <v>44007</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B64" s="37">
+        <v>44008</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="37">
+        <v>44009</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I50:M52"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="L46:N46"/>
+  <mergeCells count="90">
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="E61:I66"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="F58:H58"/>
     <mergeCell ref="Q44:T45"/>
     <mergeCell ref="F51:H51"/>
     <mergeCell ref="F50:H50"/>
@@ -5246,6 +5524,11 @@
     <mergeCell ref="J44:P44"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="I41:J41"/>
+    <mergeCell ref="O46:S47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="F49:G49"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="E27:F27"/>
@@ -5291,26 +5574,30 @@
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:O4"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="L40:M40"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="H33:K34"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="O46:S47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I50:M52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="L46:N46"/>
     <mergeCell ref="H49:J49"/>
     <mergeCell ref="K49:O49"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="H47:J47"/>
-    <mergeCell ref="L47:M47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="214">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -2223,43 +2223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作业本到了需要整理：申论公文格式（宣传稿、编者按、汇报）</t>
-    <rPh sb="0" eb="1">
-      <t>zuo'ye'ben'zi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>dao'le</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zheng'li</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>shen'lun</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>gong'wen</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ge'shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xuan'chuan'gao</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>bain'zhe</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>an</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>hui'bao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李梦圆申论</t>
     <rPh sb="0" eb="1">
       <t>li'meng'yuan'shen'lun</t>
@@ -2276,16 +2239,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>jiu'cuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量行程</t>
-    <rPh sb="0" eb="1">
-      <t>shu'liang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xing'cheng</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2296,6 +2249,66 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>jiu'cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李委明数量</t>
+    <rPh sb="0" eb="1">
+      <t>li'wei'ming</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'laing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李委明数量17</t>
+    <rPh sb="0" eb="1">
+      <t>li'wei'ming</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川2009下半年</t>
+    <rPh sb="0" eb="1">
+      <t>si'chuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xia'ban'nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李委明资料</t>
+    <rPh sb="0" eb="1">
+      <t>li'wei'ming'zi'liao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mign</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动半小时</t>
+    <rPh sb="0" eb="1">
+      <t>yun'dong'ban'xiao'shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2555,7 +2568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2737,6 +2750,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2829,6 +2845,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3123,7 +3142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -3136,46 +3155,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -3190,20 +3209,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -3294,16 +3313,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="69"/>
+      <c r="K8" s="70"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="70" t="s">
+      <c r="N8" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="70"/>
+      <c r="O8" s="71"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -3337,7 +3356,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="71" t="s">
+      <c r="V9" s="72" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3368,7 +3387,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="72"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -3379,20 +3398,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="73" t="s">
+      <c r="N11" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="73"/>
+      <c r="O11" s="74"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -3412,24 +3431,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="75" t="s">
+      <c r="L12" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="75"/>
-      <c r="N12" s="76" t="s">
+      <c r="M12" s="76"/>
+      <c r="N12" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="76"/>
+      <c r="O12" s="77"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3458,16 +3477,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="73" t="s">
+      <c r="K13" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="76" t="s">
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -3486,20 +3505,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="76" t="s">
+      <c r="L14" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="76"/>
+      <c r="M14" s="77"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3568,7 +3587,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="71" t="s">
+      <c r="V16" s="72" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3597,7 +3616,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="71"/>
+      <c r="V17" s="72"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -3608,12 +3627,12 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3650,13 +3669,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3682,17 +3701,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="75"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="74" t="s">
+      <c r="J20" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3717,20 +3736,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="74" t="s">
+      <c r="J21" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74" t="s">
+      <c r="K21" s="75"/>
+      <c r="L21" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="74"/>
+      <c r="M21" s="75"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3753,24 +3772,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="75" t="s">
+      <c r="O22" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="75"/>
+      <c r="P22" s="76"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3785,10 +3804,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="75"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3821,17 +3840,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="77" t="s">
+      <c r="J24" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3857,28 +3876,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="77" t="s">
+      <c r="F25" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="77"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="74" t="s">
+      <c r="L25" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="74" t="s">
+      <c r="R25" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="74"/>
+      <c r="S25" s="75"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3890,22 +3909,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77" t="s">
+      <c r="E26" s="78"/>
+      <c r="F26" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="77"/>
+      <c r="G26" s="78"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="77" t="s">
+      <c r="L26" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="77"/>
+      <c r="M26" s="78"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3929,28 +3948,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="77"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="75" t="s">
+      <c r="I27" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75" t="s">
+      <c r="J27" s="76"/>
+      <c r="K27" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="75"/>
+      <c r="L27" s="76"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="75" t="s">
+      <c r="R27" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="75"/>
+      <c r="S27" s="76"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3966,18 +3985,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="75" t="s">
+      <c r="F28" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="75"/>
+      <c r="G28" s="76"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="75" t="s">
+      <c r="K28" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -4042,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4057,68 +4076,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
       <c r="P3" s="25" t="s">
         <v>39</v>
       </c>
@@ -4133,20 +4152,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
       <c r="P4" s="29" t="s">
         <v>43</v>
       </c>
@@ -4235,11 +4254,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="38"/>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
@@ -4256,7 +4275,7 @@
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
       <c r="U8" s="40"/>
-      <c r="V8" s="88" t="s">
+      <c r="V8" s="89" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4268,28 +4287,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="38"/>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92" t="s">
+      <c r="F9" s="92"/>
+      <c r="G9" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
       <c r="U9" s="40"/>
-      <c r="V9" s="89"/>
+      <c r="V9" s="90"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="37">
@@ -4305,22 +4324,22 @@
       <c r="F10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
       <c r="U10" s="40"/>
-      <c r="V10" s="89"/>
+      <c r="V10" s="90"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="37">
@@ -4330,10 +4349,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -4349,7 +4368,7 @@
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
       <c r="U11" s="40"/>
-      <c r="V11" s="89"/>
+      <c r="V11" s="90"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="37">
@@ -4359,18 +4378,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="78" t="s">
+      <c r="K12" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="L12" s="78"/>
+      <c r="L12" s="79"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
@@ -4380,7 +4399,7 @@
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
       <c r="U12" s="40"/>
-      <c r="V12" s="89"/>
+      <c r="V12" s="90"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="37">
@@ -4395,17 +4414,17 @@
       <c r="E13" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="90"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
-      <c r="K13" s="90" t="s">
+      <c r="K13" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
@@ -4423,10 +4442,10 @@
       <c r="C14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="79"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="38"/>
       <c r="G14" s="42" t="s">
         <v>22</v>
@@ -4436,11 +4455,11 @@
       <c r="J14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="84" t="s">
+      <c r="K14" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
       <c r="N14" s="38"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
@@ -4460,27 +4479,27 @@
       <c r="C15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="81"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="43"/>
       <c r="G15" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
       <c r="S15" s="27" t="s">
         <v>106</v>
       </c>
@@ -4496,12 +4515,12 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
       <c r="J16" s="23"/>
       <c r="K16" s="62" t="s">
         <v>109</v>
@@ -4530,20 +4549,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="43"/>
-      <c r="E17" s="79" t="s">
+      <c r="E17" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="79"/>
+      <c r="F17" s="80"/>
       <c r="G17" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="81" t="s">
+      <c r="H17" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
@@ -4562,14 +4581,14 @@
       <c r="C18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="J18" s="78" t="s">
+      <c r="F18" s="81"/>
+      <c r="J18" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="78"/>
+      <c r="K18" s="79"/>
       <c r="M18" s="25" t="s">
         <v>116</v>
       </c>
@@ -4581,17 +4600,17 @@
       <c r="C19" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="81"/>
       <c r="J19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="78" t="s">
+      <c r="K19" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="L19" s="78"/>
+      <c r="L19" s="79"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
@@ -4600,11 +4619,11 @@
       <c r="C20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="80" t="s">
+      <c r="E20" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
       <c r="J20" s="42" t="s">
         <v>21</v>
       </c>
@@ -4616,13 +4635,13 @@
       <c r="C21" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
@@ -4631,16 +4650,16 @@
       <c r="C22" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="90" t="s">
+      <c r="F22" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="80" t="s">
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
@@ -4649,21 +4668,21 @@
       <c r="C23" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="81" t="s">
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
@@ -4672,19 +4691,19 @@
       <c r="C24" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
@@ -4699,11 +4718,11 @@
       <c r="F25" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="78" t="s">
+      <c r="G25" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
@@ -4715,14 +4734,14 @@
       <c r="E26" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F26" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="78"/>
-      <c r="I26" s="78" t="s">
+      <c r="G26" s="79"/>
+      <c r="I26" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="J26" s="78"/>
+      <c r="J26" s="79"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
@@ -4731,27 +4750,27 @@
       <c r="C27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="78"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="28" t="s">
         <v>134</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="I27" s="81" t="s">
+      <c r="I27" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
@@ -4766,10 +4785,10 @@
       <c r="F28" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="79"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
@@ -4778,17 +4797,17 @@
       <c r="C29" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="78"/>
+      <c r="F29" s="79"/>
       <c r="J29" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="80" t="s">
+      <c r="K29" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="L29" s="80"/>
+      <c r="L29" s="81"/>
       <c r="V29" s="24" t="s">
         <v>141</v>
       </c>
@@ -4803,10 +4822,10 @@
       <c r="E30" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="G30" s="78" t="s">
+      <c r="G30" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="78"/>
+      <c r="H30" s="79"/>
       <c r="I30" s="47" t="s">
         <v>146</v>
       </c>
@@ -4821,17 +4840,17 @@
       <c r="E31" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="78" t="s">
+      <c r="F31" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="81" t="s">
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
       <c r="V31" s="48" t="s">
         <v>148</v>
       </c>
@@ -4843,14 +4862,14 @@
       <c r="C32" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78" t="s">
+      <c r="F32" s="79"/>
+      <c r="G32" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="H32" s="78"/>
+      <c r="H32" s="79"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
@@ -4859,16 +4878,16 @@
       <c r="C33" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="80" t="s">
+      <c r="E33" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="80"/>
-      <c r="H33" s="81" t="s">
+      <c r="F33" s="81"/>
+      <c r="H33" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
@@ -4877,15 +4896,15 @@
       <c r="C34" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
@@ -4897,14 +4916,14 @@
       <c r="E35" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="80" t="s">
+      <c r="F35" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="80"/>
-      <c r="I35" s="78" t="s">
+      <c r="G35" s="81"/>
+      <c r="I35" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="J35" s="78"/>
+      <c r="J35" s="79"/>
       <c r="K35" s="25" t="s">
         <v>155</v>
       </c>
@@ -4916,10 +4935,10 @@
       <c r="C36" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="82"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="28" t="s">
         <v>157</v>
       </c>
@@ -4934,10 +4953,10 @@
       <c r="E37" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="82" t="s">
+      <c r="F37" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="82"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="49"/>
       <c r="V37" s="24" t="s">
         <v>162</v>
@@ -4950,14 +4969,14 @@
       <c r="C38" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="80" t="s">
+      <c r="F38" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="G38" s="80"/>
-      <c r="H38" s="83" t="s">
+      <c r="G38" s="81"/>
+      <c r="H38" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="I38" s="83"/>
+      <c r="I38" s="84"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
@@ -4970,10 +4989,10 @@
         <v>163</v>
       </c>
       <c r="E39" s="49"/>
-      <c r="F39" s="78" t="s">
+      <c r="F39" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="G39" s="78"/>
+      <c r="G39" s="79"/>
       <c r="J39" s="50" t="s">
         <v>146</v>
       </c>
@@ -4997,17 +5016,17 @@
       <c r="E40" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="78" t="s">
+      <c r="F40" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="G40" s="78"/>
+      <c r="G40" s="79"/>
       <c r="J40" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="L40" s="79" t="s">
+      <c r="L40" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="M40" s="79"/>
+      <c r="M40" s="80"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
@@ -5022,25 +5041,25 @@
       <c r="E41" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="F41" s="79" t="s">
+      <c r="F41" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="78" t="s">
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="J41" s="78"/>
-      <c r="N41" s="81" t="s">
+      <c r="J41" s="79"/>
+      <c r="N41" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="81"/>
-      <c r="U41" s="81"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
@@ -5064,10 +5083,10 @@
       <c r="L42" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="N42" s="79" t="s">
+      <c r="N42" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="O42" s="79"/>
+      <c r="O42" s="80"/>
       <c r="R42" s="56" t="s">
         <v>182</v>
       </c>
@@ -5082,21 +5101,21 @@
       <c r="C43" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="78" t="s">
+      <c r="F43" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="G43" s="78"/>
+      <c r="G43" s="79"/>
       <c r="J43" s="57" t="s">
         <v>185</v>
       </c>
       <c r="K43" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="L43" s="79" t="s">
+      <c r="L43" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
@@ -5105,26 +5124,26 @@
       <c r="C44" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="79" t="s">
+      <c r="G44" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="81" t="s">
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81" t="s">
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="R44" s="81"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="81"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="82"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
@@ -5136,14 +5155,14 @@
       <c r="J45" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="K45" s="78" t="s">
+      <c r="K45" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="L45" s="78"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
+      <c r="L45" s="79"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
@@ -5155,23 +5174,23 @@
       <c r="F46" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="78" t="s">
+      <c r="H46" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="L46" s="79" t="s">
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="L46" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="81" t="s">
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="82"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="82"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B47" s="37">
@@ -5182,24 +5201,24 @@
       </c>
       <c r="D47" s="61"/>
       <c r="E47" s="61"/>
-      <c r="F47" s="80" t="s">
+      <c r="F47" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="G47" s="80"/>
-      <c r="H47" s="78" t="s">
+      <c r="G47" s="81"/>
+      <c r="H47" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="L47" s="79" t="s">
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="L47" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="M47" s="79"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
+      <c r="M47" s="80"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="82"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48" s="37">
@@ -5210,18 +5229,18 @@
       </c>
       <c r="D48" s="61"/>
       <c r="E48" s="61"/>
-      <c r="F48" s="78" t="s">
+      <c r="F48" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="G48" s="78"/>
-      <c r="I48" s="78" t="s">
+      <c r="G48" s="79"/>
+      <c r="I48" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="J48" s="78"/>
-      <c r="L48" s="79" t="s">
+      <c r="J48" s="79"/>
+      <c r="L48" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="M48" s="79"/>
+      <c r="M48" s="80"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="37">
@@ -5233,22 +5252,22 @@
       <c r="D49" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="78" t="s">
+      <c r="F49" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="G49" s="78"/>
-      <c r="H49" s="94" t="s">
+      <c r="G49" s="79"/>
+      <c r="H49" s="95" t="s">
         <v>195</v>
       </c>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="79" t="s">
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="37">
@@ -5257,18 +5276,18 @@
       <c r="C50" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="80" t="s">
+      <c r="F50" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="93" t="s">
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="93"/>
-      <c r="M50" s="93"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
@@ -5280,16 +5299,16 @@
       <c r="C51" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="80" t="s">
+      <c r="F51" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="93"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="37">
@@ -5298,16 +5317,16 @@
       <c r="C52" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="80" t="s">
+      <c r="F52" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="93"/>
-      <c r="M52" s="93"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
+      <c r="L52" s="94"/>
+      <c r="M52" s="94"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="37">
@@ -5316,10 +5335,10 @@
       <c r="C53" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="80" t="s">
+      <c r="F53" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="G53" s="80"/>
+      <c r="G53" s="81"/>
       <c r="H53" s="54" t="s">
         <v>200</v>
       </c>
@@ -5331,17 +5350,17 @@
       <c r="C54" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="78" t="s">
+      <c r="F54" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="G54" s="78"/>
+      <c r="G54" s="79"/>
       <c r="J54" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="L54" s="79" t="s">
+      <c r="L54" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="M54" s="79"/>
+      <c r="M54" s="80"/>
       <c r="N54" s="61"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -5351,17 +5370,17 @@
       <c r="C55" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="78" t="s">
+      <c r="F55" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="78"/>
+      <c r="G55" s="79"/>
       <c r="J55" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="L55" s="79" t="s">
+      <c r="L55" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="M55" s="79"/>
+      <c r="M55" s="80"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="37">
@@ -5373,11 +5392,11 @@
       <c r="E56" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="G56" s="78" t="s">
+      <c r="G56" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="H56" s="78"/>
-      <c r="L56" s="65" t="s">
+      <c r="H56" s="79"/>
+      <c r="L56" s="66" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5388,14 +5407,14 @@
       <c r="C57" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G57" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
+      <c r="G57" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B58" s="37">
@@ -5404,15 +5423,15 @@
       <c r="C58" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="78" t="s">
+      <c r="F58" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="J58" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="J58" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="K58" s="95" t="s">
+      <c r="K58" s="96" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5423,6 +5442,16 @@
       <c r="C59" s="38" t="s">
         <v>8</v>
       </c>
+      <c r="F59" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="H59" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="J59" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="K59" s="80"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B60" s="37">
@@ -5431,6 +5460,19 @@
       <c r="C60" s="38" t="s">
         <v>2</v>
       </c>
+      <c r="F60" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="G60" s="79"/>
+      <c r="I60" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="K60" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="L60" s="97"/>
+      <c r="M60" s="97"/>
+      <c r="N60" s="96"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B61" s="37">
@@ -5439,13 +5481,20 @@
       <c r="C61" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="G61" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="61"/>
+      <c r="I61" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="J61" s="97"/>
+      <c r="K61" s="97"/>
+      <c r="L61" s="97"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B62" s="37">
@@ -5454,11 +5503,11 @@
       <c r="C62" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B63" s="37">
@@ -5467,11 +5516,11 @@
       <c r="C63" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B64" s="37">
@@ -5480,11 +5529,11 @@
       <c r="C64" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="37">
@@ -5493,26 +5542,29 @@
       <c r="C65" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="93">
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="G56:H56"/>
-    <mergeCell ref="E61:I66"/>
     <mergeCell ref="G57:L57"/>
     <mergeCell ref="F58:H58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="I61:L61"/>
     <mergeCell ref="Q44:T45"/>
     <mergeCell ref="F51:H51"/>
     <mergeCell ref="F50:H50"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="4月" sheetId="3" r:id="rId1"/>
     <sheet name="5月" sheetId="1" r:id="rId2"/>
+    <sheet name="行测真题练习统计" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="224">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -2309,6 +2310,88 @@
     <t>运动半小时</t>
     <rPh sb="0" eb="1">
       <t>yun'dong'ban'xiao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川2010+纠错</t>
+    <rPh sb="0" eb="1">
+      <t>si'chuan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiu'cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>ri'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷名</t>
+    <rPh sb="0" eb="1">
+      <t>shi'juan'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块得分率</t>
+    <rPh sb="0" eb="1">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de'fen'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块题量</t>
+    <rPh sb="0" eb="1">
+      <t>mo'kuai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题量</t>
+    <rPh sb="0" eb="1">
+      <t>ti'laing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分率</t>
+    <rPh sb="0" eb="1">
+      <t>de'fen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推理</t>
+    <rPh sb="0" eb="1">
+      <t>tui'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常识</t>
+    <rPh sb="0" eb="1">
+      <t>chang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu'laing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2568,7 +2651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2750,9 +2833,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2847,6 +2936,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2857,11 +2952,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFD4E8FF"/>
       <color rgb="FF75A992"/>
       <color rgb="FFEB94A0"/>
       <color rgb="FFD793CA"/>
       <color rgb="FFFFB9C9"/>
-      <color rgb="FFD4E8FF"/>
       <color rgb="FF75B3AF"/>
       <color rgb="FF44B3AF"/>
       <color rgb="FFAEE8CA"/>
@@ -3155,46 +3250,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="19" t="s">
         <v>39</v>
       </c>
@@ -3209,20 +3304,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
@@ -3313,16 +3408,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="71" t="s">
+      <c r="N8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="71"/>
+      <c r="O8" s="73"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -3356,7 +3451,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="72" t="s">
+      <c r="V9" s="74" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3387,7 +3482,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="74"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -3398,20 +3493,20 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="74" t="s">
+      <c r="N11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="74"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="20" t="s">
@@ -3431,24 +3526,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="76" t="s">
+      <c r="L12" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77" t="s">
+      <c r="M12" s="78"/>
+      <c r="N12" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="77"/>
+      <c r="O12" s="79"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3477,16 +3572,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="74" t="s">
+      <c r="K13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="77" t="s">
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="19" t="s">
@@ -3505,20 +3600,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
       <c r="J14" s="1"/>
       <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="77" t="s">
+      <c r="L14" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="77"/>
+      <c r="M14" s="79"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3587,7 +3682,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
-      <c r="V16" s="72" t="s">
+      <c r="V16" s="74" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3616,7 +3711,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="12"/>
-      <c r="V17" s="72"/>
+      <c r="V17" s="74"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -3627,12 +3722,12 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3669,13 +3764,13 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
       <c r="P19" s="18" t="s">
         <v>47</v>
       </c>
@@ -3701,17 +3796,17 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="76" t="s">
+      <c r="F20" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="76"/>
+      <c r="G20" s="78"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14" t="s">
         <v>53</v>
@@ -3736,20 +3831,20 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75" t="s">
+      <c r="K21" s="77"/>
+      <c r="L21" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="75"/>
+      <c r="M21" s="77"/>
       <c r="N21" s="1"/>
       <c r="O21" s="18" t="s">
         <v>58</v>
@@ -3772,24 +3867,24 @@
         <v>6</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="76" t="s">
+      <c r="O22" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="76"/>
+      <c r="P22" s="78"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -3804,10 +3899,10 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="76"/>
+      <c r="F23" s="78"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3840,17 +3935,17 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="78" t="s">
+      <c r="F24" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="78" t="s">
+      <c r="J24" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3876,28 +3971,28 @@
       <c r="E25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="78" t="s">
+      <c r="F25" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="78"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="75" t="s">
+      <c r="L25" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="75" t="s">
+      <c r="R25" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="75"/>
+      <c r="S25" s="77"/>
       <c r="T25" s="1"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3909,22 +4004,22 @@
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78" t="s">
+      <c r="E26" s="80"/>
+      <c r="F26" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="78"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="78" t="s">
+      <c r="L26" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="78"/>
+      <c r="M26" s="80"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3948,28 +4043,28 @@
         <v>41</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="78" t="s">
+      <c r="F27" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="78"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76" t="s">
+      <c r="J27" s="78"/>
+      <c r="K27" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="76"/>
+      <c r="L27" s="78"/>
       <c r="M27" s="16"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="76" t="s">
+      <c r="R27" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="76"/>
+      <c r="S27" s="78"/>
       <c r="T27" s="1"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3985,18 +4080,18 @@
         <v>82</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="76" t="s">
+      <c r="F28" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="76"/>
+      <c r="G28" s="78"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="76" t="s">
+      <c r="K28" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -4062,7 +4157,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4076,68 +4171,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="25" t="s">
         <v>39</v>
       </c>
@@ -4152,20 +4247,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
       <c r="P4" s="29" t="s">
         <v>43</v>
       </c>
@@ -4254,11 +4349,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="38"/>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
@@ -4275,7 +4370,7 @@
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
       <c r="U8" s="40"/>
-      <c r="V8" s="89" t="s">
+      <c r="V8" s="91" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4287,28 +4382,28 @@
         <v>7</v>
       </c>
       <c r="D9" s="38"/>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93" t="s">
+      <c r="F9" s="94"/>
+      <c r="G9" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
       <c r="U9" s="40"/>
-      <c r="V9" s="90"/>
+      <c r="V9" s="92"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="37">
@@ -4324,22 +4419,22 @@
       <c r="F10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
       <c r="U10" s="40"/>
-      <c r="V10" s="90"/>
+      <c r="V10" s="92"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="37">
@@ -4349,10 +4444,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="86"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -4368,7 +4463,7 @@
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
       <c r="U11" s="40"/>
-      <c r="V11" s="90"/>
+      <c r="V11" s="92"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="37">
@@ -4378,18 +4473,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="79" t="s">
+      <c r="K12" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="L12" s="79"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
@@ -4399,7 +4494,7 @@
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
       <c r="U12" s="40"/>
-      <c r="V12" s="90"/>
+      <c r="V12" s="92"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="37">
@@ -4414,17 +4509,17 @@
       <c r="E13" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="91"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
-      <c r="K13" s="91" t="s">
+      <c r="K13" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
@@ -4442,10 +4537,10 @@
       <c r="C14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="80"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="38"/>
       <c r="G14" s="42" t="s">
         <v>22</v>
@@ -4455,11 +4550,11 @@
       <c r="J14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="85" t="s">
+      <c r="K14" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
       <c r="N14" s="38"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
@@ -4479,27 +4574,27 @@
       <c r="C15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="82"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="43"/>
       <c r="G15" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
       <c r="S15" s="27" t="s">
         <v>106</v>
       </c>
@@ -4515,12 +4610,12 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
       <c r="J16" s="23"/>
       <c r="K16" s="62" t="s">
         <v>109</v>
@@ -4549,20 +4644,20 @@
         <v>8</v>
       </c>
       <c r="D17" s="43"/>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="80"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="82" t="s">
+      <c r="H17" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
@@ -4581,14 +4676,14 @@
       <c r="C18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="J18" s="79" t="s">
+      <c r="F18" s="83"/>
+      <c r="J18" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="79"/>
+      <c r="K18" s="81"/>
       <c r="M18" s="25" t="s">
         <v>116</v>
       </c>
@@ -4600,17 +4695,17 @@
       <c r="C19" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="81"/>
+      <c r="F19" s="83"/>
       <c r="J19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="79" t="s">
+      <c r="K19" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="L19" s="79"/>
+      <c r="L19" s="81"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="37">
@@ -4619,11 +4714,11 @@
       <c r="C20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
       <c r="J20" s="42" t="s">
         <v>21</v>
       </c>
@@ -4635,13 +4730,13 @@
       <c r="C21" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="37">
@@ -4650,16 +4745,16 @@
       <c r="C22" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="91" t="s">
+      <c r="F22" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="81" t="s">
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="37">
@@ -4668,21 +4763,21 @@
       <c r="C23" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="79" t="s">
+      <c r="E23" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="82" t="s">
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="37">
@@ -4691,19 +4786,19 @@
       <c r="C24" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="37">
@@ -4718,11 +4813,11 @@
       <c r="F25" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="79" t="s">
+      <c r="G25" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="37">
@@ -4734,14 +4829,14 @@
       <c r="E26" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="79"/>
-      <c r="I26" s="79" t="s">
+      <c r="G26" s="81"/>
+      <c r="I26" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="J26" s="79"/>
+      <c r="J26" s="81"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="37">
@@ -4750,27 +4845,27 @@
       <c r="C27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="79" t="s">
+      <c r="E27" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="79"/>
+      <c r="F27" s="81"/>
       <c r="G27" s="28" t="s">
         <v>134</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="I27" s="82" t="s">
+      <c r="I27" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="37">
@@ -4785,10 +4880,10 @@
       <c r="F28" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="80"/>
+      <c r="H28" s="82"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37">
@@ -4797,17 +4892,17 @@
       <c r="C29" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="79" t="s">
+      <c r="E29" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="79"/>
+      <c r="F29" s="81"/>
       <c r="J29" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="81" t="s">
+      <c r="K29" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="L29" s="81"/>
+      <c r="L29" s="83"/>
       <c r="V29" s="24" t="s">
         <v>141</v>
       </c>
@@ -4822,10 +4917,10 @@
       <c r="E30" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="G30" s="79" t="s">
+      <c r="G30" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="79"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="47" t="s">
         <v>146</v>
       </c>
@@ -4840,17 +4935,17 @@
       <c r="E31" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="79" t="s">
+      <c r="F31" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="82" t="s">
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
       <c r="V31" s="48" t="s">
         <v>148</v>
       </c>
@@ -4862,14 +4957,14 @@
       <c r="C32" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="79" t="s">
+      <c r="E32" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79" t="s">
+      <c r="F32" s="81"/>
+      <c r="G32" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="H32" s="79"/>
+      <c r="H32" s="81"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B33" s="37">
@@ -4878,16 +4973,16 @@
       <c r="C33" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="81"/>
-      <c r="H33" s="82" t="s">
+      <c r="F33" s="83"/>
+      <c r="H33" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="37">
@@ -4896,15 +4991,15 @@
       <c r="C34" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="79" t="s">
+      <c r="E34" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B35" s="37">
@@ -4916,14 +5011,14 @@
       <c r="E35" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="81"/>
-      <c r="I35" s="79" t="s">
+      <c r="G35" s="83"/>
+      <c r="I35" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="J35" s="79"/>
+      <c r="J35" s="81"/>
       <c r="K35" s="25" t="s">
         <v>155</v>
       </c>
@@ -4935,10 +5030,10 @@
       <c r="C36" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="83"/>
+      <c r="F36" s="85"/>
       <c r="G36" s="28" t="s">
         <v>157</v>
       </c>
@@ -4953,10 +5048,10 @@
       <c r="E37" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="83" t="s">
+      <c r="F37" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="83"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="49"/>
       <c r="V37" s="24" t="s">
         <v>162</v>
@@ -4969,14 +5064,14 @@
       <c r="C38" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="81" t="s">
+      <c r="F38" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="G38" s="81"/>
-      <c r="H38" s="84" t="s">
+      <c r="G38" s="83"/>
+      <c r="H38" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="I38" s="84"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B39" s="37">
@@ -4989,10 +5084,10 @@
         <v>163</v>
       </c>
       <c r="E39" s="49"/>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="G39" s="79"/>
+      <c r="G39" s="81"/>
       <c r="J39" s="50" t="s">
         <v>146</v>
       </c>
@@ -5016,17 +5111,17 @@
       <c r="E40" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="79" t="s">
+      <c r="F40" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="G40" s="79"/>
+      <c r="G40" s="81"/>
       <c r="J40" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="L40" s="80" t="s">
+      <c r="L40" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="M40" s="80"/>
+      <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
@@ -5041,25 +5136,25 @@
       <c r="E41" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="F41" s="80" t="s">
+      <c r="F41" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="79" t="s">
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="J41" s="79"/>
-      <c r="N41" s="82" t="s">
+      <c r="J41" s="81"/>
+      <c r="N41" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="82"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="84"/>
+      <c r="U41" s="84"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
@@ -5083,10 +5178,10 @@
       <c r="L42" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="N42" s="80" t="s">
+      <c r="N42" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="O42" s="80"/>
+      <c r="O42" s="82"/>
       <c r="R42" s="56" t="s">
         <v>182</v>
       </c>
@@ -5101,21 +5196,21 @@
       <c r="C43" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="79" t="s">
+      <c r="F43" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="G43" s="79"/>
+      <c r="G43" s="81"/>
       <c r="J43" s="57" t="s">
         <v>185</v>
       </c>
       <c r="K43" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="L43" s="80" t="s">
+      <c r="L43" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B44" s="37">
@@ -5124,26 +5219,26 @@
       <c r="C44" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="80" t="s">
+      <c r="G44" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="82" t="s">
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82" t="s">
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="R44" s="82"/>
-      <c r="S44" s="82"/>
-      <c r="T44" s="82"/>
+      <c r="R44" s="84"/>
+      <c r="S44" s="84"/>
+      <c r="T44" s="84"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B45" s="37">
@@ -5155,14 +5250,14 @@
       <c r="J45" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="K45" s="79" t="s">
+      <c r="K45" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="L45" s="79"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
+      <c r="L45" s="81"/>
+      <c r="Q45" s="84"/>
+      <c r="R45" s="84"/>
+      <c r="S45" s="84"/>
+      <c r="T45" s="84"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B46" s="37">
@@ -5174,23 +5269,23 @@
       <c r="F46" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="79" t="s">
+      <c r="H46" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="L46" s="80" t="s">
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="L46" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="82" t="s">
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="82"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="84"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B47" s="37">
@@ -5201,24 +5296,24 @@
       </c>
       <c r="D47" s="61"/>
       <c r="E47" s="61"/>
-      <c r="F47" s="81" t="s">
+      <c r="F47" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="G47" s="81"/>
-      <c r="H47" s="79" t="s">
+      <c r="G47" s="83"/>
+      <c r="H47" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="L47" s="80" t="s">
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="L47" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="M47" s="80"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="84"/>
+      <c r="S47" s="84"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48" s="37">
@@ -5229,18 +5324,18 @@
       </c>
       <c r="D48" s="61"/>
       <c r="E48" s="61"/>
-      <c r="F48" s="79" t="s">
+      <c r="F48" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="G48" s="79"/>
-      <c r="I48" s="79" t="s">
+      <c r="G48" s="81"/>
+      <c r="I48" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="J48" s="79"/>
-      <c r="L48" s="80" t="s">
+      <c r="J48" s="81"/>
+      <c r="L48" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="M48" s="80"/>
+      <c r="M48" s="82"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="37">
@@ -5252,22 +5347,22 @@
       <c r="D49" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="79" t="s">
+      <c r="F49" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="G49" s="79"/>
-      <c r="H49" s="95" t="s">
+      <c r="G49" s="81"/>
+      <c r="H49" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="80" t="s">
+      <c r="I49" s="97"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="37">
@@ -5276,18 +5371,18 @@
       <c r="C50" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="81" t="s">
+      <c r="F50" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="94" t="s">
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="96"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
@@ -5299,16 +5394,16 @@
       <c r="C51" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="81" t="s">
+      <c r="F51" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="96"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="96"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="37">
@@ -5317,16 +5412,16 @@
       <c r="C52" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="81" t="s">
+      <c r="F52" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="37">
@@ -5335,10 +5430,10 @@
       <c r="C53" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="81" t="s">
+      <c r="F53" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="G53" s="81"/>
+      <c r="G53" s="83"/>
       <c r="H53" s="54" t="s">
         <v>200</v>
       </c>
@@ -5350,17 +5445,17 @@
       <c r="C54" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="79" t="s">
+      <c r="F54" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="G54" s="79"/>
+      <c r="G54" s="81"/>
       <c r="J54" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="L54" s="80" t="s">
+      <c r="L54" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="M54" s="80"/>
+      <c r="M54" s="82"/>
       <c r="N54" s="61"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -5370,17 +5465,17 @@
       <c r="C55" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="79" t="s">
+      <c r="F55" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="79"/>
+      <c r="G55" s="81"/>
       <c r="J55" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="L55" s="80" t="s">
+      <c r="L55" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="M55" s="80"/>
+      <c r="M55" s="82"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="37">
@@ -5392,11 +5487,11 @@
       <c r="E56" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="G56" s="79" t="s">
+      <c r="G56" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="H56" s="79"/>
-      <c r="L56" s="66" t="s">
+      <c r="H56" s="81"/>
+      <c r="L56" s="68" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5407,14 +5502,14 @@
       <c r="C57" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G57" s="80" t="s">
+      <c r="G57" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B58" s="37">
@@ -5423,15 +5518,15 @@
       <c r="C58" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="79" t="s">
+      <c r="F58" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
       <c r="J58" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="K58" s="96" t="s">
+      <c r="K58" s="98" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5442,16 +5537,16 @@
       <c r="C59" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="96" t="s">
+      <c r="F59" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="H59" s="96" t="s">
+      <c r="H59" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="J59" s="80" t="s">
+      <c r="J59" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="K59" s="80"/>
+      <c r="K59" s="82"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B60" s="37">
@@ -5460,19 +5555,19 @@
       <c r="C60" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F60" s="79" t="s">
+      <c r="F60" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="G60" s="79"/>
+      <c r="G60" s="81"/>
       <c r="I60" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="K60" s="97" t="s">
+      <c r="K60" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="L60" s="97"/>
-      <c r="M60" s="97"/>
-      <c r="N60" s="96"/>
+      <c r="L60" s="99"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="98"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B61" s="37">
@@ -5482,19 +5577,19 @@
         <v>3</v>
       </c>
       <c r="E61" s="61"/>
-      <c r="F61" s="96" t="s">
+      <c r="F61" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="G61" s="65" t="s">
+      <c r="G61" s="66" t="s">
         <v>41</v>
       </c>
       <c r="H61" s="61"/>
-      <c r="I61" s="97" t="s">
+      <c r="I61" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="97"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="99"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B62" s="37">
@@ -5504,10 +5599,15 @@
         <v>4</v>
       </c>
       <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
+      <c r="F62" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
       <c r="I62" s="61"/>
+      <c r="J62" s="68" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B63" s="37">
@@ -5517,8 +5617,12 @@
         <v>5</v>
       </c>
       <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
+      <c r="F63" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="G63" s="61" t="s">
+        <v>213</v>
+      </c>
       <c r="H63" s="61"/>
       <c r="I63" s="61"/>
     </row>
@@ -5556,7 +5660,7 @@
       <c r="I66" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
+  <mergeCells count="94">
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G57:L57"/>
@@ -5565,6 +5669,7 @@
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="K60:M60"/>
     <mergeCell ref="I61:L61"/>
+    <mergeCell ref="F62:H62"/>
     <mergeCell ref="Q44:T45"/>
     <mergeCell ref="F51:H51"/>
     <mergeCell ref="F50:H50"/>
@@ -5655,4 +5760,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="65"/>
+    <col min="2" max="2" width="10.83203125" style="100"/>
+    <col min="3" max="3" width="21.5" style="65" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="100"/>
+    <col min="5" max="6" width="10.83203125" style="65"/>
+    <col min="7" max="7" width="10.83203125" style="100"/>
+    <col min="8" max="8" width="10.83203125" style="65"/>
+    <col min="9" max="9" width="10.83203125" style="100"/>
+    <col min="10" max="10" width="10.83203125" style="65"/>
+    <col min="11" max="11" width="10.83203125" style="100"/>
+    <col min="12" max="12" width="10.83203125" style="65"/>
+    <col min="13" max="13" width="10.83203125" style="100"/>
+    <col min="14" max="14" width="10.83203125" style="65"/>
+    <col min="15" max="15" width="10.83203125" style="100"/>
+    <col min="16" max="16384" width="10.83203125" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+    </row>
+    <row r="5" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="101"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="K5" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="N5" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="O5" s="100" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:J4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980C75E2-2451-0546-A96C-FA3EB50F4700}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52323712-D6EA-AE41-AEAB-EA37BB90CFCD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="207">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -634,6 +634,18 @@
   </si>
   <si>
     <t>哈哈哈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014四川</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012四川纠错</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014四川纠错</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,6 +1151,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2351,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3820,7 +3838,7 @@
       <c r="G64" s="84"/>
       <c r="H64" s="84"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:10">
       <c r="B65" s="7">
         <v>44009</v>
       </c>
@@ -3834,15 +3852,26 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:10">
       <c r="B66" s="7">
         <v>44010</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="2:9">
+      <c r="F66" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="G66" s="70"/>
+      <c r="H66" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="I66" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="J66" s="70"/>
+    </row>
+    <row r="67" spans="2:10">
       <c r="B67" s="7">
         <v>44011</v>
       </c>
@@ -3850,7 +3879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:10">
       <c r="B68" s="7">
         <v>44012</v>
       </c>
@@ -3858,7 +3887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:10">
       <c r="B69" s="7">
         <v>44013</v>
       </c>
@@ -3866,7 +3895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:10">
       <c r="B70" s="7">
         <v>44014</v>
       </c>
@@ -3874,7 +3903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:10">
       <c r="B71" s="7">
         <v>44015</v>
       </c>
@@ -3882,7 +3911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:10">
       <c r="B72" s="7">
         <v>44016</v>
       </c>
@@ -3890,7 +3919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:10">
       <c r="B73" s="7">
         <v>44017</v>
       </c>
@@ -3898,34 +3927,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:10">
       <c r="B74" s="7">
         <v>44018</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="2:10">
       <c r="B75" s="7">
         <v>44019</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:10">
       <c r="B76" s="7">
         <v>44020</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:10">
       <c r="B77" s="7">
         <v>44021</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:10">
       <c r="B78" s="7">
         <v>44022</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="97">
     <mergeCell ref="F64:H65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="I66:J66"/>
     <mergeCell ref="F62:H62"/>
     <mergeCell ref="V8:V12"/>
     <mergeCell ref="Q44:T45"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52323712-D6EA-AE41-AEAB-EA37BB90CFCD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B7EDF1-C6BE-9F4E-BDFF-FE0B433639F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="211">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -646,6 +646,22 @@
   </si>
   <si>
     <t>2014四川纠错</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013四川</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013四川纠错</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合复习</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一到节假日就偷懒？</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,6 +1174,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,7 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J20" sqref="J20:L20"/>
     </sheetView>
   </sheetViews>
@@ -2369,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57:L57"/>
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3544,7 +3566,7 @@
       </c>
       <c r="M48" s="72"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:22">
       <c r="B49" s="7">
         <v>43993</v>
       </c>
@@ -3571,7 +3593,7 @@
       <c r="N49" s="72"/>
       <c r="O49" s="72"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:22">
       <c r="B50" s="7">
         <v>43994</v>
       </c>
@@ -3591,7 +3613,7 @@
       <c r="L50" s="83"/>
       <c r="M50" s="83"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:22">
       <c r="A51" s="3" t="s">
         <v>184</v>
       </c>
@@ -3612,7 +3634,7 @@
       <c r="L51" s="83"/>
       <c r="M51" s="83"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:22">
       <c r="B52" s="7">
         <v>43996</v>
       </c>
@@ -3630,7 +3652,7 @@
       <c r="L52" s="83"/>
       <c r="M52" s="83"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:22">
       <c r="B53" s="7">
         <v>43997</v>
       </c>
@@ -3645,7 +3667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:22">
       <c r="B54" s="7">
         <v>43998</v>
       </c>
@@ -3664,7 +3686,7 @@
       </c>
       <c r="M54" s="72"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:22">
       <c r="B55" s="7">
         <v>43999</v>
       </c>
@@ -3683,7 +3705,7 @@
       </c>
       <c r="M55" s="72"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:22">
       <c r="B56" s="7">
         <v>44000</v>
       </c>
@@ -3701,7 +3723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:22">
       <c r="B57" s="7">
         <v>44001</v>
       </c>
@@ -3717,7 +3739,7 @@
       <c r="K57" s="72"/>
       <c r="L57" s="72"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:22">
       <c r="B58" s="7">
         <v>44002</v>
       </c>
@@ -3736,7 +3758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:22">
       <c r="B59" s="7">
         <v>44003</v>
       </c>
@@ -3754,7 +3776,7 @@
       </c>
       <c r="K59" s="72"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:22">
       <c r="B60" s="7">
         <v>44004</v>
       </c>
@@ -3775,7 +3797,7 @@
       <c r="M60" s="79"/>
       <c r="N60" s="23"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:22">
       <c r="B61" s="7">
         <v>44005</v>
       </c>
@@ -3795,7 +3817,7 @@
       <c r="K61" s="79"/>
       <c r="L61" s="79"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:22">
       <c r="B62" s="7">
         <v>44006</v>
       </c>
@@ -3811,7 +3833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:22">
       <c r="B63" s="7">
         <v>44007</v>
       </c>
@@ -3824,8 +3846,11 @@
       <c r="G63" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="V63" s="90" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="B64" s="7">
         <v>44008</v>
       </c>
@@ -3837,8 +3862,9 @@
       </c>
       <c r="G64" s="84"/>
       <c r="H64" s="84"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="V64" s="89"/>
+    </row>
+    <row r="65" spans="2:22">
       <c r="B65" s="7">
         <v>44009</v>
       </c>
@@ -3851,8 +3877,9 @@
       <c r="I65" s="86" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="V65" s="89"/>
+    </row>
+    <row r="66" spans="2:22">
       <c r="B66" s="7">
         <v>44010</v>
       </c>
@@ -3871,15 +3898,32 @@
       </c>
       <c r="J66" s="70"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:22">
       <c r="B67" s="7">
         <v>44011</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="F67" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="G67" s="70"/>
+      <c r="H67" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="I67" s="70"/>
+      <c r="J67" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L67" s="88" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22">
       <c r="B68" s="7">
         <v>44012</v>
       </c>
@@ -3887,7 +3931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:22">
       <c r="B69" s="7">
         <v>44013</v>
       </c>
@@ -3895,7 +3939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:22">
       <c r="B70" s="7">
         <v>44014</v>
       </c>
@@ -3903,7 +3947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:22">
       <c r="B71" s="7">
         <v>44015</v>
       </c>
@@ -3911,7 +3955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:22">
       <c r="B72" s="7">
         <v>44016</v>
       </c>
@@ -3919,7 +3963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:22">
       <c r="B73" s="7">
         <v>44017</v>
       </c>
@@ -3927,36 +3971,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:22">
       <c r="B74" s="7">
         <v>44018</v>
       </c>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:22">
       <c r="B75" s="7">
         <v>44019</v>
       </c>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:22">
       <c r="B76" s="7">
         <v>44020</v>
       </c>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:22">
       <c r="B77" s="7">
         <v>44021</v>
       </c>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:22">
       <c r="B78" s="7">
         <v>44022</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="100">
+    <mergeCell ref="V63:V65"/>
     <mergeCell ref="F64:H65"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="I66:J66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
     <mergeCell ref="F62:H62"/>
     <mergeCell ref="V8:V12"/>
     <mergeCell ref="Q44:T45"/>
@@ -4062,8 +4109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B7EDF1-C6BE-9F4E-BDFF-FE0B433639F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBDC0DE-CF2F-3E47-AD09-4A427EC476CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="3" r:id="rId1"/>
     <sheet name="5月" sheetId="1" r:id="rId2"/>
     <sheet name="行测真题练习统计" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="221">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -662,6 +662,46 @@
   </si>
   <si>
     <t>一到节假日就偷懒？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川2014</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川2014纠错</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论1.5h+运动0.5h</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午选岗位，下午跟代听听聊天聊了6个小时…..我的天</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名承诺书签名需要手写吗？少数民族加分表需要手写吗？市场监督管理(消保)股工作员日常工作需要出外勤吗？确认在兴义黔西南其他少数民族是否可以加分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015四川下半年</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解省考考情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月份留意机票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠错</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川2016下半年</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -688,6 +728,7 @@
       <sz val="12"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -695,6 +736,7 @@
       <sz val="12"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -702,6 +744,7 @@
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -709,6 +752,7 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -716,6 +760,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -921,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1070,6 +1115,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,25 +1157,67 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1118,67 +1232,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,46 +1542,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1"/>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
       <c r="P3" s="41" t="s">
         <v>3</v>
       </c>
@@ -1539,20 +1596,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
       <c r="P4" s="44" t="s">
         <v>7</v>
       </c>
@@ -1643,16 +1700,16 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="56"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="57" t="s">
+      <c r="N8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="57"/>
+      <c r="O8" s="66"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -1686,7 +1743,7 @@
       <c r="S9" s="36"/>
       <c r="T9" s="36"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="64" t="s">
+      <c r="V9" s="57" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1717,7 +1774,7 @@
       <c r="S10" s="36"/>
       <c r="T10" s="36"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="64"/>
+      <c r="V10" s="57"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="35">
@@ -1728,20 +1785,20 @@
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="45"/>
-      <c r="N11" s="59" t="s">
+      <c r="N11" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="59"/>
+      <c r="O11" s="62"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="39" t="s">
@@ -1761,20 +1818,20 @@
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="36"/>
       <c r="K12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="60"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="61" t="s">
         <v>28</v>
       </c>
@@ -1807,11 +1864,11 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
       <c r="N13" s="61" t="s">
         <v>34</v>
       </c>
@@ -1917,7 +1974,7 @@
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="51"/>
-      <c r="V16" s="64" t="s">
+      <c r="V16" s="57" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1946,7 +2003,7 @@
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="51"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="57"/>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="35">
@@ -1999,13 +2056,13 @@
       </c>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="62" t="s">
+      <c r="K19" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
       <c r="P19" s="40" t="s">
         <v>48</v>
       </c>
@@ -2031,17 +2088,17 @@
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="62" t="s">
+      <c r="J20" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
       <c r="M20" s="36"/>
       <c r="N20" s="44" t="s">
         <v>54</v>
@@ -2066,20 +2123,20 @@
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62" t="s">
+      <c r="K21" s="59"/>
+      <c r="L21" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="62"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="36"/>
       <c r="O21" s="40" t="s">
         <v>59</v>
@@ -2102,24 +2159,24 @@
         <v>13</v>
       </c>
       <c r="D22" s="36"/>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="60" t="s">
+      <c r="O22" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="60"/>
+      <c r="P22" s="56"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
@@ -2134,10 +2191,10 @@
       <c r="C23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="60"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
@@ -2170,17 +2227,17 @@
         <v>23</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
@@ -2206,28 +2263,28 @@
       <c r="E25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="63"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="43" t="s">
         <v>67</v>
       </c>
       <c r="K25" s="36"/>
-      <c r="L25" s="62" t="s">
+      <c r="L25" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="62" t="s">
+      <c r="R25" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="62"/>
+      <c r="S25" s="59"/>
       <c r="T25" s="36"/>
       <c r="U25" s="49"/>
       <c r="V25" s="49"/>
@@ -2239,22 +2296,22 @@
       <c r="C26" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63" t="s">
+      <c r="E26" s="60"/>
+      <c r="F26" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="63"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="63" t="s">
+      <c r="L26" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="63"/>
+      <c r="M26" s="60"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
@@ -2278,28 +2335,28 @@
         <v>5</v>
       </c>
       <c r="E27" s="36"/>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="63"/>
+      <c r="G27" s="60"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60" t="s">
+      <c r="J27" s="56"/>
+      <c r="K27" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="60"/>
+      <c r="L27" s="56"/>
       <c r="M27" s="46"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="60" t="s">
+      <c r="R27" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="S27" s="60"/>
+      <c r="S27" s="56"/>
       <c r="T27" s="36"/>
       <c r="U27" s="49"/>
       <c r="V27" s="49"/>
@@ -2315,18 +2372,18 @@
         <v>78</v>
       </c>
       <c r="E28" s="36"/>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="60"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="60" t="s">
+      <c r="K28" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
@@ -2341,6 +2398,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="V9:V10"/>
@@ -2357,30 +2438,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2389,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70:K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2406,68 +2463,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
       <c r="P3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2482,20 +2539,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
       <c r="P4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2584,11 +2641,11 @@
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2605,7 +2662,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="80" t="s">
+      <c r="V8" s="78" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2617,28 +2674,28 @@
         <v>16</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="82" t="s">
+      <c r="F9" s="91"/>
+      <c r="G9" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="81"/>
+      <c r="V9" s="79"/>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="7">
@@ -2654,22 +2711,22 @@
       <c r="F10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="81"/>
+      <c r="V10" s="79"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="7">
@@ -2679,10 +2736,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2698,7 +2755,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="81"/>
+      <c r="V11" s="79"/>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="7">
@@ -2708,18 +2765,18 @@
         <v>24</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="70" t="s">
+      <c r="K12" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="70"/>
+      <c r="L12" s="73"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -2729,7 +2786,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="81"/>
+      <c r="V12" s="79"/>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="7">
@@ -2744,17 +2801,17 @@
       <c r="E13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -2772,10 +2829,10 @@
       <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="72"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="8"/>
       <c r="G14" s="18" t="s">
         <v>23</v>
@@ -2785,11 +2842,11 @@
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="73" t="s">
+      <c r="K14" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -2809,27 +2866,27 @@
       <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="74"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
       <c r="S15" s="19" t="s">
         <v>100</v>
       </c>
@@ -2845,12 +2902,12 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
       <c r="J16" s="1"/>
       <c r="K16" s="11" t="s">
         <v>102</v>
@@ -2879,20 +2936,20 @@
         <v>18</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -2911,14 +2968,14 @@
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="J18" s="70" t="s">
+      <c r="F18" s="84"/>
+      <c r="J18" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="70"/>
+      <c r="K18" s="73"/>
       <c r="M18" s="21" t="s">
         <v>109</v>
       </c>
@@ -2930,17 +2987,17 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="84"/>
       <c r="J19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="70" t="s">
+      <c r="K19" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="70"/>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="7">
@@ -2949,11 +3006,11 @@
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
       <c r="J20" s="18" t="s">
         <v>26</v>
       </c>
@@ -2965,13 +3022,13 @@
       <c r="C21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="7">
@@ -2980,16 +3037,16 @@
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="75" t="s">
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="7">
@@ -2998,21 +3055,21 @@
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="74" t="s">
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="7">
@@ -3021,19 +3078,19 @@
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="7">
@@ -3048,11 +3105,11 @@
       <c r="F25" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="70" t="s">
+      <c r="G25" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="7">
@@ -3064,14 +3121,14 @@
       <c r="E26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="70"/>
-      <c r="I26" s="70" t="s">
+      <c r="G26" s="73"/>
+      <c r="I26" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="70"/>
+      <c r="J26" s="73"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="7">
@@ -3080,27 +3137,27 @@
       <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="70"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="20" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="74" t="s">
+      <c r="I27" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="7">
@@ -3115,10 +3172,10 @@
       <c r="F28" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="72"/>
+      <c r="H28" s="83"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1">
       <c r="B29" s="7">
@@ -3127,17 +3184,17 @@
       <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="70"/>
+      <c r="F29" s="73"/>
       <c r="J29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="75" t="s">
+      <c r="K29" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="L29" s="75"/>
+      <c r="L29" s="84"/>
       <c r="V29" s="3" t="s">
         <v>134</v>
       </c>
@@ -3152,10 +3209,10 @@
       <c r="E30" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="70"/>
+      <c r="H30" s="73"/>
       <c r="I30" s="14" t="s">
         <v>132</v>
       </c>
@@ -3170,17 +3227,17 @@
       <c r="E31" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="70" t="s">
+      <c r="F31" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="74" t="s">
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
       <c r="V31" s="31" t="s">
         <v>140</v>
       </c>
@@ -3192,14 +3249,14 @@
       <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70" t="s">
+      <c r="F32" s="73"/>
+      <c r="G32" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="70"/>
+      <c r="H32" s="73"/>
     </row>
     <row r="33" spans="1:22">
       <c r="B33" s="7">
@@ -3208,16 +3265,16 @@
       <c r="C33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="H33" s="74" t="s">
+      <c r="F33" s="84"/>
+      <c r="H33" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="7">
@@ -3226,15 +3283,15 @@
       <c r="C34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="7">
@@ -3246,14 +3303,14 @@
       <c r="E35" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="75"/>
-      <c r="I35" s="70" t="s">
+      <c r="G35" s="84"/>
+      <c r="I35" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="70"/>
+      <c r="J35" s="73"/>
       <c r="K35" s="21" t="s">
         <v>147</v>
       </c>
@@ -3265,10 +3322,10 @@
       <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="76"/>
+      <c r="F36" s="87"/>
       <c r="G36" s="20" t="s">
         <v>149</v>
       </c>
@@ -3283,10 +3340,10 @@
       <c r="E37" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="76" t="s">
+      <c r="F37" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="76"/>
+      <c r="G37" s="87"/>
       <c r="V37" s="3" t="s">
         <v>152</v>
       </c>
@@ -3298,14 +3355,14 @@
       <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="75"/>
-      <c r="H38" s="77" t="s">
+      <c r="G38" s="84"/>
+      <c r="H38" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="I38" s="77"/>
+      <c r="I38" s="88"/>
     </row>
     <row r="39" spans="1:22">
       <c r="B39" s="7">
@@ -3317,10 +3374,10 @@
       <c r="D39" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="70" t="s">
+      <c r="F39" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="70"/>
+      <c r="G39" s="73"/>
       <c r="J39" s="14" t="s">
         <v>132</v>
       </c>
@@ -3344,17 +3401,17 @@
       <c r="E40" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="70" t="s">
+      <c r="F40" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="70"/>
+      <c r="G40" s="73"/>
       <c r="J40" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="72" t="s">
+      <c r="L40" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="72"/>
+      <c r="M40" s="83"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="3" t="s">
@@ -3369,25 +3426,25 @@
       <c r="E41" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="72" t="s">
+      <c r="F41" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="70" t="s">
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="J41" s="70"/>
-      <c r="N41" s="74" t="s">
+      <c r="J41" s="73"/>
+      <c r="N41" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
-      <c r="T41" s="74"/>
-      <c r="U41" s="74"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="80"/>
+      <c r="Q41" s="80"/>
+      <c r="R41" s="80"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="80"/>
+      <c r="U41" s="80"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="3" t="s">
@@ -3411,10 +3468,10 @@
       <c r="L42" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="N42" s="72" t="s">
+      <c r="N42" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="O42" s="72"/>
+      <c r="O42" s="83"/>
       <c r="R42" s="22" t="s">
         <v>169</v>
       </c>
@@ -3429,21 +3486,21 @@
       <c r="C43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F43" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="70"/>
+      <c r="G43" s="73"/>
       <c r="J43" s="10" t="s">
         <v>169</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L43" s="72" t="s">
+      <c r="L43" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
     </row>
     <row r="44" spans="1:22">
       <c r="B44" s="7">
@@ -3452,26 +3509,26 @@
       <c r="C44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="72" t="s">
+      <c r="G44" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="74" t="s">
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74" t="s">
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="80"/>
+      <c r="Q44" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="R44" s="74"/>
-      <c r="S44" s="74"/>
-      <c r="T44" s="74"/>
+      <c r="R44" s="80"/>
+      <c r="S44" s="80"/>
+      <c r="T44" s="80"/>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" s="7">
@@ -3483,14 +3540,14 @@
       <c r="J45" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K45" s="70" t="s">
+      <c r="K45" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="L45" s="70"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="74"/>
+      <c r="L45" s="73"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" s="7">
@@ -3502,23 +3559,23 @@
       <c r="F46" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="70" t="s">
+      <c r="H46" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="L46" s="72" t="s">
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="L46" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="74" t="s">
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
+      <c r="P46" s="80"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="80"/>
+      <c r="S46" s="80"/>
     </row>
     <row r="47" spans="1:22">
       <c r="B47" s="7">
@@ -3527,24 +3584,24 @@
       <c r="C47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="75" t="s">
+      <c r="F47" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="75"/>
-      <c r="H47" s="70" t="s">
+      <c r="G47" s="84"/>
+      <c r="H47" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="L47" s="72" t="s">
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="L47" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="72"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
+      <c r="M47" s="83"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="80"/>
+      <c r="S47" s="80"/>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" s="7">
@@ -3553,18 +3610,18 @@
       <c r="C48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="70" t="s">
+      <c r="F48" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="G48" s="70"/>
-      <c r="I48" s="70" t="s">
+      <c r="G48" s="73"/>
+      <c r="I48" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="70"/>
-      <c r="L48" s="72" t="s">
+      <c r="J48" s="73"/>
+      <c r="L48" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="M48" s="72"/>
+      <c r="M48" s="83"/>
     </row>
     <row r="49" spans="1:22">
       <c r="B49" s="7">
@@ -3576,22 +3633,22 @@
       <c r="D49" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="70" t="s">
+      <c r="F49" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="78" t="s">
+      <c r="G49" s="73"/>
+      <c r="H49" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="72" t="s">
+      <c r="I49" s="86"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="72"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
     </row>
     <row r="50" spans="1:22">
       <c r="B50" s="7">
@@ -3600,18 +3657,18 @@
       <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="75" t="s">
+      <c r="F50" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="83" t="s">
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="3" t="s">
@@ -3623,16 +3680,16 @@
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="75" t="s">
+      <c r="F51" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
     </row>
     <row r="52" spans="1:22">
       <c r="B52" s="7">
@@ -3641,16 +3698,16 @@
       <c r="C52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="75" t="s">
+      <c r="F52" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
     </row>
     <row r="53" spans="1:22">
       <c r="B53" s="7">
@@ -3659,10 +3716,10 @@
       <c r="C53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="75" t="s">
+      <c r="F53" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="75"/>
+      <c r="G53" s="84"/>
       <c r="H53" s="13" t="s">
         <v>4</v>
       </c>
@@ -3674,17 +3731,17 @@
       <c r="C54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="70" t="s">
+      <c r="F54" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="G54" s="70"/>
+      <c r="G54" s="73"/>
       <c r="J54" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L54" s="72" t="s">
+      <c r="L54" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="72"/>
+      <c r="M54" s="83"/>
     </row>
     <row r="55" spans="1:22">
       <c r="B55" s="7">
@@ -3693,17 +3750,17 @@
       <c r="C55" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="70" t="s">
+      <c r="F55" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="G55" s="70"/>
+      <c r="G55" s="73"/>
       <c r="J55" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L55" s="72" t="s">
+      <c r="L55" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="M55" s="72"/>
+      <c r="M55" s="83"/>
     </row>
     <row r="56" spans="1:22">
       <c r="B56" s="7">
@@ -3715,10 +3772,10 @@
       <c r="E56" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="70" t="s">
+      <c r="G56" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="H56" s="70"/>
+      <c r="H56" s="73"/>
       <c r="L56" s="22" t="s">
         <v>9</v>
       </c>
@@ -3730,14 +3787,14 @@
       <c r="C57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="72" t="s">
+      <c r="G57" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
     </row>
     <row r="58" spans="1:22">
       <c r="B58" s="7">
@@ -3746,11 +3803,11 @@
       <c r="C58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="70" t="s">
+      <c r="F58" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
       <c r="J58" s="20" t="s">
         <v>191</v>
       </c>
@@ -3771,10 +3828,10 @@
       <c r="H59" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="J59" s="72" t="s">
+      <c r="J59" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="72"/>
+      <c r="K59" s="83"/>
     </row>
     <row r="60" spans="1:22">
       <c r="B60" s="7">
@@ -3783,18 +3840,18 @@
       <c r="C60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="70" t="s">
+      <c r="F60" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="70"/>
+      <c r="G60" s="73"/>
       <c r="I60" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K60" s="79" t="s">
+      <c r="K60" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
+      <c r="L60" s="85"/>
+      <c r="M60" s="85"/>
       <c r="N60" s="23"/>
     </row>
     <row r="61" spans="1:22">
@@ -3810,12 +3867,12 @@
       <c r="G61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="79" t="s">
+      <c r="I61" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="85"/>
     </row>
     <row r="62" spans="1:22">
       <c r="B62" s="7">
@@ -3824,11 +3881,11 @@
       <c r="C62" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="70" t="s">
+      <c r="F62" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
       <c r="J62" s="22" t="s">
         <v>9</v>
       </c>
@@ -3846,7 +3903,7 @@
       <c r="G63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="V63" s="90" t="s">
+      <c r="V63" s="69" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3857,12 +3914,12 @@
       <c r="C64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="84" t="s">
+      <c r="F64" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="V64" s="89"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="V64" s="70"/>
     </row>
     <row r="65" spans="2:22">
       <c r="B65" s="7">
@@ -3871,13 +3928,13 @@
       <c r="C65" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="86" t="s">
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="V65" s="89"/>
+      <c r="V65" s="70"/>
     </row>
     <row r="66" spans="2:22">
       <c r="B66" s="7">
@@ -3886,17 +3943,17 @@
       <c r="C66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="87" t="s">
+      <c r="F66" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="G66" s="70"/>
-      <c r="H66" s="88" t="s">
+      <c r="G66" s="73"/>
+      <c r="H66" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I66" s="87" t="s">
+      <c r="I66" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="J66" s="70"/>
+      <c r="J66" s="73"/>
     </row>
     <row r="67" spans="2:22">
       <c r="B67" s="7">
@@ -3905,21 +3962,21 @@
       <c r="C67" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="87" t="s">
+      <c r="F67" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="70"/>
-      <c r="H67" s="87" t="s">
+      <c r="G67" s="73"/>
+      <c r="H67" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="I67" s="70"/>
-      <c r="J67" s="88" t="s">
+      <c r="I67" s="73"/>
+      <c r="J67" s="55" t="s">
         <v>209</v>
       </c>
       <c r="K67" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L67" s="88" t="s">
+      <c r="L67" s="55" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3930,6 +3987,18 @@
       <c r="C68" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="F68" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="G68" s="73"/>
+      <c r="H68" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="I68" s="73"/>
+      <c r="J68" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="K68" s="77"/>
     </row>
     <row r="69" spans="2:22">
       <c r="B69" s="7">
@@ -3938,6 +4007,16 @@
       <c r="C69" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="F69" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="58"/>
     </row>
     <row r="70" spans="2:22">
       <c r="B70" s="7">
@@ -3946,6 +4025,20 @@
       <c r="C70" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="F70" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70" s="73"/>
+      <c r="H70" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="I70" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="J70" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="K70" s="73"/>
     </row>
     <row r="71" spans="2:22">
       <c r="B71" s="7">
@@ -3996,15 +4089,232 @@
         <v>44022</v>
       </c>
     </row>
+    <row r="87" spans="2:16">
+      <c r="B87" s="68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16">
+      <c r="B88" s="58"/>
+    </row>
+    <row r="89" spans="2:16">
+      <c r="B89" s="58"/>
+      <c r="F89" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="G89" s="75"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="75"/>
+      <c r="L89" s="75"/>
+      <c r="M89" s="75"/>
+      <c r="N89" s="75"/>
+      <c r="O89" s="75"/>
+      <c r="P89" s="75"/>
+    </row>
+    <row r="90" spans="2:16">
+      <c r="B90" s="58"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
+      <c r="L90" s="75"/>
+      <c r="M90" s="75"/>
+      <c r="N90" s="75"/>
+      <c r="O90" s="75"/>
+      <c r="P90" s="75"/>
+    </row>
+    <row r="91" spans="2:16">
+      <c r="B91" s="58"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="75"/>
+      <c r="H91" s="75"/>
+      <c r="I91" s="75"/>
+      <c r="J91" s="75"/>
+      <c r="K91" s="75"/>
+      <c r="L91" s="75"/>
+      <c r="M91" s="75"/>
+      <c r="N91" s="75"/>
+      <c r="O91" s="75"/>
+      <c r="P91" s="75"/>
+    </row>
+    <row r="92" spans="2:16">
+      <c r="B92" s="58"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="75"/>
+      <c r="K92" s="75"/>
+      <c r="L92" s="75"/>
+      <c r="M92" s="75"/>
+      <c r="N92" s="75"/>
+      <c r="O92" s="75"/>
+      <c r="P92" s="75"/>
+    </row>
+    <row r="93" spans="2:16">
+      <c r="B93" s="58"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="75"/>
+      <c r="M93" s="75"/>
+      <c r="N93" s="75"/>
+      <c r="O93" s="75"/>
+      <c r="P93" s="75"/>
+    </row>
+    <row r="94" spans="2:16">
+      <c r="B94" s="58"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="75"/>
+      <c r="J94" s="75"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="75"/>
+      <c r="M94" s="75"/>
+      <c r="N94" s="75"/>
+      <c r="O94" s="75"/>
+      <c r="P94" s="75"/>
+    </row>
+    <row r="95" spans="2:16">
+      <c r="F95" s="75"/>
+      <c r="G95" s="75"/>
+      <c r="H95" s="75"/>
+      <c r="I95" s="75"/>
+      <c r="J95" s="75"/>
+      <c r="K95" s="75"/>
+      <c r="L95" s="75"/>
+      <c r="M95" s="75"/>
+      <c r="N95" s="75"/>
+      <c r="O95" s="75"/>
+      <c r="P95" s="75"/>
+    </row>
+    <row r="96" spans="2:16">
+      <c r="F96" s="75"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="75"/>
+      <c r="J96" s="75"/>
+      <c r="K96" s="75"/>
+      <c r="L96" s="75"/>
+      <c r="M96" s="75"/>
+      <c r="N96" s="75"/>
+      <c r="O96" s="75"/>
+      <c r="P96" s="75"/>
+    </row>
+    <row r="97" spans="6:16">
+      <c r="F97" s="75"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="75"/>
+      <c r="L97" s="75"/>
+      <c r="M97" s="75"/>
+      <c r="N97" s="75"/>
+      <c r="O97" s="75"/>
+      <c r="P97" s="75"/>
+    </row>
+    <row r="98" spans="6:16">
+      <c r="F98" s="75"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="75"/>
+      <c r="K98" s="75"/>
+      <c r="L98" s="75"/>
+      <c r="M98" s="75"/>
+      <c r="N98" s="75"/>
+      <c r="O98" s="75"/>
+      <c r="P98" s="75"/>
+    </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="V63:V65"/>
-    <mergeCell ref="F64:H65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
+  <mergeCells count="108">
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:R15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="N41:U41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:O49"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:P44"/>
     <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
     <mergeCell ref="V8:V12"/>
     <mergeCell ref="Q44:T45"/>
     <mergeCell ref="O46:S47"/>
@@ -4014,90 +4324,27 @@
     <mergeCell ref="I50:M52"/>
     <mergeCell ref="F58:H58"/>
     <mergeCell ref="J59:K59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:O49"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="L46:N46"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N41:U41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:P44"/>
-    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="L48:M48"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="L40:M40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:R15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="V63:V65"/>
+    <mergeCell ref="F64:H65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="F69:M69"/>
+    <mergeCell ref="F89:P98"/>
+    <mergeCell ref="J70:K70"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4109,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4134,38 +4381,38 @@
   <sheetData>
     <row r="3" spans="2:15" hidden="1"/>
     <row r="4" spans="2:15" ht="25" customHeight="1">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
     </row>
     <row r="5" spans="2:15" ht="36" customHeight="1">
-      <c r="B5" s="85"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="65"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBDC0DE-CF2F-3E47-AD09-4A427EC476CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DE475C-D8B5-0549-9609-77BF644209D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="224">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -702,6 +702,18 @@
   </si>
   <si>
     <t>四川2016下半年</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>只记得做了两套四川卷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了一套四川卷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠错三套行测卷</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2449,7 +2461,7 @@
   <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70:K70"/>
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4047,6 +4059,12 @@
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F71" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
     </row>
     <row r="72" spans="2:22">
       <c r="B72" s="7">
@@ -4055,6 +4073,15 @@
       <c r="C72" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F72" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="G72" s="73"/>
+      <c r="H72" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
     </row>
     <row r="73" spans="2:22">
       <c r="B73" s="7">
@@ -4236,7 +4263,7 @@
       <c r="P98" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="108">
+  <mergeCells count="111">
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="F70:G70"/>
@@ -4345,6 +4372,9 @@
     <mergeCell ref="F69:M69"/>
     <mergeCell ref="F89:P98"/>
     <mergeCell ref="J70:K70"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:J72"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DE475C-D8B5-0549-9609-77BF644209D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8BFB95-82F1-3C4A-B337-A0687869E60D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="233">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -714,6 +714,42 @@
   </si>
   <si>
     <t>纠错三套行测卷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州行测2015联考</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>29季粉笔模考（58.8分）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周天</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2460,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4090,30 +4126,92 @@
       <c r="C73" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="F73" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="G73" s="73"/>
+      <c r="H73" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="I73" s="73"/>
+      <c r="J73" s="55" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="74" spans="2:22">
       <c r="B74" s="7">
         <v>44018</v>
       </c>
+      <c r="C74" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
+      <c r="J74" s="73"/>
     </row>
     <row r="75" spans="2:22">
       <c r="B75" s="7">
         <v>44019</v>
       </c>
+      <c r="C75" s="54" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="76" spans="2:22">
       <c r="B76" s="7">
         <v>44020</v>
       </c>
+      <c r="C76" s="54" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="77" spans="2:22">
       <c r="B77" s="7">
         <v>44021</v>
       </c>
+      <c r="C77" s="54" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="78" spans="2:22">
       <c r="B78" s="7">
         <v>44022</v>
+      </c>
+      <c r="C78" s="54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22">
+      <c r="B79" s="7">
+        <v>44023</v>
+      </c>
+      <c r="C79" s="54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22">
+      <c r="B80" s="7">
+        <v>44024</v>
+      </c>
+      <c r="C80" s="54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16">
+      <c r="B81" s="7">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16">
+      <c r="B82" s="7">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16">
+      <c r="B83" s="7">
+        <v>44027</v>
       </c>
     </row>
     <row r="87" spans="2:16">
@@ -4263,7 +4361,7 @@
       <c r="P98" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
+  <mergeCells count="114">
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="F70:G70"/>
@@ -4375,6 +4473,9 @@
     <mergeCell ref="F71:I71"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="H72:J72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="F74:J74"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8BFB95-82F1-3C4A-B337-A0687869E60D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D5FE01-E9D4-7341-973B-A09D51B75D31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="236">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -750,6 +750,18 @@
   </si>
   <si>
     <t>周天</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年3月四川选调生</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>二刷贵州2016年联考</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>42天</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2496,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4158,6 +4170,15 @@
       <c r="C75" s="54" t="s">
         <v>227</v>
       </c>
+      <c r="F75" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="G75" s="73"/>
+      <c r="H75" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
     </row>
     <row r="76" spans="2:22">
       <c r="B76" s="7">
@@ -4165,6 +4186,9 @@
       </c>
       <c r="C76" s="54" t="s">
         <v>228</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="2:22">
@@ -4361,7 +4385,7 @@
       <c r="P98" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="116">
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="F70:G70"/>
@@ -4476,6 +4500,8 @@
     <mergeCell ref="F73:G73"/>
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:J75"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D5FE01-E9D4-7341-973B-A09D51B75D31}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C2DFC2-588C-5C47-B294-8FFA412BC2C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="242">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -762,6 +762,30 @@
   </si>
   <si>
     <t>42天</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017贵州</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012广西</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013浙江B卷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018联考贵州卷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013纠+资</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习词汇</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1026,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,6 +1205,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1296,6 +1323,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,9 +1336,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFEB94A0"/>
       <color rgb="FFD4E8FF"/>
       <color rgb="FF75A992"/>
-      <color rgb="FFEB94A0"/>
       <color rgb="FFD793CA"/>
       <color rgb="FFFFB9C9"/>
       <color rgb="FF75B3AF"/>
@@ -1602,46 +1632,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1"/>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="41" t="s">
         <v>3</v>
       </c>
@@ -1656,20 +1686,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="44" t="s">
         <v>7</v>
       </c>
@@ -1760,16 +1790,16 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="65"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="66" t="s">
+      <c r="N8" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="66"/>
+      <c r="O8" s="67"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -1803,7 +1833,7 @@
       <c r="S9" s="36"/>
       <c r="T9" s="36"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="57" t="s">
+      <c r="V9" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1834,7 +1864,7 @@
       <c r="S10" s="36"/>
       <c r="T10" s="36"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="57"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="35">
@@ -1845,20 +1875,20 @@
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
       <c r="M11" s="45"/>
-      <c r="N11" s="62" t="s">
+      <c r="N11" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="62"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="39" t="s">
@@ -1878,24 +1908,24 @@
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="36"/>
       <c r="K12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="56" t="s">
+      <c r="L12" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="56"/>
-      <c r="N12" s="61" t="s">
+      <c r="M12" s="57"/>
+      <c r="N12" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="61"/>
+      <c r="O12" s="62"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
@@ -1924,16 +1954,16 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="61" t="s">
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
       <c r="S13" s="41" t="s">
@@ -1952,20 +1982,20 @@
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="36"/>
       <c r="K14" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="61" t="s">
+      <c r="L14" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="61"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
@@ -2034,7 +2064,7 @@
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="51"/>
-      <c r="V16" s="57" t="s">
+      <c r="V16" s="58" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2063,7 +2093,7 @@
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="51"/>
-      <c r="V17" s="57"/>
+      <c r="V17" s="58"/>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="35">
@@ -2074,12 +2104,12 @@
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="37"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
@@ -2116,13 +2146,13 @@
       </c>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="40" t="s">
         <v>48</v>
       </c>
@@ -2148,17 +2178,17 @@
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="56"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="59" t="s">
+      <c r="J20" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
       <c r="M20" s="36"/>
       <c r="N20" s="44" t="s">
         <v>54</v>
@@ -2183,20 +2213,20 @@
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59" t="s">
+      <c r="K21" s="60"/>
+      <c r="L21" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="59"/>
+      <c r="M21" s="60"/>
       <c r="N21" s="36"/>
       <c r="O21" s="40" t="s">
         <v>59</v>
@@ -2219,24 +2249,24 @@
         <v>13</v>
       </c>
       <c r="D22" s="36"/>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="56" t="s">
+      <c r="J22" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="56" t="s">
+      <c r="O22" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="56"/>
+      <c r="P22" s="57"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
@@ -2251,10 +2281,10 @@
       <c r="C23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="56"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
@@ -2287,17 +2317,17 @@
         <v>23</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="60" t="s">
+      <c r="J24" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
@@ -2323,28 +2353,28 @@
       <c r="E25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="60"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="43" t="s">
         <v>67</v>
       </c>
       <c r="K25" s="36"/>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="59" t="s">
+      <c r="R25" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="59"/>
+      <c r="S25" s="60"/>
       <c r="T25" s="36"/>
       <c r="U25" s="49"/>
       <c r="V25" s="49"/>
@@ -2356,22 +2386,22 @@
       <c r="C26" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60" t="s">
+      <c r="E26" s="61"/>
+      <c r="F26" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="60"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="60" t="s">
+      <c r="L26" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="60"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
@@ -2395,28 +2425,28 @@
         <v>5</v>
       </c>
       <c r="E27" s="36"/>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="60"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56" t="s">
+      <c r="J27" s="57"/>
+      <c r="K27" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="56"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="46"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="56" t="s">
+      <c r="R27" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="S27" s="56"/>
+      <c r="S27" s="57"/>
       <c r="T27" s="36"/>
       <c r="U27" s="49"/>
       <c r="V27" s="49"/>
@@ -2432,18 +2462,18 @@
         <v>78</v>
       </c>
       <c r="E28" s="36"/>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="56"/>
+      <c r="G28" s="57"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="56" t="s">
+      <c r="K28" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
@@ -2508,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2523,68 +2553,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2599,20 +2629,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2701,11 +2731,11 @@
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2722,7 +2752,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="78" t="s">
+      <c r="V8" s="79" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2734,28 +2764,28 @@
         <v>16</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="81" t="s">
+      <c r="F9" s="92"/>
+      <c r="G9" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="79"/>
+      <c r="V9" s="80"/>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="7">
@@ -2771,22 +2801,22 @@
       <c r="F10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="79"/>
+      <c r="V10" s="80"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="7">
@@ -2796,10 +2826,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="92"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2815,7 +2845,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="79"/>
+      <c r="V11" s="80"/>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="7">
@@ -2825,18 +2855,18 @@
         <v>24</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="73"/>
+      <c r="L12" s="74"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -2846,7 +2876,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="79"/>
+      <c r="V12" s="80"/>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="7">
@@ -2861,17 +2891,17 @@
       <c r="E13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="93"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -2889,10 +2919,10 @@
       <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="84"/>
       <c r="F14" s="8"/>
       <c r="G14" s="18" t="s">
         <v>23</v>
@@ -2902,11 +2932,11 @@
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="77" t="s">
+      <c r="K14" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -2926,27 +2956,27 @@
       <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="80"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
       <c r="S15" s="19" t="s">
         <v>100</v>
       </c>
@@ -2962,12 +2992,12 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
       <c r="J16" s="1"/>
       <c r="K16" s="11" t="s">
         <v>102</v>
@@ -2996,20 +3026,20 @@
         <v>18</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="83"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="H17" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -3028,14 +3058,14 @@
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="J18" s="73" t="s">
+      <c r="F18" s="85"/>
+      <c r="J18" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="73"/>
+      <c r="K18" s="74"/>
       <c r="M18" s="21" t="s">
         <v>109</v>
       </c>
@@ -3047,17 +3077,17 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="84"/>
+      <c r="F19" s="85"/>
       <c r="J19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="73" t="s">
+      <c r="K19" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="73"/>
+      <c r="L19" s="74"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="7">
@@ -3066,11 +3096,11 @@
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
       <c r="J20" s="18" t="s">
         <v>26</v>
       </c>
@@ -3082,13 +3112,13 @@
       <c r="C21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="7">
@@ -3097,16 +3127,16 @@
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="93" t="s">
+      <c r="F22" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="84" t="s">
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="7">
@@ -3115,21 +3145,21 @@
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="80" t="s">
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="7">
@@ -3138,19 +3168,19 @@
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="7">
@@ -3165,11 +3195,11 @@
       <c r="F25" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="73" t="s">
+      <c r="G25" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="7">
@@ -3181,14 +3211,14 @@
       <c r="E26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="73"/>
-      <c r="I26" s="73" t="s">
+      <c r="G26" s="74"/>
+      <c r="I26" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="73"/>
+      <c r="J26" s="74"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="7">
@@ -3197,27 +3227,27 @@
       <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="73"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="20" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="80" t="s">
+      <c r="I27" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="7">
@@ -3232,10 +3262,10 @@
       <c r="F28" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="G28" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="83"/>
+      <c r="H28" s="84"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1">
       <c r="B29" s="7">
@@ -3244,17 +3274,17 @@
       <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="73"/>
+      <c r="F29" s="74"/>
       <c r="J29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="84" t="s">
+      <c r="K29" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="L29" s="84"/>
+      <c r="L29" s="85"/>
       <c r="V29" s="3" t="s">
         <v>134</v>
       </c>
@@ -3269,10 +3299,10 @@
       <c r="E30" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="73" t="s">
+      <c r="G30" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="73"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="14" t="s">
         <v>132</v>
       </c>
@@ -3287,17 +3317,17 @@
       <c r="E31" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="73" t="s">
+      <c r="F31" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="80" t="s">
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
       <c r="V31" s="31" t="s">
         <v>140</v>
       </c>
@@ -3309,14 +3339,14 @@
       <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73" t="s">
+      <c r="F32" s="74"/>
+      <c r="G32" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="73"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="1:22">
       <c r="B33" s="7">
@@ -3325,16 +3355,16 @@
       <c r="C33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="84" t="s">
+      <c r="E33" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="84"/>
-      <c r="H33" s="80" t="s">
+      <c r="F33" s="85"/>
+      <c r="H33" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="7">
@@ -3343,15 +3373,15 @@
       <c r="C34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="7">
@@ -3363,14 +3393,14 @@
       <c r="E35" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="84" t="s">
+      <c r="F35" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="84"/>
-      <c r="I35" s="73" t="s">
+      <c r="G35" s="85"/>
+      <c r="I35" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="73"/>
+      <c r="J35" s="74"/>
       <c r="K35" s="21" t="s">
         <v>147</v>
       </c>
@@ -3382,10 +3412,10 @@
       <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="87" t="s">
+      <c r="E36" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="87"/>
+      <c r="F36" s="88"/>
       <c r="G36" s="20" t="s">
         <v>149</v>
       </c>
@@ -3400,10 +3430,10 @@
       <c r="E37" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F37" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="87"/>
+      <c r="G37" s="88"/>
       <c r="V37" s="3" t="s">
         <v>152</v>
       </c>
@@ -3415,14 +3445,14 @@
       <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="84" t="s">
+      <c r="F38" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="84"/>
-      <c r="H38" s="88" t="s">
+      <c r="G38" s="85"/>
+      <c r="H38" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="I38" s="88"/>
+      <c r="I38" s="89"/>
     </row>
     <row r="39" spans="1:22">
       <c r="B39" s="7">
@@ -3434,10 +3464,10 @@
       <c r="D39" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="73" t="s">
+      <c r="F39" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="73"/>
+      <c r="G39" s="74"/>
       <c r="J39" s="14" t="s">
         <v>132</v>
       </c>
@@ -3461,17 +3491,17 @@
       <c r="E40" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="73" t="s">
+      <c r="F40" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="73"/>
+      <c r="G40" s="74"/>
       <c r="J40" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="83" t="s">
+      <c r="L40" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="83"/>
+      <c r="M40" s="84"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="3" t="s">
@@ -3486,25 +3516,25 @@
       <c r="E41" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="83" t="s">
+      <c r="F41" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="73" t="s">
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="J41" s="73"/>
-      <c r="N41" s="80" t="s">
+      <c r="J41" s="74"/>
+      <c r="N41" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
-      <c r="Q41" s="80"/>
-      <c r="R41" s="80"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="80"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="81"/>
+      <c r="S41" s="81"/>
+      <c r="T41" s="81"/>
+      <c r="U41" s="81"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="3" t="s">
@@ -3528,10 +3558,10 @@
       <c r="L42" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="N42" s="83" t="s">
+      <c r="N42" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="O42" s="83"/>
+      <c r="O42" s="84"/>
       <c r="R42" s="22" t="s">
         <v>169</v>
       </c>
@@ -3546,21 +3576,21 @@
       <c r="C43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="73" t="s">
+      <c r="F43" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="73"/>
+      <c r="G43" s="74"/>
       <c r="J43" s="10" t="s">
         <v>169</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L43" s="83" t="s">
+      <c r="L43" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:22">
       <c r="B44" s="7">
@@ -3569,26 +3599,26 @@
       <c r="C44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="83" t="s">
+      <c r="G44" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="80" t="s">
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="80" t="s">
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="R44" s="80"/>
-      <c r="S44" s="80"/>
-      <c r="T44" s="80"/>
+      <c r="R44" s="81"/>
+      <c r="S44" s="81"/>
+      <c r="T44" s="81"/>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" s="7">
@@ -3600,14 +3630,14 @@
       <c r="J45" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K45" s="73" t="s">
+      <c r="K45" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="L45" s="73"/>
-      <c r="Q45" s="80"/>
-      <c r="R45" s="80"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="80"/>
+      <c r="L45" s="74"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="81"/>
+      <c r="T45" s="81"/>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" s="7">
@@ -3619,23 +3649,23 @@
       <c r="F46" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="73" t="s">
+      <c r="H46" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="L46" s="83" t="s">
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="L46" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="80" t="s">
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="80"/>
-      <c r="R46" s="80"/>
-      <c r="S46" s="80"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="81"/>
     </row>
     <row r="47" spans="1:22">
       <c r="B47" s="7">
@@ -3644,24 +3674,24 @@
       <c r="C47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="84" t="s">
+      <c r="F47" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="84"/>
-      <c r="H47" s="73" t="s">
+      <c r="G47" s="85"/>
+      <c r="H47" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="L47" s="83" t="s">
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="L47" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="83"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="80"/>
-      <c r="R47" s="80"/>
-      <c r="S47" s="80"/>
+      <c r="M47" s="84"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="81"/>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" s="7">
@@ -3670,18 +3700,18 @@
       <c r="C48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="73" t="s">
+      <c r="F48" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="G48" s="73"/>
-      <c r="I48" s="73" t="s">
+      <c r="G48" s="74"/>
+      <c r="I48" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="73"/>
-      <c r="L48" s="83" t="s">
+      <c r="J48" s="74"/>
+      <c r="L48" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="M48" s="83"/>
+      <c r="M48" s="84"/>
     </row>
     <row r="49" spans="1:22">
       <c r="B49" s="7">
@@ -3693,22 +3723,22 @@
       <c r="D49" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="73" t="s">
+      <c r="F49" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="73"/>
-      <c r="H49" s="86" t="s">
+      <c r="G49" s="74"/>
+      <c r="H49" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="83" t="s">
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
     </row>
     <row r="50" spans="1:22">
       <c r="B50" s="7">
@@ -3717,18 +3747,18 @@
       <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="84" t="s">
+      <c r="F50" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="82" t="s">
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="3" t="s">
@@ -3740,16 +3770,16 @@
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="84" t="s">
+      <c r="F51" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
     </row>
     <row r="52" spans="1:22">
       <c r="B52" s="7">
@@ -3758,16 +3788,16 @@
       <c r="C52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="84" t="s">
+      <c r="F52" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
     </row>
     <row r="53" spans="1:22">
       <c r="B53" s="7">
@@ -3776,10 +3806,10 @@
       <c r="C53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="84" t="s">
+      <c r="F53" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="84"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="13" t="s">
         <v>4</v>
       </c>
@@ -3791,17 +3821,17 @@
       <c r="C54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="73" t="s">
+      <c r="F54" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="G54" s="73"/>
+      <c r="G54" s="74"/>
       <c r="J54" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L54" s="83" t="s">
+      <c r="L54" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="83"/>
+      <c r="M54" s="84"/>
     </row>
     <row r="55" spans="1:22">
       <c r="B55" s="7">
@@ -3810,17 +3840,17 @@
       <c r="C55" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="73" t="s">
+      <c r="F55" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="G55" s="73"/>
+      <c r="G55" s="74"/>
       <c r="J55" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L55" s="83" t="s">
+      <c r="L55" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="M55" s="83"/>
+      <c r="M55" s="84"/>
     </row>
     <row r="56" spans="1:22">
       <c r="B56" s="7">
@@ -3832,10 +3862,10 @@
       <c r="E56" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="73" t="s">
+      <c r="G56" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="H56" s="73"/>
+      <c r="H56" s="74"/>
       <c r="L56" s="22" t="s">
         <v>9</v>
       </c>
@@ -3847,14 +3877,14 @@
       <c r="C57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="83" t="s">
+      <c r="G57" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
     </row>
     <row r="58" spans="1:22">
       <c r="B58" s="7">
@@ -3863,11 +3893,11 @@
       <c r="C58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="73" t="s">
+      <c r="F58" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
       <c r="J58" s="20" t="s">
         <v>191</v>
       </c>
@@ -3888,10 +3918,10 @@
       <c r="H59" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="J59" s="83" t="s">
+      <c r="J59" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="83"/>
+      <c r="K59" s="84"/>
     </row>
     <row r="60" spans="1:22">
       <c r="B60" s="7">
@@ -3900,18 +3930,18 @@
       <c r="C60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="73" t="s">
+      <c r="F60" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="73"/>
+      <c r="G60" s="74"/>
       <c r="I60" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K60" s="85" t="s">
+      <c r="K60" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
+      <c r="L60" s="86"/>
+      <c r="M60" s="86"/>
       <c r="N60" s="23"/>
     </row>
     <row r="61" spans="1:22">
@@ -3927,12 +3957,12 @@
       <c r="G61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="85" t="s">
+      <c r="I61" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="86"/>
     </row>
     <row r="62" spans="1:22">
       <c r="B62" s="7">
@@ -3941,11 +3971,11 @@
       <c r="C62" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="73" t="s">
+      <c r="F62" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
       <c r="J62" s="22" t="s">
         <v>9</v>
       </c>
@@ -3963,7 +3993,7 @@
       <c r="G63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="V63" s="69" t="s">
+      <c r="V63" s="70" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3974,12 +4004,12 @@
       <c r="C64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="71" t="s">
+      <c r="F64" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="V64" s="70"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="V64" s="71"/>
     </row>
     <row r="65" spans="2:22">
       <c r="B65" s="7">
@@ -3988,13 +4018,13 @@
       <c r="C65" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
       <c r="I65" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="V65" s="70"/>
+      <c r="V65" s="71"/>
     </row>
     <row r="66" spans="2:22">
       <c r="B66" s="7">
@@ -4003,17 +4033,17 @@
       <c r="C66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="72" t="s">
+      <c r="F66" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="G66" s="73"/>
+      <c r="G66" s="74"/>
       <c r="H66" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I66" s="72" t="s">
+      <c r="I66" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="J66" s="73"/>
+      <c r="J66" s="74"/>
     </row>
     <row r="67" spans="2:22">
       <c r="B67" s="7">
@@ -4022,14 +4052,14 @@
       <c r="C67" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="72" t="s">
+      <c r="F67" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="73"/>
-      <c r="H67" s="72" t="s">
+      <c r="G67" s="74"/>
+      <c r="H67" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="I67" s="73"/>
+      <c r="I67" s="74"/>
       <c r="J67" s="55" t="s">
         <v>209</v>
       </c>
@@ -4047,18 +4077,18 @@
       <c r="C68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="72" t="s">
+      <c r="F68" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="73"/>
-      <c r="H68" s="72" t="s">
+      <c r="G68" s="74"/>
+      <c r="H68" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="I68" s="73"/>
-      <c r="J68" s="76" t="s">
+      <c r="I68" s="74"/>
+      <c r="J68" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="K68" s="77"/>
+      <c r="K68" s="78"/>
     </row>
     <row r="69" spans="2:22">
       <c r="B69" s="7">
@@ -4067,16 +4097,16 @@
       <c r="C69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="68" t="s">
+      <c r="F69" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="58"/>
-      <c r="L69" s="58"/>
-      <c r="M69" s="58"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
     </row>
     <row r="70" spans="2:22">
       <c r="B70" s="7">
@@ -4085,20 +4115,20 @@
       <c r="C70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="72" t="s">
+      <c r="F70" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="G70" s="73"/>
+      <c r="G70" s="74"/>
       <c r="H70" s="54" t="s">
         <v>217</v>
       </c>
       <c r="I70" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="J70" s="72" t="s">
+      <c r="J70" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="K70" s="73"/>
+      <c r="K70" s="74"/>
     </row>
     <row r="71" spans="2:22">
       <c r="B71" s="7">
@@ -4107,12 +4137,12 @@
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="72" t="s">
+      <c r="F71" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
     </row>
     <row r="72" spans="2:22">
       <c r="B72" s="7">
@@ -4121,15 +4151,15 @@
       <c r="C72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="72" t="s">
+      <c r="F72" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="G72" s="73"/>
-      <c r="H72" s="72" t="s">
+      <c r="G72" s="74"/>
+      <c r="H72" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="I72" s="73"/>
-      <c r="J72" s="73"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
     </row>
     <row r="73" spans="2:22">
       <c r="B73" s="7">
@@ -4138,14 +4168,14 @@
       <c r="C73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="72" t="s">
+      <c r="F73" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="73"/>
-      <c r="H73" s="72" t="s">
+      <c r="G73" s="74"/>
+      <c r="H73" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="I73" s="73"/>
+      <c r="I73" s="74"/>
       <c r="J73" s="55" t="s">
         <v>219</v>
       </c>
@@ -4157,11 +4187,11 @@
       <c r="C74" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
     </row>
     <row r="75" spans="2:22">
       <c r="B75" s="7">
@@ -4170,15 +4200,15 @@
       <c r="C75" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="F75" s="72" t="s">
+      <c r="F75" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="G75" s="73"/>
-      <c r="H75" s="72" t="s">
+      <c r="G75" s="74"/>
+      <c r="H75" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
     </row>
     <row r="76" spans="2:22">
       <c r="B76" s="7">
@@ -4190,6 +4220,15 @@
       <c r="D76" s="54" t="s">
         <v>235</v>
       </c>
+      <c r="F76" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="J76" s="84"/>
     </row>
     <row r="77" spans="2:22">
       <c r="B77" s="7">
@@ -4198,6 +4237,24 @@
       <c r="C77" s="54" t="s">
         <v>229</v>
       </c>
+      <c r="D77" s="56">
+        <v>41</v>
+      </c>
+      <c r="F77" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="G77" s="74"/>
+      <c r="H77" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="I77" s="74"/>
+      <c r="J77" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="K77" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="L77" s="85"/>
     </row>
     <row r="78" spans="2:22">
       <c r="B78" s="7">
@@ -4206,6 +4263,9 @@
       <c r="C78" s="54" t="s">
         <v>230</v>
       </c>
+      <c r="D78" s="56">
+        <v>40</v>
+      </c>
     </row>
     <row r="79" spans="2:22">
       <c r="B79" s="7">
@@ -4239,153 +4299,153 @@
       </c>
     </row>
     <row r="87" spans="2:16">
-      <c r="B87" s="68" t="s">
+      <c r="B87" s="69" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="88" spans="2:16">
-      <c r="B88" s="58"/>
+      <c r="B88" s="59"/>
     </row>
     <row r="89" spans="2:16">
-      <c r="B89" s="58"/>
-      <c r="F89" s="74" t="s">
+      <c r="B89" s="59"/>
+      <c r="F89" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="G89" s="75"/>
-      <c r="H89" s="75"/>
-      <c r="I89" s="75"/>
-      <c r="J89" s="75"/>
-      <c r="K89" s="75"/>
-      <c r="L89" s="75"/>
-      <c r="M89" s="75"/>
-      <c r="N89" s="75"/>
-      <c r="O89" s="75"/>
-      <c r="P89" s="75"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="76"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="76"/>
+      <c r="K89" s="76"/>
+      <c r="L89" s="76"/>
+      <c r="M89" s="76"/>
+      <c r="N89" s="76"/>
+      <c r="O89" s="76"/>
+      <c r="P89" s="76"/>
     </row>
     <row r="90" spans="2:16">
-      <c r="B90" s="58"/>
-      <c r="F90" s="75"/>
-      <c r="G90" s="75"/>
-      <c r="H90" s="75"/>
-      <c r="I90" s="75"/>
-      <c r="J90" s="75"/>
-      <c r="K90" s="75"/>
-      <c r="L90" s="75"/>
-      <c r="M90" s="75"/>
-      <c r="N90" s="75"/>
-      <c r="O90" s="75"/>
-      <c r="P90" s="75"/>
+      <c r="B90" s="59"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="76"/>
+      <c r="K90" s="76"/>
+      <c r="L90" s="76"/>
+      <c r="M90" s="76"/>
+      <c r="N90" s="76"/>
+      <c r="O90" s="76"/>
+      <c r="P90" s="76"/>
     </row>
     <row r="91" spans="2:16">
-      <c r="B91" s="58"/>
-      <c r="F91" s="75"/>
-      <c r="G91" s="75"/>
-      <c r="H91" s="75"/>
-      <c r="I91" s="75"/>
-      <c r="J91" s="75"/>
-      <c r="K91" s="75"/>
-      <c r="L91" s="75"/>
-      <c r="M91" s="75"/>
-      <c r="N91" s="75"/>
-      <c r="O91" s="75"/>
-      <c r="P91" s="75"/>
+      <c r="B91" s="59"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="76"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="76"/>
+      <c r="K91" s="76"/>
+      <c r="L91" s="76"/>
+      <c r="M91" s="76"/>
+      <c r="N91" s="76"/>
+      <c r="O91" s="76"/>
+      <c r="P91" s="76"/>
     </row>
     <row r="92" spans="2:16">
-      <c r="B92" s="58"/>
-      <c r="F92" s="75"/>
-      <c r="G92" s="75"/>
-      <c r="H92" s="75"/>
-      <c r="I92" s="75"/>
-      <c r="J92" s="75"/>
-      <c r="K92" s="75"/>
-      <c r="L92" s="75"/>
-      <c r="M92" s="75"/>
-      <c r="N92" s="75"/>
-      <c r="O92" s="75"/>
-      <c r="P92" s="75"/>
+      <c r="B92" s="59"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="76"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="76"/>
+      <c r="K92" s="76"/>
+      <c r="L92" s="76"/>
+      <c r="M92" s="76"/>
+      <c r="N92" s="76"/>
+      <c r="O92" s="76"/>
+      <c r="P92" s="76"/>
     </row>
     <row r="93" spans="2:16">
-      <c r="B93" s="58"/>
-      <c r="F93" s="75"/>
-      <c r="G93" s="75"/>
-      <c r="H93" s="75"/>
-      <c r="I93" s="75"/>
-      <c r="J93" s="75"/>
-      <c r="K93" s="75"/>
-      <c r="L93" s="75"/>
-      <c r="M93" s="75"/>
-      <c r="N93" s="75"/>
-      <c r="O93" s="75"/>
-      <c r="P93" s="75"/>
+      <c r="B93" s="59"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="76"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="76"/>
+      <c r="K93" s="76"/>
+      <c r="L93" s="76"/>
+      <c r="M93" s="76"/>
+      <c r="N93" s="76"/>
+      <c r="O93" s="76"/>
+      <c r="P93" s="76"/>
     </row>
     <row r="94" spans="2:16">
-      <c r="B94" s="58"/>
-      <c r="F94" s="75"/>
-      <c r="G94" s="75"/>
-      <c r="H94" s="75"/>
-      <c r="I94" s="75"/>
-      <c r="J94" s="75"/>
-      <c r="K94" s="75"/>
-      <c r="L94" s="75"/>
-      <c r="M94" s="75"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="75"/>
-      <c r="P94" s="75"/>
+      <c r="B94" s="59"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="76"/>
+      <c r="I94" s="76"/>
+      <c r="J94" s="76"/>
+      <c r="K94" s="76"/>
+      <c r="L94" s="76"/>
+      <c r="M94" s="76"/>
+      <c r="N94" s="76"/>
+      <c r="O94" s="76"/>
+      <c r="P94" s="76"/>
     </row>
     <row r="95" spans="2:16">
-      <c r="F95" s="75"/>
-      <c r="G95" s="75"/>
-      <c r="H95" s="75"/>
-      <c r="I95" s="75"/>
-      <c r="J95" s="75"/>
-      <c r="K95" s="75"/>
-      <c r="L95" s="75"/>
-      <c r="M95" s="75"/>
-      <c r="N95" s="75"/>
-      <c r="O95" s="75"/>
-      <c r="P95" s="75"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="76"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="76"/>
+      <c r="K95" s="76"/>
+      <c r="L95" s="76"/>
+      <c r="M95" s="76"/>
+      <c r="N95" s="76"/>
+      <c r="O95" s="76"/>
+      <c r="P95" s="76"/>
     </row>
     <row r="96" spans="2:16">
-      <c r="F96" s="75"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="75"/>
-      <c r="I96" s="75"/>
-      <c r="J96" s="75"/>
-      <c r="K96" s="75"/>
-      <c r="L96" s="75"/>
-      <c r="M96" s="75"/>
-      <c r="N96" s="75"/>
-      <c r="O96" s="75"/>
-      <c r="P96" s="75"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="76"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="76"/>
+      <c r="K96" s="76"/>
+      <c r="L96" s="76"/>
+      <c r="M96" s="76"/>
+      <c r="N96" s="76"/>
+      <c r="O96" s="76"/>
+      <c r="P96" s="76"/>
     </row>
     <row r="97" spans="6:16">
-      <c r="F97" s="75"/>
-      <c r="G97" s="75"/>
-      <c r="H97" s="75"/>
-      <c r="I97" s="75"/>
-      <c r="J97" s="75"/>
-      <c r="K97" s="75"/>
-      <c r="L97" s="75"/>
-      <c r="M97" s="75"/>
-      <c r="N97" s="75"/>
-      <c r="O97" s="75"/>
-      <c r="P97" s="75"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="76"/>
+      <c r="I97" s="76"/>
+      <c r="J97" s="76"/>
+      <c r="K97" s="76"/>
+      <c r="L97" s="76"/>
+      <c r="M97" s="76"/>
+      <c r="N97" s="76"/>
+      <c r="O97" s="76"/>
+      <c r="P97" s="76"/>
     </row>
     <row r="98" spans="6:16">
-      <c r="F98" s="75"/>
-      <c r="G98" s="75"/>
-      <c r="H98" s="75"/>
-      <c r="I98" s="75"/>
-      <c r="J98" s="75"/>
-      <c r="K98" s="75"/>
-      <c r="L98" s="75"/>
-      <c r="M98" s="75"/>
-      <c r="N98" s="75"/>
-      <c r="O98" s="75"/>
-      <c r="P98" s="75"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="76"/>
+      <c r="I98" s="76"/>
+      <c r="J98" s="76"/>
+      <c r="K98" s="76"/>
+      <c r="L98" s="76"/>
+      <c r="M98" s="76"/>
+      <c r="N98" s="76"/>
+      <c r="O98" s="76"/>
+      <c r="P98" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="116">
+  <mergeCells count="121">
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="F70:G70"/>
@@ -4502,6 +4562,11 @@
     <mergeCell ref="F74:J74"/>
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="H75:J75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="K77:L77"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4538,38 +4603,38 @@
   <sheetData>
     <row r="3" spans="2:15" hidden="1"/>
     <row r="4" spans="2:15" ht="25" customHeight="1">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="2:15" ht="36" customHeight="1">
-      <c r="B5" s="94"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C2DFC2-588C-5C47-B294-8FFA412BC2C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A34B6F-E891-2C49-9093-39A8521A9F1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="247">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -786,6 +786,26 @@
   </si>
   <si>
     <t>复习词汇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019联考</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-19联考错题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常识</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动＋成语</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1050,7 +1070,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,44 +1225,107 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1256,76 +1339,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1632,46 +1655,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1"/>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
       <c r="P3" s="41" t="s">
         <v>3</v>
       </c>
@@ -1686,20 +1709,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
       <c r="P4" s="44" t="s">
         <v>7</v>
       </c>
@@ -1790,16 +1813,16 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="66"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="67" t="s">
+      <c r="N8" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="67"/>
+      <c r="O8" s="61"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -1833,7 +1856,7 @@
       <c r="S9" s="36"/>
       <c r="T9" s="36"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="58" t="s">
+      <c r="V9" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1864,7 +1887,7 @@
       <c r="S10" s="36"/>
       <c r="T10" s="36"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="58"/>
+      <c r="V10" s="68"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="35">
@@ -1875,15 +1898,15 @@
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="45"/>
       <c r="N11" s="63" t="s">
         <v>22</v>
@@ -1918,14 +1941,14 @@
       <c r="K12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="L12" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="57"/>
-      <c r="N12" s="62" t="s">
+      <c r="M12" s="64"/>
+      <c r="N12" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="62"/>
+      <c r="O12" s="65"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
@@ -1959,11 +1982,11 @@
       </c>
       <c r="L13" s="63"/>
       <c r="M13" s="63"/>
-      <c r="N13" s="62" t="s">
+      <c r="N13" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
       <c r="S13" s="41" t="s">
@@ -1982,20 +2005,20 @@
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="36"/>
       <c r="K14" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="62"/>
+      <c r="M14" s="65"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
@@ -2064,7 +2087,7 @@
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="51"/>
-      <c r="V16" s="58" t="s">
+      <c r="V16" s="68" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2093,7 +2116,7 @@
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="51"/>
-      <c r="V17" s="58"/>
+      <c r="V17" s="68"/>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="35">
@@ -2104,12 +2127,12 @@
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
       <c r="J18" s="37"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
@@ -2146,13 +2169,13 @@
       </c>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="60" t="s">
+      <c r="K19" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="40" t="s">
         <v>48</v>
       </c>
@@ -2178,17 +2201,17 @@
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="57"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="36"/>
       <c r="N20" s="44" t="s">
         <v>54</v>
@@ -2213,20 +2236,20 @@
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60" t="s">
+      <c r="K21" s="66"/>
+      <c r="L21" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="60"/>
+      <c r="M21" s="66"/>
       <c r="N21" s="36"/>
       <c r="O21" s="40" t="s">
         <v>59</v>
@@ -2249,24 +2272,24 @@
         <v>13</v>
       </c>
       <c r="D22" s="36"/>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="57" t="s">
+      <c r="O22" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="57"/>
+      <c r="P22" s="64"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
@@ -2281,10 +2304,10 @@
       <c r="C23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="57"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
@@ -2317,17 +2340,17 @@
         <v>23</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
@@ -2353,28 +2376,28 @@
       <c r="E25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="61" t="s">
+      <c r="F25" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="61"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="43" t="s">
         <v>67</v>
       </c>
       <c r="K25" s="36"/>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="60" t="s">
+      <c r="R25" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="60"/>
+      <c r="S25" s="66"/>
       <c r="T25" s="36"/>
       <c r="U25" s="49"/>
       <c r="V25" s="49"/>
@@ -2386,22 +2409,22 @@
       <c r="C26" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61" t="s">
+      <c r="E26" s="67"/>
+      <c r="F26" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="61" t="s">
+      <c r="L26" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="61"/>
+      <c r="M26" s="67"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
@@ -2425,28 +2448,28 @@
         <v>5</v>
       </c>
       <c r="E27" s="36"/>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57" t="s">
+      <c r="J27" s="64"/>
+      <c r="K27" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="57"/>
+      <c r="L27" s="64"/>
       <c r="M27" s="46"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="57" t="s">
+      <c r="R27" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="S27" s="57"/>
+      <c r="S27" s="64"/>
       <c r="T27" s="36"/>
       <c r="U27" s="49"/>
       <c r="V27" s="49"/>
@@ -2462,18 +2485,18 @@
         <v>78</v>
       </c>
       <c r="E28" s="36"/>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="57"/>
+      <c r="G28" s="64"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="57" t="s">
+      <c r="K28" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
@@ -2488,30 +2511,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="V9:V10"/>
@@ -2528,6 +2527,30 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2538,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2553,68 +2576,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
       <c r="P3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2629,20 +2652,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
       <c r="P4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2731,11 +2754,11 @@
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2752,7 +2775,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="79" t="s">
+      <c r="V8" s="86" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2764,28 +2787,28 @@
         <v>16</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="82" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="87"/>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="7">
@@ -2801,22 +2824,22 @@
       <c r="F10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="87"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="7">
@@ -2826,10 +2849,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="93"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2845,7 +2868,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="87"/>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="7">
@@ -2855,18 +2878,18 @@
         <v>24</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="74"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -2876,7 +2899,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="80"/>
+      <c r="V12" s="87"/>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="7">
@@ -2891,17 +2914,17 @@
       <c r="E13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="94"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="K13" s="94" t="s">
+      <c r="K13" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -2919,10 +2942,10 @@
       <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="84"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="8"/>
       <c r="G14" s="18" t="s">
         <v>23</v>
@@ -2932,11 +2955,11 @@
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="78" t="s">
+      <c r="K14" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -2956,27 +2979,27 @@
       <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="81"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
       <c r="S15" s="19" t="s">
         <v>100</v>
       </c>
@@ -2992,12 +3015,12 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="85" t="s">
+      <c r="F16" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="1"/>
       <c r="K16" s="11" t="s">
         <v>102</v>
@@ -3026,20 +3049,20 @@
         <v>18</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="84"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="81" t="s">
+      <c r="H17" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -3058,14 +3081,14 @@
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="J18" s="74" t="s">
+      <c r="F18" s="70"/>
+      <c r="J18" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="74"/>
+      <c r="K18" s="71"/>
       <c r="M18" s="21" t="s">
         <v>109</v>
       </c>
@@ -3077,17 +3100,17 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="70"/>
       <c r="J19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="74"/>
+      <c r="L19" s="71"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="7">
@@ -3096,11 +3119,11 @@
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="85" t="s">
+      <c r="E20" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
       <c r="J20" s="18" t="s">
         <v>26</v>
       </c>
@@ -3112,13 +3135,13 @@
       <c r="C21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="85" t="s">
+      <c r="E21" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="7">
@@ -3127,16 +3150,16 @@
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="94" t="s">
+      <c r="F22" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="85" t="s">
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="7">
@@ -3145,21 +3168,21 @@
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="81" t="s">
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="7">
@@ -3168,19 +3191,19 @@
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="7">
@@ -3195,11 +3218,11 @@
       <c r="F25" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="74" t="s">
+      <c r="G25" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="7">
@@ -3211,14 +3234,14 @@
       <c r="E26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="I26" s="74" t="s">
+      <c r="G26" s="71"/>
+      <c r="I26" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="74"/>
+      <c r="J26" s="71"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="7">
@@ -3227,27 +3250,27 @@
       <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="74"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="20" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="81" t="s">
+      <c r="I27" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="7">
@@ -3262,10 +3285,10 @@
       <c r="F28" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="84"/>
+      <c r="H28" s="73"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1">
       <c r="B29" s="7">
@@ -3274,17 +3297,17 @@
       <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="74"/>
+      <c r="F29" s="71"/>
       <c r="J29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="85" t="s">
+      <c r="K29" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="L29" s="85"/>
+      <c r="L29" s="70"/>
       <c r="V29" s="3" t="s">
         <v>134</v>
       </c>
@@ -3299,10 +3322,10 @@
       <c r="E30" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="74" t="s">
+      <c r="G30" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="74"/>
+      <c r="H30" s="71"/>
       <c r="I30" s="14" t="s">
         <v>132</v>
       </c>
@@ -3317,17 +3340,17 @@
       <c r="E31" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="81" t="s">
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
       <c r="V31" s="31" t="s">
         <v>140</v>
       </c>
@@ -3339,14 +3362,14 @@
       <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="E32" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74" t="s">
+      <c r="F32" s="71"/>
+      <c r="G32" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="74"/>
+      <c r="H32" s="71"/>
     </row>
     <row r="33" spans="1:22">
       <c r="B33" s="7">
@@ -3355,16 +3378,16 @@
       <c r="C33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="H33" s="81" t="s">
+      <c r="F33" s="70"/>
+      <c r="H33" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="7">
@@ -3373,15 +3396,15 @@
       <c r="C34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="7">
@@ -3393,14 +3416,14 @@
       <c r="E35" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="85" t="s">
+      <c r="F35" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="85"/>
-      <c r="I35" s="74" t="s">
+      <c r="G35" s="70"/>
+      <c r="I35" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="74"/>
+      <c r="J35" s="71"/>
       <c r="K35" s="21" t="s">
         <v>147</v>
       </c>
@@ -3412,10 +3435,10 @@
       <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="88" t="s">
+      <c r="E36" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="88"/>
+      <c r="F36" s="81"/>
       <c r="G36" s="20" t="s">
         <v>149</v>
       </c>
@@ -3430,10 +3453,10 @@
       <c r="E37" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="88" t="s">
+      <c r="F37" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="88"/>
+      <c r="G37" s="81"/>
       <c r="V37" s="3" t="s">
         <v>152</v>
       </c>
@@ -3445,14 +3468,14 @@
       <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="85" t="s">
+      <c r="F38" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="85"/>
-      <c r="H38" s="89" t="s">
+      <c r="G38" s="70"/>
+      <c r="H38" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="I38" s="89"/>
+      <c r="I38" s="82"/>
     </row>
     <row r="39" spans="1:22">
       <c r="B39" s="7">
@@ -3464,10 +3487,10 @@
       <c r="D39" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="74" t="s">
+      <c r="F39" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="74"/>
+      <c r="G39" s="71"/>
       <c r="J39" s="14" t="s">
         <v>132</v>
       </c>
@@ -3491,17 +3514,17 @@
       <c r="E40" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="74" t="s">
+      <c r="F40" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="74"/>
+      <c r="G40" s="71"/>
       <c r="J40" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="84" t="s">
+      <c r="L40" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="84"/>
+      <c r="M40" s="73"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="3" t="s">
@@ -3516,25 +3539,25 @@
       <c r="E41" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="84" t="s">
+      <c r="F41" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="74" t="s">
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="J41" s="74"/>
-      <c r="N41" s="81" t="s">
+      <c r="J41" s="71"/>
+      <c r="N41" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="81"/>
-      <c r="U41" s="81"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="3" t="s">
@@ -3558,10 +3581,10 @@
       <c r="L42" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="N42" s="84" t="s">
+      <c r="N42" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="O42" s="84"/>
+      <c r="O42" s="73"/>
       <c r="R42" s="22" t="s">
         <v>169</v>
       </c>
@@ -3576,21 +3599,21 @@
       <c r="C43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="74" t="s">
+      <c r="F43" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="74"/>
+      <c r="G43" s="71"/>
       <c r="J43" s="10" t="s">
         <v>169</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L43" s="84" t="s">
+      <c r="L43" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
     </row>
     <row r="44" spans="1:22">
       <c r="B44" s="7">
@@ -3599,26 +3622,26 @@
       <c r="C44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="84" t="s">
+      <c r="G44" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="81" t="s">
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81" t="s">
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="R44" s="81"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="81"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="75"/>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" s="7">
@@ -3630,14 +3653,14 @@
       <c r="J45" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K45" s="74" t="s">
+      <c r="K45" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="L45" s="74"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
+      <c r="L45" s="71"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="75"/>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" s="7">
@@ -3649,23 +3672,23 @@
       <c r="F46" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="74" t="s">
+      <c r="H46" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="L46" s="84" t="s">
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="L46" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="81" t="s">
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
+      <c r="P46" s="75"/>
+      <c r="Q46" s="75"/>
+      <c r="R46" s="75"/>
+      <c r="S46" s="75"/>
     </row>
     <row r="47" spans="1:22">
       <c r="B47" s="7">
@@ -3674,24 +3697,24 @@
       <c r="C47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="85" t="s">
+      <c r="F47" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="85"/>
-      <c r="H47" s="74" t="s">
+      <c r="G47" s="70"/>
+      <c r="H47" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="L47" s="84" t="s">
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="L47" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="84"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
+      <c r="M47" s="73"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="75"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="75"/>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" s="7">
@@ -3700,18 +3723,18 @@
       <c r="C48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="74" t="s">
+      <c r="F48" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="G48" s="74"/>
-      <c r="I48" s="74" t="s">
+      <c r="G48" s="71"/>
+      <c r="I48" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="74"/>
-      <c r="L48" s="84" t="s">
+      <c r="J48" s="71"/>
+      <c r="L48" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M48" s="84"/>
+      <c r="M48" s="73"/>
     </row>
     <row r="49" spans="1:22">
       <c r="B49" s="7">
@@ -3723,22 +3746,22 @@
       <c r="D49" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="74"/>
-      <c r="H49" s="87" t="s">
+      <c r="G49" s="71"/>
+      <c r="H49" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="84" t="s">
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
     </row>
     <row r="50" spans="1:22">
       <c r="B50" s="7">
@@ -3747,18 +3770,18 @@
       <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="85" t="s">
+      <c r="F50" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="83" t="s">
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="3" t="s">
@@ -3770,16 +3793,16 @@
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="85" t="s">
+      <c r="F51" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
     </row>
     <row r="52" spans="1:22">
       <c r="B52" s="7">
@@ -3788,16 +3811,16 @@
       <c r="C52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="85" t="s">
+      <c r="F52" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
     </row>
     <row r="53" spans="1:22">
       <c r="B53" s="7">
@@ -3806,10 +3829,10 @@
       <c r="C53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="85" t="s">
+      <c r="F53" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="85"/>
+      <c r="G53" s="70"/>
       <c r="H53" s="13" t="s">
         <v>4</v>
       </c>
@@ -3821,17 +3844,17 @@
       <c r="C54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="74" t="s">
+      <c r="F54" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="G54" s="74"/>
+      <c r="G54" s="71"/>
       <c r="J54" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L54" s="84" t="s">
+      <c r="L54" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="84"/>
+      <c r="M54" s="73"/>
     </row>
     <row r="55" spans="1:22">
       <c r="B55" s="7">
@@ -3840,17 +3863,17 @@
       <c r="C55" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="74" t="s">
+      <c r="F55" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="G55" s="74"/>
+      <c r="G55" s="71"/>
       <c r="J55" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L55" s="84" t="s">
+      <c r="L55" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M55" s="84"/>
+      <c r="M55" s="73"/>
     </row>
     <row r="56" spans="1:22">
       <c r="B56" s="7">
@@ -3862,10 +3885,10 @@
       <c r="E56" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="74" t="s">
+      <c r="G56" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="H56" s="74"/>
+      <c r="H56" s="71"/>
       <c r="L56" s="22" t="s">
         <v>9</v>
       </c>
@@ -3877,14 +3900,14 @@
       <c r="C57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="84" t="s">
+      <c r="G57" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
     </row>
     <row r="58" spans="1:22">
       <c r="B58" s="7">
@@ -3893,11 +3916,11 @@
       <c r="C58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="74" t="s">
+      <c r="F58" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
       <c r="J58" s="20" t="s">
         <v>191</v>
       </c>
@@ -3918,10 +3941,10 @@
       <c r="H59" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="J59" s="84" t="s">
+      <c r="J59" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="84"/>
+      <c r="K59" s="73"/>
     </row>
     <row r="60" spans="1:22">
       <c r="B60" s="7">
@@ -3930,18 +3953,18 @@
       <c r="C60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="74" t="s">
+      <c r="F60" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="74"/>
+      <c r="G60" s="71"/>
       <c r="I60" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K60" s="86" t="s">
+      <c r="K60" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="L60" s="86"/>
-      <c r="M60" s="86"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
       <c r="N60" s="23"/>
     </row>
     <row r="61" spans="1:22">
@@ -3957,12 +3980,12 @@
       <c r="G61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="86" t="s">
+      <c r="I61" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="86"/>
-      <c r="K61" s="86"/>
-      <c r="L61" s="86"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
     </row>
     <row r="62" spans="1:22">
       <c r="B62" s="7">
@@ -3971,11 +3994,11 @@
       <c r="C62" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="74" t="s">
+      <c r="F62" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
       <c r="J62" s="22" t="s">
         <v>9</v>
       </c>
@@ -3993,7 +4016,7 @@
       <c r="G63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="V63" s="70" t="s">
+      <c r="V63" s="91" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4004,12 +4027,12 @@
       <c r="C64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="72" t="s">
+      <c r="F64" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="V64" s="71"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="V64" s="92"/>
     </row>
     <row r="65" spans="2:22">
       <c r="B65" s="7">
@@ -4018,13 +4041,13 @@
       <c r="C65" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
       <c r="I65" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="V65" s="71"/>
+      <c r="V65" s="92"/>
     </row>
     <row r="66" spans="2:22">
       <c r="B66" s="7">
@@ -4033,17 +4056,17 @@
       <c r="C66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="73" t="s">
+      <c r="F66" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="G66" s="74"/>
+      <c r="G66" s="71"/>
       <c r="H66" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I66" s="73" t="s">
+      <c r="I66" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="J66" s="74"/>
+      <c r="J66" s="71"/>
     </row>
     <row r="67" spans="2:22">
       <c r="B67" s="7">
@@ -4052,14 +4075,14 @@
       <c r="C67" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="73" t="s">
+      <c r="F67" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="74"/>
-      <c r="H67" s="73" t="s">
+      <c r="G67" s="71"/>
+      <c r="H67" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="I67" s="74"/>
+      <c r="I67" s="71"/>
       <c r="J67" s="55" t="s">
         <v>209</v>
       </c>
@@ -4077,18 +4100,18 @@
       <c r="C68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="73" t="s">
+      <c r="F68" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="74"/>
-      <c r="H68" s="73" t="s">
+      <c r="G68" s="71"/>
+      <c r="H68" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="I68" s="74"/>
-      <c r="J68" s="77" t="s">
+      <c r="I68" s="71"/>
+      <c r="J68" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="K68" s="78"/>
+      <c r="K68" s="74"/>
     </row>
     <row r="69" spans="2:22">
       <c r="B69" s="7">
@@ -4097,16 +4120,16 @@
       <c r="C69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="69" t="s">
+      <c r="F69" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
     </row>
     <row r="70" spans="2:22">
       <c r="B70" s="7">
@@ -4115,20 +4138,20 @@
       <c r="C70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="73" t="s">
+      <c r="F70" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="G70" s="74"/>
+      <c r="G70" s="71"/>
       <c r="H70" s="54" t="s">
         <v>217</v>
       </c>
       <c r="I70" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="J70" s="73" t="s">
+      <c r="J70" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="K70" s="74"/>
+      <c r="K70" s="71"/>
     </row>
     <row r="71" spans="2:22">
       <c r="B71" s="7">
@@ -4137,12 +4160,12 @@
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="73" t="s">
+      <c r="F71" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="G71" s="74"/>
-      <c r="H71" s="74"/>
-      <c r="I71" s="74"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
     </row>
     <row r="72" spans="2:22">
       <c r="B72" s="7">
@@ -4151,15 +4174,15 @@
       <c r="C72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="73" t="s">
+      <c r="F72" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="G72" s="74"/>
-      <c r="H72" s="73" t="s">
+      <c r="G72" s="71"/>
+      <c r="H72" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
     </row>
     <row r="73" spans="2:22">
       <c r="B73" s="7">
@@ -4168,14 +4191,14 @@
       <c r="C73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="73" t="s">
+      <c r="F73" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="74"/>
-      <c r="H73" s="73" t="s">
+      <c r="G73" s="71"/>
+      <c r="H73" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="I73" s="74"/>
+      <c r="I73" s="71"/>
       <c r="J73" s="55" t="s">
         <v>219</v>
       </c>
@@ -4187,11 +4210,11 @@
       <c r="C74" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F74" s="74"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="74"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
     </row>
     <row r="75" spans="2:22">
       <c r="B75" s="7">
@@ -4200,15 +4223,15 @@
       <c r="C75" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="F75" s="73" t="s">
+      <c r="F75" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="G75" s="74"/>
-      <c r="H75" s="73" t="s">
+      <c r="G75" s="71"/>
+      <c r="H75" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="I75" s="74"/>
-      <c r="J75" s="74"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
     </row>
     <row r="76" spans="2:22">
       <c r="B76" s="7">
@@ -4220,15 +4243,15 @@
       <c r="D76" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="F76" s="73" t="s">
+      <c r="F76" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
       <c r="I76" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="J76" s="84"/>
+      <c r="J76" s="73"/>
     </row>
     <row r="77" spans="2:22">
       <c r="B77" s="7">
@@ -4237,24 +4260,24 @@
       <c r="C77" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="56">
+      <c r="D77" s="57">
         <v>41</v>
       </c>
-      <c r="F77" s="73" t="s">
+      <c r="F77" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="G77" s="74"/>
-      <c r="H77" s="73" t="s">
+      <c r="G77" s="71"/>
+      <c r="H77" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="I77" s="74"/>
+      <c r="I77" s="71"/>
       <c r="J77" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="K77" s="85" t="s">
+      <c r="K77" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="L77" s="85"/>
+      <c r="L77" s="70"/>
     </row>
     <row r="78" spans="2:22">
       <c r="B78" s="7">
@@ -4263,8 +4286,15 @@
       <c r="C78" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="D78" s="56">
+      <c r="D78" s="57">
         <v>40</v>
+      </c>
+      <c r="F78" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="G78" s="71"/>
+      <c r="H78" s="56" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="2:22">
@@ -4274,6 +4304,22 @@
       <c r="C79" s="54" t="s">
         <v>231</v>
       </c>
+      <c r="D79" s="57">
+        <v>39</v>
+      </c>
+      <c r="F79" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="G79" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="H79" s="71"/>
+      <c r="I79" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J79" s="55" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="80" spans="2:22">
       <c r="B80" s="7">
@@ -4299,153 +4345,252 @@
       </c>
     </row>
     <row r="87" spans="2:16">
-      <c r="B87" s="69" t="s">
+      <c r="B87" s="90" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="88" spans="2:16">
-      <c r="B88" s="59"/>
+      <c r="B88" s="69"/>
     </row>
     <row r="89" spans="2:16">
-      <c r="B89" s="59"/>
-      <c r="F89" s="75" t="s">
+      <c r="B89" s="69"/>
+      <c r="F89" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="G89" s="76"/>
-      <c r="H89" s="76"/>
-      <c r="I89" s="76"/>
-      <c r="J89" s="76"/>
-      <c r="K89" s="76"/>
-      <c r="L89" s="76"/>
-      <c r="M89" s="76"/>
-      <c r="N89" s="76"/>
-      <c r="O89" s="76"/>
-      <c r="P89" s="76"/>
+      <c r="G89" s="95"/>
+      <c r="H89" s="95"/>
+      <c r="I89" s="95"/>
+      <c r="J89" s="95"/>
+      <c r="K89" s="95"/>
+      <c r="L89" s="95"/>
+      <c r="M89" s="95"/>
+      <c r="N89" s="95"/>
+      <c r="O89" s="95"/>
+      <c r="P89" s="95"/>
     </row>
     <row r="90" spans="2:16">
-      <c r="B90" s="59"/>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="76"/>
-      <c r="I90" s="76"/>
-      <c r="J90" s="76"/>
-      <c r="K90" s="76"/>
-      <c r="L90" s="76"/>
-      <c r="M90" s="76"/>
-      <c r="N90" s="76"/>
-      <c r="O90" s="76"/>
-      <c r="P90" s="76"/>
+      <c r="B90" s="69"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="95"/>
+      <c r="H90" s="95"/>
+      <c r="I90" s="95"/>
+      <c r="J90" s="95"/>
+      <c r="K90" s="95"/>
+      <c r="L90" s="95"/>
+      <c r="M90" s="95"/>
+      <c r="N90" s="95"/>
+      <c r="O90" s="95"/>
+      <c r="P90" s="95"/>
     </row>
     <row r="91" spans="2:16">
-      <c r="B91" s="59"/>
-      <c r="F91" s="76"/>
-      <c r="G91" s="76"/>
-      <c r="H91" s="76"/>
-      <c r="I91" s="76"/>
-      <c r="J91" s="76"/>
-      <c r="K91" s="76"/>
-      <c r="L91" s="76"/>
-      <c r="M91" s="76"/>
-      <c r="N91" s="76"/>
-      <c r="O91" s="76"/>
-      <c r="P91" s="76"/>
+      <c r="B91" s="69"/>
+      <c r="F91" s="95"/>
+      <c r="G91" s="95"/>
+      <c r="H91" s="95"/>
+      <c r="I91" s="95"/>
+      <c r="J91" s="95"/>
+      <c r="K91" s="95"/>
+      <c r="L91" s="95"/>
+      <c r="M91" s="95"/>
+      <c r="N91" s="95"/>
+      <c r="O91" s="95"/>
+      <c r="P91" s="95"/>
     </row>
     <row r="92" spans="2:16">
-      <c r="B92" s="59"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="76"/>
-      <c r="I92" s="76"/>
-      <c r="J92" s="76"/>
-      <c r="K92" s="76"/>
-      <c r="L92" s="76"/>
-      <c r="M92" s="76"/>
-      <c r="N92" s="76"/>
-      <c r="O92" s="76"/>
-      <c r="P92" s="76"/>
+      <c r="B92" s="69"/>
+      <c r="F92" s="95"/>
+      <c r="G92" s="95"/>
+      <c r="H92" s="95"/>
+      <c r="I92" s="95"/>
+      <c r="J92" s="95"/>
+      <c r="K92" s="95"/>
+      <c r="L92" s="95"/>
+      <c r="M92" s="95"/>
+      <c r="N92" s="95"/>
+      <c r="O92" s="95"/>
+      <c r="P92" s="95"/>
     </row>
     <row r="93" spans="2:16">
-      <c r="B93" s="59"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="76"/>
-      <c r="H93" s="76"/>
-      <c r="I93" s="76"/>
-      <c r="J93" s="76"/>
-      <c r="K93" s="76"/>
-      <c r="L93" s="76"/>
-      <c r="M93" s="76"/>
-      <c r="N93" s="76"/>
-      <c r="O93" s="76"/>
-      <c r="P93" s="76"/>
+      <c r="B93" s="69"/>
+      <c r="F93" s="95"/>
+      <c r="G93" s="95"/>
+      <c r="H93" s="95"/>
+      <c r="I93" s="95"/>
+      <c r="J93" s="95"/>
+      <c r="K93" s="95"/>
+      <c r="L93" s="95"/>
+      <c r="M93" s="95"/>
+      <c r="N93" s="95"/>
+      <c r="O93" s="95"/>
+      <c r="P93" s="95"/>
     </row>
     <row r="94" spans="2:16">
-      <c r="B94" s="59"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="76"/>
-      <c r="H94" s="76"/>
-      <c r="I94" s="76"/>
-      <c r="J94" s="76"/>
-      <c r="K94" s="76"/>
-      <c r="L94" s="76"/>
-      <c r="M94" s="76"/>
-      <c r="N94" s="76"/>
-      <c r="O94" s="76"/>
-      <c r="P94" s="76"/>
+      <c r="B94" s="69"/>
+      <c r="F94" s="95"/>
+      <c r="G94" s="95"/>
+      <c r="H94" s="95"/>
+      <c r="I94" s="95"/>
+      <c r="J94" s="95"/>
+      <c r="K94" s="95"/>
+      <c r="L94" s="95"/>
+      <c r="M94" s="95"/>
+      <c r="N94" s="95"/>
+      <c r="O94" s="95"/>
+      <c r="P94" s="95"/>
     </row>
     <row r="95" spans="2:16">
-      <c r="F95" s="76"/>
-      <c r="G95" s="76"/>
-      <c r="H95" s="76"/>
-      <c r="I95" s="76"/>
-      <c r="J95" s="76"/>
-      <c r="K95" s="76"/>
-      <c r="L95" s="76"/>
-      <c r="M95" s="76"/>
-      <c r="N95" s="76"/>
-      <c r="O95" s="76"/>
-      <c r="P95" s="76"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="95"/>
+      <c r="H95" s="95"/>
+      <c r="I95" s="95"/>
+      <c r="J95" s="95"/>
+      <c r="K95" s="95"/>
+      <c r="L95" s="95"/>
+      <c r="M95" s="95"/>
+      <c r="N95" s="95"/>
+      <c r="O95" s="95"/>
+      <c r="P95" s="95"/>
     </row>
     <row r="96" spans="2:16">
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="76"/>
-      <c r="I96" s="76"/>
-      <c r="J96" s="76"/>
-      <c r="K96" s="76"/>
-      <c r="L96" s="76"/>
-      <c r="M96" s="76"/>
-      <c r="N96" s="76"/>
-      <c r="O96" s="76"/>
-      <c r="P96" s="76"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="95"/>
+      <c r="H96" s="95"/>
+      <c r="I96" s="95"/>
+      <c r="J96" s="95"/>
+      <c r="K96" s="95"/>
+      <c r="L96" s="95"/>
+      <c r="M96" s="95"/>
+      <c r="N96" s="95"/>
+      <c r="O96" s="95"/>
+      <c r="P96" s="95"/>
     </row>
     <row r="97" spans="6:16">
-      <c r="F97" s="76"/>
-      <c r="G97" s="76"/>
-      <c r="H97" s="76"/>
-      <c r="I97" s="76"/>
-      <c r="J97" s="76"/>
-      <c r="K97" s="76"/>
-      <c r="L97" s="76"/>
-      <c r="M97" s="76"/>
-      <c r="N97" s="76"/>
-      <c r="O97" s="76"/>
-      <c r="P97" s="76"/>
+      <c r="F97" s="95"/>
+      <c r="G97" s="95"/>
+      <c r="H97" s="95"/>
+      <c r="I97" s="95"/>
+      <c r="J97" s="95"/>
+      <c r="K97" s="95"/>
+      <c r="L97" s="95"/>
+      <c r="M97" s="95"/>
+      <c r="N97" s="95"/>
+      <c r="O97" s="95"/>
+      <c r="P97" s="95"/>
     </row>
     <row r="98" spans="6:16">
-      <c r="F98" s="76"/>
-      <c r="G98" s="76"/>
-      <c r="H98" s="76"/>
-      <c r="I98" s="76"/>
-      <c r="J98" s="76"/>
-      <c r="K98" s="76"/>
-      <c r="L98" s="76"/>
-      <c r="M98" s="76"/>
-      <c r="N98" s="76"/>
-      <c r="O98" s="76"/>
-      <c r="P98" s="76"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="95"/>
+      <c r="H98" s="95"/>
+      <c r="I98" s="95"/>
+      <c r="J98" s="95"/>
+      <c r="K98" s="95"/>
+      <c r="L98" s="95"/>
+      <c r="M98" s="95"/>
+      <c r="N98" s="95"/>
+      <c r="O98" s="95"/>
+      <c r="P98" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
+  <mergeCells count="123">
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="V63:V65"/>
+    <mergeCell ref="F64:H65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="F69:M69"/>
+    <mergeCell ref="F89:P98"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:P44"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="Q44:T45"/>
+    <mergeCell ref="O46:S47"/>
+    <mergeCell ref="H23:O24"/>
+    <mergeCell ref="G9:R10"/>
+    <mergeCell ref="H33:K34"/>
+    <mergeCell ref="I50:M52"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:O49"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="N41:U41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="F70:G70"/>
@@ -4470,103 +4615,6 @@
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="I27:Q27"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="N41:U41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:O49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:P44"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="V8:V12"/>
-    <mergeCell ref="Q44:T45"/>
-    <mergeCell ref="O46:S47"/>
-    <mergeCell ref="H23:O24"/>
-    <mergeCell ref="G9:R10"/>
-    <mergeCell ref="H33:K34"/>
-    <mergeCell ref="I50:M52"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="V63:V65"/>
-    <mergeCell ref="F64:H65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="F69:M69"/>
-    <mergeCell ref="F89:P98"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="K77:L77"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4603,38 +4651,38 @@
   <sheetData>
     <row r="3" spans="2:15" hidden="1"/>
     <row r="4" spans="2:15" ht="25" customHeight="1">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
     </row>
     <row r="5" spans="2:15" ht="36" customHeight="1">
-      <c r="B5" s="95"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A34B6F-E891-2C49-9093-39A8521A9F1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF53B371-3E2E-8D44-A875-22680E0ADC9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="249">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -806,6 +806,14 @@
   </si>
   <si>
     <t>运动＋成语</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉笔模考+浙江真题练习</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1070,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1231,6 +1239,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1306,9 +1317,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1349,6 +1357,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1655,46 +1666,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1"/>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
       <c r="P3" s="41" t="s">
         <v>3</v>
       </c>
@@ -1709,20 +1720,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
       <c r="P4" s="44" t="s">
         <v>7</v>
       </c>
@@ -1813,16 +1824,16 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="61"/>
+      <c r="O8" s="62"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -1856,7 +1867,7 @@
       <c r="S9" s="36"/>
       <c r="T9" s="36"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="68" t="s">
+      <c r="V9" s="69" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1887,7 +1898,7 @@
       <c r="S10" s="36"/>
       <c r="T10" s="36"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="68"/>
+      <c r="V10" s="69"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="35">
@@ -1898,20 +1909,20 @@
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="45"/>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="63"/>
+      <c r="O11" s="64"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="39" t="s">
@@ -1931,24 +1942,24 @@
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="36"/>
       <c r="K12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="65" t="s">
+      <c r="M12" s="65"/>
+      <c r="N12" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="65"/>
+      <c r="O12" s="66"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
@@ -1977,16 +1988,16 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="65" t="s">
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
       <c r="S13" s="41" t="s">
@@ -2005,20 +2016,20 @@
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="36"/>
       <c r="K14" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="65"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
@@ -2087,7 +2098,7 @@
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="51"/>
-      <c r="V16" s="68" t="s">
+      <c r="V16" s="69" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2116,7 +2127,7 @@
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="51"/>
-      <c r="V17" s="68"/>
+      <c r="V17" s="69"/>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="35">
@@ -2127,12 +2138,12 @@
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="37"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
@@ -2169,13 +2180,13 @@
       </c>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
       <c r="P19" s="40" t="s">
         <v>48</v>
       </c>
@@ -2201,17 +2212,17 @@
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="64"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="36"/>
       <c r="N20" s="44" t="s">
         <v>54</v>
@@ -2236,20 +2247,20 @@
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="66" t="s">
+      <c r="J21" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66" t="s">
+      <c r="K21" s="67"/>
+      <c r="L21" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="66"/>
+      <c r="M21" s="67"/>
       <c r="N21" s="36"/>
       <c r="O21" s="40" t="s">
         <v>59</v>
@@ -2272,24 +2283,24 @@
         <v>13</v>
       </c>
       <c r="D22" s="36"/>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="64" t="s">
+      <c r="J22" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="64" t="s">
+      <c r="O22" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="64"/>
+      <c r="P22" s="65"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
@@ -2304,10 +2315,10 @@
       <c r="C23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="64"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
@@ -2340,17 +2351,17 @@
         <v>23</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="67" t="s">
+      <c r="J24" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
@@ -2376,28 +2387,28 @@
       <c r="E25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="67"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="43" t="s">
         <v>67</v>
       </c>
       <c r="K25" s="36"/>
-      <c r="L25" s="66" t="s">
+      <c r="L25" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="66" t="s">
+      <c r="R25" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="66"/>
+      <c r="S25" s="67"/>
       <c r="T25" s="36"/>
       <c r="U25" s="49"/>
       <c r="V25" s="49"/>
@@ -2409,22 +2420,22 @@
       <c r="C26" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67" t="s">
+      <c r="E26" s="68"/>
+      <c r="F26" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="67"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="67" t="s">
+      <c r="L26" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="67"/>
+      <c r="M26" s="68"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
@@ -2448,28 +2459,28 @@
         <v>5</v>
       </c>
       <c r="E27" s="36"/>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="67"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="64" t="s">
+      <c r="I27" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64" t="s">
+      <c r="J27" s="65"/>
+      <c r="K27" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="64"/>
+      <c r="L27" s="65"/>
       <c r="M27" s="46"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="64" t="s">
+      <c r="R27" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="S27" s="64"/>
+      <c r="S27" s="65"/>
       <c r="T27" s="36"/>
       <c r="U27" s="49"/>
       <c r="V27" s="49"/>
@@ -2485,18 +2496,18 @@
         <v>78</v>
       </c>
       <c r="E28" s="36"/>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="64"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="64" t="s">
+      <c r="K28" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
@@ -2561,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2576,68 +2587,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
       <c r="P3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2652,20 +2663,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
       <c r="P4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2754,11 +2765,11 @@
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2787,10 +2798,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="79"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="88" t="s">
         <v>88</v>
       </c>
@@ -2849,10 +2860,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2878,18 +2889,18 @@
         <v>24</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="71"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -2914,17 +2925,17 @@
       <c r="E13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="76"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -2942,10 +2953,10 @@
       <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="8"/>
       <c r="G14" s="18" t="s">
         <v>23</v>
@@ -2955,11 +2966,11 @@
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -2979,27 +2990,27 @@
       <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="75"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
       <c r="S15" s="19" t="s">
         <v>100</v>
       </c>
@@ -3015,12 +3026,12 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="1"/>
       <c r="K16" s="11" t="s">
         <v>102</v>
@@ -3049,20 +3060,20 @@
         <v>18</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -3081,14 +3092,14 @@
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="J18" s="71" t="s">
+      <c r="F18" s="71"/>
+      <c r="J18" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="71"/>
+      <c r="K18" s="72"/>
       <c r="M18" s="21" t="s">
         <v>109</v>
       </c>
@@ -3100,17 +3111,17 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="71"/>
       <c r="J19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="71"/>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="7">
@@ -3119,11 +3130,11 @@
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="J20" s="18" t="s">
         <v>26</v>
       </c>
@@ -3135,13 +3146,13 @@
       <c r="C21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="7">
@@ -3150,16 +3161,16 @@
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="70" t="s">
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="7">
@@ -3168,21 +3179,21 @@
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="75" t="s">
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="7">
@@ -3191,19 +3202,19 @@
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="7">
@@ -3218,11 +3229,11 @@
       <c r="F25" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="7">
@@ -3234,14 +3245,14 @@
       <c r="E26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="71"/>
-      <c r="I26" s="71" t="s">
+      <c r="G26" s="72"/>
+      <c r="I26" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="71"/>
+      <c r="J26" s="72"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="7">
@@ -3250,27 +3261,27 @@
       <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="71"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="20" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="75" t="s">
+      <c r="I27" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="7">
@@ -3285,10 +3296,10 @@
       <c r="F28" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="73" t="s">
+      <c r="G28" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="73"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1">
       <c r="B29" s="7">
@@ -3297,17 +3308,17 @@
       <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="71"/>
+      <c r="F29" s="72"/>
       <c r="J29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="70" t="s">
+      <c r="K29" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="L29" s="70"/>
+      <c r="L29" s="71"/>
       <c r="V29" s="3" t="s">
         <v>134</v>
       </c>
@@ -3322,10 +3333,10 @@
       <c r="E30" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="71" t="s">
+      <c r="G30" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="71"/>
+      <c r="H30" s="72"/>
       <c r="I30" s="14" t="s">
         <v>132</v>
       </c>
@@ -3340,17 +3351,17 @@
       <c r="E31" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="75" t="s">
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
       <c r="V31" s="31" t="s">
         <v>140</v>
       </c>
@@ -3362,14 +3373,14 @@
       <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71" t="s">
+      <c r="F32" s="72"/>
+      <c r="G32" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="71"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="1:22">
       <c r="B33" s="7">
@@ -3378,16 +3389,16 @@
       <c r="C33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="70"/>
-      <c r="H33" s="75" t="s">
+      <c r="F33" s="71"/>
+      <c r="H33" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="7">
@@ -3396,15 +3407,15 @@
       <c r="C34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="7">
@@ -3416,14 +3427,14 @@
       <c r="E35" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="70"/>
-      <c r="I35" s="71" t="s">
+      <c r="G35" s="71"/>
+      <c r="I35" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="71"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="21" t="s">
         <v>147</v>
       </c>
@@ -3435,10 +3446,10 @@
       <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="81" t="s">
+      <c r="E36" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="81"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="20" t="s">
         <v>149</v>
       </c>
@@ -3453,10 +3464,10 @@
       <c r="E37" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="81" t="s">
+      <c r="F37" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="81"/>
+      <c r="G37" s="82"/>
       <c r="V37" s="3" t="s">
         <v>152</v>
       </c>
@@ -3468,14 +3479,14 @@
       <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="F38" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="70"/>
-      <c r="H38" s="82" t="s">
+      <c r="G38" s="71"/>
+      <c r="H38" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="I38" s="82"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" spans="1:22">
       <c r="B39" s="7">
@@ -3487,10 +3498,10 @@
       <c r="D39" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="71" t="s">
+      <c r="F39" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="71"/>
+      <c r="G39" s="72"/>
       <c r="J39" s="14" t="s">
         <v>132</v>
       </c>
@@ -3514,17 +3525,17 @@
       <c r="E40" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="71" t="s">
+      <c r="F40" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="71"/>
+      <c r="G40" s="72"/>
       <c r="J40" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="73" t="s">
+      <c r="L40" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="73"/>
+      <c r="M40" s="74"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="3" t="s">
@@ -3539,25 +3550,25 @@
       <c r="E41" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="73" t="s">
+      <c r="F41" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="71" t="s">
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="J41" s="71"/>
-      <c r="N41" s="75" t="s">
+      <c r="J41" s="72"/>
+      <c r="N41" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="75"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="3" t="s">
@@ -3581,10 +3592,10 @@
       <c r="L42" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="N42" s="73" t="s">
+      <c r="N42" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="O42" s="73"/>
+      <c r="O42" s="74"/>
       <c r="R42" s="22" t="s">
         <v>169</v>
       </c>
@@ -3599,21 +3610,21 @@
       <c r="C43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="71"/>
+      <c r="G43" s="72"/>
       <c r="J43" s="10" t="s">
         <v>169</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L43" s="73" t="s">
+      <c r="L43" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
     </row>
     <row r="44" spans="1:22">
       <c r="B44" s="7">
@@ -3622,26 +3633,26 @@
       <c r="C44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="73" t="s">
+      <c r="G44" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="75" t="s">
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75" t="s">
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="R44" s="75"/>
-      <c r="S44" s="75"/>
-      <c r="T44" s="75"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" s="7">
@@ -3653,14 +3664,14 @@
       <c r="J45" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K45" s="71" t="s">
+      <c r="K45" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="L45" s="71"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="75"/>
-      <c r="S45" s="75"/>
-      <c r="T45" s="75"/>
+      <c r="L45" s="72"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" s="7">
@@ -3672,23 +3683,23 @@
       <c r="F46" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="71" t="s">
+      <c r="H46" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="L46" s="73" t="s">
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="L46" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="75" t="s">
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="75"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="76"/>
     </row>
     <row r="47" spans="1:22">
       <c r="B47" s="7">
@@ -3697,24 +3708,24 @@
       <c r="C47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="70"/>
-      <c r="H47" s="71" t="s">
+      <c r="G47" s="71"/>
+      <c r="H47" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="L47" s="73" t="s">
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="L47" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="73"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="75"/>
-      <c r="S47" s="75"/>
+      <c r="M47" s="74"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" s="7">
@@ -3723,18 +3734,18 @@
       <c r="C48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="71" t="s">
+      <c r="F48" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="G48" s="71"/>
-      <c r="I48" s="71" t="s">
+      <c r="G48" s="72"/>
+      <c r="I48" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="71"/>
-      <c r="L48" s="73" t="s">
+      <c r="J48" s="72"/>
+      <c r="L48" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M48" s="73"/>
+      <c r="M48" s="74"/>
     </row>
     <row r="49" spans="1:22">
       <c r="B49" s="7">
@@ -3746,22 +3757,22 @@
       <c r="D49" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="71" t="s">
+      <c r="F49" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="71"/>
+      <c r="G49" s="72"/>
       <c r="H49" s="84" t="s">
         <v>182</v>
       </c>
       <c r="I49" s="84"/>
       <c r="J49" s="84"/>
-      <c r="K49" s="73" t="s">
+      <c r="K49" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
     </row>
     <row r="50" spans="1:22">
       <c r="B50" s="7">
@@ -3770,11 +3781,11 @@
       <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="70" t="s">
+      <c r="F50" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
       <c r="I50" s="89" t="s">
         <v>183</v>
       </c>
@@ -3793,11 +3804,11 @@
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="70" t="s">
+      <c r="F51" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
       <c r="I51" s="89"/>
       <c r="J51" s="89"/>
       <c r="K51" s="89"/>
@@ -3811,11 +3822,11 @@
       <c r="C52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="70" t="s">
+      <c r="F52" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
       <c r="I52" s="89"/>
       <c r="J52" s="89"/>
       <c r="K52" s="89"/>
@@ -3829,10 +3840,10 @@
       <c r="C53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="70" t="s">
+      <c r="F53" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="70"/>
+      <c r="G53" s="71"/>
       <c r="H53" s="13" t="s">
         <v>4</v>
       </c>
@@ -3844,17 +3855,17 @@
       <c r="C54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="71" t="s">
+      <c r="F54" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="G54" s="71"/>
+      <c r="G54" s="72"/>
       <c r="J54" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L54" s="73" t="s">
+      <c r="L54" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="73"/>
+      <c r="M54" s="74"/>
     </row>
     <row r="55" spans="1:22">
       <c r="B55" s="7">
@@ -3863,17 +3874,17 @@
       <c r="C55" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="71" t="s">
+      <c r="F55" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="G55" s="71"/>
+      <c r="G55" s="72"/>
       <c r="J55" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L55" s="73" t="s">
+      <c r="L55" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M55" s="73"/>
+      <c r="M55" s="74"/>
     </row>
     <row r="56" spans="1:22">
       <c r="B56" s="7">
@@ -3885,10 +3896,10 @@
       <c r="E56" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="71" t="s">
+      <c r="G56" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="H56" s="71"/>
+      <c r="H56" s="72"/>
       <c r="L56" s="22" t="s">
         <v>9</v>
       </c>
@@ -3900,14 +3911,14 @@
       <c r="C57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="73" t="s">
+      <c r="G57" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
     </row>
     <row r="58" spans="1:22">
       <c r="B58" s="7">
@@ -3916,11 +3927,11 @@
       <c r="C58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="71" t="s">
+      <c r="F58" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
       <c r="J58" s="20" t="s">
         <v>191</v>
       </c>
@@ -3941,10 +3952,10 @@
       <c r="H59" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="J59" s="73" t="s">
+      <c r="J59" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="73"/>
+      <c r="K59" s="74"/>
     </row>
     <row r="60" spans="1:22">
       <c r="B60" s="7">
@@ -3953,19 +3964,19 @@
       <c r="C60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="71" t="s">
+      <c r="F60" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="71"/>
+      <c r="G60" s="72"/>
       <c r="I60" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K60" s="83" t="s">
+      <c r="K60" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="23"/>
+      <c r="L60" s="98"/>
+      <c r="M60" s="98"/>
+      <c r="N60" s="98"/>
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="7">
@@ -3980,12 +3991,12 @@
       <c r="G61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="83" t="s">
+      <c r="I61" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
+      <c r="J61" s="98"/>
+      <c r="K61" s="98"/>
+      <c r="L61" s="98"/>
     </row>
     <row r="62" spans="1:22">
       <c r="B62" s="7">
@@ -3994,11 +4005,11 @@
       <c r="C62" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="71" t="s">
+      <c r="F62" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
       <c r="J62" s="22" t="s">
         <v>9</v>
       </c>
@@ -4056,17 +4067,17 @@
       <c r="C66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="72" t="s">
+      <c r="F66" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="G66" s="71"/>
+      <c r="G66" s="72"/>
       <c r="H66" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I66" s="72" t="s">
+      <c r="I66" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="J66" s="71"/>
+      <c r="J66" s="72"/>
     </row>
     <row r="67" spans="2:22">
       <c r="B67" s="7">
@@ -4075,14 +4086,14 @@
       <c r="C67" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="72" t="s">
+      <c r="F67" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="71"/>
-      <c r="H67" s="72" t="s">
+      <c r="G67" s="72"/>
+      <c r="H67" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="I67" s="71"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="55" t="s">
         <v>209</v>
       </c>
@@ -4100,18 +4111,18 @@
       <c r="C68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="72" t="s">
+      <c r="F68" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="71"/>
-      <c r="H68" s="72" t="s">
+      <c r="G68" s="72"/>
+      <c r="H68" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="I68" s="71"/>
+      <c r="I68" s="72"/>
       <c r="J68" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="K68" s="74"/>
+      <c r="K68" s="75"/>
     </row>
     <row r="69" spans="2:22">
       <c r="B69" s="7">
@@ -4123,13 +4134,13 @@
       <c r="F69" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="70"/>
+      <c r="M69" s="70"/>
     </row>
     <row r="70" spans="2:22">
       <c r="B70" s="7">
@@ -4138,20 +4149,20 @@
       <c r="C70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="72" t="s">
+      <c r="F70" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="G70" s="71"/>
+      <c r="G70" s="72"/>
       <c r="H70" s="54" t="s">
         <v>217</v>
       </c>
       <c r="I70" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="J70" s="72" t="s">
+      <c r="J70" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="K70" s="71"/>
+      <c r="K70" s="72"/>
     </row>
     <row r="71" spans="2:22">
       <c r="B71" s="7">
@@ -4160,12 +4171,12 @@
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="72" t="s">
+      <c r="F71" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
     </row>
     <row r="72" spans="2:22">
       <c r="B72" s="7">
@@ -4174,15 +4185,15 @@
       <c r="C72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="72" t="s">
+      <c r="F72" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="G72" s="71"/>
-      <c r="H72" s="72" t="s">
+      <c r="G72" s="72"/>
+      <c r="H72" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
     </row>
     <row r="73" spans="2:22">
       <c r="B73" s="7">
@@ -4191,14 +4202,14 @@
       <c r="C73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="72" t="s">
+      <c r="F73" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="71"/>
-      <c r="H73" s="72" t="s">
+      <c r="G73" s="72"/>
+      <c r="H73" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="I73" s="71"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="55" t="s">
         <v>219</v>
       </c>
@@ -4210,11 +4221,11 @@
       <c r="C74" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
     </row>
     <row r="75" spans="2:22">
       <c r="B75" s="7">
@@ -4223,15 +4234,15 @@
       <c r="C75" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="F75" s="72" t="s">
+      <c r="F75" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="G75" s="71"/>
-      <c r="H75" s="72" t="s">
+      <c r="G75" s="72"/>
+      <c r="H75" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
     </row>
     <row r="76" spans="2:22">
       <c r="B76" s="7">
@@ -4243,15 +4254,15 @@
       <c r="D76" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="F76" s="72" t="s">
+      <c r="F76" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
       <c r="I76" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="J76" s="73"/>
+      <c r="J76" s="74"/>
     </row>
     <row r="77" spans="2:22">
       <c r="B77" s="7">
@@ -4263,21 +4274,21 @@
       <c r="D77" s="57">
         <v>41</v>
       </c>
-      <c r="F77" s="72" t="s">
+      <c r="F77" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="G77" s="71"/>
-      <c r="H77" s="72" t="s">
+      <c r="G77" s="72"/>
+      <c r="H77" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="I77" s="71"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="K77" s="70" t="s">
+      <c r="K77" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="L77" s="70"/>
+      <c r="L77" s="71"/>
     </row>
     <row r="78" spans="2:22">
       <c r="B78" s="7">
@@ -4289,10 +4300,10 @@
       <c r="D78" s="57">
         <v>40</v>
       </c>
-      <c r="F78" s="72" t="s">
+      <c r="F78" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="G78" s="71"/>
+      <c r="G78" s="72"/>
       <c r="H78" s="56" t="s">
         <v>243</v>
       </c>
@@ -4310,10 +4321,10 @@
       <c r="F79" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="G79" s="72" t="s">
+      <c r="G79" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="H79" s="71"/>
+      <c r="H79" s="72"/>
       <c r="I79" s="26" t="s">
         <v>245</v>
       </c>
@@ -4328,6 +4339,16 @@
       <c r="C80" s="54" t="s">
         <v>232</v>
       </c>
+      <c r="F80" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="G80" s="72"/>
+      <c r="H80" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="I80" s="58" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="81" spans="2:16">
       <c r="B81" s="7">
@@ -4350,10 +4371,10 @@
       </c>
     </row>
     <row r="88" spans="2:16">
-      <c r="B88" s="69"/>
+      <c r="B88" s="70"/>
     </row>
     <row r="89" spans="2:16">
-      <c r="B89" s="69"/>
+      <c r="B89" s="70"/>
       <c r="F89" s="94" t="s">
         <v>215</v>
       </c>
@@ -4369,7 +4390,7 @@
       <c r="P89" s="95"/>
     </row>
     <row r="90" spans="2:16">
-      <c r="B90" s="69"/>
+      <c r="B90" s="70"/>
       <c r="F90" s="95"/>
       <c r="G90" s="95"/>
       <c r="H90" s="95"/>
@@ -4383,7 +4404,7 @@
       <c r="P90" s="95"/>
     </row>
     <row r="91" spans="2:16">
-      <c r="B91" s="69"/>
+      <c r="B91" s="70"/>
       <c r="F91" s="95"/>
       <c r="G91" s="95"/>
       <c r="H91" s="95"/>
@@ -4397,7 +4418,7 @@
       <c r="P91" s="95"/>
     </row>
     <row r="92" spans="2:16">
-      <c r="B92" s="69"/>
+      <c r="B92" s="70"/>
       <c r="F92" s="95"/>
       <c r="G92" s="95"/>
       <c r="H92" s="95"/>
@@ -4411,7 +4432,7 @@
       <c r="P92" s="95"/>
     </row>
     <row r="93" spans="2:16">
-      <c r="B93" s="69"/>
+      <c r="B93" s="70"/>
       <c r="F93" s="95"/>
       <c r="G93" s="95"/>
       <c r="H93" s="95"/>
@@ -4425,7 +4446,7 @@
       <c r="P93" s="95"/>
     </row>
     <row r="94" spans="2:16">
-      <c r="B94" s="69"/>
+      <c r="B94" s="70"/>
       <c r="F94" s="95"/>
       <c r="G94" s="95"/>
       <c r="H94" s="95"/>
@@ -4491,8 +4512,10 @@
       <c r="P98" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="123">
+  <mergeCells count="124">
     <mergeCell ref="G79:H79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="K60:N60"/>
     <mergeCell ref="B87:B94"/>
     <mergeCell ref="V63:V65"/>
     <mergeCell ref="F64:H65"/>
@@ -4542,7 +4565,6 @@
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="F60:G60"/>
-    <mergeCell ref="K60:M60"/>
     <mergeCell ref="I61:L61"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="F55:G55"/>
@@ -4654,35 +4676,35 @@
       <c r="B4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="70" t="s">
         <v>198</v>
       </c>
       <c r="D4" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69" t="s">
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
     </row>
     <row r="5" spans="2:15" ht="36" customHeight="1">
       <c r="B5" s="97"/>
-      <c r="C5" s="69"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="97"/>
-      <c r="E5" s="69"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF53B371-3E2E-8D44-A875-22680E0ADC9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD94D48-4BA9-F241-9662-22E402E88B9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="251">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -681,10 +681,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>报名承诺书签名需要手写吗？少数民族加分表需要手写吗？市场监督管理(消保)股工作员日常工作需要出外勤吗？确认在兴义黔西南其他少数民族是否可以加分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>2015四川下半年</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -761,10 +757,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>42天</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>2017贵州</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -814,6 +806,22 @@
   </si>
   <si>
     <t>数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国考2012，首次国考卷真难呀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>去华山医院看毛囊炎啦</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅子糖实词+成语两遍</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014浙B</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1078,7 +1086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,9 +1244,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,12 +1352,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1360,6 +1359,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1666,46 +1668,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1"/>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
       <c r="P3" s="41" t="s">
         <v>3</v>
       </c>
@@ -1720,20 +1722,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
       <c r="P4" s="44" t="s">
         <v>7</v>
       </c>
@@ -1824,16 +1826,16 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="62" t="s">
+      <c r="N8" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="62"/>
+      <c r="O8" s="61"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -1867,7 +1869,7 @@
       <c r="S9" s="36"/>
       <c r="T9" s="36"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="69" t="s">
+      <c r="V9" s="68" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1898,7 +1900,7 @@
       <c r="S10" s="36"/>
       <c r="T10" s="36"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="69"/>
+      <c r="V10" s="68"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="35">
@@ -1909,20 +1911,20 @@
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="45"/>
-      <c r="N11" s="64" t="s">
+      <c r="N11" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="64"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="39" t="s">
@@ -1942,24 +1944,24 @@
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="36"/>
       <c r="K12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="65"/>
-      <c r="N12" s="66" t="s">
+      <c r="M12" s="64"/>
+      <c r="N12" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="66"/>
+      <c r="O12" s="65"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
@@ -1988,16 +1990,16 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="64" t="s">
+      <c r="K13" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="66" t="s">
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
       <c r="S13" s="41" t="s">
@@ -2016,20 +2018,20 @@
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="36"/>
       <c r="K14" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="66"/>
+      <c r="M14" s="65"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
@@ -2098,7 +2100,7 @@
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="51"/>
-      <c r="V16" s="69" t="s">
+      <c r="V16" s="68" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2127,7 +2129,7 @@
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="51"/>
-      <c r="V17" s="69"/>
+      <c r="V17" s="68"/>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="35">
@@ -2138,12 +2140,12 @@
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
       <c r="J18" s="37"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
@@ -2180,13 +2182,13 @@
       </c>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="67" t="s">
+      <c r="K19" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="40" t="s">
         <v>48</v>
       </c>
@@ -2212,17 +2214,17 @@
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="36"/>
       <c r="N20" s="44" t="s">
         <v>54</v>
@@ -2247,20 +2249,20 @@
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="67" t="s">
+      <c r="J21" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67" t="s">
+      <c r="K21" s="66"/>
+      <c r="L21" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="67"/>
+      <c r="M21" s="66"/>
       <c r="N21" s="36"/>
       <c r="O21" s="40" t="s">
         <v>59</v>
@@ -2283,24 +2285,24 @@
         <v>13</v>
       </c>
       <c r="D22" s="36"/>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="65" t="s">
+      <c r="J22" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="65"/>
+      <c r="P22" s="64"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
@@ -2315,10 +2317,10 @@
       <c r="C23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="65"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
@@ -2351,17 +2353,17 @@
         <v>23</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="68" t="s">
+      <c r="J24" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
@@ -2387,28 +2389,28 @@
       <c r="E25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="43" t="s">
         <v>67</v>
       </c>
       <c r="K25" s="36"/>
-      <c r="L25" s="67" t="s">
+      <c r="L25" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="67" t="s">
+      <c r="R25" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="67"/>
+      <c r="S25" s="66"/>
       <c r="T25" s="36"/>
       <c r="U25" s="49"/>
       <c r="V25" s="49"/>
@@ -2420,22 +2422,22 @@
       <c r="C26" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68" t="s">
+      <c r="E26" s="67"/>
+      <c r="F26" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="68"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="68" t="s">
+      <c r="L26" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="68"/>
+      <c r="M26" s="67"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
@@ -2459,28 +2461,28 @@
         <v>5</v>
       </c>
       <c r="E27" s="36"/>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="68"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65" t="s">
+      <c r="J27" s="64"/>
+      <c r="K27" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="65"/>
+      <c r="L27" s="64"/>
       <c r="M27" s="46"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="65" t="s">
+      <c r="R27" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="S27" s="65"/>
+      <c r="S27" s="64"/>
       <c r="T27" s="36"/>
       <c r="U27" s="49"/>
       <c r="V27" s="49"/>
@@ -2496,18 +2498,18 @@
         <v>78</v>
       </c>
       <c r="E28" s="36"/>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="65"/>
+      <c r="G28" s="64"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="65" t="s">
+      <c r="K28" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
@@ -2570,10 +2572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2587,68 +2589,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
       <c r="P3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2663,20 +2665,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
       <c r="P4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2765,11 +2767,11 @@
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2786,7 +2788,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="86" t="s">
+      <c r="V8" s="85" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2798,28 +2800,28 @@
         <v>16</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="88" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="86"/>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="7">
@@ -2835,22 +2837,22 @@
       <c r="F10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="86"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="7">
@@ -2860,10 +2862,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="81"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2879,7 +2881,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="86"/>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="7">
@@ -2889,18 +2891,18 @@
         <v>24</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="72"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -2910,7 +2912,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="87"/>
+      <c r="V12" s="86"/>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="7">
@@ -2925,17 +2927,17 @@
       <c r="E13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="77"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="K13" s="77" t="s">
+      <c r="K13" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -2953,10 +2955,10 @@
       <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="74"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="8"/>
       <c r="G14" s="18" t="s">
         <v>23</v>
@@ -2966,11 +2968,11 @@
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="75" t="s">
+      <c r="K14" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -2990,27 +2992,27 @@
       <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="76"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
       <c r="S15" s="19" t="s">
         <v>100</v>
       </c>
@@ -3026,12 +3028,12 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="1"/>
       <c r="K16" s="11" t="s">
         <v>102</v>
@@ -3060,20 +3062,20 @@
         <v>18</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="74"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H17" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -3092,14 +3094,14 @@
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="J18" s="72" t="s">
+      <c r="F18" s="70"/>
+      <c r="J18" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="72"/>
+      <c r="K18" s="71"/>
       <c r="M18" s="21" t="s">
         <v>109</v>
       </c>
@@ -3111,17 +3113,17 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="71"/>
+      <c r="F19" s="70"/>
       <c r="J19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="72"/>
+      <c r="L19" s="71"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="7">
@@ -3130,11 +3132,11 @@
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
       <c r="J20" s="18" t="s">
         <v>26</v>
       </c>
@@ -3146,13 +3148,13 @@
       <c r="C21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="7">
@@ -3161,16 +3163,16 @@
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="71" t="s">
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="7">
@@ -3179,21 +3181,21 @@
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="76" t="s">
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="7">
@@ -3202,19 +3204,19 @@
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="7">
@@ -3229,11 +3231,11 @@
       <c r="F25" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="7">
@@ -3245,14 +3247,14 @@
       <c r="E26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="I26" s="72" t="s">
+      <c r="G26" s="71"/>
+      <c r="I26" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="72"/>
+      <c r="J26" s="71"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="7">
@@ -3261,27 +3263,27 @@
       <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="72"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="20" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="7">
@@ -3296,10 +3298,10 @@
       <c r="F28" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="74" t="s">
+      <c r="G28" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="73"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1">
       <c r="B29" s="7">
@@ -3308,17 +3310,17 @@
       <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="72"/>
+      <c r="F29" s="71"/>
       <c r="J29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="L29" s="71"/>
+      <c r="L29" s="70"/>
       <c r="V29" s="3" t="s">
         <v>134</v>
       </c>
@@ -3333,10 +3335,10 @@
       <c r="E30" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="72"/>
+      <c r="H30" s="71"/>
       <c r="I30" s="14" t="s">
         <v>132</v>
       </c>
@@ -3351,17 +3353,17 @@
       <c r="E31" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="72" t="s">
+      <c r="F31" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="76" t="s">
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
       <c r="V31" s="31" t="s">
         <v>140</v>
       </c>
@@ -3373,14 +3375,14 @@
       <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72" t="s">
+      <c r="F32" s="71"/>
+      <c r="G32" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="72"/>
+      <c r="H32" s="71"/>
     </row>
     <row r="33" spans="1:22">
       <c r="B33" s="7">
@@ -3389,16 +3391,16 @@
       <c r="C33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="71"/>
-      <c r="H33" s="76" t="s">
+      <c r="F33" s="70"/>
+      <c r="H33" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="7">
@@ -3407,15 +3409,15 @@
       <c r="C34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="7">
@@ -3427,14 +3429,14 @@
       <c r="E35" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="71"/>
-      <c r="I35" s="72" t="s">
+      <c r="G35" s="70"/>
+      <c r="I35" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="72"/>
+      <c r="J35" s="71"/>
       <c r="K35" s="21" t="s">
         <v>147</v>
       </c>
@@ -3446,10 +3448,10 @@
       <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="82"/>
+      <c r="F36" s="81"/>
       <c r="G36" s="20" t="s">
         <v>149</v>
       </c>
@@ -3464,10 +3466,10 @@
       <c r="E37" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="82" t="s">
+      <c r="F37" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="82"/>
+      <c r="G37" s="81"/>
       <c r="V37" s="3" t="s">
         <v>152</v>
       </c>
@@ -3479,14 +3481,14 @@
       <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="71" t="s">
+      <c r="F38" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="71"/>
-      <c r="H38" s="83" t="s">
+      <c r="G38" s="70"/>
+      <c r="H38" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="I38" s="83"/>
+      <c r="I38" s="82"/>
     </row>
     <row r="39" spans="1:22">
       <c r="B39" s="7">
@@ -3498,10 +3500,10 @@
       <c r="D39" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="72"/>
+      <c r="G39" s="71"/>
       <c r="J39" s="14" t="s">
         <v>132</v>
       </c>
@@ -3525,17 +3527,17 @@
       <c r="E40" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="72" t="s">
+      <c r="F40" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="72"/>
+      <c r="G40" s="71"/>
       <c r="J40" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="74" t="s">
+      <c r="L40" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="74"/>
+      <c r="M40" s="73"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="3" t="s">
@@ -3550,25 +3552,25 @@
       <c r="E41" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="74" t="s">
+      <c r="F41" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="72" t="s">
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="J41" s="72"/>
-      <c r="N41" s="76" t="s">
+      <c r="J41" s="71"/>
+      <c r="N41" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="76"/>
-      <c r="S41" s="76"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="76"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="3" t="s">
@@ -3592,10 +3594,10 @@
       <c r="L42" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="N42" s="74" t="s">
+      <c r="N42" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="O42" s="74"/>
+      <c r="O42" s="73"/>
       <c r="R42" s="22" t="s">
         <v>169</v>
       </c>
@@ -3610,21 +3612,21 @@
       <c r="C43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="72" t="s">
+      <c r="F43" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="72"/>
+      <c r="G43" s="71"/>
       <c r="J43" s="10" t="s">
         <v>169</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L43" s="74" t="s">
+      <c r="L43" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
     </row>
     <row r="44" spans="1:22">
       <c r="B44" s="7">
@@ -3633,26 +3635,26 @@
       <c r="C44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="74" t="s">
+      <c r="G44" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="76" t="s">
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76" t="s">
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="75"/>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" s="7">
@@ -3664,14 +3666,14 @@
       <c r="J45" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K45" s="72" t="s">
+      <c r="K45" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="L45" s="72"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="76"/>
+      <c r="L45" s="71"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="75"/>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" s="7">
@@ -3683,23 +3685,23 @@
       <c r="F46" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="72" t="s">
+      <c r="H46" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="L46" s="74" t="s">
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="L46" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="76" t="s">
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
+      <c r="P46" s="75"/>
+      <c r="Q46" s="75"/>
+      <c r="R46" s="75"/>
+      <c r="S46" s="75"/>
     </row>
     <row r="47" spans="1:22">
       <c r="B47" s="7">
@@ -3708,24 +3710,24 @@
       <c r="C47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="71" t="s">
+      <c r="F47" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="71"/>
-      <c r="H47" s="72" t="s">
+      <c r="G47" s="70"/>
+      <c r="H47" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="L47" s="74" t="s">
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="L47" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="74"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="76"/>
+      <c r="M47" s="73"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="75"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="75"/>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" s="7">
@@ -3734,18 +3736,18 @@
       <c r="C48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="72" t="s">
+      <c r="F48" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="G48" s="72"/>
-      <c r="I48" s="72" t="s">
+      <c r="G48" s="71"/>
+      <c r="I48" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="72"/>
-      <c r="L48" s="74" t="s">
+      <c r="J48" s="71"/>
+      <c r="L48" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M48" s="74"/>
+      <c r="M48" s="73"/>
     </row>
     <row r="49" spans="1:22">
       <c r="B49" s="7">
@@ -3757,22 +3759,22 @@
       <c r="D49" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="72" t="s">
+      <c r="F49" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="72"/>
-      <c r="H49" s="84" t="s">
+      <c r="G49" s="71"/>
+      <c r="H49" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="74" t="s">
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="74"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
     </row>
     <row r="50" spans="1:22">
       <c r="B50" s="7">
@@ -3781,18 +3783,18 @@
       <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="71" t="s">
+      <c r="F50" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="89" t="s">
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="3" t="s">
@@ -3804,16 +3806,16 @@
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="71" t="s">
+      <c r="F51" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
     </row>
     <row r="52" spans="1:22">
       <c r="B52" s="7">
@@ -3822,16 +3824,16 @@
       <c r="C52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="71" t="s">
+      <c r="F52" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="88"/>
+      <c r="L52" s="88"/>
+      <c r="M52" s="88"/>
     </row>
     <row r="53" spans="1:22">
       <c r="B53" s="7">
@@ -3840,10 +3842,10 @@
       <c r="C53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="71" t="s">
+      <c r="F53" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="71"/>
+      <c r="G53" s="70"/>
       <c r="H53" s="13" t="s">
         <v>4</v>
       </c>
@@ -3855,17 +3857,17 @@
       <c r="C54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="72" t="s">
+      <c r="F54" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="G54" s="72"/>
+      <c r="G54" s="71"/>
       <c r="J54" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L54" s="74" t="s">
+      <c r="L54" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="74"/>
+      <c r="M54" s="73"/>
     </row>
     <row r="55" spans="1:22">
       <c r="B55" s="7">
@@ -3874,17 +3876,17 @@
       <c r="C55" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="72" t="s">
+      <c r="F55" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="G55" s="72"/>
+      <c r="G55" s="71"/>
       <c r="J55" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L55" s="74" t="s">
+      <c r="L55" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M55" s="74"/>
+      <c r="M55" s="73"/>
     </row>
     <row r="56" spans="1:22">
       <c r="B56" s="7">
@@ -3896,10 +3898,10 @@
       <c r="E56" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="72" t="s">
+      <c r="G56" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="H56" s="72"/>
+      <c r="H56" s="71"/>
       <c r="L56" s="22" t="s">
         <v>9</v>
       </c>
@@ -3911,14 +3913,14 @@
       <c r="C57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="74" t="s">
+      <c r="G57" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
     </row>
     <row r="58" spans="1:22">
       <c r="B58" s="7">
@@ -3927,11 +3929,11 @@
       <c r="C58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="72" t="s">
+      <c r="F58" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
       <c r="J58" s="20" t="s">
         <v>191</v>
       </c>
@@ -3952,10 +3954,10 @@
       <c r="H59" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="J59" s="74" t="s">
+      <c r="J59" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="74"/>
+      <c r="K59" s="73"/>
     </row>
     <row r="60" spans="1:22">
       <c r="B60" s="7">
@@ -3964,19 +3966,19 @@
       <c r="C60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="72" t="s">
+      <c r="F60" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="72"/>
+      <c r="G60" s="71"/>
       <c r="I60" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K60" s="98" t="s">
+      <c r="K60" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="L60" s="98"/>
-      <c r="M60" s="98"/>
-      <c r="N60" s="98"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="95"/>
+      <c r="N60" s="95"/>
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="7">
@@ -3991,12 +3993,12 @@
       <c r="G61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="98" t="s">
+      <c r="I61" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="98"/>
-      <c r="K61" s="98"/>
-      <c r="L61" s="98"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="95"/>
     </row>
     <row r="62" spans="1:22">
       <c r="B62" s="7">
@@ -4005,11 +4007,11 @@
       <c r="C62" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="72" t="s">
+      <c r="F62" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
       <c r="J62" s="22" t="s">
         <v>9</v>
       </c>
@@ -4027,7 +4029,7 @@
       <c r="G63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="V63" s="91" t="s">
+      <c r="V63" s="90" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4038,12 +4040,12 @@
       <c r="C64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="93" t="s">
+      <c r="F64" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="V64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="92"/>
+      <c r="V64" s="91"/>
     </row>
     <row r="65" spans="2:22">
       <c r="B65" s="7">
@@ -4052,13 +4054,13 @@
       <c r="C65" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="93"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
       <c r="I65" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="V65" s="92"/>
+      <c r="V65" s="91"/>
     </row>
     <row r="66" spans="2:22">
       <c r="B66" s="7">
@@ -4067,17 +4069,17 @@
       <c r="C66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="73" t="s">
+      <c r="F66" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="G66" s="72"/>
+      <c r="G66" s="71"/>
       <c r="H66" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I66" s="73" t="s">
+      <c r="I66" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="J66" s="72"/>
+      <c r="J66" s="71"/>
     </row>
     <row r="67" spans="2:22">
       <c r="B67" s="7">
@@ -4086,14 +4088,14 @@
       <c r="C67" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="73" t="s">
+      <c r="F67" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="72"/>
-      <c r="H67" s="73" t="s">
+      <c r="G67" s="71"/>
+      <c r="H67" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="I67" s="72"/>
+      <c r="I67" s="71"/>
       <c r="J67" s="55" t="s">
         <v>209</v>
       </c>
@@ -4111,18 +4113,18 @@
       <c r="C68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="73" t="s">
+      <c r="F68" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="72"/>
-      <c r="H68" s="73" t="s">
+      <c r="G68" s="71"/>
+      <c r="H68" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="I68" s="72"/>
-      <c r="J68" s="85" t="s">
+      <c r="I68" s="71"/>
+      <c r="J68" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="K68" s="75"/>
+      <c r="K68" s="74"/>
     </row>
     <row r="69" spans="2:22">
       <c r="B69" s="7">
@@ -4131,16 +4133,16 @@
       <c r="C69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="90" t="s">
+      <c r="F69" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="70"/>
-      <c r="M69" s="70"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
     </row>
     <row r="70" spans="2:22">
       <c r="B70" s="7">
@@ -4149,20 +4151,20 @@
       <c r="C70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="73" t="s">
+      <c r="F70" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="G70" s="71"/>
+      <c r="H70" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="G70" s="72"/>
-      <c r="H70" s="54" t="s">
-        <v>217</v>
-      </c>
       <c r="I70" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="J70" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="J70" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="K70" s="72"/>
+      <c r="K70" s="71"/>
     </row>
     <row r="71" spans="2:22">
       <c r="B71" s="7">
@@ -4171,12 +4173,12 @@
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
+      <c r="F71" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
     </row>
     <row r="72" spans="2:22">
       <c r="B72" s="7">
@@ -4185,15 +4187,15 @@
       <c r="C72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="73" t="s">
+      <c r="F72" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="G72" s="71"/>
+      <c r="H72" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="G72" s="72"/>
-      <c r="H72" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
     </row>
     <row r="73" spans="2:22">
       <c r="B73" s="7">
@@ -4202,16 +4204,16 @@
       <c r="C73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="73" t="s">
+      <c r="F73" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="G73" s="71"/>
+      <c r="H73" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="72"/>
-      <c r="H73" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="I73" s="72"/>
+      <c r="I73" s="71"/>
       <c r="J73" s="55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="2:22">
@@ -4219,93 +4221,87 @@
         <v>44018</v>
       </c>
       <c r="C74" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
+        <v>225</v>
+      </c>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
     </row>
     <row r="75" spans="2:22">
       <c r="B75" s="7">
         <v>44019</v>
       </c>
       <c r="C75" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="F75" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="71"/>
+      <c r="H75" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="G75" s="72"/>
-      <c r="H75" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
     </row>
     <row r="76" spans="2:22">
       <c r="B76" s="7">
         <v>44020</v>
       </c>
       <c r="C76" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="D76" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="54"/>
+      <c r="F76" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="F76" s="73" t="s">
-        <v>236</v>
-      </c>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="J76" s="74"/>
+      <c r="J76" s="73"/>
     </row>
     <row r="77" spans="2:22">
       <c r="B77" s="7">
         <v>44021</v>
       </c>
       <c r="C77" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="D77" s="57">
-        <v>41</v>
-      </c>
-      <c r="F77" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="D77" s="54"/>
+      <c r="F77" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="G77" s="71"/>
+      <c r="H77" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="I77" s="71"/>
+      <c r="J77" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="G77" s="72"/>
-      <c r="H77" s="73" t="s">
+      <c r="K77" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="I77" s="72"/>
-      <c r="J77" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="K77" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="L77" s="71"/>
+      <c r="L77" s="70"/>
     </row>
     <row r="78" spans="2:22">
       <c r="B78" s="7">
         <v>44022</v>
       </c>
       <c r="C78" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="D78" s="57">
-        <v>40</v>
-      </c>
-      <c r="F78" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="G78" s="72"/>
+        <v>229</v>
+      </c>
+      <c r="D78" s="54"/>
+      <c r="F78" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="G78" s="71"/>
       <c r="H78" s="56" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="2:22">
@@ -4313,23 +4309,21 @@
         <v>44023</v>
       </c>
       <c r="C79" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="D79" s="57">
-        <v>39</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D79" s="54"/>
       <c r="F79" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="G79" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="H79" s="71"/>
+      <c r="I79" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="G79" s="73" t="s">
+      <c r="J79" s="55" t="s">
         <v>244</v>
-      </c>
-      <c r="H79" s="72"/>
-      <c r="I79" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="J79" s="55" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="80" spans="2:22">
@@ -4337,186 +4331,152 @@
         <v>44024</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="F80" s="73" t="s">
-        <v>247</v>
-      </c>
-      <c r="G80" s="72"/>
+        <v>231</v>
+      </c>
+      <c r="F80" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="G80" s="71"/>
       <c r="H80" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="I80" s="58" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16">
+        <v>243</v>
+      </c>
+      <c r="I80" s="57" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
       <c r="B81" s="7">
         <v>44025</v>
       </c>
-    </row>
-    <row r="82" spans="2:16">
+      <c r="C81" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="F81" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="G81" s="71"/>
+      <c r="H81" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="I81" s="69"/>
+      <c r="J81" s="69"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="69"/>
+    </row>
+    <row r="82" spans="2:12">
       <c r="B82" s="7">
         <v>44026</v>
       </c>
-    </row>
-    <row r="83" spans="2:16">
+      <c r="C82" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="54">
+        <v>39</v>
+      </c>
+      <c r="F82" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="G82" s="70"/>
+      <c r="H82" s="70"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="55" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
       <c r="B83" s="7">
         <v>44027</v>
       </c>
-    </row>
-    <row r="87" spans="2:16">
-      <c r="B87" s="90" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16">
-      <c r="B88" s="70"/>
-    </row>
-    <row r="89" spans="2:16">
-      <c r="B89" s="70"/>
-      <c r="F89" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="G89" s="95"/>
-      <c r="H89" s="95"/>
-      <c r="I89" s="95"/>
-      <c r="J89" s="95"/>
-      <c r="K89" s="95"/>
-      <c r="L89" s="95"/>
-      <c r="M89" s="95"/>
-      <c r="N89" s="95"/>
-      <c r="O89" s="95"/>
-      <c r="P89" s="95"/>
-    </row>
-    <row r="90" spans="2:16">
-      <c r="B90" s="70"/>
-      <c r="F90" s="95"/>
-      <c r="G90" s="95"/>
-      <c r="H90" s="95"/>
-      <c r="I90" s="95"/>
-      <c r="J90" s="95"/>
-      <c r="K90" s="95"/>
-      <c r="L90" s="95"/>
-      <c r="M90" s="95"/>
-      <c r="N90" s="95"/>
-      <c r="O90" s="95"/>
-      <c r="P90" s="95"/>
-    </row>
-    <row r="91" spans="2:16">
-      <c r="B91" s="70"/>
-      <c r="F91" s="95"/>
-      <c r="G91" s="95"/>
-      <c r="H91" s="95"/>
-      <c r="I91" s="95"/>
-      <c r="J91" s="95"/>
-      <c r="K91" s="95"/>
-      <c r="L91" s="95"/>
-      <c r="M91" s="95"/>
-      <c r="N91" s="95"/>
-      <c r="O91" s="95"/>
-      <c r="P91" s="95"/>
-    </row>
-    <row r="92" spans="2:16">
-      <c r="B92" s="70"/>
-      <c r="F92" s="95"/>
-      <c r="G92" s="95"/>
-      <c r="H92" s="95"/>
-      <c r="I92" s="95"/>
-      <c r="J92" s="95"/>
-      <c r="K92" s="95"/>
-      <c r="L92" s="95"/>
-      <c r="M92" s="95"/>
-      <c r="N92" s="95"/>
-      <c r="O92" s="95"/>
-      <c r="P92" s="95"/>
-    </row>
-    <row r="93" spans="2:16">
-      <c r="B93" s="70"/>
-      <c r="F93" s="95"/>
-      <c r="G93" s="95"/>
-      <c r="H93" s="95"/>
-      <c r="I93" s="95"/>
-      <c r="J93" s="95"/>
-      <c r="K93" s="95"/>
-      <c r="L93" s="95"/>
-      <c r="M93" s="95"/>
-      <c r="N93" s="95"/>
-      <c r="O93" s="95"/>
-      <c r="P93" s="95"/>
-    </row>
-    <row r="94" spans="2:16">
-      <c r="B94" s="70"/>
-      <c r="F94" s="95"/>
-      <c r="G94" s="95"/>
-      <c r="H94" s="95"/>
-      <c r="I94" s="95"/>
-      <c r="J94" s="95"/>
-      <c r="K94" s="95"/>
-      <c r="L94" s="95"/>
-      <c r="M94" s="95"/>
-      <c r="N94" s="95"/>
-      <c r="O94" s="95"/>
-      <c r="P94" s="95"/>
-    </row>
-    <row r="95" spans="2:16">
-      <c r="F95" s="95"/>
-      <c r="G95" s="95"/>
-      <c r="H95" s="95"/>
-      <c r="I95" s="95"/>
-      <c r="J95" s="95"/>
-      <c r="K95" s="95"/>
-      <c r="L95" s="95"/>
-      <c r="M95" s="95"/>
-      <c r="N95" s="95"/>
-      <c r="O95" s="95"/>
-      <c r="P95" s="95"/>
-    </row>
-    <row r="96" spans="2:16">
-      <c r="F96" s="95"/>
-      <c r="G96" s="95"/>
-      <c r="H96" s="95"/>
-      <c r="I96" s="95"/>
-      <c r="J96" s="95"/>
-      <c r="K96" s="95"/>
-      <c r="L96" s="95"/>
-      <c r="M96" s="95"/>
-      <c r="N96" s="95"/>
-      <c r="O96" s="95"/>
-      <c r="P96" s="95"/>
-    </row>
-    <row r="97" spans="6:16">
-      <c r="F97" s="95"/>
-      <c r="G97" s="95"/>
-      <c r="H97" s="95"/>
-      <c r="I97" s="95"/>
-      <c r="J97" s="95"/>
-      <c r="K97" s="95"/>
-      <c r="L97" s="95"/>
-      <c r="M97" s="95"/>
-      <c r="N97" s="95"/>
-      <c r="O97" s="95"/>
-      <c r="P97" s="95"/>
-    </row>
-    <row r="98" spans="6:16">
-      <c r="F98" s="95"/>
-      <c r="G98" s="95"/>
-      <c r="H98" s="95"/>
-      <c r="I98" s="95"/>
-      <c r="J98" s="95"/>
-      <c r="K98" s="95"/>
-      <c r="L98" s="95"/>
-      <c r="M98" s="95"/>
-      <c r="N98" s="95"/>
-      <c r="O98" s="95"/>
-      <c r="P98" s="95"/>
+      <c r="C83" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="7">
+        <v>44028</v>
+      </c>
+      <c r="C84" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85" s="7">
+        <v>44029</v>
+      </c>
+      <c r="C85" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="7">
+        <v>44030</v>
+      </c>
+      <c r="C86" s="54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="7">
+        <v>44031</v>
+      </c>
+      <c r="C87" s="54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="7">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="7">
+        <v>44033</v>
+      </c>
+      <c r="F89" s="54"/>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" s="7">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="89" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="69"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="69"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="69"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="69"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="69"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="69"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="124">
+  <mergeCells count="126">
     <mergeCell ref="G79:H79"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="K60:N60"/>
-    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B103:B110"/>
     <mergeCell ref="V63:V65"/>
     <mergeCell ref="F64:H65"/>
     <mergeCell ref="F66:G66"/>
@@ -4524,7 +4484,6 @@
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="F69:M69"/>
-    <mergeCell ref="F89:P98"/>
     <mergeCell ref="J70:K70"/>
     <mergeCell ref="F71:I71"/>
     <mergeCell ref="F72:G72"/>
@@ -4673,38 +4632,38 @@
   <sheetData>
     <row r="3" spans="2:15" hidden="1"/>
     <row r="4" spans="2:15" ht="25" customHeight="1">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
     </row>
     <row r="5" spans="2:15" ht="36" customHeight="1">
-      <c r="B5" s="97"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="70"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD94D48-4BA9-F241-9662-22E402E88B9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A70AD36-996C-F241-BFC7-1BBA9FFF9D88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="256">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -822,6 +822,26 @@
   </si>
   <si>
     <t>2014浙B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料宝典</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料练习</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语宝典</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012国考纠错</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>申论</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -900,7 +920,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,6 +1002,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,6 +1273,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1363,6 +1392,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1668,46 +1709,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1"/>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
       <c r="P3" s="41" t="s">
         <v>3</v>
       </c>
@@ -1722,20 +1763,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
       <c r="P4" s="44" t="s">
         <v>7</v>
       </c>
@@ -1826,16 +1867,16 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="61" t="s">
+      <c r="N8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="61"/>
+      <c r="O8" s="62"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -1869,7 +1910,7 @@
       <c r="S9" s="36"/>
       <c r="T9" s="36"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="68" t="s">
+      <c r="V9" s="69" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1900,7 +1941,7 @@
       <c r="S10" s="36"/>
       <c r="T10" s="36"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="68"/>
+      <c r="V10" s="69"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="35">
@@ -1911,20 +1952,20 @@
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="45"/>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="63"/>
+      <c r="O11" s="64"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="39" t="s">
@@ -1944,24 +1985,24 @@
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="36"/>
       <c r="K12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="65" t="s">
+      <c r="M12" s="65"/>
+      <c r="N12" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="65"/>
+      <c r="O12" s="66"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
@@ -1990,16 +2031,16 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="65" t="s">
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
       <c r="S13" s="41" t="s">
@@ -2018,20 +2059,20 @@
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="36"/>
       <c r="K14" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="65"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
@@ -2100,7 +2141,7 @@
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="51"/>
-      <c r="V16" s="68" t="s">
+      <c r="V16" s="69" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2129,7 +2170,7 @@
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="51"/>
-      <c r="V17" s="68"/>
+      <c r="V17" s="69"/>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="35">
@@ -2140,12 +2181,12 @@
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="37"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
@@ -2182,13 +2223,13 @@
       </c>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
       <c r="P19" s="40" t="s">
         <v>48</v>
       </c>
@@ -2214,17 +2255,17 @@
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="64"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="36"/>
       <c r="N20" s="44" t="s">
         <v>54</v>
@@ -2249,20 +2290,20 @@
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="66" t="s">
+      <c r="J21" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66" t="s">
+      <c r="K21" s="67"/>
+      <c r="L21" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="66"/>
+      <c r="M21" s="67"/>
       <c r="N21" s="36"/>
       <c r="O21" s="40" t="s">
         <v>59</v>
@@ -2285,24 +2326,24 @@
         <v>13</v>
       </c>
       <c r="D22" s="36"/>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="64" t="s">
+      <c r="J22" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="64" t="s">
+      <c r="O22" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="64"/>
+      <c r="P22" s="65"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
@@ -2317,10 +2358,10 @@
       <c r="C23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="64"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
@@ -2353,17 +2394,17 @@
         <v>23</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="67" t="s">
+      <c r="J24" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
@@ -2389,28 +2430,28 @@
       <c r="E25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="67"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="43" t="s">
         <v>67</v>
       </c>
       <c r="K25" s="36"/>
-      <c r="L25" s="66" t="s">
+      <c r="L25" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="66" t="s">
+      <c r="R25" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="66"/>
+      <c r="S25" s="67"/>
       <c r="T25" s="36"/>
       <c r="U25" s="49"/>
       <c r="V25" s="49"/>
@@ -2422,22 +2463,22 @@
       <c r="C26" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67" t="s">
+      <c r="E26" s="68"/>
+      <c r="F26" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="67"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="67" t="s">
+      <c r="L26" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="67"/>
+      <c r="M26" s="68"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
@@ -2461,28 +2502,28 @@
         <v>5</v>
       </c>
       <c r="E27" s="36"/>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="67"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="64" t="s">
+      <c r="I27" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64" t="s">
+      <c r="J27" s="65"/>
+      <c r="K27" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="64"/>
+      <c r="L27" s="65"/>
       <c r="M27" s="46"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="64" t="s">
+      <c r="R27" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="S27" s="64"/>
+      <c r="S27" s="65"/>
       <c r="T27" s="36"/>
       <c r="U27" s="49"/>
       <c r="V27" s="49"/>
@@ -2498,18 +2539,18 @@
         <v>78</v>
       </c>
       <c r="E28" s="36"/>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="64"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="64" t="s">
+      <c r="K28" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
@@ -2574,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2589,68 +2630,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
       <c r="P3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2665,20 +2706,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
       <c r="P4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2767,11 +2808,11 @@
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2788,7 +2829,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="85" t="s">
+      <c r="V8" s="86" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2800,28 +2841,28 @@
         <v>16</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="87" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="86"/>
+      <c r="V9" s="87"/>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="7">
@@ -2837,22 +2878,22 @@
       <c r="F10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="86"/>
+      <c r="V10" s="87"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="7">
@@ -2862,10 +2903,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2881,7 +2922,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="86"/>
+      <c r="V11" s="87"/>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="7">
@@ -2891,18 +2932,18 @@
         <v>24</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="71"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -2912,7 +2953,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="86"/>
+      <c r="V12" s="87"/>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="7">
@@ -2927,17 +2968,17 @@
       <c r="E13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="76"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -2955,10 +2996,10 @@
       <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="8"/>
       <c r="G14" s="18" t="s">
         <v>23</v>
@@ -2968,11 +3009,11 @@
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -2992,27 +3033,27 @@
       <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="75"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
       <c r="S15" s="19" t="s">
         <v>100</v>
       </c>
@@ -3028,12 +3069,12 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="1"/>
       <c r="K16" s="11" t="s">
         <v>102</v>
@@ -3062,20 +3103,20 @@
         <v>18</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -3094,14 +3135,14 @@
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="J18" s="71" t="s">
+      <c r="F18" s="71"/>
+      <c r="J18" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="71"/>
+      <c r="K18" s="72"/>
       <c r="M18" s="21" t="s">
         <v>109</v>
       </c>
@@ -3113,17 +3154,17 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F19" s="71"/>
       <c r="J19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="71"/>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="7">
@@ -3132,11 +3173,11 @@
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="J20" s="18" t="s">
         <v>26</v>
       </c>
@@ -3148,13 +3189,13 @@
       <c r="C21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="7">
@@ -3163,16 +3204,16 @@
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="70" t="s">
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="7">
@@ -3181,21 +3222,21 @@
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="75" t="s">
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="7">
@@ -3204,19 +3245,19 @@
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="7">
@@ -3231,11 +3272,11 @@
       <c r="F25" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="7">
@@ -3247,14 +3288,14 @@
       <c r="E26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="71"/>
-      <c r="I26" s="71" t="s">
+      <c r="G26" s="72"/>
+      <c r="I26" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="71"/>
+      <c r="J26" s="72"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="7">
@@ -3263,27 +3304,27 @@
       <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="71"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="20" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="75" t="s">
+      <c r="I27" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="7">
@@ -3298,10 +3339,10 @@
       <c r="F28" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="73" t="s">
+      <c r="G28" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="73"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1">
       <c r="B29" s="7">
@@ -3310,17 +3351,17 @@
       <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="71"/>
+      <c r="F29" s="72"/>
       <c r="J29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="70" t="s">
+      <c r="K29" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="L29" s="70"/>
+      <c r="L29" s="71"/>
       <c r="V29" s="3" t="s">
         <v>134</v>
       </c>
@@ -3335,10 +3376,10 @@
       <c r="E30" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="71" t="s">
+      <c r="G30" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="71"/>
+      <c r="H30" s="72"/>
       <c r="I30" s="14" t="s">
         <v>132</v>
       </c>
@@ -3353,17 +3394,17 @@
       <c r="E31" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="75" t="s">
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
       <c r="V31" s="31" t="s">
         <v>140</v>
       </c>
@@ -3375,14 +3416,14 @@
       <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71" t="s">
+      <c r="F32" s="72"/>
+      <c r="G32" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="71"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="1:22">
       <c r="B33" s="7">
@@ -3391,16 +3432,16 @@
       <c r="C33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="70"/>
-      <c r="H33" s="75" t="s">
+      <c r="F33" s="71"/>
+      <c r="H33" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="7">
@@ -3409,15 +3450,15 @@
       <c r="C34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="7">
@@ -3429,14 +3470,14 @@
       <c r="E35" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="70"/>
-      <c r="I35" s="71" t="s">
+      <c r="G35" s="71"/>
+      <c r="I35" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="71"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="21" t="s">
         <v>147</v>
       </c>
@@ -3448,10 +3489,10 @@
       <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="81" t="s">
+      <c r="E36" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="81"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="20" t="s">
         <v>149</v>
       </c>
@@ -3466,10 +3507,10 @@
       <c r="E37" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="81" t="s">
+      <c r="F37" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="81"/>
+      <c r="G37" s="82"/>
       <c r="V37" s="3" t="s">
         <v>152</v>
       </c>
@@ -3481,14 +3522,14 @@
       <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="F38" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="70"/>
-      <c r="H38" s="82" t="s">
+      <c r="G38" s="71"/>
+      <c r="H38" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="I38" s="82"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" spans="1:22">
       <c r="B39" s="7">
@@ -3500,10 +3541,10 @@
       <c r="D39" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="71" t="s">
+      <c r="F39" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="71"/>
+      <c r="G39" s="72"/>
       <c r="J39" s="14" t="s">
         <v>132</v>
       </c>
@@ -3527,17 +3568,17 @@
       <c r="E40" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="71" t="s">
+      <c r="F40" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="71"/>
+      <c r="G40" s="72"/>
       <c r="J40" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="73" t="s">
+      <c r="L40" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="73"/>
+      <c r="M40" s="74"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="3" t="s">
@@ -3552,25 +3593,25 @@
       <c r="E41" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="73" t="s">
+      <c r="F41" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="71" t="s">
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="J41" s="71"/>
-      <c r="N41" s="75" t="s">
+      <c r="J41" s="72"/>
+      <c r="N41" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="75"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="3" t="s">
@@ -3594,10 +3635,10 @@
       <c r="L42" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="N42" s="73" t="s">
+      <c r="N42" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="O42" s="73"/>
+      <c r="O42" s="74"/>
       <c r="R42" s="22" t="s">
         <v>169</v>
       </c>
@@ -3612,21 +3653,21 @@
       <c r="C43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="71"/>
+      <c r="G43" s="72"/>
       <c r="J43" s="10" t="s">
         <v>169</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L43" s="73" t="s">
+      <c r="L43" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
     </row>
     <row r="44" spans="1:22">
       <c r="B44" s="7">
@@ -3635,26 +3676,26 @@
       <c r="C44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="73" t="s">
+      <c r="G44" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="75" t="s">
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75" t="s">
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="R44" s="75"/>
-      <c r="S44" s="75"/>
-      <c r="T44" s="75"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" s="7">
@@ -3666,14 +3707,14 @@
       <c r="J45" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K45" s="71" t="s">
+      <c r="K45" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="L45" s="71"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="75"/>
-      <c r="S45" s="75"/>
-      <c r="T45" s="75"/>
+      <c r="L45" s="72"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" s="7">
@@ -3685,23 +3726,23 @@
       <c r="F46" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="71" t="s">
+      <c r="H46" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="L46" s="73" t="s">
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="L46" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="75" t="s">
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="75"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="76"/>
     </row>
     <row r="47" spans="1:22">
       <c r="B47" s="7">
@@ -3710,24 +3751,24 @@
       <c r="C47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="70"/>
-      <c r="H47" s="71" t="s">
+      <c r="G47" s="71"/>
+      <c r="H47" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="L47" s="73" t="s">
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="L47" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="73"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="75"/>
-      <c r="S47" s="75"/>
+      <c r="M47" s="74"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" s="7">
@@ -3736,18 +3777,18 @@
       <c r="C48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="71" t="s">
+      <c r="F48" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="G48" s="71"/>
-      <c r="I48" s="71" t="s">
+      <c r="G48" s="72"/>
+      <c r="I48" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="71"/>
-      <c r="L48" s="73" t="s">
+      <c r="J48" s="72"/>
+      <c r="L48" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M48" s="73"/>
+      <c r="M48" s="74"/>
     </row>
     <row r="49" spans="1:22">
       <c r="B49" s="7">
@@ -3759,22 +3800,22 @@
       <c r="D49" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="71" t="s">
+      <c r="F49" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="71"/>
-      <c r="H49" s="83" t="s">
+      <c r="G49" s="72"/>
+      <c r="H49" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="73" t="s">
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
     </row>
     <row r="50" spans="1:22">
       <c r="B50" s="7">
@@ -3783,18 +3824,18 @@
       <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="70" t="s">
+      <c r="F50" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="88" t="s">
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="3" t="s">
@@ -3806,16 +3847,16 @@
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="70" t="s">
+      <c r="F51" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
     </row>
     <row r="52" spans="1:22">
       <c r="B52" s="7">
@@ -3824,16 +3865,16 @@
       <c r="C52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="70" t="s">
+      <c r="F52" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
     </row>
     <row r="53" spans="1:22">
       <c r="B53" s="7">
@@ -3842,10 +3883,10 @@
       <c r="C53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="70" t="s">
+      <c r="F53" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="70"/>
+      <c r="G53" s="71"/>
       <c r="H53" s="13" t="s">
         <v>4</v>
       </c>
@@ -3857,17 +3898,17 @@
       <c r="C54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="71" t="s">
+      <c r="F54" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="G54" s="71"/>
+      <c r="G54" s="72"/>
       <c r="J54" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L54" s="73" t="s">
+      <c r="L54" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="73"/>
+      <c r="M54" s="74"/>
     </row>
     <row r="55" spans="1:22">
       <c r="B55" s="7">
@@ -3876,17 +3917,17 @@
       <c r="C55" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="71" t="s">
+      <c r="F55" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="G55" s="71"/>
+      <c r="G55" s="72"/>
       <c r="J55" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L55" s="73" t="s">
+      <c r="L55" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M55" s="73"/>
+      <c r="M55" s="74"/>
     </row>
     <row r="56" spans="1:22">
       <c r="B56" s="7">
@@ -3898,10 +3939,10 @@
       <c r="E56" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="71" t="s">
+      <c r="G56" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="H56" s="71"/>
+      <c r="H56" s="72"/>
       <c r="L56" s="22" t="s">
         <v>9</v>
       </c>
@@ -3913,14 +3954,14 @@
       <c r="C57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="73" t="s">
+      <c r="G57" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
     </row>
     <row r="58" spans="1:22">
       <c r="B58" s="7">
@@ -3929,11 +3970,11 @@
       <c r="C58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="71" t="s">
+      <c r="F58" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
       <c r="J58" s="20" t="s">
         <v>191</v>
       </c>
@@ -3954,10 +3995,10 @@
       <c r="H59" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="J59" s="73" t="s">
+      <c r="J59" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="73"/>
+      <c r="K59" s="74"/>
     </row>
     <row r="60" spans="1:22">
       <c r="B60" s="7">
@@ -3966,19 +4007,19 @@
       <c r="C60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="71" t="s">
+      <c r="F60" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="71"/>
+      <c r="G60" s="72"/>
       <c r="I60" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K60" s="95" t="s">
+      <c r="K60" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="L60" s="95"/>
-      <c r="M60" s="95"/>
-      <c r="N60" s="95"/>
+      <c r="L60" s="96"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="96"/>
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="7">
@@ -3993,12 +4034,12 @@
       <c r="G61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="95" t="s">
+      <c r="I61" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="95"/>
-      <c r="K61" s="95"/>
-      <c r="L61" s="95"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
     </row>
     <row r="62" spans="1:22">
       <c r="B62" s="7">
@@ -4007,11 +4048,11 @@
       <c r="C62" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="71" t="s">
+      <c r="F62" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
       <c r="J62" s="22" t="s">
         <v>9</v>
       </c>
@@ -4029,7 +4070,7 @@
       <c r="G63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="V63" s="90" t="s">
+      <c r="V63" s="91" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4040,12 +4081,12 @@
       <c r="C64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="92" t="s">
+      <c r="F64" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
-      <c r="V64" s="91"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="V64" s="92"/>
     </row>
     <row r="65" spans="2:22">
       <c r="B65" s="7">
@@ -4054,13 +4095,13 @@
       <c r="C65" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="92"/>
-      <c r="G65" s="92"/>
-      <c r="H65" s="92"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
       <c r="I65" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="V65" s="91"/>
+      <c r="V65" s="92"/>
     </row>
     <row r="66" spans="2:22">
       <c r="B66" s="7">
@@ -4069,17 +4110,17 @@
       <c r="C66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="72" t="s">
+      <c r="F66" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="G66" s="71"/>
+      <c r="G66" s="72"/>
       <c r="H66" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I66" s="72" t="s">
+      <c r="I66" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="J66" s="71"/>
+      <c r="J66" s="72"/>
     </row>
     <row r="67" spans="2:22">
       <c r="B67" s="7">
@@ -4088,14 +4129,14 @@
       <c r="C67" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="72" t="s">
+      <c r="F67" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="71"/>
-      <c r="H67" s="72" t="s">
+      <c r="G67" s="72"/>
+      <c r="H67" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="I67" s="71"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="55" t="s">
         <v>209</v>
       </c>
@@ -4113,18 +4154,18 @@
       <c r="C68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="72" t="s">
+      <c r="F68" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="71"/>
-      <c r="H68" s="72" t="s">
+      <c r="G68" s="72"/>
+      <c r="H68" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="I68" s="71"/>
-      <c r="J68" s="84" t="s">
+      <c r="I68" s="72"/>
+      <c r="J68" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="K68" s="74"/>
+      <c r="K68" s="75"/>
     </row>
     <row r="69" spans="2:22">
       <c r="B69" s="7">
@@ -4133,16 +4174,16 @@
       <c r="C69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="89" t="s">
+      <c r="F69" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="70"/>
+      <c r="M69" s="70"/>
     </row>
     <row r="70" spans="2:22">
       <c r="B70" s="7">
@@ -4151,20 +4192,20 @@
       <c r="C70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="72" t="s">
+      <c r="F70" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="G70" s="71"/>
+      <c r="G70" s="72"/>
       <c r="H70" s="54" t="s">
         <v>216</v>
       </c>
       <c r="I70" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="J70" s="72" t="s">
+      <c r="J70" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="K70" s="71"/>
+      <c r="K70" s="72"/>
     </row>
     <row r="71" spans="2:22">
       <c r="B71" s="7">
@@ -4173,12 +4214,12 @@
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="72" t="s">
+      <c r="F71" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
     </row>
     <row r="72" spans="2:22">
       <c r="B72" s="7">
@@ -4187,15 +4228,15 @@
       <c r="C72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="72" t="s">
+      <c r="F72" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="G72" s="71"/>
-      <c r="H72" s="72" t="s">
+      <c r="G72" s="72"/>
+      <c r="H72" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
     </row>
     <row r="73" spans="2:22">
       <c r="B73" s="7">
@@ -4204,14 +4245,14 @@
       <c r="C73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="72" t="s">
+      <c r="F73" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="G73" s="71"/>
-      <c r="H73" s="72" t="s">
+      <c r="G73" s="72"/>
+      <c r="H73" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="I73" s="71"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="55" t="s">
         <v>218</v>
       </c>
@@ -4223,11 +4264,11 @@
       <c r="C74" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
     </row>
     <row r="75" spans="2:22">
       <c r="B75" s="7">
@@ -4236,15 +4277,15 @@
       <c r="C75" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F75" s="72" t="s">
+      <c r="F75" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="G75" s="71"/>
-      <c r="H75" s="72" t="s">
+      <c r="G75" s="72"/>
+      <c r="H75" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
     </row>
     <row r="76" spans="2:22">
       <c r="B76" s="7">
@@ -4254,15 +4295,15 @@
         <v>227</v>
       </c>
       <c r="D76" s="54"/>
-      <c r="F76" s="72" t="s">
+      <c r="F76" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="93" t="s">
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="J76" s="73"/>
+      <c r="J76" s="74"/>
     </row>
     <row r="77" spans="2:22">
       <c r="B77" s="7">
@@ -4272,21 +4313,21 @@
         <v>228</v>
       </c>
       <c r="D77" s="54"/>
-      <c r="F77" s="72" t="s">
+      <c r="F77" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="G77" s="71"/>
-      <c r="H77" s="72" t="s">
+      <c r="G77" s="72"/>
+      <c r="H77" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="I77" s="71"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="K77" s="70" t="s">
+      <c r="K77" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="L77" s="70"/>
+      <c r="L77" s="71"/>
     </row>
     <row r="78" spans="2:22">
       <c r="B78" s="7">
@@ -4296,10 +4337,10 @@
         <v>229</v>
       </c>
       <c r="D78" s="54"/>
-      <c r="F78" s="72" t="s">
+      <c r="F78" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="G78" s="71"/>
+      <c r="G78" s="72"/>
       <c r="H78" s="56" t="s">
         <v>241</v>
       </c>
@@ -4315,10 +4356,10 @@
       <c r="F79" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="G79" s="72" t="s">
+      <c r="G79" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="H79" s="71"/>
+      <c r="H79" s="72"/>
       <c r="I79" s="26" t="s">
         <v>243</v>
       </c>
@@ -4333,10 +4374,10 @@
       <c r="C80" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="F80" s="72" t="s">
+      <c r="F80" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="G80" s="71"/>
+      <c r="G80" s="72"/>
       <c r="H80" s="26" t="s">
         <v>243</v>
       </c>
@@ -4344,26 +4385,26 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="2:12">
+    <row r="81" spans="2:13">
       <c r="B81" s="7">
         <v>44025</v>
       </c>
       <c r="C81" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="F81" s="72" t="s">
+      <c r="F81" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="G81" s="71"/>
-      <c r="H81" s="89" t="s">
+      <c r="G81" s="72"/>
+      <c r="H81" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="I81" s="69"/>
-      <c r="J81" s="69"/>
-      <c r="K81" s="69"/>
-      <c r="L81" s="69"/>
-    </row>
-    <row r="82" spans="2:12">
+      <c r="I81" s="70"/>
+      <c r="J81" s="70"/>
+      <c r="K81" s="70"/>
+      <c r="L81" s="70"/>
+    </row>
+    <row r="82" spans="2:13">
       <c r="B82" s="7">
         <v>44026</v>
       </c>
@@ -4373,17 +4414,17 @@
       <c r="D82" s="54">
         <v>39</v>
       </c>
-      <c r="F82" s="96" t="s">
+      <c r="F82" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="G82" s="70"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="70"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="71"/>
       <c r="J82" s="55" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="2:12">
+    <row r="83" spans="2:13">
       <c r="B83" s="7">
         <v>44027</v>
       </c>
@@ -4393,8 +4434,26 @@
       <c r="D83" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="84" spans="2:12">
+      <c r="F83" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="G83" s="99"/>
+      <c r="H83" s="99"/>
+      <c r="I83" s="100" t="s">
+        <v>252</v>
+      </c>
+      <c r="J83" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="K83" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="L83" s="73"/>
+      <c r="M83" s="101" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
       <c r="B84" s="7">
         <v>44028</v>
       </c>
@@ -4402,7 +4461,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="85" spans="2:12">
+    <row r="85" spans="2:13">
       <c r="B85" s="7">
         <v>44029</v>
       </c>
@@ -4410,7 +4469,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="2:12">
+    <row r="86" spans="2:13">
       <c r="B86" s="7">
         <v>44030</v>
       </c>
@@ -4418,7 +4477,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="2:12">
+    <row r="87" spans="2:13">
       <c r="B87" s="7">
         <v>44031</v>
       </c>
@@ -4426,50 +4485,50 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="2:12">
+    <row r="88" spans="2:13">
       <c r="B88" s="7">
         <v>44032</v>
       </c>
     </row>
-    <row r="89" spans="2:12">
+    <row r="89" spans="2:13">
       <c r="B89" s="7">
         <v>44033</v>
       </c>
       <c r="F89" s="54"/>
     </row>
-    <row r="90" spans="2:12">
+    <row r="90" spans="2:13">
       <c r="B90" s="7">
         <v>44034</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="89" t="s">
+      <c r="B103" s="90" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="69"/>
+      <c r="B104" s="70"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="69"/>
+      <c r="B105" s="70"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="69"/>
+      <c r="B106" s="70"/>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="69"/>
+      <c r="B107" s="70"/>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="69"/>
+      <c r="B108" s="70"/>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="69"/>
+      <c r="B109" s="70"/>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="69"/>
+      <c r="B110" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="126">
+  <mergeCells count="128">
     <mergeCell ref="G79:H79"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="K60:N60"/>
@@ -4477,6 +4536,8 @@
     <mergeCell ref="H81:L81"/>
     <mergeCell ref="F82:I82"/>
     <mergeCell ref="B103:B110"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="K83:L83"/>
     <mergeCell ref="V63:V65"/>
     <mergeCell ref="F64:H65"/>
     <mergeCell ref="F66:G66"/>
@@ -4632,38 +4693,38 @@
   <sheetData>
     <row r="3" spans="2:15" hidden="1"/>
     <row r="4" spans="2:15" ht="25" customHeight="1">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69" t="s">
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
     </row>
     <row r="5" spans="2:15" ht="36" customHeight="1">
-      <c r="B5" s="94"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="69"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A70AD36-996C-F241-BFC7-1BBA9FFF9D88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EC5DF6-4DAB-7849-AEED-8BBAB5095261}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,14 @@
     <sheet name="4月" sheetId="3" r:id="rId1"/>
     <sheet name="5月" sheetId="1" r:id="rId2"/>
     <sheet name="行测真题练习统计" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="258">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -842,6 +843,14 @@
   </si>
   <si>
     <t>申论</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了201456三套安徽卷（因为都是N刷很快)+2013国考地市，尚未复盘</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>常识资料背诵（后悔）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -920,7 +929,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,6 +1017,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,6 +1419,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1696,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J20" sqref="J20:L20"/>
     </sheetView>
   </sheetViews>
@@ -2615,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4460,6 +4481,19 @@
       <c r="C84" s="54" t="s">
         <v>228</v>
       </c>
+      <c r="D84" s="3">
+        <v>37</v>
+      </c>
+      <c r="F84" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="72"/>
+      <c r="K84" s="72"/>
+      <c r="L84" s="72"/>
+      <c r="M84" s="72"/>
     </row>
     <row r="85" spans="2:13">
       <c r="B85" s="7">
@@ -4468,6 +4502,18 @@
       <c r="C85" s="54" t="s">
         <v>229</v>
       </c>
+      <c r="D85" s="3">
+        <v>36</v>
+      </c>
+      <c r="F85" s="102" t="s">
+        <v>257</v>
+      </c>
+      <c r="G85" s="103"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
+      <c r="K85" s="72"/>
+      <c r="L85" s="72"/>
     </row>
     <row r="86" spans="2:13">
       <c r="B86" s="7">
@@ -4528,7 +4574,7 @@
       <c r="B110" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="131">
     <mergeCell ref="G79:H79"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="K60:N60"/>
@@ -4538,6 +4584,9 @@
     <mergeCell ref="B103:B110"/>
     <mergeCell ref="F83:H83"/>
     <mergeCell ref="K83:L83"/>
+    <mergeCell ref="F84:M84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:L85"/>
     <mergeCell ref="V63:V65"/>
     <mergeCell ref="F64:H65"/>
     <mergeCell ref="F66:G66"/>
@@ -4768,4 +4817,19 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478EF189-27CA-6548-824F-5B5DC219FBEB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EC5DF6-4DAB-7849-AEED-8BBAB5095261}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E407A5-FB1A-2D40-AD74-6C8EF18EA899}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="259">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -851,6 +851,10 @@
   </si>
   <si>
     <t>常识资料背诵（后悔）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1291,6 +1295,33 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1306,124 +1337,97 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1434,10 +1438,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFD793CA"/>
       <color rgb="FFEB94A0"/>
       <color rgb="FFD4E8FF"/>
       <color rgb="FF75A992"/>
-      <color rgb="FFD793CA"/>
       <color rgb="FFFFB9C9"/>
       <color rgb="FF75B3AF"/>
       <color rgb="FF44B3AF"/>
@@ -1730,46 +1734,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1"/>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="41" t="s">
         <v>3</v>
       </c>
@@ -1784,20 +1788,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
       <c r="P4" s="44" t="s">
         <v>7</v>
       </c>
@@ -1888,16 +1892,16 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="70"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="62" t="s">
+      <c r="N8" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="62"/>
+      <c r="O8" s="71"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -1931,7 +1935,7 @@
       <c r="S9" s="36"/>
       <c r="T9" s="36"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="69" t="s">
+      <c r="V9" s="62" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1962,7 +1966,7 @@
       <c r="S10" s="36"/>
       <c r="T10" s="36"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="69"/>
+      <c r="V10" s="62"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="35">
@@ -1973,20 +1977,20 @@
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="45"/>
-      <c r="N11" s="64" t="s">
+      <c r="N11" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="64"/>
+      <c r="O11" s="67"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="39" t="s">
@@ -2006,20 +2010,20 @@
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="36"/>
       <c r="K12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="65"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="66" t="s">
         <v>28</v>
       </c>
@@ -2052,11 +2056,11 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="64" t="s">
+      <c r="K13" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
       <c r="N13" s="66" t="s">
         <v>34</v>
       </c>
@@ -2162,7 +2166,7 @@
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="51"/>
-      <c r="V16" s="69" t="s">
+      <c r="V16" s="62" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2191,7 +2195,7 @@
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="51"/>
-      <c r="V17" s="69"/>
+      <c r="V17" s="62"/>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="35">
@@ -2244,13 +2248,13 @@
       </c>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="67" t="s">
+      <c r="K19" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
       <c r="P19" s="40" t="s">
         <v>48</v>
       </c>
@@ -2276,17 +2280,17 @@
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="36"/>
       <c r="N20" s="44" t="s">
         <v>54</v>
@@ -2311,20 +2315,20 @@
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="67" t="s">
+      <c r="J21" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67" t="s">
+      <c r="K21" s="64"/>
+      <c r="L21" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="67"/>
+      <c r="M21" s="64"/>
       <c r="N21" s="36"/>
       <c r="O21" s="40" t="s">
         <v>59</v>
@@ -2347,24 +2351,24 @@
         <v>13</v>
       </c>
       <c r="D22" s="36"/>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="65" t="s">
+      <c r="J22" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="65"/>
+      <c r="P22" s="61"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
@@ -2379,10 +2383,10 @@
       <c r="C23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="65"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
@@ -2415,17 +2419,17 @@
         <v>23</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="68" t="s">
+      <c r="J24" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
@@ -2451,28 +2455,28 @@
       <c r="E25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="43" t="s">
         <v>67</v>
       </c>
       <c r="K25" s="36"/>
-      <c r="L25" s="67" t="s">
+      <c r="L25" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="67" t="s">
+      <c r="R25" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="67"/>
+      <c r="S25" s="64"/>
       <c r="T25" s="36"/>
       <c r="U25" s="49"/>
       <c r="V25" s="49"/>
@@ -2484,22 +2488,22 @@
       <c r="C26" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68" t="s">
+      <c r="E26" s="65"/>
+      <c r="F26" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="68"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="68" t="s">
+      <c r="L26" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="68"/>
+      <c r="M26" s="65"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
@@ -2523,28 +2527,28 @@
         <v>5</v>
       </c>
       <c r="E27" s="36"/>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="68"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65" t="s">
+      <c r="J27" s="61"/>
+      <c r="K27" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="65"/>
+      <c r="L27" s="61"/>
       <c r="M27" s="46"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="65" t="s">
+      <c r="R27" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="S27" s="65"/>
+      <c r="S27" s="61"/>
       <c r="T27" s="36"/>
       <c r="U27" s="49"/>
       <c r="V27" s="49"/>
@@ -2560,18 +2564,18 @@
         <v>78</v>
       </c>
       <c r="E28" s="36"/>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="65"/>
+      <c r="G28" s="61"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="65" t="s">
+      <c r="K28" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
@@ -2586,6 +2590,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="V9:V10"/>
@@ -2602,30 +2630,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2636,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2651,68 +2655,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2727,20 +2731,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
       <c r="P4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2829,11 +2833,11 @@
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2850,7 +2854,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="86" t="s">
+      <c r="V8" s="91" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2862,28 +2866,28 @@
         <v>16</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="88" t="s">
+      <c r="F9" s="100"/>
+      <c r="G9" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="92"/>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="7">
@@ -2899,22 +2903,22 @@
       <c r="F10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="92"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="7">
@@ -2924,10 +2928,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="81"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2943,7 +2947,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="92"/>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="7">
@@ -2953,18 +2957,18 @@
         <v>24</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="72"/>
+      <c r="L12" s="74"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -2974,7 +2978,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="87"/>
+      <c r="V12" s="92"/>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="7">
@@ -2989,17 +2993,17 @@
       <c r="E13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="77"/>
+      <c r="G13" s="102"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="K13" s="77" t="s">
+      <c r="K13" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -3017,10 +3021,10 @@
       <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="74"/>
+      <c r="E14" s="87"/>
       <c r="F14" s="8"/>
       <c r="G14" s="18" t="s">
         <v>23</v>
@@ -3030,11 +3034,11 @@
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="75" t="s">
+      <c r="K14" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -3054,27 +3058,27 @@
       <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="76"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
       <c r="S15" s="19" t="s">
         <v>100</v>
       </c>
@@ -3090,12 +3094,12 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
       <c r="J16" s="1"/>
       <c r="K16" s="11" t="s">
         <v>102</v>
@@ -3124,20 +3128,20 @@
         <v>18</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="74"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H17" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -3156,14 +3160,14 @@
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="J18" s="72" t="s">
+      <c r="F18" s="78"/>
+      <c r="J18" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="72"/>
+      <c r="K18" s="74"/>
       <c r="M18" s="21" t="s">
         <v>109</v>
       </c>
@@ -3175,17 +3179,17 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="71"/>
+      <c r="F19" s="78"/>
       <c r="J19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="72"/>
+      <c r="L19" s="74"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="7">
@@ -3194,11 +3198,11 @@
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
       <c r="J20" s="18" t="s">
         <v>26</v>
       </c>
@@ -3210,13 +3214,13 @@
       <c r="C21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="7">
@@ -3225,16 +3229,16 @@
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="71" t="s">
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="7">
@@ -3243,21 +3247,21 @@
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="76" t="s">
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="7">
@@ -3266,19 +3270,19 @@
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="7">
@@ -3293,11 +3297,11 @@
       <c r="F25" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="7">
@@ -3309,14 +3313,14 @@
       <c r="E26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="I26" s="72" t="s">
+      <c r="G26" s="74"/>
+      <c r="I26" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="72"/>
+      <c r="J26" s="74"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="7">
@@ -3325,27 +3329,27 @@
       <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="72"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="20" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="7">
@@ -3360,10 +3364,10 @@
       <c r="F28" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="74" t="s">
+      <c r="G28" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="74"/>
+      <c r="H28" s="87"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1">
       <c r="B29" s="7">
@@ -3372,17 +3376,17 @@
       <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="72"/>
+      <c r="F29" s="74"/>
       <c r="J29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="L29" s="71"/>
+      <c r="L29" s="78"/>
       <c r="V29" s="3" t="s">
         <v>134</v>
       </c>
@@ -3397,10 +3401,10 @@
       <c r="E30" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="72"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="14" t="s">
         <v>132</v>
       </c>
@@ -3415,17 +3419,17 @@
       <c r="E31" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="72" t="s">
+      <c r="F31" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="76" t="s">
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
       <c r="V31" s="31" t="s">
         <v>140</v>
       </c>
@@ -3437,14 +3441,14 @@
       <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72" t="s">
+      <c r="F32" s="74"/>
+      <c r="G32" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="72"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="1:22">
       <c r="B33" s="7">
@@ -3453,16 +3457,16 @@
       <c r="C33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="71"/>
-      <c r="H33" s="76" t="s">
+      <c r="F33" s="78"/>
+      <c r="H33" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="7">
@@ -3471,15 +3475,15 @@
       <c r="C34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="7">
@@ -3491,14 +3495,14 @@
       <c r="E35" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="71"/>
-      <c r="I35" s="72" t="s">
+      <c r="G35" s="78"/>
+      <c r="I35" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="72"/>
+      <c r="J35" s="74"/>
       <c r="K35" s="21" t="s">
         <v>147</v>
       </c>
@@ -3510,10 +3514,10 @@
       <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="82"/>
+      <c r="F36" s="96"/>
       <c r="G36" s="20" t="s">
         <v>149</v>
       </c>
@@ -3528,10 +3532,10 @@
       <c r="E37" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="82" t="s">
+      <c r="F37" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="82"/>
+      <c r="G37" s="96"/>
       <c r="V37" s="3" t="s">
         <v>152</v>
       </c>
@@ -3543,14 +3547,14 @@
       <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="71" t="s">
+      <c r="F38" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="71"/>
-      <c r="H38" s="83" t="s">
+      <c r="G38" s="78"/>
+      <c r="H38" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="I38" s="83"/>
+      <c r="I38" s="97"/>
     </row>
     <row r="39" spans="1:22">
       <c r="B39" s="7">
@@ -3562,10 +3566,10 @@
       <c r="D39" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="72"/>
+      <c r="G39" s="74"/>
       <c r="J39" s="14" t="s">
         <v>132</v>
       </c>
@@ -3589,17 +3593,17 @@
       <c r="E40" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="72" t="s">
+      <c r="F40" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="72"/>
+      <c r="G40" s="74"/>
       <c r="J40" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="74" t="s">
+      <c r="L40" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="74"/>
+      <c r="M40" s="87"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="3" t="s">
@@ -3614,25 +3618,25 @@
       <c r="E41" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="74" t="s">
+      <c r="F41" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="72" t="s">
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="J41" s="72"/>
-      <c r="N41" s="76" t="s">
+      <c r="J41" s="74"/>
+      <c r="N41" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="76"/>
-      <c r="S41" s="76"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="76"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="3" t="s">
@@ -3656,10 +3660,10 @@
       <c r="L42" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="N42" s="74" t="s">
+      <c r="N42" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="O42" s="74"/>
+      <c r="O42" s="87"/>
       <c r="R42" s="22" t="s">
         <v>169</v>
       </c>
@@ -3674,21 +3678,21 @@
       <c r="C43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="72" t="s">
+      <c r="F43" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="72"/>
+      <c r="G43" s="74"/>
       <c r="J43" s="10" t="s">
         <v>169</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L43" s="74" t="s">
+      <c r="L43" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
     </row>
     <row r="44" spans="1:22">
       <c r="B44" s="7">
@@ -3697,26 +3701,26 @@
       <c r="C44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="74" t="s">
+      <c r="G44" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="76" t="s">
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76" t="s">
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="88"/>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" s="7">
@@ -3728,14 +3732,14 @@
       <c r="J45" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K45" s="72" t="s">
+      <c r="K45" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="L45" s="72"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="76"/>
+      <c r="L45" s="74"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" s="7">
@@ -3747,23 +3751,23 @@
       <c r="F46" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="72" t="s">
+      <c r="H46" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="L46" s="74" t="s">
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="L46" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="76" t="s">
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="88"/>
     </row>
     <row r="47" spans="1:22">
       <c r="B47" s="7">
@@ -3772,24 +3776,24 @@
       <c r="C47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="71" t="s">
+      <c r="F47" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="71"/>
-      <c r="H47" s="72" t="s">
+      <c r="G47" s="78"/>
+      <c r="H47" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="L47" s="74" t="s">
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="L47" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="74"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="76"/>
+      <c r="M47" s="87"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="88"/>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" s="7">
@@ -3798,18 +3802,18 @@
       <c r="C48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="72" t="s">
+      <c r="F48" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="G48" s="72"/>
-      <c r="I48" s="72" t="s">
+      <c r="G48" s="74"/>
+      <c r="I48" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="72"/>
-      <c r="L48" s="74" t="s">
+      <c r="J48" s="74"/>
+      <c r="L48" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="M48" s="74"/>
+      <c r="M48" s="87"/>
     </row>
     <row r="49" spans="1:22">
       <c r="B49" s="7">
@@ -3821,22 +3825,22 @@
       <c r="D49" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="72" t="s">
+      <c r="F49" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="72"/>
-      <c r="H49" s="84" t="s">
+      <c r="G49" s="74"/>
+      <c r="H49" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="74" t="s">
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="74"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="87"/>
     </row>
     <row r="50" spans="1:22">
       <c r="B50" s="7">
@@ -3845,18 +3849,18 @@
       <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="71" t="s">
+      <c r="F50" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="89" t="s">
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="3" t="s">
@@ -3868,16 +3872,16 @@
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="71" t="s">
+      <c r="F51" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
     </row>
     <row r="52" spans="1:22">
       <c r="B52" s="7">
@@ -3886,16 +3890,16 @@
       <c r="C52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="71" t="s">
+      <c r="F52" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
+      <c r="L52" s="94"/>
+      <c r="M52" s="94"/>
     </row>
     <row r="53" spans="1:22">
       <c r="B53" s="7">
@@ -3904,10 +3908,10 @@
       <c r="C53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="71" t="s">
+      <c r="F53" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="71"/>
+      <c r="G53" s="78"/>
       <c r="H53" s="13" t="s">
         <v>4</v>
       </c>
@@ -3919,17 +3923,17 @@
       <c r="C54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="72" t="s">
+      <c r="F54" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="G54" s="72"/>
+      <c r="G54" s="74"/>
       <c r="J54" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L54" s="74" t="s">
+      <c r="L54" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="74"/>
+      <c r="M54" s="87"/>
     </row>
     <row r="55" spans="1:22">
       <c r="B55" s="7">
@@ -3938,17 +3942,17 @@
       <c r="C55" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="72" t="s">
+      <c r="F55" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="G55" s="72"/>
+      <c r="G55" s="74"/>
       <c r="J55" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L55" s="74" t="s">
+      <c r="L55" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="M55" s="74"/>
+      <c r="M55" s="87"/>
     </row>
     <row r="56" spans="1:22">
       <c r="B56" s="7">
@@ -3960,10 +3964,10 @@
       <c r="E56" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="72" t="s">
+      <c r="G56" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="H56" s="72"/>
+      <c r="H56" s="74"/>
       <c r="L56" s="22" t="s">
         <v>9</v>
       </c>
@@ -3975,14 +3979,14 @@
       <c r="C57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="74" t="s">
+      <c r="G57" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="87"/>
     </row>
     <row r="58" spans="1:22">
       <c r="B58" s="7">
@@ -3991,11 +3995,11 @@
       <c r="C58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="72" t="s">
+      <c r="F58" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
       <c r="J58" s="20" t="s">
         <v>191</v>
       </c>
@@ -4016,10 +4020,10 @@
       <c r="H59" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="J59" s="74" t="s">
+      <c r="J59" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="74"/>
+      <c r="K59" s="87"/>
     </row>
     <row r="60" spans="1:22">
       <c r="B60" s="7">
@@ -4028,19 +4032,19 @@
       <c r="C60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="72" t="s">
+      <c r="F60" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="72"/>
+      <c r="G60" s="74"/>
       <c r="I60" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K60" s="96" t="s">
+      <c r="K60" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="96"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="75"/>
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="7">
@@ -4055,12 +4059,12 @@
       <c r="G61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="96" t="s">
+      <c r="I61" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="96"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
     </row>
     <row r="62" spans="1:22">
       <c r="B62" s="7">
@@ -4069,11 +4073,11 @@
       <c r="C62" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="72" t="s">
+      <c r="F62" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
       <c r="J62" s="22" t="s">
         <v>9</v>
       </c>
@@ -4091,7 +4095,7 @@
       <c r="G63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="V63" s="91" t="s">
+      <c r="V63" s="83" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4102,12 +4106,12 @@
       <c r="C64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="93" t="s">
+      <c r="F64" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="V64" s="92"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="V64" s="84"/>
     </row>
     <row r="65" spans="2:22">
       <c r="B65" s="7">
@@ -4116,13 +4120,13 @@
       <c r="C65" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="93"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
       <c r="I65" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="V65" s="92"/>
+      <c r="V65" s="84"/>
     </row>
     <row r="66" spans="2:22">
       <c r="B66" s="7">
@@ -4134,14 +4138,14 @@
       <c r="F66" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="G66" s="72"/>
+      <c r="G66" s="74"/>
       <c r="H66" s="55" t="s">
         <v>205</v>
       </c>
       <c r="I66" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="J66" s="72"/>
+      <c r="J66" s="74"/>
     </row>
     <row r="67" spans="2:22">
       <c r="B67" s="7">
@@ -4153,11 +4157,11 @@
       <c r="F67" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="72"/>
+      <c r="G67" s="74"/>
       <c r="H67" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="I67" s="72"/>
+      <c r="I67" s="74"/>
       <c r="J67" s="55" t="s">
         <v>209</v>
       </c>
@@ -4178,15 +4182,15 @@
       <c r="F68" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="72"/>
+      <c r="G68" s="74"/>
       <c r="H68" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="I68" s="72"/>
-      <c r="J68" s="85" t="s">
+      <c r="I68" s="74"/>
+      <c r="J68" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="K68" s="75"/>
+      <c r="K68" s="90"/>
     </row>
     <row r="69" spans="2:22">
       <c r="B69" s="7">
@@ -4195,16 +4199,16 @@
       <c r="C69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="90" t="s">
+      <c r="F69" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="70"/>
-      <c r="M69" s="70"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="63"/>
     </row>
     <row r="70" spans="2:22">
       <c r="B70" s="7">
@@ -4216,7 +4220,7 @@
       <c r="F70" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="G70" s="72"/>
+      <c r="G70" s="74"/>
       <c r="H70" s="54" t="s">
         <v>216</v>
       </c>
@@ -4226,7 +4230,7 @@
       <c r="J70" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="K70" s="72"/>
+      <c r="K70" s="74"/>
     </row>
     <row r="71" spans="2:22">
       <c r="B71" s="7">
@@ -4238,9 +4242,9 @@
       <c r="F71" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
     </row>
     <row r="72" spans="2:22">
       <c r="B72" s="7">
@@ -4252,12 +4256,12 @@
       <c r="F72" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="G72" s="72"/>
+      <c r="G72" s="74"/>
       <c r="H72" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
     </row>
     <row r="73" spans="2:22">
       <c r="B73" s="7">
@@ -4269,11 +4273,11 @@
       <c r="F73" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="G73" s="72"/>
+      <c r="G73" s="74"/>
       <c r="H73" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="I73" s="72"/>
+      <c r="I73" s="74"/>
       <c r="J73" s="55" t="s">
         <v>218</v>
       </c>
@@ -4285,11 +4289,11 @@
       <c r="C74" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
     </row>
     <row r="75" spans="2:22">
       <c r="B75" s="7">
@@ -4301,12 +4305,12 @@
       <c r="F75" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="G75" s="72"/>
+      <c r="G75" s="74"/>
       <c r="H75" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
     </row>
     <row r="76" spans="2:22">
       <c r="B76" s="7">
@@ -4319,12 +4323,12 @@
       <c r="F76" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="94" t="s">
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="J76" s="74"/>
+      <c r="J76" s="87"/>
     </row>
     <row r="77" spans="2:22">
       <c r="B77" s="7">
@@ -4337,18 +4341,18 @@
       <c r="F77" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="G77" s="72"/>
+      <c r="G77" s="74"/>
       <c r="H77" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="I77" s="72"/>
+      <c r="I77" s="74"/>
       <c r="J77" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="K77" s="71" t="s">
+      <c r="K77" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="L77" s="71"/>
+      <c r="L77" s="78"/>
     </row>
     <row r="78" spans="2:22">
       <c r="B78" s="7">
@@ -4361,7 +4365,7 @@
       <c r="F78" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="G78" s="72"/>
+      <c r="G78" s="74"/>
       <c r="H78" s="56" t="s">
         <v>241</v>
       </c>
@@ -4380,7 +4384,7 @@
       <c r="G79" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="H79" s="72"/>
+      <c r="H79" s="74"/>
       <c r="I79" s="26" t="s">
         <v>243</v>
       </c>
@@ -4398,7 +4402,7 @@
       <c r="F80" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="G80" s="72"/>
+      <c r="G80" s="74"/>
       <c r="H80" s="26" t="s">
         <v>243</v>
       </c>
@@ -4416,14 +4420,14 @@
       <c r="F81" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="G81" s="72"/>
-      <c r="H81" s="90" t="s">
+      <c r="G81" s="74"/>
+      <c r="H81" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="I81" s="70"/>
-      <c r="J81" s="70"/>
-      <c r="K81" s="70"/>
-      <c r="L81" s="70"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="63"/>
+      <c r="L81" s="63"/>
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="7">
@@ -4435,12 +4439,12 @@
       <c r="D82" s="54">
         <v>39</v>
       </c>
-      <c r="F82" s="97" t="s">
+      <c r="F82" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
       <c r="J82" s="55" t="s">
         <v>250</v>
       </c>
@@ -4455,12 +4459,12 @@
       <c r="D83" s="3">
         <v>38</v>
       </c>
-      <c r="F83" s="98" t="s">
+      <c r="F83" s="79" t="s">
         <v>251</v>
       </c>
-      <c r="G83" s="99"/>
-      <c r="H83" s="99"/>
-      <c r="I83" s="100" t="s">
+      <c r="G83" s="80"/>
+      <c r="H83" s="80"/>
+      <c r="I83" s="59" t="s">
         <v>252</v>
       </c>
       <c r="J83" s="58" t="s">
@@ -4470,7 +4474,7 @@
         <v>254</v>
       </c>
       <c r="L83" s="73"/>
-      <c r="M83" s="101" t="s">
+      <c r="M83" s="60" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4487,13 +4491,13 @@
       <c r="F84" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="72"/>
-      <c r="K84" s="72"/>
-      <c r="L84" s="72"/>
-      <c r="M84" s="72"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
     </row>
     <row r="85" spans="2:13">
       <c r="B85" s="7">
@@ -4505,15 +4509,15 @@
       <c r="D85" s="3">
         <v>36</v>
       </c>
-      <c r="F85" s="102" t="s">
+      <c r="F85" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="G85" s="103"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="72"/>
-      <c r="J85" s="72"/>
-      <c r="K85" s="72"/>
-      <c r="L85" s="72"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="74"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="74"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="74"/>
     </row>
     <row r="86" spans="2:13">
       <c r="B86" s="7">
@@ -4522,6 +4526,16 @@
       <c r="C86" s="54" t="s">
         <v>230</v>
       </c>
+      <c r="F86" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="G86" s="78"/>
+      <c r="H86" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="I86" s="78"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="78"/>
     </row>
     <row r="87" spans="2:13">
       <c r="B87" s="7">
@@ -4548,66 +4562,109 @@
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="90" t="s">
+      <c r="B103" s="76" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="70"/>
+      <c r="B104" s="63"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="70"/>
+      <c r="B105" s="63"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="70"/>
+      <c r="B106" s="63"/>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="70"/>
+      <c r="B107" s="63"/>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="70"/>
+      <c r="B108" s="63"/>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="70"/>
+      <c r="B109" s="63"/>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="70"/>
+      <c r="B110" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="F84:M84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:L85"/>
-    <mergeCell ref="V63:V65"/>
-    <mergeCell ref="F64:H65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="F69:M69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="K77:L77"/>
+  <mergeCells count="133">
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:R15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B3:O4"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="N41:U41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:O49"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:P44"/>
@@ -4632,80 +4689,39 @@
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="I48:J48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:O49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="N41:U41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B3:O4"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:R15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="V63:V65"/>
+    <mergeCell ref="F64:H65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="F69:M69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="F84:M84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:L85"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="K77:L77"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4742,38 +4758,38 @@
   <sheetData>
     <row r="3" spans="2:15" hidden="1"/>
     <row r="4" spans="2:15" ht="25" customHeight="1">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70" t="s">
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
     </row>
     <row r="5" spans="2:15" ht="36" customHeight="1">
-      <c r="B5" s="95"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="70"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E407A5-FB1A-2D40-AD74-6C8EF18EA899}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED3506A-D521-6148-A48D-B21408E5DEB7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="260">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -855,6 +855,10 @@
   </si>
   <si>
     <t>言语</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加了模考+看了错题+复习了言语数量和定义</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2640,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4544,6 +4548,14 @@
       <c r="C87" s="54" t="s">
         <v>231</v>
       </c>
+      <c r="F87" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="74"/>
+      <c r="K87" s="74"/>
     </row>
     <row r="88" spans="2:13">
       <c r="B88" s="7">
@@ -4588,9 +4600,10 @@
       <c r="B110" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="133">
+  <mergeCells count="134">
     <mergeCell ref="F86:G86"/>
     <mergeCell ref="H86:K86"/>
+    <mergeCell ref="F87:K87"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="F70:G70"/>

--- a/日程.xlsx
+++ b/日程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjie/Desktop/wudoumi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED3506A-D521-6148-A48D-B21408E5DEB7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F0C050-DD61-0E4C-8074-BFC7A6644B00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="15020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="262">
   <si>
     <t>别再自欺欺人了，成熟点。学习是治愈焦虑的良药。专注，高效。</t>
   </si>
@@ -859,6 +859,14 @@
   </si>
   <si>
     <t>参加了模考+看了错题+复习了言语数量和定义</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了4道申论摘抄+2014国考行测＋纠错+30道资料分析+纠错</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省考</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1305,41 +1313,47 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1347,18 +1361,69 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1371,64 +1436,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1738,46 +1746,46 @@
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1"/>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
       <c r="P3" s="41" t="s">
         <v>3</v>
       </c>
@@ -1792,20 +1800,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
       <c r="P4" s="44" t="s">
         <v>7</v>
       </c>
@@ -1896,16 +1904,16 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="71" t="s">
+      <c r="N8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="71"/>
+      <c r="O8" s="64"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
@@ -1939,7 +1947,7 @@
       <c r="S9" s="36"/>
       <c r="T9" s="36"/>
       <c r="U9" s="49"/>
-      <c r="V9" s="62" t="s">
+      <c r="V9" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1970,7 +1978,7 @@
       <c r="S10" s="36"/>
       <c r="T10" s="36"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="62"/>
+      <c r="V10" s="71"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="35">
@@ -1981,20 +1989,20 @@
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
       <c r="M11" s="45"/>
-      <c r="N11" s="67" t="s">
+      <c r="N11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="67"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="39" t="s">
@@ -2014,24 +2022,24 @@
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="36"/>
       <c r="K12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="66" t="s">
+      <c r="M12" s="67"/>
+      <c r="N12" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="66"/>
+      <c r="O12" s="68"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
@@ -2060,16 +2068,16 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="67" t="s">
+      <c r="K13" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="66" t="s">
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
       <c r="S13" s="41" t="s">
@@ -2088,20 +2096,20 @@
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
       <c r="J14" s="36"/>
       <c r="K14" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="66"/>
+      <c r="M14" s="68"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
@@ -2170,7 +2178,7 @@
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="51"/>
-      <c r="V16" s="62" t="s">
+      <c r="V16" s="71" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2199,7 +2207,7 @@
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="51"/>
-      <c r="V17" s="62"/>
+      <c r="V17" s="71"/>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="35">
@@ -2210,12 +2218,12 @@
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="37"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
@@ -2252,13 +2260,13 @@
       </c>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
       <c r="P19" s="40" t="s">
         <v>48</v>
       </c>
@@ -2284,17 +2292,17 @@
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
       <c r="M20" s="36"/>
       <c r="N20" s="44" t="s">
         <v>54</v>
@@ -2319,20 +2327,20 @@
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64" t="s">
+      <c r="K21" s="69"/>
+      <c r="L21" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="64"/>
+      <c r="M21" s="69"/>
       <c r="N21" s="36"/>
       <c r="O21" s="40" t="s">
         <v>59</v>
@@ -2355,24 +2363,24 @@
         <v>13</v>
       </c>
       <c r="D22" s="36"/>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="61" t="s">
+      <c r="O22" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="61"/>
+      <c r="P22" s="67"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
@@ -2387,10 +2395,10 @@
       <c r="C23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="61"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
@@ -2423,17 +2431,17 @@
         <v>23</v>
       </c>
       <c r="E24" s="36"/>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
@@ -2459,28 +2467,28 @@
       <c r="E25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="65"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="43" t="s">
         <v>67</v>
       </c>
       <c r="K25" s="36"/>
-      <c r="L25" s="64" t="s">
+      <c r="L25" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="64" t="s">
+      <c r="R25" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="64"/>
+      <c r="S25" s="69"/>
       <c r="T25" s="36"/>
       <c r="U25" s="49"/>
       <c r="V25" s="49"/>
@@ -2492,22 +2500,22 @@
       <c r="C26" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65" t="s">
+      <c r="E26" s="70"/>
+      <c r="F26" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="65"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="65" t="s">
+      <c r="L26" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="65"/>
+      <c r="M26" s="70"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
@@ -2531,28 +2539,28 @@
         <v>5</v>
       </c>
       <c r="E27" s="36"/>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="61" t="s">
+      <c r="I27" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61" t="s">
+      <c r="J27" s="67"/>
+      <c r="K27" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="61"/>
+      <c r="L27" s="67"/>
       <c r="M27" s="46"/>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="61" t="s">
+      <c r="R27" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="S27" s="61"/>
+      <c r="S27" s="67"/>
       <c r="T27" s="36"/>
       <c r="U27" s="49"/>
       <c r="V27" s="49"/>
@@ -2568,18 +2576,18 @@
         <v>78</v>
       </c>
       <c r="E28" s="36"/>
-      <c r="F28" s="61" t="s">
+      <c r="F28" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="61"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="61" t="s">
+      <c r="K28" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
@@ -2594,30 +2602,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="J22:M22"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="V9:V10"/>
@@ -2634,6 +2618,30 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2644,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2659,68 +2667,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25" customHeight="1">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
     </row>
     <row r="2" spans="1:22" ht="25" customHeight="1">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
       <c r="P3" s="21" t="s">
         <v>3</v>
       </c>
@@ -2735,20 +2743,20 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
       <c r="P4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2837,11 +2845,11 @@
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2858,7 +2866,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="91" t="s">
+      <c r="V8" s="90" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2870,28 +2878,28 @@
         <v>16</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="93" t="s">
+      <c r="F9" s="83"/>
+      <c r="G9" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="92"/>
+      <c r="V9" s="91"/>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="7">
@@ -2907,22 +2915,22 @@
       <c r="F10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="92"/>
+      <c r="V10" s="91"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="7">
@@ -2932,10 +2940,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2951,7 +2959,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="92"/>
+      <c r="V11" s="91"/>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="7">
@@ -2961,18 +2969,18 @@
         <v>24</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="74"/>
+      <c r="L12" s="76"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -2982,7 +2990,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="92"/>
+      <c r="V12" s="91"/>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="7">
@@ -2997,17 +3005,17 @@
       <c r="E13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="102"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="K13" s="102" t="s">
+      <c r="K13" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -3025,10 +3033,10 @@
       <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="87"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="8"/>
       <c r="G14" s="18" t="s">
         <v>23</v>
@@ -3038,11 +3046,11 @@
       <c r="J14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="90" t="s">
+      <c r="K14" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -3062,27 +3070,27 @@
       <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="88"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="88" t="s">
+      <c r="H15" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
       <c r="S15" s="19" t="s">
         <v>100</v>
       </c>
@@ -3098,12 +3106,12 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="1"/>
       <c r="K16" s="11" t="s">
         <v>102</v>
@@ -3132,20 +3140,20 @@
         <v>18</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="87"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="88" t="s">
+      <c r="H17" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -3164,14 +3172,14 @@
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="J18" s="74" t="s">
+      <c r="F18" s="73"/>
+      <c r="J18" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="74"/>
+      <c r="K18" s="76"/>
       <c r="M18" s="21" t="s">
         <v>109</v>
       </c>
@@ -3183,17 +3191,17 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="78"/>
+      <c r="F19" s="73"/>
       <c r="J19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="74"/>
+      <c r="L19" s="76"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="7">
@@ -3202,11 +3210,11 @@
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
       <c r="J20" s="18" t="s">
         <v>26</v>
       </c>
@@ -3218,13 +3226,13 @@
       <c r="C21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="7">
@@ -3233,16 +3241,16 @@
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="102" t="s">
+      <c r="F22" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="78" t="s">
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="7">
@@ -3251,21 +3259,21 @@
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="88" t="s">
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="7">
@@ -3274,19 +3282,19 @@
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="7">
@@ -3301,11 +3309,11 @@
       <c r="F25" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="74" t="s">
+      <c r="G25" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="7">
@@ -3317,14 +3325,14 @@
       <c r="E26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="I26" s="74" t="s">
+      <c r="G26" s="76"/>
+      <c r="I26" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="74"/>
+      <c r="J26" s="76"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="7">
@@ -3333,27 +3341,27 @@
       <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="74"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="20" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="88" t="s">
+      <c r="I27" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="7">
@@ -3368,10 +3376,10 @@
       <c r="F28" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="87" t="s">
+      <c r="G28" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="87"/>
+      <c r="H28" s="77"/>
     </row>
     <row r="29" spans="2:22" ht="18" customHeight="1">
       <c r="B29" s="7">
@@ -3380,17 +3388,17 @@
       <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="74"/>
+      <c r="F29" s="76"/>
       <c r="J29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="78" t="s">
+      <c r="K29" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="L29" s="78"/>
+      <c r="L29" s="73"/>
       <c r="V29" s="3" t="s">
         <v>134</v>
       </c>
@@ -3405,10 +3413,10 @@
       <c r="E30" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="74" t="s">
+      <c r="G30" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="74"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="14" t="s">
         <v>132</v>
       </c>
@@ -3423,17 +3431,17 @@
       <c r="E31" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="88" t="s">
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
       <c r="V31" s="31" t="s">
         <v>140</v>
       </c>
@@ -3445,14 +3453,14 @@
       <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="E32" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74" t="s">
+      <c r="F32" s="76"/>
+      <c r="G32" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="74"/>
+      <c r="H32" s="76"/>
     </row>
     <row r="33" spans="1:22">
       <c r="B33" s="7">
@@ -3461,16 +3469,16 @@
       <c r="C33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="H33" s="88" t="s">
+      <c r="F33" s="73"/>
+      <c r="H33" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
     </row>
     <row r="34" spans="1:22">
       <c r="B34" s="7">
@@ -3479,15 +3487,15 @@
       <c r="C34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
     </row>
     <row r="35" spans="1:22">
       <c r="B35" s="7">
@@ -3499,14 +3507,14 @@
       <c r="E35" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="78" t="s">
+      <c r="F35" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="78"/>
-      <c r="I35" s="74" t="s">
+      <c r="G35" s="73"/>
+      <c r="I35" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="74"/>
+      <c r="J35" s="76"/>
       <c r="K35" s="21" t="s">
         <v>147</v>
       </c>
@@ -3518,10 +3526,10 @@
       <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="96" t="s">
+      <c r="E36" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="96"/>
+      <c r="F36" s="85"/>
       <c r="G36" s="20" t="s">
         <v>149</v>
       </c>
@@ -3536,10 +3544,10 @@
       <c r="E37" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="96" t="s">
+      <c r="F37" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="96"/>
+      <c r="G37" s="85"/>
       <c r="V37" s="3" t="s">
         <v>152</v>
       </c>
@@ -3551,14 +3559,14 @@
       <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="78" t="s">
+      <c r="F38" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="G38" s="78"/>
-      <c r="H38" s="97" t="s">
+      <c r="G38" s="73"/>
+      <c r="H38" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="I38" s="97"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="1:22">
       <c r="B39" s="7">
@@ -3570,10 +3578,10 @@
       <c r="D39" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="74" t="s">
+      <c r="F39" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="74"/>
+      <c r="G39" s="76"/>
       <c r="J39" s="14" t="s">
         <v>132</v>
       </c>
@@ -3597,17 +3605,17 @@
       <c r="E40" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="74" t="s">
+      <c r="F40" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="74"/>
+      <c r="G40" s="76"/>
       <c r="J40" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="87" t="s">
+      <c r="L40" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="87"/>
+      <c r="M40" s="77"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="3" t="s">
@@ -3622,25 +3630,25 @@
       <c r="E41" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="87" t="s">
+      <c r="F41" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="74" t="s">
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="J41" s="74"/>
-      <c r="N41" s="88" t="s">
+      <c r="J41" s="76"/>
+      <c r="N41" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="79"/>
+      <c r="U41" s="79"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="3" t="s">
@@ -3664,10 +3672,10 @@
       <c r="L42" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="N42" s="87" t="s">
+      <c r="N42" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="O42" s="87"/>
+      <c r="O42" s="77"/>
       <c r="R42" s="22" t="s">
         <v>169</v>
       </c>
@@ -3682,21 +3690,21 @@
       <c r="C43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="74" t="s">
+      <c r="F43" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="74"/>
+      <c r="G43" s="76"/>
       <c r="J43" s="10" t="s">
         <v>169</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L43" s="87" t="s">
+      <c r="L43" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
     </row>
     <row r="44" spans="1:22">
       <c r="B44" s="7">
@@ -3705,26 +3713,26 @@
       <c r="C44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="87" t="s">
+      <c r="G44" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="88" t="s">
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88" t="s">
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
+      <c r="R44" s="79"/>
+      <c r="S44" s="79"/>
+      <c r="T44" s="79"/>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" s="7">
@@ -3736,14 +3744,14 @@
       <c r="J45" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K45" s="74" t="s">
+      <c r="K45" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="L45" s="74"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
+      <c r="L45" s="76"/>
+      <c r="Q45" s="79"/>
+      <c r="R45" s="79"/>
+      <c r="S45" s="79"/>
+      <c r="T45" s="79"/>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" s="7">
@@ -3755,23 +3763,23 @@
       <c r="F46" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="74" t="s">
+      <c r="H46" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="L46" s="87" t="s">
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="L46" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="88" t="s">
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="79"/>
+      <c r="R46" s="79"/>
+      <c r="S46" s="79"/>
     </row>
     <row r="47" spans="1:22">
       <c r="B47" s="7">
@@ -3780,24 +3788,24 @@
       <c r="C47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="78" t="s">
+      <c r="F47" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="78"/>
-      <c r="H47" s="74" t="s">
+      <c r="G47" s="73"/>
+      <c r="H47" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="L47" s="87" t="s">
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="L47" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="87"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
+      <c r="M47" s="77"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
+      <c r="Q47" s="79"/>
+      <c r="R47" s="79"/>
+      <c r="S47" s="79"/>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" s="7">
@@ -3806,18 +3814,18 @@
       <c r="C48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="74" t="s">
+      <c r="F48" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="G48" s="74"/>
-      <c r="I48" s="74" t="s">
+      <c r="G48" s="76"/>
+      <c r="I48" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="74"/>
-      <c r="L48" s="87" t="s">
+      <c r="J48" s="76"/>
+      <c r="L48" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="M48" s="87"/>
+      <c r="M48" s="77"/>
     </row>
     <row r="49" spans="1:22">
       <c r="B49" s="7">
@@ -3829,22 +3837,22 @@
       <c r="D49" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="G49" s="74"/>
-      <c r="H49" s="95" t="s">
+      <c r="G49" s="76"/>
+      <c r="H49" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="87" t="s">
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
     </row>
     <row r="50" spans="1:22">
       <c r="B50" s="7">
@@ -3853,18 +3861,18 @@
       <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="78" t="s">
+      <c r="F50" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="94" t="s">
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="93"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="3" t="s">
@@ -3876,16 +3884,16 @@
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="78" t="s">
+      <c r="F51" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
     </row>
     <row r="52" spans="1:22">
       <c r="B52" s="7">
@@ -3894,16 +3902,16 @@
       <c r="C52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="78" t="s">
+      <c r="F52" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="93"/>
     </row>
     <row r="53" spans="1:22">
       <c r="B53" s="7">
@@ -3912,10 +3920,10 @@
       <c r="C53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="78" t="s">
+      <c r="F53" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="78"/>
+      <c r="G53" s="73"/>
       <c r="H53" s="13" t="s">
         <v>4</v>
       </c>
@@ -3927,17 +3935,17 @@
       <c r="C54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="74" t="s">
+      <c r="F54" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="G54" s="74"/>
+      <c r="G54" s="76"/>
       <c r="J54" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L54" s="87" t="s">
+      <c r="L54" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="87"/>
+      <c r="M54" s="77"/>
     </row>
     <row r="55" spans="1:22">
       <c r="B55" s="7">
@@ -3946,17 +3954,17 @@
       <c r="C55" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="74" t="s">
+      <c r="F55" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="G55" s="74"/>
+      <c r="G55" s="76"/>
       <c r="J55" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L55" s="87" t="s">
+      <c r="L55" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="M55" s="87"/>
+      <c r="M55" s="77"/>
     </row>
     <row r="56" spans="1:22">
       <c r="B56" s="7">
@@ -3968,10 +3976,10 @@
       <c r="E56" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G56" s="74" t="s">
+      <c r="G56" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="H56" s="74"/>
+      <c r="H56" s="76"/>
       <c r="L56" s="22" t="s">
         <v>9</v>
       </c>
@@ -3983,14 +3991,14 @@
       <c r="C57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="87" t="s">
+      <c r="G57" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="87"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="77"/>
     </row>
     <row r="58" spans="1:22">
       <c r="B58" s="7">
@@ -3999,11 +4007,11 @@
       <c r="C58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="74" t="s">
+      <c r="F58" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
       <c r="J58" s="20" t="s">
         <v>191</v>
       </c>
@@ -4024,10 +4032,10 @@
       <c r="H59" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="J59" s="87" t="s">
+      <c r="J59" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="87"/>
+      <c r="K59" s="77"/>
     </row>
     <row r="60" spans="1:22">
       <c r="B60" s="7">
@@ -4036,19 +4044,19 @@
       <c r="C60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="74" t="s">
+      <c r="F60" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="G60" s="74"/>
+      <c r="G60" s="76"/>
       <c r="I60" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K60" s="75" t="s">
+      <c r="K60" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="75"/>
+      <c r="L60" s="87"/>
+      <c r="M60" s="87"/>
+      <c r="N60" s="87"/>
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="7">
@@ -4063,12 +4071,12 @@
       <c r="G61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="75" t="s">
+      <c r="I61" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="87"/>
     </row>
     <row r="62" spans="1:22">
       <c r="B62" s="7">
@@ -4077,11 +4085,11 @@
       <c r="C62" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F62" s="74" t="s">
+      <c r="F62" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
       <c r="J62" s="22" t="s">
         <v>9</v>
       </c>
@@ -4099,7 +4107,7 @@
       <c r="G63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="V63" s="83" t="s">
+      <c r="V63" s="94" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4110,12 +4118,12 @@
       <c r="C64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="85" t="s">
+      <c r="F64" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="V64" s="84"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="V64" s="95"/>
     </row>
     <row r="65" spans="2:22">
       <c r="B65" s="7">
@@ -4124,13 +4132,13 @@
       <c r="C65" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="85"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
       <c r="I65" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="V65" s="84"/>
+      <c r="V65" s="95"/>
     </row>
     <row r="66" spans="2:22">
       <c r="B66" s="7">
@@ -4139,17 +4147,17 @@
       <c r="C66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="73" t="s">
+      <c r="F66" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="G66" s="74"/>
+      <c r="G66" s="76"/>
       <c r="H66" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I66" s="73" t="s">
+      <c r="I66" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="J66" s="74"/>
+      <c r="J66" s="76"/>
     </row>
     <row r="67" spans="2:22">
       <c r="B67" s="7">
@@ -4158,14 +4166,14 @@
       <c r="C67" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="73" t="s">
+      <c r="F67" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="74"/>
-      <c r="H67" s="73" t="s">
+      <c r="G67" s="76"/>
+      <c r="H67" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="I67" s="74"/>
+      <c r="I67" s="76"/>
       <c r="J67" s="55" t="s">
         <v>209</v>
       </c>
@@ -4183,18 +4191,18 @@
       <c r="C68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="73" t="s">
+      <c r="F68" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="74"/>
-      <c r="H68" s="73" t="s">
+      <c r="G68" s="76"/>
+      <c r="H68" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="I68" s="74"/>
+      <c r="I68" s="76"/>
       <c r="J68" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="K68" s="90"/>
+      <c r="K68" s="78"/>
     </row>
     <row r="69" spans="2:22">
       <c r="B69" s="7">
@@ -4203,16 +4211,16 @@
       <c r="C69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="76" t="s">
+      <c r="F69" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="72"/>
+      <c r="M69" s="72"/>
     </row>
     <row r="70" spans="2:22">
       <c r="B70" s="7">
@@ -4221,20 +4229,20 @@
       <c r="C70" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="73" t="s">
+      <c r="F70" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="G70" s="74"/>
+      <c r="G70" s="76"/>
       <c r="H70" s="54" t="s">
         <v>216</v>
       </c>
       <c r="I70" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="J70" s="73" t="s">
+      <c r="J70" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="K70" s="74"/>
+      <c r="K70" s="76"/>
     </row>
     <row r="71" spans="2:22">
       <c r="B71" s="7">
@@ -4243,12 +4251,12 @@
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="73" t="s">
+      <c r="F71" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="G71" s="74"/>
-      <c r="H71" s="74"/>
-      <c r="I71" s="74"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="76"/>
     </row>
     <row r="72" spans="2:22">
       <c r="B72" s="7">
@@ -4257,15 +4265,15 @@
       <c r="C72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="73" t="s">
+      <c r="F72" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="G72" s="74"/>
-      <c r="H72" s="73" t="s">
+      <c r="G72" s="76"/>
+      <c r="H72" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="76"/>
     </row>
     <row r="73" spans="2:22">
       <c r="B73" s="7">
@@ -4274,14 +4282,14 @@
       <c r="C73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="73" t="s">
+      <c r="F73" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="G73" s="74"/>
-      <c r="H73" s="73" t="s">
+      <c r="G73" s="76"/>
+      <c r="H73" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="I73" s="74"/>
+      <c r="I73" s="76"/>
       <c r="J73" s="55" t="s">
         <v>218</v>
       </c>
@@ -4293,11 +4301,11 @@
       <c r="C74" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="F74" s="74"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="74"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="76"/>
+      <c r="I74" s="76"/>
+      <c r="J74" s="76"/>
     </row>
     <row r="75" spans="2:22">
       <c r="B75" s="7">
@@ -4306,15 +4314,15 @@
       <c r="C75" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="F75" s="73" t="s">
+      <c r="F75" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="G75" s="74"/>
-      <c r="H75" s="73" t="s">
+      <c r="G75" s="76"/>
+      <c r="H75" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="I75" s="74"/>
-      <c r="J75" s="74"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="76"/>
     </row>
     <row r="76" spans="2:22">
       <c r="B76" s="7">
@@ -4324,15 +4332,15 @@
         <v>227</v>
       </c>
       <c r="D76" s="54"/>
-      <c r="F76" s="73" t="s">
+      <c r="F76" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="86" t="s">
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="J76" s="87"/>
+      <c r="J76" s="77"/>
     </row>
     <row r="77" spans="2:22">
       <c r="B77" s="7">
@@ -4342,21 +4350,21 @@
         <v>228</v>
       </c>
       <c r="D77" s="54"/>
-      <c r="F77" s="73" t="s">
+      <c r="F77" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="G77" s="74"/>
-      <c r="H77" s="73" t="s">
+      <c r="G77" s="76"/>
+      <c r="H77" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="I77" s="74"/>
+      <c r="I77" s="76"/>
       <c r="J77" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="K77" s="78" t="s">
+      <c r="K77" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="L77" s="78"/>
+      <c r="L77" s="73"/